--- a/data/02_intermediate/cleaned_James_Delleck_songs.xlsx
+++ b/data/02_intermediate/cleaned_James_Delleck_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maman, mes blessures sinfectent Me fissurant comme une tasse en faïence Face à ta surdité, la lucidité est la pire des souffrances Au propre comme au figuré tu ne mas jamais tenu la main Pourtant je ne suis quun petit garçon déguisé en indien Dans vos tempêtes de sable, je maccable de stigmates au ciseau Qui cicatrisent par la sècheresse de tes mots En vain, jai cherché une porte dans la prison du temps Mais la vie est bien longue, dans la déprime, je métends Souvent ma tête heurte les murs et me marque le front Sur chaque écorchure, le crépit me touche plus profond Prisonnier de cette danse à laquelle je ne comprends pas les pas Je touche les limites pour sentir que je suis encore là À force davoir le nez collé dans ta merde, tu perds lodorat Tu ne peux plus me sentir, ceci explique-til cela ? Maman je te hais, te crache et te renie sans clémence Puisquen bon ado, je dis toujours le contraire de ce que je pense ! Malgré la boue qui samoncelle sur le sol, je ne laisse pas de trace Et monte le volume du poste quand toi et ton mec se tabassent Jen ai assez de menvelopper dans des supplices Assez dêtre invisible à tes yeux, assez dêtre aussi lisse Je glisse, sans rien pouvoir changer, si triste, avec tous ces manques à combler Tu mas eu trop tôt, cest ce que tu mas rabâché Cest pourquoi mes quinze ans mont déjà semblé une éternité Je nai plus la force de voir que je ne représente rien Dispersé dans le silence, je veux partir loin, encore un effort M'man, je ten ai voulu toute ma vie, jen souffrirai toute ma mort Je mérige en fixant en bas la voiture stationnée Plus rien ne me retient, jai trop peur de vous ressembler Ma fugue est une chute du 5ème Maman, pourquoi nas-tu jamais su me dire je taime You might also like</t>
+          <t>Maman, mes blessures sinfectent Me fissurant comme une tasse en faïence Face à ta surdité, la lucidité est la pire des souffrances Au propre comme au figuré tu ne mas jamais tenu la main Pourtant je ne suis quun petit garçon déguisé en indien Dans vos tempêtes de sable, je maccable de stigmates au ciseau Qui cicatrisent par la sècheresse de tes mots En vain, jai cherché une porte dans la prison du temps Mais la vie est bien longue, dans la déprime, je métends Souvent ma tête heurte les murs et me marque le front Sur chaque écorchure, le crépit me touche plus profond Prisonnier de cette danse à laquelle je ne comprends pas les pas Je touche les limites pour sentir que je suis encore là À force davoir le nez collé dans ta merde, tu perds lodorat Tu ne peux plus me sentir, ceci explique-til cela ? Maman je te hais, te crache et te renie sans clémence Puisquen bon ado, je dis toujours le contraire de ce que je pense ! Malgré la boue qui samoncelle sur le sol, je ne laisse pas de trace Et monte le volume du poste quand toi et ton mec se tabassent Jen ai assez de menvelopper dans des supplices Assez dêtre invisible à tes yeux, assez dêtre aussi lisse Je glisse, sans rien pouvoir changer, si triste, avec tous ces manques à combler Tu mas eu trop tôt, cest ce que tu mas rabâché Cest pourquoi mes quinze ans mont déjà semblé une éternité Je nai plus la force de voir que je ne représente rien Dispersé dans le silence, je veux partir loin, encore un effort M'man, je ten ai voulu toute ma vie, jen souffrirai toute ma mort Je mérige en fixant en bas la voiture stationnée Plus rien ne me retient, jai trop peur de vous ressembler Ma fugue est une chute du 5ème Maman, pourquoi nas-tu jamais su me dire je taime</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bonjour Numéro 7-4-3-e-v-e Il est sept heures, météo Couvert, taux de pollution, orange Rayons UV nocifs Bonne journée! Faut s'aérer Faut qu'on s'aère Je ressens que je me transforme en un être informe Mi-homme, mi-abonné pour vivre leurs normes Ils fabriquent toujours plus de dingues que de psychologues Si je suis poli dans le bus, on me traite de scientologue Les anxieux prennent moins de repos, oui plus d'anxiolytiques Remède d'un peuple aux grandes éthiques, tu vois Et les parents gueulent sur des Brian et des Cricket Les ploucs se reproduisent mieux que les acariens sur les moquettes Pendant que les mômes énervent leurs Pokémon Nous on attend la retraite pour profiter de ceux qu'on aime J'entends dire que le progrès sera là plus tôt Putain, on est loin d'une feuille qui ride la surface de l'eau Faut que je laisse les traces et les frasques des hommes Noyées sous les aléas d'notre ère Faut qu'j'm'aère Faut s'aérer Faut qu'j'lâche l'angoisse et le stress de nos âmes Aveuglé par des strates de lumière Faut qu'j'm'aère Faut s'aérer You might also like Tous être en pole sans jouer la bonne course Avec pour chacun son rôle et éviter d'être sans ressource Dans nos villes, on s'invente des poses pathétiques Dans des carrés de verdure aux arbustes symétriques Et on s'croise sans s'voir pendant que d'autres boivent pour croire En s'disant défonce du soir, espoir La désespérance noircit le regard des filles au mascara trop marqué Parquées dans leur survèt de marque On empoisonne nos fleuves avec autant de scrupules Qu'un tanker qui dégaze dans le crépuscule Alors j'm'aère par la fenêtre mais j'vois l'béton J'crois qu'j'suis sur la liste bannie des urbanistes butés Même dans mon sofa ça décolle quand j'zappe Vu qu'la pensée unique s'étale sur mon écran plat Convertir la raison peut sembler insensé Mais méfiance, 2001, déjà l'avenir a commencé Faut que je laisse les traces et les frasques des hommes Noyées sous les aléas d'notre ère Faut qu'j'm'aère Faut s'aérer Faut qu'j'lâche l'angoisse et le stress de nos âmes Aveuglé par des strates de lumière Faut qu'j'm'aère Faut s'aérer</t>
+          <t>Bonjour Numéro 7-4-3-e-v-e Il est sept heures, météo Couvert, taux de pollution, orange Rayons UV nocifs Bonne journée! Faut s'aérer Faut qu'on s'aère Je ressens que je me transforme en un être informe Mi-homme, mi-abonné pour vivre leurs normes Ils fabriquent toujours plus de dingues que de psychologues Si je suis poli dans le bus, on me traite de scientologue Les anxieux prennent moins de repos, oui plus d'anxiolytiques Remède d'un peuple aux grandes éthiques, tu vois Et les parents gueulent sur des Brian et des Cricket Les ploucs se reproduisent mieux que les acariens sur les moquettes Pendant que les mômes énervent leurs Pokémon Nous on attend la retraite pour profiter de ceux qu'on aime J'entends dire que le progrès sera là plus tôt Putain, on est loin d'une feuille qui ride la surface de l'eau Faut que je laisse les traces et les frasques des hommes Noyées sous les aléas d'notre ère Faut qu'j'm'aère Faut s'aérer Faut qu'j'lâche l'angoisse et le stress de nos âmes Aveuglé par des strates de lumière Faut qu'j'm'aère Faut s'aérer Tous être en pole sans jouer la bonne course Avec pour chacun son rôle et éviter d'être sans ressource Dans nos villes, on s'invente des poses pathétiques Dans des carrés de verdure aux arbustes symétriques Et on s'croise sans s'voir pendant que d'autres boivent pour croire En s'disant défonce du soir, espoir La désespérance noircit le regard des filles au mascara trop marqué Parquées dans leur survèt de marque On empoisonne nos fleuves avec autant de scrupules Qu'un tanker qui dégaze dans le crépuscule Alors j'm'aère par la fenêtre mais j'vois l'béton J'crois qu'j'suis sur la liste bannie des urbanistes butés Même dans mon sofa ça décolle quand j'zappe Vu qu'la pensée unique s'étale sur mon écran plat Convertir la raison peut sembler insensé Mais méfiance, 2001, déjà l'avenir a commencé Faut que je laisse les traces et les frasques des hommes Noyées sous les aléas d'notre ère Faut qu'j'm'aère Faut s'aérer Faut qu'j'lâche l'angoisse et le stress de nos âmes Aveuglé par des strates de lumière Faut qu'j'm'aère Faut s'aérer</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hey! Il est temps de vous réveiller, les enfants! Mystique en freestyle, j'étourdis les pistils La force en absence, l'esprit s'distille Delleck s'profile du CD au vinyle Pousse le volume du projectile Ainsi soit-il ! Je m'envole, sur ta langue poussent des varices Je fous du fiel dans la gorge de la matrice D'un cri, j'mets des flammes dans la foule Des bombes dans les firmes, des pieux dans la presse Je te libère de ton corset Mes rimes prolifèrent dans un corps sain Dans le vide oublié d'un esprit d'taré Je reste protégé de ma sphère carrée C'est Delleck l'hérissé Qui électrise le dancefloor métissé Sans limites, ne m'imite pas J'ai le verbe indélicat Rentre dans la fissure, oublie tes postures Déchaîne tes blessures Evolue sans armure, soit délesté Vois comme un opossum sous LSD You might also like Mystique en freestyle, j'étourdis les pistils La force en absence, l'esprit s'distille Delleck s'profile du CD au vinyle Pousse le volume du projectile Ainsi soit-il ! A force de tordre les mots ma langue est usée Comme un vagin de bimbo ménopausée J'ai déjà retrouvé mes rêves par terre Mais la poésie s'déverse toujours dans mes artères Côté face la vie m'éclabousse Côté pile, ma basse crée la secousse Fier d'être dans la Lune sur le côté lumière En bordure, j'erre en lisière Delleck, emblème parasite Perdu entre Ferré et Magritte Agrippe-toi sous mes aisselles Vu qu'c'est chez moi de la folie qu'tu décèles De l'énergie comme un Beastie Listé comme un mystique se prenant pour le Christ Sans culture, je fais de l'Art Brut Et torture les limites quand j'écris en rut Mystique en freestyle, j'étourdis les pistils La force en absence, l'esprit s'distille Delleck s'profile du CD au vinyle Pousse le volume du projectile Ainsi soit-il ! Ainsi soit-il! Ainsi soit-il!</t>
+          <t>Hey! Il est temps de vous réveiller, les enfants! Mystique en freestyle, j'étourdis les pistils La force en absence, l'esprit s'distille Delleck s'profile du CD au vinyle Pousse le volume du projectile Ainsi soit-il ! Je m'envole, sur ta langue poussent des varices Je fous du fiel dans la gorge de la matrice D'un cri, j'mets des flammes dans la foule Des bombes dans les firmes, des pieux dans la presse Je te libère de ton corset Mes rimes prolifèrent dans un corps sain Dans le vide oublié d'un esprit d'taré Je reste protégé de ma sphère carrée C'est Delleck l'hérissé Qui électrise le dancefloor métissé Sans limites, ne m'imite pas J'ai le verbe indélicat Rentre dans la fissure, oublie tes postures Déchaîne tes blessures Evolue sans armure, soit délesté Vois comme un opossum sous LSD Mystique en freestyle, j'étourdis les pistils La force en absence, l'esprit s'distille Delleck s'profile du CD au vinyle Pousse le volume du projectile Ainsi soit-il ! A force de tordre les mots ma langue est usée Comme un vagin de bimbo ménopausée J'ai déjà retrouvé mes rêves par terre Mais la poésie s'déverse toujours dans mes artères Côté face la vie m'éclabousse Côté pile, ma basse crée la secousse Fier d'être dans la Lune sur le côté lumière En bordure, j'erre en lisière Delleck, emblème parasite Perdu entre Ferré et Magritte Agrippe-toi sous mes aisselles Vu qu'c'est chez moi de la folie qu'tu décèles De l'énergie comme un Beastie Listé comme un mystique se prenant pour le Christ Sans culture, je fais de l'Art Brut Et torture les limites quand j'écris en rut Mystique en freestyle, j'étourdis les pistils La force en absence, l'esprit s'distille Delleck s'profile du CD au vinyle Pousse le volume du projectile Ainsi soit-il ! Ainsi soit-il! Ainsi soit-il!</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COUPLET 1 JAMES DELLECK J'suis en cavale avec moi-même J'dévale sur le dos en métal d'une baleine Létal, je m'étale sans pouls dans les veines J'compte les dimensions, j'suis à la cinquième Seul sur la branche que j'ai scié L'amour est sûrement passé Impoli, je l'ai niée et même remerciée quand elle m'a insulté En pliant le temps, en faisant tomber les murs J'n'ai plus de sang, dans les coupures Yoda partouze dans le côté obscur De l'orange de la vie, j'n'ai que les épluchures Des coulures murmurent dans le creux Intime comme dormir à deux Les sirènes laissent un sillage bleu L'albatros, c'est comme dire Adieu COUPLET 1 LA CAILLASSE Les acides coulent sous les pores de ma peau Je menvole étiolé par le curaçao Les étoiles me rappellent avec les corbeaux Je brûle comme une braise qui nséteint pas sous leau Et jme bave dessus sous deux buvards Sur les boulevards Loin dHaussmann, dans les cieux Jsaute les remparts Jcaresse lAlbatros isolé sur les quais de la gare Cest vrai que son plumage est doux, ça semble chaud Les rayons du soleil me plongent dans un halo Toutes les lumières me bordent au bord de l'eau Vers les marais de lEden habités de nuées doiseaux You might also likeREFRAIN GUYZA Et quitte ton âme, vide ton crâne Oublie le monde Vis ta chance Calanche et tombe dans le lac Les sirènes sont réelles Les poissons sont violets Dans les eaux calmes et belles De nos cieux empourprés COUPLET 2 LA CAILLASSE Je vomis du rouge sur cette vie décolorée Jenrichis mes dealers, McDonalds et Bolloré Jévacue mon vide visible dans des volutes striées Sur les putes mariées qui lont expectoré Les tests cliniques sont pourris, cest mauvais à cqui m'semble Mais jmen branle pas détat dbranle bas dcombat Sur la descente jdirais qutout seul jsuis ensemble Car la montée est furieuse mais jnai pas de sitter Dans mon coeur cest léclate mais ce nest pas un dither Je vois des mondes d'éther mais pas besoin de détails Il mfaut des cubis de safrole, jaurai besoin dau moins deux citernes COUPLET 2 J. DELLECK En survolant la kyrielle de grattes-ciel Je m'arrache la peau sous une lune sans miel L'ombre de mes mains forme des ailes Qui vu du ciel se déforment sur ses mamelles J'ai du sang dans ma bouche de géant Maladroit dans le vaste océan La pierre d'infini s'y trouve dedans A l'intérieur d'elle je la sens Quand elle s'est ouverte à petite porte Mon Alice des Merveilles n'avait qu'un short Je me noie d'étincelles de toutes sortes Devant la chambre, des étoiles toutes mortes J'en ai vu des belles à mourir, avant que le trou noir ne m'aspire J'regarde le sol je n'ai plus qu'à périr Comme l'oiseau qui ne sait plus atterrir1</t>
+          <t>COUPLET 1 JAMES DELLECK J'suis en cavale avec moi-même J'dévale sur le dos en métal d'une baleine Létal, je m'étale sans pouls dans les veines J'compte les dimensions, j'suis à la cinquième Seul sur la branche que j'ai scié L'amour est sûrement passé Impoli, je l'ai niée et même remerciée quand elle m'a insulté En pliant le temps, en faisant tomber les murs J'n'ai plus de sang, dans les coupures Yoda partouze dans le côté obscur De l'orange de la vie, j'n'ai que les épluchures Des coulures murmurent dans le creux Intime comme dormir à deux Les sirènes laissent un sillage bleu L'albatros, c'est comme dire Adieu COUPLET 1 LA CAILLASSE Les acides coulent sous les pores de ma peau Je menvole étiolé par le curaçao Les étoiles me rappellent avec les corbeaux Je brûle comme une braise qui nséteint pas sous leau Et jme bave dessus sous deux buvards Sur les boulevards Loin dHaussmann, dans les cieux Jsaute les remparts Jcaresse lAlbatros isolé sur les quais de la gare Cest vrai que son plumage est doux, ça semble chaud Les rayons du soleil me plongent dans un halo Toutes les lumières me bordent au bord de l'eau Vers les marais de lEden habités de nuées doiseaux REFRAIN GUYZA Et quitte ton âme, vide ton crâne Oublie le monde Vis ta chance Calanche et tombe dans le lac Les sirènes sont réelles Les poissons sont violets Dans les eaux calmes et belles De nos cieux empourprés COUPLET 2 LA CAILLASSE Je vomis du rouge sur cette vie décolorée Jenrichis mes dealers, McDonalds et Bolloré Jévacue mon vide visible dans des volutes striées Sur les putes mariées qui lont expectoré Les tests cliniques sont pourris, cest mauvais à cqui m'semble Mais jmen branle pas détat dbranle bas dcombat Sur la descente jdirais qutout seul jsuis ensemble Car la montée est furieuse mais jnai pas de sitter Dans mon coeur cest léclate mais ce nest pas un dither Je vois des mondes d'éther mais pas besoin de détails Il mfaut des cubis de safrole, jaurai besoin dau moins deux citernes COUPLET 2 J. DELLECK En survolant la kyrielle de grattes-ciel Je m'arrache la peau sous une lune sans miel L'ombre de mes mains forme des ailes Qui vu du ciel se déforment sur ses mamelles J'ai du sang dans ma bouche de géant Maladroit dans le vaste océan La pierre d'infini s'y trouve dedans A l'intérieur d'elle je la sens Quand elle s'est ouverte à petite porte Mon Alice des Merveilles n'avait qu'un short Je me noie d'étincelles de toutes sortes Devant la chambre, des étoiles toutes mortes J'en ai vu des belles à mourir, avant que le trou noir ne m'aspire J'regarde le sol je n'ai plus qu'à périr Comme l'oiseau qui ne sait plus atterrir1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COUPLET 1 JAMES DELLECK J'suis en cavale avec moi-même J'dévale sur le dos en métal d'une baleine Létal, je m'étale sans pouls dans les veines J'compte les dimensions, j'suis à la cinquième Seul sur la branche que j'ai scié L'amour est sûrement passé Impoli, je l'ai niée et même remerciée quand elle m'a insulté En pliant le temps, en faisant tomber les murs J'n'ai plus de sang, dans les coupures Yoda partouze dans le côté obscur De l'orange de la vie, j'n'ai que les épluchures Des coulures murmurent dans le creux Intime comme dormir à deux Les sirènes laissent un sillage bleu L'albatros, c'est comme dire Adieu COUPLET 1 LA CAILLASSE Les acides coulent sous les pores de ma peau Je menvole étiolé par le curaçao Les étoiles me rappellent avec les corbeaux Je brûle comme une braise qui nséteint pas sous leau Et jme bave dessus sous deux buvards Sur les boulevards Loin dHaussmann, dans les cieux Jsaute les remparts Jcaresse lAlbatros isolé sur les quais de la gare Cest vrai que son plumage est doux, ça semble chaud Les rayons du soleil me plongent dans un halo Toutes les lumières me bordent au bord de l'eau Vers les marais de lEden habités de nuées doiseaux You might also likeREFRAIN GUYZA Et quitte ton âme, vide ton crâne Oublie le monde Vis ta chance Calanche et tombe dans le lac Les sirènes sont réelles Les poissons sont violets Dans les eaux calmes et belles De nos cieux empourprés COUPLET 2 LA CAILLASSE Je vomis du rouge sur cette vie décolorée Jenrichis mes dealers, McDonalds et Bolloré Jévacue mon vide visible dans des volutes striées Sur les putes mariées qui lont expectoré Les tests cliniques sont pourris, cest mauvais à cqui m'semble Mais jmen branle pas détat dbranle bas dcombat Sur la descente jdirais qutout seul jsuis ensemble Car la montée est furieuse mais jnai pas de sitter Dans mon coeur cest léclate mais ce nest pas un dither Je vois des mondes d'éther mais pas besoin de détails Il mfaut des cubis de safrole, jaurai besoin dau moins deux citernes COUPLET 2 J. DELLECK En survolant la kyrielle de grattes-ciel Je m'arrache la peau sous une lune sans miel L'ombre de mes mains forme des ailes Qui vu du ciel se déforment sur ses mamelles J'ai du sang dans ma bouche de géant Maladroit dans le vaste océan La pierre d'infini s'y trouve dedans A l'intérieur d'elle je la sens Quand elle s'est ouverte à petite porte Mon Alice des Merveilles n'avait qu'un short Je me noie d'étincelles de toutes sortes Devant la chambre, des étoiles toutes mortes J'en ai vu des belles à mourir, avant que le trou noir ne m'aspire J'regarde le sol je n'ai plus qu'à périr Comme l'oiseau qui ne sait plus atterrir1</t>
+          <t>COUPLET 1 JAMES DELLECK J'suis en cavale avec moi-même J'dévale sur le dos en métal d'une baleine Létal, je m'étale sans pouls dans les veines J'compte les dimensions, j'suis à la cinquième Seul sur la branche que j'ai scié L'amour est sûrement passé Impoli, je l'ai niée et même remerciée quand elle m'a insulté En pliant le temps, en faisant tomber les murs J'n'ai plus de sang, dans les coupures Yoda partouze dans le côté obscur De l'orange de la vie, j'n'ai que les épluchures Des coulures murmurent dans le creux Intime comme dormir à deux Les sirènes laissent un sillage bleu L'albatros, c'est comme dire Adieu COUPLET 1 LA CAILLASSE Les acides coulent sous les pores de ma peau Je menvole étiolé par le curaçao Les étoiles me rappellent avec les corbeaux Je brûle comme une braise qui nséteint pas sous leau Et jme bave dessus sous deux buvards Sur les boulevards Loin dHaussmann, dans les cieux Jsaute les remparts Jcaresse lAlbatros isolé sur les quais de la gare Cest vrai que son plumage est doux, ça semble chaud Les rayons du soleil me plongent dans un halo Toutes les lumières me bordent au bord de l'eau Vers les marais de lEden habités de nuées doiseaux REFRAIN GUYZA Et quitte ton âme, vide ton crâne Oublie le monde Vis ta chance Calanche et tombe dans le lac Les sirènes sont réelles Les poissons sont violets Dans les eaux calmes et belles De nos cieux empourprés COUPLET 2 LA CAILLASSE Je vomis du rouge sur cette vie décolorée Jenrichis mes dealers, McDonalds et Bolloré Jévacue mon vide visible dans des volutes striées Sur les putes mariées qui lont expectoré Les tests cliniques sont pourris, cest mauvais à cqui m'semble Mais jmen branle pas détat dbranle bas dcombat Sur la descente jdirais qutout seul jsuis ensemble Car la montée est furieuse mais jnai pas de sitter Dans mon coeur cest léclate mais ce nest pas un dither Je vois des mondes d'éther mais pas besoin de détails Il mfaut des cubis de safrole, jaurai besoin dau moins deux citernes COUPLET 2 J. DELLECK En survolant la kyrielle de grattes-ciel Je m'arrache la peau sous une lune sans miel L'ombre de mes mains forme des ailes Qui vu du ciel se déforment sur ses mamelles J'ai du sang dans ma bouche de géant Maladroit dans le vaste océan La pierre d'infini s'y trouve dedans A l'intérieur d'elle je la sens Quand elle s'est ouverte à petite porte Mon Alice des Merveilles n'avait qu'un short Je me noie d'étincelles de toutes sortes Devant la chambre, des étoiles toutes mortes J'en ai vu des belles à mourir, avant que le trou noir ne m'aspire J'regarde le sol je n'ai plus qu'à périr Comme l'oiseau qui ne sait plus atterrir1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Oooooooooookay ! A ma gauche triple champion du monde tout univers confondus, bourreau intergalactique, j'ai nommé Alf a.k.a l'exterminateur félin A ma droite maître et père fondateur de l'art du doigté spatial lumineux, l'être que l'on appelle EEEEEEEEEE.T. a.k.a le doigt orthoscopique En tout bien tout honneur T'es comme Freddy Krueger Tout le monde t'as oublié En prime, t'as la gueule qui vas avec Mèche rebelle Tu es superflu, T'as l'autorité surfaite Tu es né en surface Tu n'as jamais su te taire, ton haleine flétris mon atmosphère Ma p'tite caille, t'es pas de taille Quitte ta peur d'enfant Tiens, chante du rail, prend une paille Vu que t'as même pas d'dents Fais-moi plaisir, mets de la crème sur ta peau d'agrumes Quel pitoyable talent d'avoir le doigt qui s'allume Stop, arrête de baisser la tête, espèce de face de crottin Avec ton micro je suis sur que tu risques de blesser quelqu'un Fiente déconfite sous sa capuce, oui l'heure est à la moquerie T'es plus à la mode avec ta couleur rouille, personne te l'as encore dis ? You might also likeAlf et E.T. sont les meilleurs ennemis, sont les meilleurs ennemis De toute la galaxie Alf et E.T. sont les meilleurs ennemis sont les meilleurs ennemis De toute la galaxie T'as l'hygiène d'un rockeur russe Petite face de foetus On t'appelle la princesse de Prusse Depuis la découverte de ton utérus T'es gore, fais pas le cador, ni le mentor Vu qu'tu sens fort avec ton corps Fais avec des bouts de cadavres de Pearl Harbor Superzéro des temps modernes Tu passionnes autant qu'les économiseurs d'écran Qui tournent en boucle dans les grandes surfaces Moi j'suis né, j'suis E.T Le mille-fortuné, j'ai posé avec les plus grands En passant de Michael à Douwie Ta mère en t'voyant a fais un déni Quand tu gémis, t'es pas bénis Tu vas dead à la Kenny Sans un penny, prend un Rennie Puis va te jeter à la Bernie Bébé sénile sans autopsie T'as pas de pénis à priori Quand tu mendies c'est ton physique qui est un délit Pas très joli, ça c'est ton père qui le dit Alf et E.T. sont les meilleurs ennemis, sont les meilleurs ennemis De toute la galaxie Alf et E.T. sont les meilleurs ennemis sont les meilleurs ennemis De toute la galaxie ?? aurais besoin de sortir la terrine lourde pour faire parler les douilles T'es trop flippé, t'as même pas remarqué que t'as perdu tes couilles T'es juste jaloux depuis que tu m'as vu avec les miens jouer dans Star Wars Tu es, Ouais ?, rien en fait, tellement rien que c'en est le mot de la fin T'es là pour la quota gay, t'as la voix d'un clodo fluet Pars te cacher sous ton cahouet Même Spielberg t'as fait jouer muet Espèce d'Ewok sous chimio T'as les yeux d'un Furby sous coke Hé, mais les singes comme toi on les cuisine dans un wok Clébard à sapiens Cafard à pisse Têtard de province Moquet de ta lice Crabe sans pince Jouet sans notice Braguette qui coince Star des pubis Alf et E.T. sont les meilleurs ennemis, sont les meilleurs ennemis De toute la galaxie Alf et E.T. sont les meilleurs ennemis Alf et E.T. sont les meilleurs ennemis Alf et E.T. sont les meilleurs ennemis Alf et E.T. sont les meilleurs ennemis</t>
+          <t>Oooooooooookay ! A ma gauche triple champion du monde tout univers confondus, bourreau intergalactique, j'ai nommé Alf a.k.a l'exterminateur félin A ma droite maître et père fondateur de l'art du doigté spatial lumineux, l'être que l'on appelle EEEEEEEEEE.T. a.k.a le doigt orthoscopique En tout bien tout honneur T'es comme Freddy Krueger Tout le monde t'as oublié En prime, t'as la gueule qui vas avec Mèche rebelle Tu es superflu, T'as l'autorité surfaite Tu es né en surface Tu n'as jamais su te taire, ton haleine flétris mon atmosphère Ma p'tite caille, t'es pas de taille Quitte ta peur d'enfant Tiens, chante du rail, prend une paille Vu que t'as même pas d'dents Fais-moi plaisir, mets de la crème sur ta peau d'agrumes Quel pitoyable talent d'avoir le doigt qui s'allume Stop, arrête de baisser la tête, espèce de face de crottin Avec ton micro je suis sur que tu risques de blesser quelqu'un Fiente déconfite sous sa capuce, oui l'heure est à la moquerie T'es plus à la mode avec ta couleur rouille, personne te l'as encore dis ? Alf et E.T. sont les meilleurs ennemis, sont les meilleurs ennemis De toute la galaxie Alf et E.T. sont les meilleurs ennemis sont les meilleurs ennemis De toute la galaxie T'as l'hygiène d'un rockeur russe Petite face de foetus On t'appelle la princesse de Prusse Depuis la découverte de ton utérus T'es gore, fais pas le cador, ni le mentor Vu qu'tu sens fort avec ton corps Fais avec des bouts de cadavres de Pearl Harbor Superzéro des temps modernes Tu passionnes autant qu'les économiseurs d'écran Qui tournent en boucle dans les grandes surfaces Moi j'suis né, j'suis E.T Le mille-fortuné, j'ai posé avec les plus grands En passant de Michael à Douwie Ta mère en t'voyant a fais un déni Quand tu gémis, t'es pas bénis Tu vas dead à la Kenny Sans un penny, prend un Rennie Puis va te jeter à la Bernie Bébé sénile sans autopsie T'as pas de pénis à priori Quand tu mendies c'est ton physique qui est un délit Pas très joli, ça c'est ton père qui le dit Alf et E.T. sont les meilleurs ennemis, sont les meilleurs ennemis De toute la galaxie Alf et E.T. sont les meilleurs ennemis sont les meilleurs ennemis De toute la galaxie ?? aurais besoin de sortir la terrine lourde pour faire parler les douilles T'es trop flippé, t'as même pas remarqué que t'as perdu tes couilles T'es juste jaloux depuis que tu m'as vu avec les miens jouer dans Star Wars Tu es, Ouais ?, rien en fait, tellement rien que c'en est le mot de la fin T'es là pour la quota gay, t'as la voix d'un clodo fluet Pars te cacher sous ton cahouet Même Spielberg t'as fait jouer muet Espèce d'Ewok sous chimio T'as les yeux d'un Furby sous coke Hé, mais les singes comme toi on les cuisine dans un wok Clébard à sapiens Cafard à pisse Têtard de province Moquet de ta lice Crabe sans pince Jouet sans notice Braguette qui coince Star des pubis Alf et E.T. sont les meilleurs ennemis, sont les meilleurs ennemis De toute la galaxie Alf et E.T. sont les meilleurs ennemis Alf et E.T. sont les meilleurs ennemis Alf et E.T. sont les meilleurs ennemis Alf et E.T. sont les meilleurs ennemis</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>James Delleck J'rapporte de la récré un magasine de contrebande Qui t'la donné ? C'est Fredy K le mangeur de craie celui d'ma bande Tu m'apparus comme la Sainte Vierge Mais dénudé en tenue dÈve ça préludait j'ai exulté Certes c'était plutôt gênant J'ai pas compris pourquoi mes doigts étaient tout collants Dans ma tête c'était l'Etna, je m'libéra Pour elle j'aurais dit non à un cheptel de putes du Liberia Je m'tamponnais le cône prêt à inonder la Saône Je frissonne tu m'as transformé en homme Ton corps est un royaume que je parcours de la paume Môme je voulais devenir le valet de ta silicone J'aime tout chez toi même tes abats Anna Emoi Même si nos enfants sortaient siamois Anna Emoi T'as pas besoin de Wonderbra Anna Emoi Même 113 diront de toi Anna elle est là ! J'veux être ton concubin ton Kurt Cobain Ha ha ha Toi et moi c'est le Nirvana Je veux plus de Fraise Tagada mais les melons de Falbala Je suis passé de l'enfance au cracheur du Gala Défendu tel le fruit tu pétillais comme un Fanta Fébrile à l'idée de mettre ma langue dans toutes tes fentes Quand je fermais les yeux tu mapparaissais en nonne Je m'imaginais cuire tes tétons dans une marmite d'hormones Pour toi j'ai versé tant de larmes Et erré en salle de colle pour t'avoir trop aimé Tu m'as fait explosé mais j'refuse les mille Vierges d'Allah À jamais tu resteras ma Nicole Smith Anna You might also likeJ'aime tout chez toi même tes abats Anna Emoi Même si nos enfants sortaient siamois Anna Emoi T'as pas besoin de Wonderbra Anna Emoi Même 113 dires de toi Anna elle est là ! Ma bimbo n'passait pas sous les limbos Mytho j'avais l'impression de sentir sa peau Sous mes draps c'était comme une revue du Lido C'était chaud j'poussais même des petits cris de Gizmo J'aime tout chez toi même tes abats Anna Emoi Même si nos enfants sortaient siamois Anna Emoi T'as pas besoin de Wonderbra Anna Emoi Même 113 dires de toi Anna elle est là ! Détect ? Putain... J'avais des phases, j'avais encore... Couvrir ton corps de Nutella Avec ou sans caméra J'voulais qu'on habite Choisy-le-Roi SI t'es allergique, j'tuerais tous les chats Vas-y, sois chic...</t>
+          <t>James Delleck J'rapporte de la récré un magasine de contrebande Qui t'la donné ? C'est Fredy K le mangeur de craie celui d'ma bande Tu m'apparus comme la Sainte Vierge Mais dénudé en tenue dÈve ça préludait j'ai exulté Certes c'était plutôt gênant J'ai pas compris pourquoi mes doigts étaient tout collants Dans ma tête c'était l'Etna, je m'libéra Pour elle j'aurais dit non à un cheptel de putes du Liberia Je m'tamponnais le cône prêt à inonder la Saône Je frissonne tu m'as transformé en homme Ton corps est un royaume que je parcours de la paume Môme je voulais devenir le valet de ta silicone J'aime tout chez toi même tes abats Anna Emoi Même si nos enfants sortaient siamois Anna Emoi T'as pas besoin de Wonderbra Anna Emoi Même 113 diront de toi Anna elle est là ! J'veux être ton concubin ton Kurt Cobain Ha ha ha Toi et moi c'est le Nirvana Je veux plus de Fraise Tagada mais les melons de Falbala Je suis passé de l'enfance au cracheur du Gala Défendu tel le fruit tu pétillais comme un Fanta Fébrile à l'idée de mettre ma langue dans toutes tes fentes Quand je fermais les yeux tu mapparaissais en nonne Je m'imaginais cuire tes tétons dans une marmite d'hormones Pour toi j'ai versé tant de larmes Et erré en salle de colle pour t'avoir trop aimé Tu m'as fait explosé mais j'refuse les mille Vierges d'Allah À jamais tu resteras ma Nicole Smith Anna J'aime tout chez toi même tes abats Anna Emoi Même si nos enfants sortaient siamois Anna Emoi T'as pas besoin de Wonderbra Anna Emoi Même 113 dires de toi Anna elle est là ! Ma bimbo n'passait pas sous les limbos Mytho j'avais l'impression de sentir sa peau Sous mes draps c'était comme une revue du Lido C'était chaud j'poussais même des petits cris de Gizmo J'aime tout chez toi même tes abats Anna Emoi Même si nos enfants sortaient siamois Anna Emoi T'as pas besoin de Wonderbra Anna Emoi Même 113 dires de toi Anna elle est là ! Détect ? Putain... J'avais des phases, j'avais encore... Couvrir ton corps de Nutella Avec ou sans caméra J'voulais qu'on habite Choisy-le-Roi SI t'es allergique, j'tuerais tous les chats Vas-y, sois chic...</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Il a compris qu'il était dans un hôpital ? Je crois pas qu'il ait compris là, parce qu'apparemment c'est un patient qui a de graves troubles de la personnalité. Il parle toujours à la première personne du pluriel, nous sommes là, nous ne prendrons pas le traitement, nous on sait pas combien ils sont mais apparemment il est pas seul Ma perception altérée, j'entrevois la porte blanche De la cellule capitonnée Il pleut, nous sommes dimanche Rien ne change L'autre moi me noie dans des obscurs méandres Alors je reste constamment dangereux comme la braise sous la cendre Encore aujourd'hui, victime de pulsions inouïes Une funeste amabilité, j'ai arraché l'oreille du psy Par le conduit d'air s'échappe une odeur familière Qui me plonge dans mon enfance noircie par la colère Nouveau-né, j'étais déjà dans divers faits divers Dix étages dévalés d'un coup, jeté au vide-ordures par ma mère Perturbée, elle dit avoir mis au monde un serpent Mais pour notre malheur à tous, je suis vivant Maintenant, la résonance macabre des portes métalliques Rythme mes jours glauques comme une vieille devant Derrick Alors je vagabonde du regard en état psychotique Et m'amuse même d'une mouche et de son vol chaotique Je me sens comme un instrument désaccordé Le mal n'a de cesse de me décharner L'il hagard, je survis dans ma carcasse livide Pendant que l'ombre du silence éblouit mes journées vides You might also like Je vois qu'il a été incohérent donc à l'état de Dieu, il alterne entre mutisme et imprécations mystiques Apparemment c'est quelqu'un qui a déjà tué Semble-t-il, enfin semble-t-il, non, pas semble-t-il, sûr Retenu derrière le miroir opaque de la démence Les neuroleptiques en camisole chimique maintiennent mon errance Enfoui dans un corps aux réactions plus que brutales Je fais et sculpte mon destin dans la matière fécale Même les prêtres de tous bords m'ont inondé de prières Mais comme un trou noir j'ai englouti la lumière J'essaie d'apprivoiser ce qui me ronge, c'est fou Quand je crie à l'aide, mon corps ne donne que des coups Le démon qui me hante m'a presque remplacé Et passe sous silence le peu qu'il me reste de pensée Otage et non victime de troubles mentaux La science ne conclut qu'à la perturbation des circuits neuronaux C'est anormal Mais quelle formidable impression d'exister en étant la main du mal Avez-vous déjà éclaté un sophage avec une branche Ou senti craquer la cage thoracique d'un petit ange Ou tout simplement écouté un pouls ralentir puis disparaître Moi personne ne m'a aimé alors pourquoi devrais-je aimer les autres Tous m'appellent l'Antéchrist mais je ne suis que l'apôtre Je crée le deuil en arrachant les vies, demain peut-être la tienne Et j'ai les ongles noirs, du sang séché par la haine Moi je sais que, je peux dire que tous les patients qui sortent d'ici, moi je les considère toujours comme dangereux, on peut pas dire que du jour au lendemain, après six mois Ils resteront dangereux même si ils quittent cette unité Pour moi, il y a toujours un risque Ça fait peur ce que vous dites, mais cette réinsertion elle va se faire, du coup, au pris de nouvelles victimes si il rechute C'est vrai que c'est le risque ha ha ha</t>
+          <t>Il a compris qu'il était dans un hôpital ? Je crois pas qu'il ait compris là, parce qu'apparemment c'est un patient qui a de graves troubles de la personnalité. Il parle toujours à la première personne du pluriel, nous sommes là, nous ne prendrons pas le traitement, nous on sait pas combien ils sont mais apparemment il est pas seul Ma perception altérée, j'entrevois la porte blanche De la cellule capitonnée Il pleut, nous sommes dimanche Rien ne change L'autre moi me noie dans des obscurs méandres Alors je reste constamment dangereux comme la braise sous la cendre Encore aujourd'hui, victime de pulsions inouïes Une funeste amabilité, j'ai arraché l'oreille du psy Par le conduit d'air s'échappe une odeur familière Qui me plonge dans mon enfance noircie par la colère Nouveau-né, j'étais déjà dans divers faits divers Dix étages dévalés d'un coup, jeté au vide-ordures par ma mère Perturbée, elle dit avoir mis au monde un serpent Mais pour notre malheur à tous, je suis vivant Maintenant, la résonance macabre des portes métalliques Rythme mes jours glauques comme une vieille devant Derrick Alors je vagabonde du regard en état psychotique Et m'amuse même d'une mouche et de son vol chaotique Je me sens comme un instrument désaccordé Le mal n'a de cesse de me décharner L'il hagard, je survis dans ma carcasse livide Pendant que l'ombre du silence éblouit mes journées vides Je vois qu'il a été incohérent donc à l'état de Dieu, il alterne entre mutisme et imprécations mystiques Apparemment c'est quelqu'un qui a déjà tué Semble-t-il, enfin semble-t-il, non, pas semble-t-il, sûr Retenu derrière le miroir opaque de la démence Les neuroleptiques en camisole chimique maintiennent mon errance Enfoui dans un corps aux réactions plus que brutales Je fais et sculpte mon destin dans la matière fécale Même les prêtres de tous bords m'ont inondé de prières Mais comme un trou noir j'ai englouti la lumière J'essaie d'apprivoiser ce qui me ronge, c'est fou Quand je crie à l'aide, mon corps ne donne que des coups Le démon qui me hante m'a presque remplacé Et passe sous silence le peu qu'il me reste de pensée Otage et non victime de troubles mentaux La science ne conclut qu'à la perturbation des circuits neuronaux C'est anormal Mais quelle formidable impression d'exister en étant la main du mal Avez-vous déjà éclaté un sophage avec une branche Ou senti craquer la cage thoracique d'un petit ange Ou tout simplement écouté un pouls ralentir puis disparaître Moi personne ne m'a aimé alors pourquoi devrais-je aimer les autres Tous m'appellent l'Antéchrist mais je ne suis que l'apôtre Je crée le deuil en arrachant les vies, demain peut-être la tienne Et j'ai les ongles noirs, du sang séché par la haine Moi je sais que, je peux dire que tous les patients qui sortent d'ici, moi je les considère toujours comme dangereux, on peut pas dire que du jour au lendemain, après six mois Ils resteront dangereux même si ils quittent cette unité Pour moi, il y a toujours un risque Ça fait peur ce que vous dites, mais cette réinsertion elle va se faire, du coup, au pris de nouvelles victimes si il rechute C'est vrai que c'est le risque ha ha ha</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'arrive au rez-de-chaussée, j'appuie pour me faire réhausser Je ré-appuie parce que c'est bloqué Juste à côté il y a un gros décolleté Sous sa jupe est ce que c'est un écossais? Espace vide, envie de déconner Ils n'ont mis qu'un miroir pour le décorer Une petite voix de fille en mode perroquet J'arrive pour te faire chier J'appuie partout, ça te fera les pieds Une envie pressante, le décor est rénové Une odeur singulière, oui tu l'as remarqué Peinture écaillée, une couleur à chier Qu'une ampoule qui fonctionne, l'ambiance est tamisée Dans le miroir, je me reflète par milliers Fais pas attention, et tes semelles sont fuckées Ambiance claustro, mieux vaut te retenir si t'as une caisse qu'est coincée dans le cul Entre deux étages, arrêter, ça fait toujours flipper Ça a son petit effet Plus un bruit, ni mouvement dans le noir, ça y est Je te vois paniquer Les portes s'ouvrent sans ascenseur, t'arrives direct au rez-de-chaussée Ça commence à me saouler, tous ceux qui montent que pour aller au premier Je marque l'alternance de haut en bas, c'est une nouvelle façon de jouer J'appuie sur la cloche, je suis paré Texte à l'appui sans déconner Si le câble se met à lâcher, bah merde on va tous y rester You might also like J'aimerais lui mettre une main au cul De derrière, elle est bien dodue Si t'es au troisième, je suis bien au-dessus Passe me voir, là j'ai plein d'opus L'introduction t'importune Ceux qui t'ont nourri maintenant sont des inconnus Dans ton immeuble des étages il y en a 20 au plus Tu vois je connais bien le volume Mon ascenseur pue, il est bien obscur Passage obligatoire si tu viens au stud' La désillusion n'est que dans un docu' Un jour peut être costume Un faux-cul qui fait un focus Avec plein de formules, mais il est bien trop nul Ascenseur Emotionel, loin de vos tubes Hustla, Simbad, Nuages, Imposture Le problème c'est pas la chute, mais la montée Trois mecs en rûte, on va te montrer L'ascension vers la rédemption sans tension Connard, donne moi la mention Avant la chute du septième ciel Je touche des étoile avant de bouffer le fiel Penses tu, je n'ai pas le costume de l'imposture Tu vas à quel étage? Moi je monte au dessus J'ai envie de monter, monter, monter Les rappeurs suent dans l'escalier En dessous, le vide béant, un océan de néant Je suis qu'un enfant qui fait des pas de géant Emotionnée, l'alarme se déclenche Nos larmes s'écoulent dans une nuit trop blanche Léviter dans un rap d'autiste Jamais coincé, j'appuie sur Otis x12 Choisis ton étage, évite le sous-sol</t>
+          <t>J'arrive au rez-de-chaussée, j'appuie pour me faire réhausser Je ré-appuie parce que c'est bloqué Juste à côté il y a un gros décolleté Sous sa jupe est ce que c'est un écossais? Espace vide, envie de déconner Ils n'ont mis qu'un miroir pour le décorer Une petite voix de fille en mode perroquet J'arrive pour te faire chier J'appuie partout, ça te fera les pieds Une envie pressante, le décor est rénové Une odeur singulière, oui tu l'as remarqué Peinture écaillée, une couleur à chier Qu'une ampoule qui fonctionne, l'ambiance est tamisée Dans le miroir, je me reflète par milliers Fais pas attention, et tes semelles sont fuckées Ambiance claustro, mieux vaut te retenir si t'as une caisse qu'est coincée dans le cul Entre deux étages, arrêter, ça fait toujours flipper Ça a son petit effet Plus un bruit, ni mouvement dans le noir, ça y est Je te vois paniquer Les portes s'ouvrent sans ascenseur, t'arrives direct au rez-de-chaussée Ça commence à me saouler, tous ceux qui montent que pour aller au premier Je marque l'alternance de haut en bas, c'est une nouvelle façon de jouer J'appuie sur la cloche, je suis paré Texte à l'appui sans déconner Si le câble se met à lâcher, bah merde on va tous y rester J'aimerais lui mettre une main au cul De derrière, elle est bien dodue Si t'es au troisième, je suis bien au-dessus Passe me voir, là j'ai plein d'opus L'introduction t'importune Ceux qui t'ont nourri maintenant sont des inconnus Dans ton immeuble des étages il y en a 20 au plus Tu vois je connais bien le volume Mon ascenseur pue, il est bien obscur Passage obligatoire si tu viens au stud' La désillusion n'est que dans un docu' Un jour peut être costume Un faux-cul qui fait un focus Avec plein de formules, mais il est bien trop nul Ascenseur Emotionel, loin de vos tubes Hustla, Simbad, Nuages, Imposture Le problème c'est pas la chute, mais la montée Trois mecs en rûte, on va te montrer L'ascension vers la rédemption sans tension Connard, donne moi la mention Avant la chute du septième ciel Je touche des étoile avant de bouffer le fiel Penses tu, je n'ai pas le costume de l'imposture Tu vas à quel étage? Moi je monte au dessus J'ai envie de monter, monter, monter Les rappeurs suent dans l'escalier En dessous, le vide béant, un océan de néant Je suis qu'un enfant qui fait des pas de géant Emotionnée, l'alarme se déclenche Nos larmes s'écoulent dans une nuit trop blanche Léviter dans un rap d'autiste Jamais coincé, j'appuie sur Otis x12 Choisis ton étage, évite le sous-sol</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>I love you I love you I love you I love you... Pour un baiser de toi j'ferais tant de folies Viens entre mes doigts qu'on démarre une autre vie Chérie j'te prêterai ma carte BHV J'vais m'ranger j'utiliserai plus de GHB J'ai un bizness en Tanzanie Presque à mon compte bientôt patron enfin quasi Dieu qu'ton physique est plus qu'harmonieux Heureusement qu't'es pas ma sur j'serais incesteux T'as transformé une partie de mon corps en poutre Ça c'est l'amour, sûrement le coup de foutre Fidèle, pour toi j'arrête ma collection d'Barbies Et toi baby, y a qu'à toi que je l'ai dit Deviens ma dose mon héroïne Sois ma rose, je serai ton épine J'ferai ton Georges Clooney qui t'prépare un déca Sans écart même à Diamante K D'ailleurs j'voudrais te demander ta main Ça fait au moins deux minutes qu'on s'connaît bien Je serai ton hérisson, tu seras ma Spontex Poussin j'suis prêt à plus revoir mes quatre ex À bout portant, d'un seul baiser ardent J't'inviterai à Milan mais avec ton argent J'serai ponctuel à tes cours de salsa Tu sens pas, j'ai une montée d'phéromones de panda Pour toi j'ai des violons qui jouent dans le cur 'Taleur au 8.12.12 j'ai mis poème de lover You might also like Deviens ma dose mon héroïne Sois ma rose, je serai ton épine Nous serons fusionnels comme ils disent À la manière d'ce couple d'insectes écrasés sur mon pare-brises C'est l'amour qui coule dans mes veines Notre passion poussera grâce à ma mauvaise graine Mon petit cur t'en es proprio Et avec ton petit cul j'suis déjà à Rio Dans mon caleçon c'est la canicule Alors suis-moi que je t'en, que je t'en... Que je t'emmène Deviens ma dose mon héroïne Sois ma rose, je serai ton épine</t>
+          <t>I love you I love you I love you I love you... Pour un baiser de toi j'ferais tant de folies Viens entre mes doigts qu'on démarre une autre vie Chérie j'te prêterai ma carte BHV J'vais m'ranger j'utiliserai plus de GHB J'ai un bizness en Tanzanie Presque à mon compte bientôt patron enfin quasi Dieu qu'ton physique est plus qu'harmonieux Heureusement qu't'es pas ma sur j'serais incesteux T'as transformé une partie de mon corps en poutre Ça c'est l'amour, sûrement le coup de foutre Fidèle, pour toi j'arrête ma collection d'Barbies Et toi baby, y a qu'à toi que je l'ai dit Deviens ma dose mon héroïne Sois ma rose, je serai ton épine J'ferai ton Georges Clooney qui t'prépare un déca Sans écart même à Diamante K D'ailleurs j'voudrais te demander ta main Ça fait au moins deux minutes qu'on s'connaît bien Je serai ton hérisson, tu seras ma Spontex Poussin j'suis prêt à plus revoir mes quatre ex À bout portant, d'un seul baiser ardent J't'inviterai à Milan mais avec ton argent J'serai ponctuel à tes cours de salsa Tu sens pas, j'ai une montée d'phéromones de panda Pour toi j'ai des violons qui jouent dans le cur 'Taleur au 8.12.12 j'ai mis poème de lover Deviens ma dose mon héroïne Sois ma rose, je serai ton épine Nous serons fusionnels comme ils disent À la manière d'ce couple d'insectes écrasés sur mon pare-brises C'est l'amour qui coule dans mes veines Notre passion poussera grâce à ma mauvaise graine Mon petit cur t'en es proprio Et avec ton petit cul j'suis déjà à Rio Dans mon caleçon c'est la canicule Alors suis-moi que je t'en, que je t'en... Que je t'emmène Deviens ma dose mon héroïne Sois ma rose, je serai ton épine</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bestiols On naît laids, On est laids On est laids, On est les Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Ha, Yo, On naît laids, On est laids On est laids, On est les Be-Bestiols ! Ça largue au bouffi J'dégueule easy d'aigres mots d'poésie Nos rimes ont des couilles de cyber-messies Le rap a enfin trouvé ses Dali Anomalie, je fais de la musique avec du bruit Frénétique comme devant une burqa monokini T'as la tête qui cuit au bain-marie Broyé dans nos mandibules, vas-y dance en dent-de-scie Aussi nommé comme des fléaux carnassiers Les plus grands qu'la terre n'ait jamais porté Pourfendre les âmes n'est qu'une formalité Qu'il est bon de faire reluire des trophées putréfiés Dès lors, l'ombre de mon murmure atteint l'innocent d'un souffle bestial Fer rouge en main pour marquer ceux qui vont à l'abattoir Révélé devant la difficulté par une volonté de renom Je suis celui dont on prononce pas le nom You might also likeBe-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols On naît laids, On est laids On est laids, On est les Bestiols T'as tisé dans la chaleur de l'effort On joue aux légos en faisant des monticules de vos corps Superstar prédateur à l'haleine putride Nos attributs ne sont qu'un simple choix cupide On aiguise nos canines à la lumière du clair de lune Vu que la vermine revient toujours à la charge comme du smegma J'ai offert ma chair et mon sang à la gloire jusqu'à éclipser le soleil Je me tire fièrement, ma rage n'a pas son pareil On est les mythomanes avec des yeux pleins d'étoiles Une haleine de méthane et des rimes en métal Depuis que la météorite nous a heurté le crâne On lâche des sons encore inconnus de l'Ircam Mutants j'ai la bave de la barbarie d'hier Bouffant tout les prédators qui traînaient dans la rizière Avec la violence d'une baffe adultère On s'abat comme la science sur une prière Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Ha, Yo, On naît laids, On est laids On est laids, On est les Be-Be-Bestiols Voilà les bestiales créatures sur un son qui émascule Be-Be-Bestiols Avec un flow qui n'a pas de point mais que des virgules Be-Be-Bestiols On a le sang du soleil logé dans nos ventricules Be-Be-Bestiols GZ s'écrit maintenant en lettres majuscules Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Ha, Yo, On naît laids, On est laids On est laids, On est les Bestiols</t>
+          <t>Bestiols On naît laids, On est laids On est laids, On est les Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Ha, Yo, On naît laids, On est laids On est laids, On est les Be-Bestiols ! Ça largue au bouffi J'dégueule easy d'aigres mots d'poésie Nos rimes ont des couilles de cyber-messies Le rap a enfin trouvé ses Dali Anomalie, je fais de la musique avec du bruit Frénétique comme devant une burqa monokini T'as la tête qui cuit au bain-marie Broyé dans nos mandibules, vas-y dance en dent-de-scie Aussi nommé comme des fléaux carnassiers Les plus grands qu'la terre n'ait jamais porté Pourfendre les âmes n'est qu'une formalité Qu'il est bon de faire reluire des trophées putréfiés Dès lors, l'ombre de mon murmure atteint l'innocent d'un souffle bestial Fer rouge en main pour marquer ceux qui vont à l'abattoir Révélé devant la difficulté par une volonté de renom Je suis celui dont on prononce pas le nom Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols On naît laids, On est laids On est laids, On est les Bestiols T'as tisé dans la chaleur de l'effort On joue aux légos en faisant des monticules de vos corps Superstar prédateur à l'haleine putride Nos attributs ne sont qu'un simple choix cupide On aiguise nos canines à la lumière du clair de lune Vu que la vermine revient toujours à la charge comme du smegma J'ai offert ma chair et mon sang à la gloire jusqu'à éclipser le soleil Je me tire fièrement, ma rage n'a pas son pareil On est les mythomanes avec des yeux pleins d'étoiles Une haleine de méthane et des rimes en métal Depuis que la météorite nous a heurté le crâne On lâche des sons encore inconnus de l'Ircam Mutants j'ai la bave de la barbarie d'hier Bouffant tout les prédators qui traînaient dans la rizière Avec la violence d'une baffe adultère On s'abat comme la science sur une prière Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Ha, Yo, On naît laids, On est laids On est laids, On est les Be-Be-Bestiols Voilà les bestiales créatures sur un son qui émascule Be-Be-Bestiols Avec un flow qui n'a pas de point mais que des virgules Be-Be-Bestiols On a le sang du soleil logé dans nos ventricules Be-Be-Bestiols GZ s'écrit maintenant en lettres majuscules Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Be-Be-Be-Be-Bestiols Ha, Yo, On naît laids, On est laids On est laids, On est les Bestiols</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>À RETRANSCRIRE Que ça t'plaise ou pas, l'fait est qu'j'ai pas fait tout ça pour qu'ça plaise Et va surtout pas croire que, vu qu'tout a l'air d'aller, tout va, bref J'suis quelque part entre pas très loin d'que dalle et tout l'inverse Un vrai mix de pourquoi moi ?, de pourquoi pas ? et d'pour quoi faire ? Rien qu'j'en pète une et, tout à coup, les ostéo' bougent la tête À la vitesse à laquelle les fous la perdent pour d'la verte J'pourrais t'faire le double de c'qu t'ferait Moussa pour un verre Écout la mère, avec ou sans coquillage, et tout s'ra clair C'est l'remix, monte le volume, bouge ta tête bouge ta tête Dans l'métro, chez toi ou bien dans ta caisse bouge ta tête Que tu sois de la campagne ou d'la tess' bouge ta tête Bouge ta tête bouge ta tête, bouge ta tête bouge ta tête C'est l'remix, monte le volume, bouge ta tête bouge ta tête Dans l'métro, chez toi ou bien dans ta caisse bouge ta tête Que tu sois de la campagne ou d'la tess' bouge ta tête Bouge ta tête bouge ta tête, bouge ta tête bouge ta têteYou might also like</t>
+          <t>À RETRANSCRIRE Que ça t'plaise ou pas, l'fait est qu'j'ai pas fait tout ça pour qu'ça plaise Et va surtout pas croire que, vu qu'tout a l'air d'aller, tout va, bref J'suis quelque part entre pas très loin d'que dalle et tout l'inverse Un vrai mix de pourquoi moi ?, de pourquoi pas ? et d'pour quoi faire ? Rien qu'j'en pète une et, tout à coup, les ostéo' bougent la tête À la vitesse à laquelle les fous la perdent pour d'la verte J'pourrais t'faire le double de c'qu t'ferait Moussa pour un verre Écout la mère, avec ou sans coquillage, et tout s'ra clair C'est l'remix, monte le volume, bouge ta tête bouge ta tête Dans l'métro, chez toi ou bien dans ta caisse bouge ta tête Que tu sois de la campagne ou d'la tess' bouge ta tête Bouge ta tête bouge ta tête, bouge ta tête bouge ta tête C'est l'remix, monte le volume, bouge ta tête bouge ta tête Dans l'métro, chez toi ou bien dans ta caisse bouge ta tête Que tu sois de la campagne ou d'la tess' bouge ta tête Bouge ta tête bouge ta tête, bouge ta tête bouge ta tête</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je suis in, je suis dedans, j'incarne le bon goût Je bouffe bio, quand je racole j'ai le bagout branché Je veux être le mec le plus fashion des Carpates Le gars cool qui se fout des piercings partout pour qu'on le mate Je vote écolo depuis que les cocos c'est plus hype Je tape mon accent anglais, ma bite je l'appelle une bite Cathy Guetta me fait la bise, putain j'ai tapé haut Je suis in, je vais même voir des films croates en VO Et je vais à des expos d'avant-garde, là où y a du neuf Et où les gens classieux s'échangent leurs meufs Je suis une caricature du con sans le voir Mais je bosse dur mon charisme à coup de lunettes noires fumées C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh You might also like Je veux être une star, le blason des cow-boys de Dallas Prêt à tout pour goûter les call-girls des palaces chics Je serai invité des talk-shows, je toucherai des bakchichs Et j'aurai le nez dans la coke pour arrêter le haschich Ça le fait d'être une merde classe aux lourdes finances Mais je donne aux chards-clo vu que c'est tendance mode J'ai un Kandinsky dans mes chiottes, je lis Kant Pour me sentir in, mais je suis qu'à la page soixante En bon branchouillard, je roule en Smart et J'ai enregistré toutes les thématiques d'Arte Quand je sors, je mets mon T-shirt Rawkus mais j'écoute Sky Je suis le beauf qui croit être style C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je me la pète tellement qu'on m'a conseillé de rapper, de foutre un baggy Pour palper le flouse et avoir de grosses bagouzes comme Biggie Je fais partie de la select jet-set du monde Où la dope et le Get 27 sont servis par de fausses blondes Ibiza, L.A., Miami Bah ouais, je connais, je suis un mec in, tu me prends pour qui? Micro check, un deux, je suis OK si tout va Mais je sais qu'il y aura toujours des vrais pour me gueuler coupe ça C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh C'est in et ah C'est in et oh C'est in et ah C'est in et oh</t>
+          <t>C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je suis in, je suis dedans, j'incarne le bon goût Je bouffe bio, quand je racole j'ai le bagout branché Je veux être le mec le plus fashion des Carpates Le gars cool qui se fout des piercings partout pour qu'on le mate Je vote écolo depuis que les cocos c'est plus hype Je tape mon accent anglais, ma bite je l'appelle une bite Cathy Guetta me fait la bise, putain j'ai tapé haut Je suis in, je vais même voir des films croates en VO Et je vais à des expos d'avant-garde, là où y a du neuf Et où les gens classieux s'échangent leurs meufs Je suis une caricature du con sans le voir Mais je bosse dur mon charisme à coup de lunettes noires fumées C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je veux être une star, le blason des cow-boys de Dallas Prêt à tout pour goûter les call-girls des palaces chics Je serai invité des talk-shows, je toucherai des bakchichs Et j'aurai le nez dans la coke pour arrêter le haschich Ça le fait d'être une merde classe aux lourdes finances Mais je donne aux chards-clo vu que c'est tendance mode J'ai un Kandinsky dans mes chiottes, je lis Kant Pour me sentir in, mais je suis qu'à la page soixante En bon branchouillard, je roule en Smart et J'ai enregistré toutes les thématiques d'Arte Quand je sors, je mets mon T-shirt Rawkus mais j'écoute Sky Je suis le beauf qui croit être style C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je me la pète tellement qu'on m'a conseillé de rapper, de foutre un baggy Pour palper le flouse et avoir de grosses bagouzes comme Biggie Je fais partie de la select jet-set du monde Où la dope et le Get 27 sont servis par de fausses blondes Ibiza, L.A., Miami Bah ouais, je connais, je suis un mec in, tu me prends pour qui? Micro check, un deux, je suis OK si tout va Mais je sais qu'il y aura toujours des vrais pour me gueuler coupe ça C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh C'est in et ah C'est in et oh C'est in et ah C'est in et oh</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gerard Baste Vas y Dédé, Envoie la Musique! Ha ce que c'est Bath, d'être avec les copains et d'faire du Rap Ha c'est bien chouette d'faire partie du putain Klub Des 7 Ca roule un peu des mécaniques mais toujours à la bonne Franquette Tu vas rester comme deux ronds de flan C'est qu'c'est un sacré orchestre! A peine tu poses l'aiguille du pick-up sur l'microsillon Tu verras qu'ça déménage, tu t'diras Ca c'est champion! Et ça met l'animation, c'est sûr qu'y'a une drôle d'ambiance Y'a des signes qui trompent pas Y'a tout les jeunes qui dansent! Alors on va pousser les meubles et dérider les vieux schnockes Si y'a des rabats-joies je les renvoie à Pétaouchnok Tu t'rends quand même compte qu'c'est du haut-de-gamme mon vieux ? Mais où qu'y planquent leurs instruments Bon Dieu !? Rho dis-donc ! C'est qu'y z'ont l'pactole dans l'slibard T'as touché l'Jackpot car ce groupe est formidable C'est bizarre, j'crois qu'on deviens plus fort à chaque seconde Klub Des 7 c'est l'Meilleur Super Groupe Du Monde ! You might also likeRefrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut-être un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu Cyanure Trop de faribole, les fanfarons se fourvoient dans leur farandoles Flagornent le fabuleux et fantastique Klub par leur ?? sol Nous emparant de leurs fifres, nous croyant fichus, fichtre Mais notre foi prête à sortir du four ?s'élève telle un enfant qui s'pisse? Ca c'est du rap freestyle, félicité par fameuse académie française et ses bureaux Les ?formant félons, scribes minots minables? ?Gueux dealeurs en gouailles? ???? mais chacun à la gouache Mes griffes sur l'orgue appellent comme une griffure C'est du Hip-Hop, un ouragan braisé, rôti par Cyanure Fuzati On te remet à ta place comme des bières qu'on ne vole pas Te laisse payer pour te braquer au lance pierre et au compas D'après les commerçants on est qu'une bande de bandits Toi, un cancer des ovaires qui finalement aurait grandi! ??? de nous filer tes thunes parce que c'est l'heure de la sortie ! Tu rêverais d'être comme nous mais tes parents l'ont interdits Une tête dure entre deux poings l'avenir était déjà tracé On se battra pour des billes, des filles, puis des billets ! Detect scratch Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu James Delleck On démarre au quart-de-couille en classe de musique T'as raison d'avoir la trouille on est pas sympathiques bruit crachat Gout à mon Molard, prépare toi à douter Le Delleck prêt pour la bagarre, j'ferme doucement ma boite à ?clouter? Re-Vlà l'équipe de rêve qui met fin à la trêve On shoote dans les galettes de vinyles Ben ouai, on a d'jà toutes les fèves Nos cartables sont trop lourds puisque nos rimes ont du poids Enfants rois à l'humour qui jète un froid Uuuumpf, deux doigts, croit moi, on restera 7 Jéhova, qu'es-ce-tu vas prendre quand on t'verras ! Pendant que les rappeurs s'frappent le torse comme des gorilles Nous on remonte à la surface façon tigres et ?gorilles? Bon en langues mais nul en anglais j'confond toujours la plage et les filles de joies! Putain j'tricote un pull avec la laine de Danielle Darc Ici y'a pas de Dirty South mais du Dirty South Park ! Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu1</t>
+          <t>Gerard Baste Vas y Dédé, Envoie la Musique! Ha ce que c'est Bath, d'être avec les copains et d'faire du Rap Ha c'est bien chouette d'faire partie du putain Klub Des 7 Ca roule un peu des mécaniques mais toujours à la bonne Franquette Tu vas rester comme deux ronds de flan C'est qu'c'est un sacré orchestre! A peine tu poses l'aiguille du pick-up sur l'microsillon Tu verras qu'ça déménage, tu t'diras Ca c'est champion! Et ça met l'animation, c'est sûr qu'y'a une drôle d'ambiance Y'a des signes qui trompent pas Y'a tout les jeunes qui dansent! Alors on va pousser les meubles et dérider les vieux schnockes Si y'a des rabats-joies je les renvoie à Pétaouchnok Tu t'rends quand même compte qu'c'est du haut-de-gamme mon vieux ? Mais où qu'y planquent leurs instruments Bon Dieu !? Rho dis-donc ! C'est qu'y z'ont l'pactole dans l'slibard T'as touché l'Jackpot car ce groupe est formidable C'est bizarre, j'crois qu'on deviens plus fort à chaque seconde Klub Des 7 c'est l'Meilleur Super Groupe Du Monde ! Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut-être un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu Cyanure Trop de faribole, les fanfarons se fourvoient dans leur farandoles Flagornent le fabuleux et fantastique Klub par leur ?? sol Nous emparant de leurs fifres, nous croyant fichus, fichtre Mais notre foi prête à sortir du four ?s'élève telle un enfant qui s'pisse? Ca c'est du rap freestyle, félicité par fameuse académie française et ses bureaux Les ?formant félons, scribes minots minables? ?Gueux dealeurs en gouailles? ???? mais chacun à la gouache Mes griffes sur l'orgue appellent comme une griffure C'est du Hip-Hop, un ouragan braisé, rôti par Cyanure Fuzati On te remet à ta place comme des bières qu'on ne vole pas Te laisse payer pour te braquer au lance pierre et au compas D'après les commerçants on est qu'une bande de bandits Toi, un cancer des ovaires qui finalement aurait grandi! ??? de nous filer tes thunes parce que c'est l'heure de la sortie ! Tu rêverais d'être comme nous mais tes parents l'ont interdits Une tête dure entre deux poings l'avenir était déjà tracé On se battra pour des billes, des filles, puis des billets ! Detect scratch Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu James Delleck On démarre au quart-de-couille en classe de musique T'as raison d'avoir la trouille on est pas sympathiques bruit crachat Gout à mon Molard, prépare toi à douter Le Delleck prêt pour la bagarre, j'ferme doucement ma boite à ?clouter? Re-Vlà l'équipe de rêve qui met fin à la trêve On shoote dans les galettes de vinyles Ben ouai, on a d'jà toutes les fèves Nos cartables sont trop lourds puisque nos rimes ont du poids Enfants rois à l'humour qui jète un froid Uuuumpf, deux doigts, croit moi, on restera 7 Jéhova, qu'es-ce-tu vas prendre quand on t'verras ! Pendant que les rappeurs s'frappent le torse comme des gorilles Nous on remonte à la surface façon tigres et ?gorilles? Bon en langues mais nul en anglais j'confond toujours la plage et les filles de joies! Putain j'tricote un pull avec la laine de Danielle Darc Ici y'a pas de Dirty South mais du Dirty South Park ! Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu1</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman La mâchoire crispée dans l'épreuve dans un monde si grave Je vocifère, strident comme le cri d'un lépreux Explore le derrière de tes globes oculaires Et tu chevaucheras le dragon de verre aux ailes de lumière Caresse la peau du miroir en monolithe noir Pour comprendre l'invisible il te suffira d'y croire Rentre dans le nuage à la forme de cathédrale Et tu verras qu'elles disparaîtront tes ecchymoses de crotale L'homme se couvre de honte comme un mort se couvre de terre Face à vos peurs qui grondent, des incantations je libère Sous la pleine lune sans calumet, je m'extrais du bitume Juste armé d'un crayon d'bois et d'une armure de plumes Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman You might also like Exilé dans l'éveil alors que tant dorment En appuyant sur play t'as ouvert la boîte de Pandore Nous sommes un bout d'pierre de la cruelle Babel Contre elle pour mieux mordre, les fauves déploient leurs ailes Oublie tes certitudes, ici la science est dévoyée En pleine béatitude, laisse la nature te transpercer Dans l'immatériel, il n'y plus d'envers ni d'endroit Réveille la zone endormie de ton hémisphère droit En dehors du folklore, j'plane comme une ombre sonore Et paresse dans le vent quand l'aube se couche sur l'aurore En saccades je m'évade jusqu'à tutoyer les dieux Tu peux toi aussi passer au travers de la cascade bleue Alors ferme les yeux... Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman</t>
+          <t>Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman La mâchoire crispée dans l'épreuve dans un monde si grave Je vocifère, strident comme le cri d'un lépreux Explore le derrière de tes globes oculaires Et tu chevaucheras le dragon de verre aux ailes de lumière Caresse la peau du miroir en monolithe noir Pour comprendre l'invisible il te suffira d'y croire Rentre dans le nuage à la forme de cathédrale Et tu verras qu'elles disparaîtront tes ecchymoses de crotale L'homme se couvre de honte comme un mort se couvre de terre Face à vos peurs qui grondent, des incantations je libère Sous la pleine lune sans calumet, je m'extrais du bitume Juste armé d'un crayon d'bois et d'une armure de plumes Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman Exilé dans l'éveil alors que tant dorment En appuyant sur play t'as ouvert la boîte de Pandore Nous sommes un bout d'pierre de la cruelle Babel Contre elle pour mieux mordre, les fauves déploient leurs ailes Oublie tes certitudes, ici la science est dévoyée En pleine béatitude, laisse la nature te transpercer Dans l'immatériel, il n'y plus d'envers ni d'endroit Réveille la zone endormie de ton hémisphère droit En dehors du folklore, j'plane comme une ombre sonore Et paresse dans le vent quand l'aube se couche sur l'aurore En saccades je m'évade jusqu'à tutoyer les dieux Tu peux toi aussi passer au travers de la cascade bleue Alors ferme les yeux... Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dans ma tête il pleut des hommes en chapeau haut-de-forme Ornés de nains dorés s'balançant au bout d'une corde Elles-mêmes reliées à des iPod autoreverse Fabriqués par des bonnes bonnes surs aux mauvaises murs Ici je perds la raison pour mieux savoir quand j'ai tort J'y croise ma prostate promenant son Minotaure Je m'élance pour faire une chute mortelle Rebondissant sur des punchlines hydratées aux larmes de pucelles Dans ma tête je passe de délicat à délinquant J'ai tellement de démence contenue dans ce petit continent Depuis bien longtemps j'ai attrapé le lapin chapelier Pour lui botter le cul sur la Lune de Georges Méliès Sur le Mont Ardent j'y regarde le couchant Rouge comme la joue d'un enfant bien trop insolent Dans ma tête ils m'ont dit de m'appeler Delleck Depuis j'vaseline mes mots pour qu'on m'écoute cul sec Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête You might also like Je rassemble mes résidus qui ont survécu Pour en faire des poèmes aux rimes bien trop têtues Sur ma colline autour de moi des formes gravitent Un peu comme dans l'arrière-plan d'un Magritte Flottant sans faux-semblant, comme renaissant J'y croise parfois des trafiquants aux griffes de chats persans Non loin d'la tour où je grave mes aigus Là où je soigne mes poings qui se sont trop battus Dans ma tête je donne de la stature à mes sutures J'reste un punk sans crête qui pense qu'il y a un futur Un crooner de haut niveau, bouffeur d'enfants indigos Inventeur d'mots encore inconnus dans les dicos Un tatouage sur l'il, des fois je rentre dedans Pour y ramener ma verve et des crachats d'garnement Je vaux cent vauriens même si mon cerveau est un taudis Moi l'impoli qui a plutôt choisi de s'donner la vie Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Dans ma tête des choses sortent des miroirs Les éléphants sont roses sans porte ni tiroir Du fait d'un esprit un peu mal loti J'ai abandonné tout espoir de devenir poli Alors j'essaie d'pas courir après le temps Pour qu'à la fin je puisse mourir vivant En construisant ce monde dans ma cachette Même si pour vous c'est qu'dans ma tête Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête</t>
+          <t>Dans ma tête il pleut des hommes en chapeau haut-de-forme Ornés de nains dorés s'balançant au bout d'une corde Elles-mêmes reliées à des iPod autoreverse Fabriqués par des bonnes bonnes surs aux mauvaises murs Ici je perds la raison pour mieux savoir quand j'ai tort J'y croise ma prostate promenant son Minotaure Je m'élance pour faire une chute mortelle Rebondissant sur des punchlines hydratées aux larmes de pucelles Dans ma tête je passe de délicat à délinquant J'ai tellement de démence contenue dans ce petit continent Depuis bien longtemps j'ai attrapé le lapin chapelier Pour lui botter le cul sur la Lune de Georges Méliès Sur le Mont Ardent j'y regarde le couchant Rouge comme la joue d'un enfant bien trop insolent Dans ma tête ils m'ont dit de m'appeler Delleck Depuis j'vaseline mes mots pour qu'on m'écoute cul sec Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Je rassemble mes résidus qui ont survécu Pour en faire des poèmes aux rimes bien trop têtues Sur ma colline autour de moi des formes gravitent Un peu comme dans l'arrière-plan d'un Magritte Flottant sans faux-semblant, comme renaissant J'y croise parfois des trafiquants aux griffes de chats persans Non loin d'la tour où je grave mes aigus Là où je soigne mes poings qui se sont trop battus Dans ma tête je donne de la stature à mes sutures J'reste un punk sans crête qui pense qu'il y a un futur Un crooner de haut niveau, bouffeur d'enfants indigos Inventeur d'mots encore inconnus dans les dicos Un tatouage sur l'il, des fois je rentre dedans Pour y ramener ma verve et des crachats d'garnement Je vaux cent vauriens même si mon cerveau est un taudis Moi l'impoli qui a plutôt choisi de s'donner la vie Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Dans ma tête des choses sortent des miroirs Les éléphants sont roses sans porte ni tiroir Du fait d'un esprit un peu mal loti J'ai abandonné tout espoir de devenir poli Alors j'essaie d'pas courir après le temps Pour qu'à la fin je puisse mourir vivant En construisant ce monde dans ma cachette Même si pour vous c'est qu'dans ma tête Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>De quoi tu t'plains? Alors putain de quoi tu t'plains? De quoi tu t'plains, t'as deux mains Malgré les épreuves, il t'reste un rein T'as plus de dépenses à faire pour le chien Depuis qu'il habite au cimetière canin Ton HLM est parisien Côté tsunami tu risques rien L'il bouffé par l'vaccin Avec l'autre au moins tu vois bien Mais de quoi tu t'plains? Ton verre à moitié vide est aussi à moitié plein Tu refais le monde avec trois grammes d'alcool Te défoulant derrière ta console Ouf t'es pas né Américain Fier d'être un Français moyen Beau prince et châtelain Cool, l'amant de ta femme c'est un mec bien Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? You might also like Factures, impôts, emprunts Font de toi un bon citoyen Seul homme atteint d'un cancer du sein T'es plébiscité par tous les médecins Ta fille a laissé une jambe au requin C'est con qu'elle l'ait pris pour un dauphin On t'a spolié tous tes points Bien, sans voiture tu pollues moins Alors, de quoi tu t'plains? Ça aurait pu être pire, t'es pas Roumain T'façon tu peux mourir serein Depuis qu'Drucker t'a serré la main OK, bientôt y aura plus d'eau Mais qu'est-ce que tu t'en fous, il fait beau Dans la télé le monde a faim Mais t'auras oublié demain matin Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? Ton fils est parti avec tout ton fric Pour retrouver son père biologique Toutes tes économies envolées T'as plus à faire la queue au guichet De quoi tu t'plains? De quoi tu t'plains? Mais putain putain putain de quoi tu t'plains? Avec ton odeur de marcassin C'est déjà bien que t'aies accès aux soins Malgré ton trauma crânien Bouge tes cheveux sur ce refrain Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? De quoi tu t'plains? Alors putain de quoi tu t'plains?</t>
+          <t>De quoi tu t'plains? Alors putain de quoi tu t'plains? De quoi tu t'plains, t'as deux mains Malgré les épreuves, il t'reste un rein T'as plus de dépenses à faire pour le chien Depuis qu'il habite au cimetière canin Ton HLM est parisien Côté tsunami tu risques rien L'il bouffé par l'vaccin Avec l'autre au moins tu vois bien Mais de quoi tu t'plains? Ton verre à moitié vide est aussi à moitié plein Tu refais le monde avec trois grammes d'alcool Te défoulant derrière ta console Ouf t'es pas né Américain Fier d'être un Français moyen Beau prince et châtelain Cool, l'amant de ta femme c'est un mec bien Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? Factures, impôts, emprunts Font de toi un bon citoyen Seul homme atteint d'un cancer du sein T'es plébiscité par tous les médecins Ta fille a laissé une jambe au requin C'est con qu'elle l'ait pris pour un dauphin On t'a spolié tous tes points Bien, sans voiture tu pollues moins Alors, de quoi tu t'plains? Ça aurait pu être pire, t'es pas Roumain T'façon tu peux mourir serein Depuis qu'Drucker t'a serré la main OK, bientôt y aura plus d'eau Mais qu'est-ce que tu t'en fous, il fait beau Dans la télé le monde a faim Mais t'auras oublié demain matin Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? Ton fils est parti avec tout ton fric Pour retrouver son père biologique Toutes tes économies envolées T'as plus à faire la queue au guichet De quoi tu t'plains? De quoi tu t'plains? Mais putain putain putain de quoi tu t'plains? Avec ton odeur de marcassin C'est déjà bien que t'aies accès aux soins Malgré ton trauma crânien Bouge tes cheveux sur ce refrain Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? De quoi tu t'plains? Alors putain de quoi tu t'plains?</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bonjour Delleck, je suis Dieu Quoi, t'es ça Dieu? Mais qu'est-ce tu fais avec ta guitare? Oh non, j'en étais sûr, pfff... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes T'as préféré laisser les lapins devenir carnivores Préféré en faire des chansons avec deux accords Du soir au matin, tes chers petits enfants s'piétinent Ton jardin s'est transformé en une jungle sanguine Inferne, doucement, la fin se dessine D'ailleurs Dieu, c'est même plus toi, mais un certain Zinédine Dépêche-toi en bas, faut du gros uvre, pas des rustines Bientôt tes montagnes ne seront plus qu'des collines Sans cur, tu nages en plein Flower Power Ton seul bonheur c'est d'faire des accords en do majeur Si t'as l'souffle divin, mets-toi au saxophone Mais range-moi cette guitare, tu seras jamais Lennon You might also like Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Lâche ta gratte, t'as du travail en retard Tarde pas trop, en bas on t'traite déjà d'salopard Tes succulentes mélopées douces comme un coussin mammaire Contrastent avec l'Enfer dans lequel nous, on macère Frénétique, pendant qu'tu cherches ton parfait refrain Les mauvaises herbes ont recouvert tous tes sacro-saints T'as pas l'impression d'avoir laissé quelqu'chose sur le feu Sept milliards de sapiens comptent moins qu'ta Gibson 62 Tu t'es affalé dans une pétillante légèreté Quitte à nous abandonner à notre humiliante liberté Remarque, T'as même pas su prendre soin des tiens Regarde ton fils, Il a des trous dans les mains... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Chez toi c'est psychédélique et celtico-lyrique Et dire qu'c'est l'autre que tu traites de diabolique Tu papillonnes d'étoile en refrain Fredonne en remuant l'bassin Perfectionne ton jeu aérien Postillonne en araméen Espèce de Mika, tu m'mérites pas, renvoie-moi sur Terre Que j'leur dise de rien attendre de toi ni d'tes émissaires Tes mélodies sucrées, amères, nous ramènent à l'ère glaciaire Mais, t'es vraiment Dieu ou un intérimaire ? Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Bon alors vous m'repeignez les nuages en rose, là Et puis t'es gentil, là, j'ai deux-trois autographes à signer puis ensuite j'ai une gonzesse qu'a envie d'chialer deux secondes, là</t>
+          <t>Bonjour Delleck, je suis Dieu Quoi, t'es ça Dieu? Mais qu'est-ce tu fais avec ta guitare? Oh non, j'en étais sûr, pfff... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes T'as préféré laisser les lapins devenir carnivores Préféré en faire des chansons avec deux accords Du soir au matin, tes chers petits enfants s'piétinent Ton jardin s'est transformé en une jungle sanguine Inferne, doucement, la fin se dessine D'ailleurs Dieu, c'est même plus toi, mais un certain Zinédine Dépêche-toi en bas, faut du gros uvre, pas des rustines Bientôt tes montagnes ne seront plus qu'des collines Sans cur, tu nages en plein Flower Power Ton seul bonheur c'est d'faire des accords en do majeur Si t'as l'souffle divin, mets-toi au saxophone Mais range-moi cette guitare, tu seras jamais Lennon Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Lâche ta gratte, t'as du travail en retard Tarde pas trop, en bas on t'traite déjà d'salopard Tes succulentes mélopées douces comme un coussin mammaire Contrastent avec l'Enfer dans lequel nous, on macère Frénétique, pendant qu'tu cherches ton parfait refrain Les mauvaises herbes ont recouvert tous tes sacro-saints T'as pas l'impression d'avoir laissé quelqu'chose sur le feu Sept milliards de sapiens comptent moins qu'ta Gibson 62 Tu t'es affalé dans une pétillante légèreté Quitte à nous abandonner à notre humiliante liberté Remarque, T'as même pas su prendre soin des tiens Regarde ton fils, Il a des trous dans les mains... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Chez toi c'est psychédélique et celtico-lyrique Et dire qu'c'est l'autre que tu traites de diabolique Tu papillonnes d'étoile en refrain Fredonne en remuant l'bassin Perfectionne ton jeu aérien Postillonne en araméen Espèce de Mika, tu m'mérites pas, renvoie-moi sur Terre Que j'leur dise de rien attendre de toi ni d'tes émissaires Tes mélodies sucrées, amères, nous ramènent à l'ère glaciaire Mais, t'es vraiment Dieu ou un intérimaire ? Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Bon alors vous m'repeignez les nuages en rose, là Et puis t'es gentil, là, j'ai deux-trois autographes à signer puis ensuite j'ai une gonzesse qu'a envie d'chialer deux secondes, là</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bon, on va gratter ça... Oh, il a une étoile Gégé Putain, 2 étoiles! Oh mais... oh! Oh putain, j'ai les 4 étoiles! Un léger sourire lubrique se visse à ma face ankylosée Déjà j'imagine dire à mon chef de service vas t'faire encu... Je vais quitter mon appart' miteux et décrépi Jeter ma femme et flirter avec les actrices vues dans Voici Me voilà dans le luxe, même si je suis parti d'pas très haut C'est fini l'PQ, j'm'essuierai le cul avec des paréos Très vite tout c'que j'toucherai deviendra pépite Mon nom dans les moteurs de recherche trouvera des milliers d'sites J'marcherai sur la foule comme Jésus marcha sur l'eau J'guérirai les cons avec ma pisse en effet placebo Je fabriquerai tout à mon image, comme Hitler le voulait mais comme Bill Gates l'a fait Moi c'est Gérard de Roubaix Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut You might also like L'été j'sortirai ma R21 customisée J'deviendrai branché en allant au concert de TTC Avec tout mon blé, j'manquerai jamais de Gitanes maïs A moi les vacances et l'tourisme sexuel au Laos Jury pour l'casting Graine de pouf, j'ferai partie du PAF Et les week-ends j'ferai du jet-ski avec Lagaf' Ma vie n'sera qu'plaisir alors j'lui donnerai un sens En faisant la tournée des Enfoirés... cocaïne de circonstance Après j'm'achèterai une Harley Davidson J'ferai un road-movie avec Johnny en écoutant du George Benson A Saint-Trop', j'serai sur le yacht au design ovoïde L'exemple, le héros du peuple dans tous les tabloïds Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut Mes mémoires en best-seller Donneront un film où Bruce Willis Incarnera un type salace Se transformant en star céleste Même une goutte d'eau sur une vitre peut briller sous la lumière Mais une fois atteint la flaque, elle n'est qu'H2O malgré ses prières Ma main s'transforme en poing, mes yeux s'gorgent d'eau L'atmosphère s'assombrit, les pigeons se changent en corbeaux Mes fantasmes dégoulinent sur la toile de mes rêves Je ne suis qu'un roi déchu qui aurait avalé la fève Mon regard se fixe sur mon ticket par terre Là où mon putain d'gosse a gratté la case nul si découvert Gérard, Gérard, Gérard, ouais!!! J'suis qu'un prolo qu'a les nerfs, l'icône pathétique Qui voit l'monde qu'au travers d'son antenne parabolique Gérard, Gérard, Gérard, ouais!!! De la star j'ai que les excès, j'suis qu'un alcoolo Qui se sent si petit face à la France d'en haut Gérard, Gérard, Gérard, ouais!!! Gérard, Gérard, Gérard, ouais!!!</t>
+          <t>Bon, on va gratter ça... Oh, il a une étoile Gégé Putain, 2 étoiles! Oh mais... oh! Oh putain, j'ai les 4 étoiles! Un léger sourire lubrique se visse à ma face ankylosée Déjà j'imagine dire à mon chef de service vas t'faire encu... Je vais quitter mon appart' miteux et décrépi Jeter ma femme et flirter avec les actrices vues dans Voici Me voilà dans le luxe, même si je suis parti d'pas très haut C'est fini l'PQ, j'm'essuierai le cul avec des paréos Très vite tout c'que j'toucherai deviendra pépite Mon nom dans les moteurs de recherche trouvera des milliers d'sites J'marcherai sur la foule comme Jésus marcha sur l'eau J'guérirai les cons avec ma pisse en effet placebo Je fabriquerai tout à mon image, comme Hitler le voulait mais comme Bill Gates l'a fait Moi c'est Gérard de Roubaix Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut L'été j'sortirai ma R21 customisée J'deviendrai branché en allant au concert de TTC Avec tout mon blé, j'manquerai jamais de Gitanes maïs A moi les vacances et l'tourisme sexuel au Laos Jury pour l'casting Graine de pouf, j'ferai partie du PAF Et les week-ends j'ferai du jet-ski avec Lagaf' Ma vie n'sera qu'plaisir alors j'lui donnerai un sens En faisant la tournée des Enfoirés... cocaïne de circonstance Après j'm'achèterai une Harley Davidson J'ferai un road-movie avec Johnny en écoutant du George Benson A Saint-Trop', j'serai sur le yacht au design ovoïde L'exemple, le héros du peuple dans tous les tabloïds Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut Mes mémoires en best-seller Donneront un film où Bruce Willis Incarnera un type salace Se transformant en star céleste Même une goutte d'eau sur une vitre peut briller sous la lumière Mais une fois atteint la flaque, elle n'est qu'H2O malgré ses prières Ma main s'transforme en poing, mes yeux s'gorgent d'eau L'atmosphère s'assombrit, les pigeons se changent en corbeaux Mes fantasmes dégoulinent sur la toile de mes rêves Je ne suis qu'un roi déchu qui aurait avalé la fève Mon regard se fixe sur mon ticket par terre Là où mon putain d'gosse a gratté la case nul si découvert Gérard, Gérard, Gérard, ouais!!! J'suis qu'un prolo qu'a les nerfs, l'icône pathétique Qui voit l'monde qu'au travers d'son antenne parabolique Gérard, Gérard, Gérard, ouais!!! De la star j'ai que les excès, j'suis qu'un alcoolo Qui se sent si petit face à la France d'en haut Gérard, Gérard, Gérard, ouais!!! Gérard, Gérard, Gérard, ouais!!!</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Les fils de 3801 s'présentent, de nos valvules reviennent Non réclamer ce qui leur est dû mais reprendre ce qui leur revient de droit Par vagues, scélérats, on déferlent comme une Black Nova La rime ardente puis qu'elle est sculptée à même le magma Il est temps de suivre sa destinée, et de se débarrasser des consciences Imaginaire sans prime au détriment du craintif qui n'est que re-luisance Vivre le demain pour m'extraire du hier En colère, j'préfère m'éclabousser d'une flaque de lumière A ce moment précis, il n'est plus question de complaisance Les fidèles seront récompensés Nul ne peut noyer la flamme de la foi qui brûle en chacun d'eux depuis l'avènement de notre dernier passage L'effervescence passionne le bon sens Pour le bien des nôtres, l'apport d'éléments est planifié Admiratrice de l'impossible qui devient palpable C'est la quintessence à l'état pur Feindre l'ignorance n'est que des coups On est tellement en avance que le futur est derrière nous You might also likePactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Sorti d'un lit de lune Entre les cratères et les dunes Mon éclipse à la masse d'une enclume Nos ailes ne sont faites que de brumes Je vis je suis la série d'un multiple d'un ADN non défini En bien ou en interdit, je ne reste que le suis J'ai la furie de l'infini A la souche d'où tout est parti Maintenant il est temps pour le temps qu'il se replie Unique comme deux frères d'arme Lemblème trempé du sang des impurs Ne suivent pas ma charte, la force de 1000 et 1 trous noirs Cyberdruide à l'exosquelette lisse et hystérique A la métrique plasmique, créant des AVC Déployer l'avenir peut créer l'offense du passé Comme des mécréants brandissant un Coran dédicacé Nos scaphandres sont fait des cendres du Big Bang La tête dans les nuages, on sera jamais prêt à redescendre Votre vulgaire raison, nous préférons vous la rendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée !</t>
+          <t>Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Les fils de 3801 s'présentent, de nos valvules reviennent Non réclamer ce qui leur est dû mais reprendre ce qui leur revient de droit Par vagues, scélérats, on déferlent comme une Black Nova La rime ardente puis qu'elle est sculptée à même le magma Il est temps de suivre sa destinée, et de se débarrasser des consciences Imaginaire sans prime au détriment du craintif qui n'est que re-luisance Vivre le demain pour m'extraire du hier En colère, j'préfère m'éclabousser d'une flaque de lumière A ce moment précis, il n'est plus question de complaisance Les fidèles seront récompensés Nul ne peut noyer la flamme de la foi qui brûle en chacun d'eux depuis l'avènement de notre dernier passage L'effervescence passionne le bon sens Pour le bien des nôtres, l'apport d'éléments est planifié Admiratrice de l'impossible qui devient palpable C'est la quintessence à l'état pur Feindre l'ignorance n'est que des coups On est tellement en avance que le futur est derrière nous Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Sorti d'un lit de lune Entre les cratères et les dunes Mon éclipse à la masse d'une enclume Nos ailes ne sont faites que de brumes Je vis je suis la série d'un multiple d'un ADN non défini En bien ou en interdit, je ne reste que le suis J'ai la furie de l'infini A la souche d'où tout est parti Maintenant il est temps pour le temps qu'il se replie Unique comme deux frères d'arme Lemblème trempé du sang des impurs Ne suivent pas ma charte, la force de 1000 et 1 trous noirs Cyberdruide à l'exosquelette lisse et hystérique A la métrique plasmique, créant des AVC Déployer l'avenir peut créer l'offense du passé Comme des mécréants brandissant un Coran dédicacé Nos scaphandres sont fait des cendres du Big Bang La tête dans les nuages, on sera jamais prêt à redescendre Votre vulgaire raison, nous préférons vous la rendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée !</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gotta run on drop top screaming now fuck the world Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? One shot, one deal, fuck around tu te fais take out J'get super wasted in an all black Benz and I watch the city fade out What you know about the type of shit that we on Aeon Flux, yeah le genre de chicks that we on On fait des bad moves, that'll be on us Mais d'ici la on reach pour les billions R. Kelly fuck boys get peed on, ton shit est bidon Move a kilo on a d-low cock back reload Fuck that where my hustlers at, où sont mes bad girls, où sont mes bad goons, , où sont mes bad goons Gotta run on drop top screaming now ''Fuck the world'' Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? So what you say now? Invincible depuis cinq semaines solide À mélanger l'ambition et l'insomnie Toujours sur le grind, ain't no summertime for me Un pied sous la terre, un oeil sur la terre promise Y'a pas de suite logique Already run le show, pourquoi hit le gym ? Ton boy se maintient sur un strict régime Nothing but champagne and sweet revenge Man, I swear I'm goin' crazy these days J'signe des contrats comme des autographes But I own my masters, ain't no slave, sorry Audiogram They say time is money, I've been winning the whole summertime Y'a pu personne à mon niveau, non y'a personne à mon niveau Now, c'est ça mon drame Sur le south shore pour un sold-out show avec le chauffeur T'étais chaud for a minute, but you ain't got shit to show for it Sittin' on top, voyez ce que le rap a fait de lui La Dolce Vita dans mon 8 12, feelin' so Fellini Hum That's all black pour elle et lui yeah Right That's all black pour elle et lui Not bad pour un dropout selling weed Now I need that drop top, Thelma and Louise Hum Pas d'marge pour me tromper, toujours marcher du bon pied Pas d'farces, baby I don't play Je check Pensado's place at my side hoe's place And that's work work, wo-work, work Go to work chaque soir pour redonner l'espoir aux depressed kids J'vous amène au sommet, then I got a little something pour l'après-ski Few drugs proscrites getting prescrites Trudeau Pas le genre de story que tu liras dans mon press kit Underdog until I'm under God Get me some avant qu'sonne le glas Split la job avec les chums de gars Dès que j'donne le go, tout le monde donne le gas, like Tout le monde donne le gas, like Dès que j'donne le go, tout le monde donne le gas, like Go You might also like Y'a des glaçons dans lpunch fruité Tassaisonnes le Jameson, c'est pas une bonne idée C'est tu lfun pisser du whiskey pis du rhum givrée? Déconne ivre et dégringole lescalier avec un pichet digne de Paul Piché Cte punch là, tu vas pas lpiger, mais livrogne il sait Que jparle des marches qui consomment qui tes Démarche de drunk, les neurones giflés Après tavoir hissé dla bolle tous tes chums tauront comme quittés Don Quichotte tu ripostes dans les clubs, t'es fucked Mais une fois sobre la poque sur los sphénoïde te choques Ton ego trip de brosse gosse comme lhaleine de scotch Cest ptêtre pour ça que même tes potes se tiennent jamais trop proche On te demande de prendre la porte des que tu rentres dans lspot Les clés dans les chiottes enclenchent la cadence sur ton stéthoscope Tes mieux dattendre à soir ou ben donc dapprendre à boire Tellement qu'téchappes le fort on sort le scaphandre d'la boite En accord avec les lois sur les Honda croches Les undercover cops te menottent pis tapportent au poste Tu cherches la merde, mais test trop pas game Tu régurgites ta dose de Troika comme un yoga flame Tu vois, moi Même quand jsuis saoul jsuis chill J'suis capable de résoudre le trouble avec des foutu skills Shooter dans lnombril de la barmaid le spliff sparké Les bitches sur le party minvitent à lhit dans lwhip parké Jpense que tu comprends merci pour ma tranche de vie Maintenant retour au focus man, y'est temps que tu changes de beat Tu déranges les gens calisse que tu gosses en crisse Tes homies ten informent pas parce que test un gars sensible Ton insecurité saigne man, tu tpognes le beigne x3 Jmenvais play hard, go hard Jouer dur comme un hooligan Mother fuck the police, lâche mon bounda Quand tu mcroises, haut les mains Hold it down, fuck les guns Mon gars fuck ton money, fuck tes conne Quand tu joues aux échecs Ça sent dicite jusquau Mont Ste-Anne Bless Les roues tournent sur l'éconoline Whole squad on the road now what a life Sun light fade dans le rétroviseur Six heures qu'on roule libre comme l'air Woke up counting money down in Morin-Heights Même chose tomorrow night Demain soir rentrée montréalaise Immortalize the young rap legend on the rise J'ai laver mon linge sale devant une salle comble Ma famille étaient VIP sur le balcon J'ai laissé les patnais avec le bracelet On va party like it's back then, backstage ahhh I've been in and out of love, in and out of money J'ai perdu mon temps dans la mélancolie Perdu ma tête dans un instant de folie But I never lost faith on a homie counting on me mmmh Toujours rock solid pour mes soldats À chacun son hustle then it's all love On a booké des shows, then they showed up Sold out Club Soda like we sold drugs Les gars sur qui j'peux compter, j'peux les compter sur mes doigts Tu peux toujours tout me conter, j'vais pas compter c'que tu me dois Tu maurais donné lchoix jt'aurais dit non Non plus oui ctu égal dans lfond Vaut mieux stimuler lénergie pour arriver au front Prêts, ready comme des enfants à qui on passe un ballon Jai du faire le tour du globe pour aller au dépanneur Comme quoi faut savoir le temps pour demander quelle heure Nous cest piles comprises si tas bien compris Pas besoin de batteries le stock est dans machine On est là, que des humains la fine pointe de la magie Nous on déchire, on crie Sans micro, jusquà Paris Juste des ronds dans lstreet comme Ogden le dit Montre-moi cque tas dans lventre Jvais découvrir qui jsuis Tu croyais que jtait ici mais j'suis sur St-Cyrille Lock down le boulevard comme en guerre civile Tu mcherches encore pis jsuis en train dsourire Jt'à Montréal coin Peel, mon gars, Peel! Reste cool tu veux tpayer une bouffe au resto Va falloir faire du temps comme les dudes à Bordeaux Non, non cest vrai qui a des jobs dehors Mais jme sens comme un esclave qui pars à lîle de Gorée Encore, le poids dla vie sur mon corps Jvoulais mtirer dans rivière mais jattendais ton call, hmm Fuck that, tout ltemps pluggé pourtant Lordi buggait pis tes parti comme un gars qui a pu ddents Si faut séparer lhomme de la Le bon sens dla folie Le bon sens dla folie La connerie dla manchette Comme si pour creuser il me fallait une machette Jai des dents, pis des bras, pis surtout une pensée claire et nette Cyfo ça y faut lfaire cypher juste pour savoir cquon vaut sans silence Juste au moment où la seconde devient si lente cest élastique Jécrase les batteries sur le ciment x4 Run around en bus dans le hooptie, nobody can touch me Shoutout à mes vendeurs, faut ce qu'il faut, yeah, il faut garder les custies One shot one deal fuck around tu te fait take out J'get super wasted in an all black Benz and I wonder 'till you fade out What you know about the type of shit that we on What you know about the type of shit that we on I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn Si les mots te plaisent Fait en sorte que mon bread il multiply Few new joints dans mon dope supply Si le team est trop gros tout le dough se perd So we stay close, pas de nouveau gars sur le pay roll Juste les day ones, pi les A-1 Keep a plug for the yayo Better lay low, j'ai un semi-automatique pour les impôts And un fresh éconoline pour les bang bros And I take you for a ride on Saint-Lau And Im always down for my day ones Wassup big homie, get your cake up And I'm talking big money, pas juste quelques K J'serai toujours là si t'as besoin de quelqu'un X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Trust personne, le coeur crushed comme des somnifères So many days, so many nights Les nuits sont blanches en été à Montréal So many friends Vingt shooters, trois taxis, then it's on to the next 'Doit rien à personne, dites à son amour qu'elle est morte Noyer la pression, get drunk, fucking and then some Mourir trop vite, tout vivre trop jeune Styrofoam cup full of mixed emotions Le nouvel appart' coin ParcSt-Joseph, huh Mais pas d'épargnes dans le compte chèques X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Tic tac diggity wrap the fuck up Deux feuilles de tabac deux grammes de bleu gras À chaque cousin français qui spointe Pus dcoin y avait pu ça du we du weed de même Deux puffs dégeule à terre un classique Y dvient blanc comme lhiver, j'y goût d'.... aaah! J'aaarhh jécris 45 barres, prochain coup dcymbale Pif paf un aut blunt qui passe Deux bières tappe les deux mains, passe le mic Jai assez dtextes pour rapper jusquà demain soir Tu m'passes mon tape, je comprends rien, tu connais rien Christ de ciboire, t'as du rap, pas du simili-porc Ogden fuck avec un maudit post-rigodon, passe à coté Lâche le citron, fais demi-thon Tas pas à penser penser juste danser dans ces cas-là Bouge un peu ton bassin Martin On est pas faite en chocolat Men ici Québec, Félix Leclerc, Jean Leloup, f... Kendrick Aaah! Get the fuck out on est plastifié, blast le shit gun en plastique dans Dichet Derjardins coin Cartier Dopeness quasi-interdite, choke su lspliff pendant quOgden te décalisse Je choke mon rap, that's it Alaclair most high to the... fuck that! Street dreams dans les fenêtres d'école T'as besoin d'dough then you sell dope, basic stuff It gets tough though, le game c'est un sable mouvant Une fois que tu fais des revenus then you can never move on Whatever Le boy Joe avait la Blue Volvo Le Blueprint disait U Don't Know Sure we did not Little did we know, we could get a lot Move a kilo on a d-low, make a killing as a dealer On a toujours été rêveurs since for ever Deux pieds sur le terre-plein, on pensait airplanes Big things to come Young kings to crown Now we run things, that something to think about, uh L'ignorance était tellement wrong La ligne orange semblait tellement longue When she was still around Still friends no difference Nothing but a nostalgie thang baby, uh Garde une couple de connexions à Ahuntsic Y'ont toujours les remèdes maisons quand j'feel home sick On fait comme si, mais c'est p'us comme les premières fois Maintenant j'garde la tête froide devant la mauvaise foi Une coupe de fake friends disent qu'j'suis plus really real Si j'avais fail, peut-être qu'on pourrait relate Mais là j'sais pas, man Some people that I grew up with just never grew up J'ai préféré les perdre de vue que d'les voir perdre, uh Avec tout ce fucking blow il me faut une paire de Merrel I be stuntin' on these fuckboys dans une Panamera Extra extra Lady Antebellum Own the Night status Compare-moi à personne dans ton rap queb Ton premier handicap c'est ton Yankee cap Young fashion God, Denis Gagnon, fancy rap Realest shit I ever wrote Matter of fact I don't write shit, let 'em know Semi-auto squirt, drette dans ton Givenchy shirt Juste parce que j'me sens vicieux Ginette Reno when it's lunch time Jacques Parizeau when it's Scotch time Lise Watier, blush time Loudmouth c'est le best so mo'fucker respect Lary Kidd est fresh, that's right, correct A-Justice est cinglé, that's right, correct Boy, flat line, you're dead You suck, you're a shame, but am I to blame To blame you for being such a motherfucking lame Ain't shit changed, le Kidd est still the same Rien à foutre de me faire remercier parce que j'ai changé le game Crazy in the brain, deux hoes dans le Range Rover Going both ways vitres baissées sur la main Fuck all of y'all Switch lane, change de bord Get paid ou retourne jouer dans ton carré de sable Mon wrist game est modeste, mon piss game est ugly I squeeze it out my dick like it's fucking silly putty Yo peep le visuel Sul banc sal au spot habituel Janvier gèle le parc Puff-pass, le rituel Swigg la Grolsh Pose dans un coat de snow J'porte un toast Au North Face Qui nous chauffe les os Chocolat chaud Des guimauves Pis une blonde qui blow En Penfield Herringbone Une bombe quand elle pompe l'hydro Trempée dans le bubble goose Perrier pour la vodka juice Poche pour le baggie-toots Sur le Kanuk avec le col hibou Ton Columbia Brah, c'est pas si officiel que ca Même couleur ciel Avec une clip Pour tenir ton cell qui sonne Match tes shits Les accents sur les Arcteryx Doivent combiner avec Le panneau latéral des kicks Maléfique La veste cache les armes Qui tag les briques C'est à mes risques Si les manches sont sales Faut que je lave les fibres Y'a tu d'la place pour stash Le fuckin pic-à-glace terrible Qui laisse des traces Néfastes, ça frappe et puis Efface les snitches Montréal, c'est frette On calle les Boréales des deps Défaite de la capitale On sort le tricolor Les patch sur les vestes Le jacket cardinal est fresh J'le porte avec allégresse Classic vintage Y'a pas mal d'années de faites Emmettre le memorable, c'est l'best Des fois il faut se forcer à les mettre Camouflage 900 plumage d'oie, j'tai dead Tu fais des arabesques On fait des airs avec Vole un mulet pis tu traverses le désert avec Envoi les signaux, black signets, plaque signée Statu quo prend lbord comme une statue fausse Cest du Fake comme la marque à Wats Débarque à soir des cochons smilent comme Jam et Dox Tu veux du boulet jai des canons Va tu écrire cque tu penses littéralement sur la face du monde Pas d'temps à perdre à soir Entouré d'buddy quyont des formes austoires Jai remarqué les rues sont coupées par des coins Ya plein dparty roulés par des joints Laurent jimmy qui mdit qui connait Pour moi l'stiff est fucked comme du comète Entouré de problèmes pogné au centre De toi même, tas tu lgoût dcouper ta chaîne ? On veut vivre dans lrêve, vivre dans lluxe Tu défèques déjà d'in bol deau pure Tu veux jouer les Jo connaissant Tu vas finir par te perdre sans connaissances Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire T'as déjà vu des dollar signs sur l'odomètre Ben l'éconoline c'est d'ça qu'a d'l'air They say crazy shit about us They say crazy shit about us They say crazy shit about us They say crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes Crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes And I don't sleep gotta go to work, poser pour des caméras Rock stars et fashion gods qui tear apart des arénas I just woke up in a hotel avec 15 000 fucking dollars Pis un chapeau d'poil du Lowell Pis un chapeau d'poil du Lowell They say crazy shit about us Young man with the money Goddamn shit ain't funny I'm a fan of the money Je suis rien de plus qu'le produit I'll be damned if I let another man Essayer d'venir mettre la main sur mon produit Donc, kesser tu veux faire? Tu rêvais d'être un baller Shot caller, le grand luxe Drop out of college, 10 dollars l'heure Le rap a foutu ta vie en l'air All 'em bitches want my picture Mais y'a pas de quoi s'pitcher ses murs Tu ferais ben mieux d'être rich Que d'être almost rich and famous Les labels voudraient du beef Mais tu sais qu'on est cool avec les Dead Obies And they know they damn well better be T'es-tu sûr sûr que tu veux survivre Comme moi c'est dur Comme le verse de Connaisseur sur Sur le corner T'as vu l'heure qu'il est ? Baby I'm working late Faut que j'travaille pour mon siège à l'Adisq entre les soeurs Boulay I'm tryna get that James Hyndman Money man Top rappers in the game, still jamais nominés Hey, is that a real day job ? C'est dur à dire comme Loud Lary Ajust Yeah they talk a lot of shit All for the show If it ain't about my money Dis moi qu'est-ce vous marmonnez Yeah I get a lot of... huh They all give me... huh Jeune fille t'as pas changé Mais c'est sûr t'allais pas changer Aucune bitch autour de moi pour venir me backstabber You can tell by the way I walk that I'm a youngin' Beat you on some stupid shit, fait pas ton comique I be the one with the rubber gloves Duckin' under the bridge pour te pogner ? Au pire mon gars on te pogne chez vous, juste fuck it Pi on laisse ton linge real souillé Long John chrome real rouillé As well, to shoot you to hell Walk around with a pimp strut like a fly gangster With them thick wallys on Plein de peinture I be the one getting money in this bitch and you know it And en fait j'suis broke, c'pour ca que le rap queb est dans le coma Donnes moi des moyens pi j'vais noyer le street Charlie Sheen on a hoe Over a bag of weed and some blow I walk around like you walk around walk around with this trap I don't walk around with a strap I walk around like I'm strapped You fuck around and get clapped If you walk around with a strap Le bruit des balles à blanc qui fend l'air dans la nuit like ''PAH!'' I'm keeping it real, I'm keeping raw, forever I'm so white j'allais oublier de dire Nigga J'suis un miracle, jai encore failli mourir vla deux mois Je mappelle Emmanuel comme Selassie Haile Yo smash up le thon Jusqua c que le carton cramme Je m'approprie des grosses puffs Qui vident mes poches de grammes Cinq piasse la touche le gros Ca coute la peau des fesses Ajoute ton bras au total Lets go, on smoke smoke le cess Une forte haleine de thon Grace a l'innalation Quebec gold et silver haze Merite les medailles de bronze Vagabonds et fils de riches Ensemble se twist des spliffs Unis dans l harmonie De la potence du kryptonite Smashed par les poff de mangue Mes potes qui puff ensemble S comportent comme mon prof de science Qui porte une robe de chambre Relax divan pantoufles La chambre du parlement sen doutent Y bloquent les chances du chanvre Comme l'Avalanche Sans Vincent Damphousse Y faut defendre le parti Bloc pot pour que notre patrie Legalise moi ca moi ca tout suite Et-pis criss moi le dub dans l tapis Dla bombe comme nagasaki Qui fait quon plonge dans-le monde de alice Comme alexandre despatie Qui participe au olympiques pis le triple flips Sont freestyle comme du ski gratuit Y'a de la la glace sur le freezeland Osti que mon flow y patine Tire la toke de creme Le THC glacee qu jaime Paqueté dans le cornet Legenre qui donne des migraines J vaccine mes alvéoles La peau est faite de pulpe De papier qui plie parfaitement Pour que j reste dans ma bulle Petite fumée nocturne Qui danse a l'aube dla vie La poesie du moment C'tune grosse philosophie Epistemologie d coin table Pendant que j'egraine les coots Ma pensée est rendu instable Y'en a qui disent que j'suis fou Le gros tu reflechis trop Faudrait que tu lache la drogue Mais c pas justle le weed dans vie Qui fait q jm interroge Débug mon cervaux de stress Ca m prend un joint solide Une osti toke qui fesse Pis la chu euphorique Un autre pak de rizz Une grosse mission au dep Habile on roule le spliff Architechte comme Imhotep Defois j prend des puffs Juste pour le fait de prendre une puff Fak la joublie mon texte Fak a place jprend une puff Deuces! Ok jeunes filles going crazy, um Des supermodels, elle sont nerveuses elle sont nerveuses Nouveau record soon to drop Elles jure qu'elles sont pas des groupies chaque fois qu'on est sous les draps Man elle dira ce qu'elle voudra they always lie when they do drugs I was way too drunk, maintenant pourquoi t'es toujours là Ca pourra pas marcher but we still had a good run tu trouve pas ? Oublis jamais qu'on est super unofficial On the side, all joke aside, I'm just fucking with you huh I got to keep it movin quest-ce tu croyais ? Ma vie c'est un movie when I'm shootin keep quiet Comment tu me comparais à ton average citoyen J'paye mon loyer ak du rap money, travailler pour soi-même Employée de la semaine à chaque semaine that's what I am Pas de vacances pas de poste vacant 9 a 5 AM, I mean I mean don't wait on me girl I'm on my way to work, work work work You can still find me flexin' out of the Candlewood Suites Chug un 40oz de vodka avant d'aller au lit Imma die so fly ça vous m'aviez compris In a white suit Tom Wolfe, radical chic Plus a large amount of coco MM6 SS15 Graduited from the Polo Sucker free squad Toutes les hoes sont ravies Jeune artiste en vogue Mon appart ressemble à Paris Realest in tha hood Freshest on tha block J'en ai rien à foutre Let the semi pop Shootin' blanks outta fuckin cabriolet Avec ta girlfriend in tha back Qui s'débrouille si bien que j'vais l'appeler Marie-Soleil It's a shame à quel point on est juste ailleurs Spaced out hoes, j'les appelle Julie Payette Welcome to the other side où les choses sont plus pareil Rap money is the motive Pop le Moet dans un câlice Gotta keep it eh!- Keep it balanced Mon boy, quel bon beat Baby there's nothing you can tell me Baby there's nothing you can tell me A m'a demandé si j'tais jeune et fly, I told her hell oui A m'a demandé si j'allais pouvoir lui cop du LV Man I'm so high that I'm tryin' to find a LZ A m'a demandé si j'allais pouvoir lui cop du LV Better find me drug if you wanna know about me J'vais jamais toucher un million à moins que j'vende d'la coke J'ai choisi d'rester broke, mais j'veux pas finir fru comme Zïlon J'ai l'goût d'finir su' un boat M'enlever d'la liste d'élections Crier fuck vous autres, fuck nous autres Mourir dans un typhon But I'm gettin' all that paper Les maudits publi-sac que j'feuillette, feuillette, feuillette, feuillette Finissent toutes dans le recyclage, bud' God knows, première page des journaux Un chien retrouvé mort dans le fond d'une ruelle proche de Deschambault Pis j'vas... Pis j'vas jamais dire de niaiseries J'suis ben trop préoccupé à écrire des bijoux de la langue française En gros... En gros sale québécois Joual. Quoi? Fédéral? Fuck that général! Pis j'suis fier de mon gouvernement Une gang de mottés millionnaires qui s'tirent les cheveux depuis soixante ans Pendant c'temps là, man pipi dans l'eau potable Gettin' all that paper, man Mais ça finit dans le recyclage Cause it's all about that money It's all about that money It's all about that money And we all about that money, man All about that money All about that money Osti, j'suis fucké Roule un blunt je cotise Alejandro Jodorowsky El Topo pollo Kentucky Se7en up Super croc J'pèse play le dvd rush L'écran picotte Parce que le disque c'est une copie ? Crache les puffs toxiques Traumatisme pour le cortex Être braindead c'est une force cosmique Peter Jackson laisse un bad taste sur tes papilles ? Mes pensées s'éparpillent Comme une pélicule de Guy Ritchie Up in smoke, tie dye trippy Easy Rider Taxi Driver, Jeune De Niro ou Gerard Pirès Frank Sivero snipe Al Pacino snuff le Cineplex Tequila toute épreuve Oh boy qui déguste la pieuvre ? Kubrick qui shoot des oeuvres Crade Battle Royale Takashi Miike sur le flow Nouvelle génération ? Tetsuo La biologie selon Ricardo Trogi Québec Montréal Un crack dans la tête la puff lobotomie Du weed Denys Arcand ciel Lève l'Armée des Ténèbres Sam Raimi trilogie L'original c'était Evil Dead Peur et dégoût en français ? Alice était merveilleuse en criss Dans la version Czech Dans la vie j'suis plus vedge Que Henri dans Eraserhead ? pour un rêve Terry Gillam et les frères Coen Mange l'Orange Méchanique Tu te sens comme John Malkovich Planète Sauvage La ciudad de Dieu des narcotiques Le crash de Paul Haggis Les cités crack haine irréversible Charles Foster game Toutes les images réflechissent I'm on my hometown glory shit Sort of like a young Jim Morrison Les poèmes et la drogues man je suis horrifié Boîtes de chaussure Adidas, we used em as storages Le whip se doit d'être Oreo, drive that shit to Florida Don't care where you at, where you from and your origins Tu te mets dans le chemin du bread Pis on te laisse trainé dans un corridor I just might cop un semi-auto Juste pour me faire un peu de fun Real life Grand Theft Auto, bitch On est dans ta ville, quelques voitures back to back Posons, parade style, hate me now C'est quoi apprécier l'art de nos jours Gossip over un verre de vin a l'Arsenal with your boys, please Pis maintenant t'étudies la mode Ya même pas deux mois tu portais encore du Billabong Get the fuck out of my city avant que je plis ta robe Tu veux devenir couturier, moi je te donne du fil à retordre Get money shit School drop outs, fuel pour les cop cars Red Bull in the cup a'ec la vodka, go fuck off Born sinners Cry me a river, let it sink en dessous du pont Pie IX I gotta stay scheming' Sur ces rappers queb nés pour un p'tit pain steamé C'est juste logique si ils manquent le toast They know nothing 'bout this life we chose Suit case Ralph Lauren, les souliers that's foreign Ship 'em off du UK, j'donne des coups de pieds avec quand même Saoul comme une botte j'm'en caliss J'suis Bass God, Bootsy Collins Les groupies bouches pâteuses when they hollering' the God Mais I don't stop for nothin' Des mouches dans le pare-brise New Darth Vader, tout de noir vêtu Ch'mise Candlewood comme un baseball player May Gullywood be that brand you trust Montréal su'l chandail pas de Brandon Prust Pour les médias on est rien d'autre que des trending topics Men I should fuck this whole game, random thoughts Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Yo one two three four five six seven Les realest mothafuckers sont back dans cuisine Pis c'est pas rien que du quiquine quand je step sur le beat en comme c'est wicked Le feu devient liquide Quand je spit c'est du bacon Stacké comme du bacon Trois points, Scottie Pippen They call me Scotty bibinne Heyy, c'est même pas le mois de mars On the beat comme un policier J'rap comme un policier J'te vole ton weed, pis j'le smoke comme un policier Chillin' sur le DS Ma femme chill sur le VS Mon fils dort pis j'écris des raps comme un TS Chillin' avec pis Bossé Mon rap c'est buzzé, but I'm fly like Réal Bossé Ehin! Jettes ton drink dans les airs Pis fais comme si t'allais don't care qui te r'tombe ç'a poire Uptown, c't'écrit sur le corner Même si tu finis lock-down pis tu sors pus des borders Fly as a motherfuckin kite, aight Pourquoi tu feel tout triste? C'est juste du rap musique Fuck that shit! Double L-A rap shit for the life! Merci bonsoir Brouillon À compléter</t>
+          <t>Gotta run on drop top screaming now fuck the world Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? One shot, one deal, fuck around tu te fais take out J'get super wasted in an all black Benz and I watch the city fade out What you know about the type of shit that we on Aeon Flux, yeah le genre de chicks that we on On fait des bad moves, that'll be on us Mais d'ici la on reach pour les billions R. Kelly fuck boys get peed on, ton shit est bidon Move a kilo on a d-low cock back reload Fuck that where my hustlers at, où sont mes bad girls, où sont mes bad goons, , où sont mes bad goons Gotta run on drop top screaming now ''Fuck the world'' Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? So what you say now? Invincible depuis cinq semaines solide À mélanger l'ambition et l'insomnie Toujours sur le grind, ain't no summertime for me Un pied sous la terre, un oeil sur la terre promise Y'a pas de suite logique Already run le show, pourquoi hit le gym ? Ton boy se maintient sur un strict régime Nothing but champagne and sweet revenge Man, I swear I'm goin' crazy these days J'signe des contrats comme des autographes But I own my masters, ain't no slave, sorry Audiogram They say time is money, I've been winning the whole summertime Y'a pu personne à mon niveau, non y'a personne à mon niveau Now, c'est ça mon drame Sur le south shore pour un sold-out show avec le chauffeur T'étais chaud for a minute, but you ain't got shit to show for it Sittin' on top, voyez ce que le rap a fait de lui La Dolce Vita dans mon 8 12, feelin' so Fellini Hum That's all black pour elle et lui yeah Right That's all black pour elle et lui Not bad pour un dropout selling weed Now I need that drop top, Thelma and Louise Hum Pas d'marge pour me tromper, toujours marcher du bon pied Pas d'farces, baby I don't play Je check Pensado's place at my side hoe's place And that's work work, wo-work, work Go to work chaque soir pour redonner l'espoir aux depressed kids J'vous amène au sommet, then I got a little something pour l'après-ski Few drugs proscrites getting prescrites Trudeau Pas le genre de story que tu liras dans mon press kit Underdog until I'm under God Get me some avant qu'sonne le glas Split la job avec les chums de gars Dès que j'donne le go, tout le monde donne le gas, like Tout le monde donne le gas, like Dès que j'donne le go, tout le monde donne le gas, like Go Y'a des glaçons dans lpunch fruité Tassaisonnes le Jameson, c'est pas une bonne idée C'est tu lfun pisser du whiskey pis du rhum givrée? Déconne ivre et dégringole lescalier avec un pichet digne de Paul Piché Cte punch là, tu vas pas lpiger, mais livrogne il sait Que jparle des marches qui consomment qui tes Démarche de drunk, les neurones giflés Après tavoir hissé dla bolle tous tes chums tauront comme quittés Don Quichotte tu ripostes dans les clubs, t'es fucked Mais une fois sobre la poque sur los sphénoïde te choques Ton ego trip de brosse gosse comme lhaleine de scotch Cest ptêtre pour ça que même tes potes se tiennent jamais trop proche On te demande de prendre la porte des que tu rentres dans lspot Les clés dans les chiottes enclenchent la cadence sur ton stéthoscope Tes mieux dattendre à soir ou ben donc dapprendre à boire Tellement qu'téchappes le fort on sort le scaphandre d'la boite En accord avec les lois sur les Honda croches Les undercover cops te menottent pis tapportent au poste Tu cherches la merde, mais test trop pas game Tu régurgites ta dose de Troika comme un yoga flame Tu vois, moi Même quand jsuis saoul jsuis chill J'suis capable de résoudre le trouble avec des foutu skills Shooter dans lnombril de la barmaid le spliff sparké Les bitches sur le party minvitent à lhit dans lwhip parké Jpense que tu comprends merci pour ma tranche de vie Maintenant retour au focus man, y'est temps que tu changes de beat Tu déranges les gens calisse que tu gosses en crisse Tes homies ten informent pas parce que test un gars sensible Ton insecurité saigne man, tu tpognes le beigne x3 Jmenvais play hard, go hard Jouer dur comme un hooligan Mother fuck the police, lâche mon bounda Quand tu mcroises, haut les mains Hold it down, fuck les guns Mon gars fuck ton money, fuck tes conne Quand tu joues aux échecs Ça sent dicite jusquau Mont Ste-Anne Bless Les roues tournent sur l'éconoline Whole squad on the road now what a life Sun light fade dans le rétroviseur Six heures qu'on roule libre comme l'air Woke up counting money down in Morin-Heights Même chose tomorrow night Demain soir rentrée montréalaise Immortalize the young rap legend on the rise J'ai laver mon linge sale devant une salle comble Ma famille étaient VIP sur le balcon J'ai laissé les patnais avec le bracelet On va party like it's back then, backstage ahhh I've been in and out of love, in and out of money J'ai perdu mon temps dans la mélancolie Perdu ma tête dans un instant de folie But I never lost faith on a homie counting on me mmmh Toujours rock solid pour mes soldats À chacun son hustle then it's all love On a booké des shows, then they showed up Sold out Club Soda like we sold drugs Les gars sur qui j'peux compter, j'peux les compter sur mes doigts Tu peux toujours tout me conter, j'vais pas compter c'que tu me dois Tu maurais donné lchoix jt'aurais dit non Non plus oui ctu égal dans lfond Vaut mieux stimuler lénergie pour arriver au front Prêts, ready comme des enfants à qui on passe un ballon Jai du faire le tour du globe pour aller au dépanneur Comme quoi faut savoir le temps pour demander quelle heure Nous cest piles comprises si tas bien compris Pas besoin de batteries le stock est dans machine On est là, que des humains la fine pointe de la magie Nous on déchire, on crie Sans micro, jusquà Paris Juste des ronds dans lstreet comme Ogden le dit Montre-moi cque tas dans lventre Jvais découvrir qui jsuis Tu croyais que jtait ici mais j'suis sur St-Cyrille Lock down le boulevard comme en guerre civile Tu mcherches encore pis jsuis en train dsourire Jt'à Montréal coin Peel, mon gars, Peel! Reste cool tu veux tpayer une bouffe au resto Va falloir faire du temps comme les dudes à Bordeaux Non, non cest vrai qui a des jobs dehors Mais jme sens comme un esclave qui pars à lîle de Gorée Encore, le poids dla vie sur mon corps Jvoulais mtirer dans rivière mais jattendais ton call, hmm Fuck that, tout ltemps pluggé pourtant Lordi buggait pis tes parti comme un gars qui a pu ddents Si faut séparer lhomme de la Le bon sens dla folie Le bon sens dla folie La connerie dla manchette Comme si pour creuser il me fallait une machette Jai des dents, pis des bras, pis surtout une pensée claire et nette Cyfo ça y faut lfaire cypher juste pour savoir cquon vaut sans silence Juste au moment où la seconde devient si lente cest élastique Jécrase les batteries sur le ciment x4 Run around en bus dans le hooptie, nobody can touch me Shoutout à mes vendeurs, faut ce qu'il faut, yeah, il faut garder les custies One shot one deal fuck around tu te fait take out J'get super wasted in an all black Benz and I wonder 'till you fade out What you know about the type of shit that we on What you know about the type of shit that we on I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn Si les mots te plaisent Fait en sorte que mon bread il multiply Few new joints dans mon dope supply Si le team est trop gros tout le dough se perd So we stay close, pas de nouveau gars sur le pay roll Juste les day ones, pi les A-1 Keep a plug for the yayo Better lay low, j'ai un semi-automatique pour les impôts And un fresh éconoline pour les bang bros And I take you for a ride on Saint-Lau And Im always down for my day ones Wassup big homie, get your cake up And I'm talking big money, pas juste quelques K J'serai toujours là si t'as besoin de quelqu'un X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Trust personne, le coeur crushed comme des somnifères So many days, so many nights Les nuits sont blanches en été à Montréal So many friends Vingt shooters, trois taxis, then it's on to the next 'Doit rien à personne, dites à son amour qu'elle est morte Noyer la pression, get drunk, fucking and then some Mourir trop vite, tout vivre trop jeune Styrofoam cup full of mixed emotions Le nouvel appart' coin ParcSt-Joseph, huh Mais pas d'épargnes dans le compte chèques X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Tic tac diggity wrap the fuck up Deux feuilles de tabac deux grammes de bleu gras À chaque cousin français qui spointe Pus dcoin y avait pu ça du we du weed de même Deux puffs dégeule à terre un classique Y dvient blanc comme lhiver, j'y goût d'.... aaah! J'aaarhh jécris 45 barres, prochain coup dcymbale Pif paf un aut blunt qui passe Deux bières tappe les deux mains, passe le mic Jai assez dtextes pour rapper jusquà demain soir Tu m'passes mon tape, je comprends rien, tu connais rien Christ de ciboire, t'as du rap, pas du simili-porc Ogden fuck avec un maudit post-rigodon, passe à coté Lâche le citron, fais demi-thon Tas pas à penser penser juste danser dans ces cas-là Bouge un peu ton bassin Martin On est pas faite en chocolat Men ici Québec, Félix Leclerc, Jean Leloup, f... Kendrick Aaah! Get the fuck out on est plastifié, blast le shit gun en plastique dans Dichet Derjardins coin Cartier Dopeness quasi-interdite, choke su lspliff pendant quOgden te décalisse Je choke mon rap, that's it Alaclair most high to the... fuck that! Street dreams dans les fenêtres d'école T'as besoin d'dough then you sell dope, basic stuff It gets tough though, le game c'est un sable mouvant Une fois que tu fais des revenus then you can never move on Whatever Le boy Joe avait la Blue Volvo Le Blueprint disait U Don't Know Sure we did not Little did we know, we could get a lot Move a kilo on a d-low, make a killing as a dealer On a toujours été rêveurs since for ever Deux pieds sur le terre-plein, on pensait airplanes Big things to come Young kings to crown Now we run things, that something to think about, uh L'ignorance était tellement wrong La ligne orange semblait tellement longue When she was still around Still friends no difference Nothing but a nostalgie thang baby, uh Garde une couple de connexions à Ahuntsic Y'ont toujours les remèdes maisons quand j'feel home sick On fait comme si, mais c'est p'us comme les premières fois Maintenant j'garde la tête froide devant la mauvaise foi Une coupe de fake friends disent qu'j'suis plus really real Si j'avais fail, peut-être qu'on pourrait relate Mais là j'sais pas, man Some people that I grew up with just never grew up J'ai préféré les perdre de vue que d'les voir perdre, uh Avec tout ce fucking blow il me faut une paire de Merrel I be stuntin' on these fuckboys dans une Panamera Extra extra Lady Antebellum Own the Night status Compare-moi à personne dans ton rap queb Ton premier handicap c'est ton Yankee cap Young fashion God, Denis Gagnon, fancy rap Realest shit I ever wrote Matter of fact I don't write shit, let 'em know Semi-auto squirt, drette dans ton Givenchy shirt Juste parce que j'me sens vicieux Ginette Reno when it's lunch time Jacques Parizeau when it's Scotch time Lise Watier, blush time Loudmouth c'est le best so mo'fucker respect Lary Kidd est fresh, that's right, correct A-Justice est cinglé, that's right, correct Boy, flat line, you're dead You suck, you're a shame, but am I to blame To blame you for being such a motherfucking lame Ain't shit changed, le Kidd est still the same Rien à foutre de me faire remercier parce que j'ai changé le game Crazy in the brain, deux hoes dans le Range Rover Going both ways vitres baissées sur la main Fuck all of y'all Switch lane, change de bord Get paid ou retourne jouer dans ton carré de sable Mon wrist game est modeste, mon piss game est ugly I squeeze it out my dick like it's fucking silly putty Yo peep le visuel Sul banc sal au spot habituel Janvier gèle le parc Puff-pass, le rituel Swigg la Grolsh Pose dans un coat de snow J'porte un toast Au North Face Qui nous chauffe les os Chocolat chaud Des guimauves Pis une blonde qui blow En Penfield Herringbone Une bombe quand elle pompe l'hydro Trempée dans le bubble goose Perrier pour la vodka juice Poche pour le baggie-toots Sur le Kanuk avec le col hibou Ton Columbia Brah, c'est pas si officiel que ca Même couleur ciel Avec une clip Pour tenir ton cell qui sonne Match tes shits Les accents sur les Arcteryx Doivent combiner avec Le panneau latéral des kicks Maléfique La veste cache les armes Qui tag les briques C'est à mes risques Si les manches sont sales Faut que je lave les fibres Y'a tu d'la place pour stash Le fuckin pic-à-glace terrible Qui laisse des traces Néfastes, ça frappe et puis Efface les snitches Montréal, c'est frette On calle les Boréales des deps Défaite de la capitale On sort le tricolor Les patch sur les vestes Le jacket cardinal est fresh J'le porte avec allégresse Classic vintage Y'a pas mal d'années de faites Emmettre le memorable, c'est l'best Des fois il faut se forcer à les mettre Camouflage 900 plumage d'oie, j'tai dead Tu fais des arabesques On fait des airs avec Vole un mulet pis tu traverses le désert avec Envoi les signaux, black signets, plaque signée Statu quo prend lbord comme une statue fausse Cest du Fake comme la marque à Wats Débarque à soir des cochons smilent comme Jam et Dox Tu veux du boulet jai des canons Va tu écrire cque tu penses littéralement sur la face du monde Pas d'temps à perdre à soir Entouré d'buddy quyont des formes austoires Jai remarqué les rues sont coupées par des coins Ya plein dparty roulés par des joints Laurent jimmy qui mdit qui connait Pour moi l'stiff est fucked comme du comète Entouré de problèmes pogné au centre De toi même, tas tu lgoût dcouper ta chaîne ? On veut vivre dans lrêve, vivre dans lluxe Tu défèques déjà d'in bol deau pure Tu veux jouer les Jo connaissant Tu vas finir par te perdre sans connaissances Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire T'as déjà vu des dollar signs sur l'odomètre Ben l'éconoline c'est d'ça qu'a d'l'air They say crazy shit about us They say crazy shit about us They say crazy shit about us They say crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes Crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes And I don't sleep gotta go to work, poser pour des caméras Rock stars et fashion gods qui tear apart des arénas I just woke up in a hotel avec 15 000 fucking dollars Pis un chapeau d'poil du Lowell Pis un chapeau d'poil du Lowell They say crazy shit about us Young man with the money Goddamn shit ain't funny I'm a fan of the money Je suis rien de plus qu'le produit I'll be damned if I let another man Essayer d'venir mettre la main sur mon produit Donc, kesser tu veux faire? Tu rêvais d'être un baller Shot caller, le grand luxe Drop out of college, 10 dollars l'heure Le rap a foutu ta vie en l'air All 'em bitches want my picture Mais y'a pas de quoi s'pitcher ses murs Tu ferais ben mieux d'être rich Que d'être almost rich and famous Les labels voudraient du beef Mais tu sais qu'on est cool avec les Dead Obies And they know they damn well better be T'es-tu sûr sûr que tu veux survivre Comme moi c'est dur Comme le verse de Connaisseur sur Sur le corner T'as vu l'heure qu'il est ? Baby I'm working late Faut que j'travaille pour mon siège à l'Adisq entre les soeurs Boulay I'm tryna get that James Hyndman Money man Top rappers in the game, still jamais nominés Hey, is that a real day job ? C'est dur à dire comme Loud Lary Ajust Yeah they talk a lot of shit All for the show If it ain't about my money Dis moi qu'est-ce vous marmonnez Yeah I get a lot of... huh They all give me... huh Jeune fille t'as pas changé Mais c'est sûr t'allais pas changer Aucune bitch autour de moi pour venir me backstabber You can tell by the way I walk that I'm a youngin' Beat you on some stupid shit, fait pas ton comique I be the one with the rubber gloves Duckin' under the bridge pour te pogner ? Au pire mon gars on te pogne chez vous, juste fuck it Pi on laisse ton linge real souillé Long John chrome real rouillé As well, to shoot you to hell Walk around with a pimp strut like a fly gangster With them thick wallys on Plein de peinture I be the one getting money in this bitch and you know it And en fait j'suis broke, c'pour ca que le rap queb est dans le coma Donnes moi des moyens pi j'vais noyer le street Charlie Sheen on a hoe Over a bag of weed and some blow I walk around like you walk around walk around with this trap I don't walk around with a strap I walk around like I'm strapped You fuck around and get clapped If you walk around with a strap Le bruit des balles à blanc qui fend l'air dans la nuit like ''PAH!'' I'm keeping it real, I'm keeping raw, forever I'm so white j'allais oublier de dire Nigga J'suis un miracle, jai encore failli mourir vla deux mois Je mappelle Emmanuel comme Selassie Haile Yo smash up le thon Jusqua c que le carton cramme Je m'approprie des grosses puffs Qui vident mes poches de grammes Cinq piasse la touche le gros Ca coute la peau des fesses Ajoute ton bras au total Lets go, on smoke smoke le cess Une forte haleine de thon Grace a l'innalation Quebec gold et silver haze Merite les medailles de bronze Vagabonds et fils de riches Ensemble se twist des spliffs Unis dans l harmonie De la potence du kryptonite Smashed par les poff de mangue Mes potes qui puff ensemble S comportent comme mon prof de science Qui porte une robe de chambre Relax divan pantoufles La chambre du parlement sen doutent Y bloquent les chances du chanvre Comme l'Avalanche Sans Vincent Damphousse Y faut defendre le parti Bloc pot pour que notre patrie Legalise moi ca moi ca tout suite Et-pis criss moi le dub dans l tapis Dla bombe comme nagasaki Qui fait quon plonge dans-le monde de alice Comme alexandre despatie Qui participe au olympiques pis le triple flips Sont freestyle comme du ski gratuit Y'a de la la glace sur le freezeland Osti que mon flow y patine Tire la toke de creme Le THC glacee qu jaime Paqueté dans le cornet Legenre qui donne des migraines J vaccine mes alvéoles La peau est faite de pulpe De papier qui plie parfaitement Pour que j reste dans ma bulle Petite fumée nocturne Qui danse a l'aube dla vie La poesie du moment C'tune grosse philosophie Epistemologie d coin table Pendant que j'egraine les coots Ma pensée est rendu instable Y'en a qui disent que j'suis fou Le gros tu reflechis trop Faudrait que tu lache la drogue Mais c pas justle le weed dans vie Qui fait q jm interroge Débug mon cervaux de stress Ca m prend un joint solide Une osti toke qui fesse Pis la chu euphorique Un autre pak de rizz Une grosse mission au dep Habile on roule le spliff Architechte comme Imhotep Defois j prend des puffs Juste pour le fait de prendre une puff Fak la joublie mon texte Fak a place jprend une puff Deuces! Ok jeunes filles going crazy, um Des supermodels, elle sont nerveuses elle sont nerveuses Nouveau record soon to drop Elles jure qu'elles sont pas des groupies chaque fois qu'on est sous les draps Man elle dira ce qu'elle voudra they always lie when they do drugs I was way too drunk, maintenant pourquoi t'es toujours là Ca pourra pas marcher but we still had a good run tu trouve pas ? Oublis jamais qu'on est super unofficial On the side, all joke aside, I'm just fucking with you huh I got to keep it movin quest-ce tu croyais ? Ma vie c'est un movie when I'm shootin keep quiet Comment tu me comparais à ton average citoyen J'paye mon loyer ak du rap money, travailler pour soi-même Employée de la semaine à chaque semaine that's what I am Pas de vacances pas de poste vacant 9 a 5 AM, I mean I mean don't wait on me girl I'm on my way to work, work work work You can still find me flexin' out of the Candlewood Suites Chug un 40oz de vodka avant d'aller au lit Imma die so fly ça vous m'aviez compris In a white suit Tom Wolfe, radical chic Plus a large amount of coco MM6 SS15 Graduited from the Polo Sucker free squad Toutes les hoes sont ravies Jeune artiste en vogue Mon appart ressemble à Paris Realest in tha hood Freshest on tha block J'en ai rien à foutre Let the semi pop Shootin' blanks outta fuckin cabriolet Avec ta girlfriend in tha back Qui s'débrouille si bien que j'vais l'appeler Marie-Soleil It's a shame à quel point on est juste ailleurs Spaced out hoes, j'les appelle Julie Payette Welcome to the other side où les choses sont plus pareil Rap money is the motive Pop le Moet dans un câlice Gotta keep it eh!- Keep it balanced Mon boy, quel bon beat Baby there's nothing you can tell me Baby there's nothing you can tell me A m'a demandé si j'tais jeune et fly, I told her hell oui A m'a demandé si j'allais pouvoir lui cop du LV Man I'm so high that I'm tryin' to find a LZ A m'a demandé si j'allais pouvoir lui cop du LV Better find me drug if you wanna know about me J'vais jamais toucher un million à moins que j'vende d'la coke J'ai choisi d'rester broke, mais j'veux pas finir fru comme Zïlon J'ai l'goût d'finir su' un boat M'enlever d'la liste d'élections Crier fuck vous autres, fuck nous autres Mourir dans un typhon But I'm gettin' all that paper Les maudits publi-sac que j'feuillette, feuillette, feuillette, feuillette Finissent toutes dans le recyclage, bud' God knows, première page des journaux Un chien retrouvé mort dans le fond d'une ruelle proche de Deschambault Pis j'vas... Pis j'vas jamais dire de niaiseries J'suis ben trop préoccupé à écrire des bijoux de la langue française En gros... En gros sale québécois Joual. Quoi? Fédéral? Fuck that général! Pis j'suis fier de mon gouvernement Une gang de mottés millionnaires qui s'tirent les cheveux depuis soixante ans Pendant c'temps là, man pipi dans l'eau potable Gettin' all that paper, man Mais ça finit dans le recyclage Cause it's all about that money It's all about that money It's all about that money And we all about that money, man All about that money All about that money Osti, j'suis fucké Roule un blunt je cotise Alejandro Jodorowsky El Topo pollo Kentucky Se7en up Super croc J'pèse play le dvd rush L'écran picotte Parce que le disque c'est une copie ? Crache les puffs toxiques Traumatisme pour le cortex Être braindead c'est une force cosmique Peter Jackson laisse un bad taste sur tes papilles ? Mes pensées s'éparpillent Comme une pélicule de Guy Ritchie Up in smoke, tie dye trippy Easy Rider Taxi Driver, Jeune De Niro ou Gerard Pirès Frank Sivero snipe Al Pacino snuff le Cineplex Tequila toute épreuve Oh boy qui déguste la pieuvre ? Kubrick qui shoot des oeuvres Crade Battle Royale Takashi Miike sur le flow Nouvelle génération ? Tetsuo La biologie selon Ricardo Trogi Québec Montréal Un crack dans la tête la puff lobotomie Du weed Denys Arcand ciel Lève l'Armée des Ténèbres Sam Raimi trilogie L'original c'était Evil Dead Peur et dégoût en français ? Alice était merveilleuse en criss Dans la version Czech Dans la vie j'suis plus vedge Que Henri dans Eraserhead ? pour un rêve Terry Gillam et les frères Coen Mange l'Orange Méchanique Tu te sens comme John Malkovich Planète Sauvage La ciudad de Dieu des narcotiques Le crash de Paul Haggis Les cités crack haine irréversible Charles Foster game Toutes les images réflechissent I'm on my hometown glory shit Sort of like a young Jim Morrison Les poèmes et la drogues man je suis horrifié Boîtes de chaussure Adidas, we used em as storages Le whip se doit d'être Oreo, drive that shit to Florida Don't care where you at, where you from and your origins Tu te mets dans le chemin du bread Pis on te laisse trainé dans un corridor I just might cop un semi-auto Juste pour me faire un peu de fun Real life Grand Theft Auto, bitch On est dans ta ville, quelques voitures back to back Posons, parade style, hate me now C'est quoi apprécier l'art de nos jours Gossip over un verre de vin a l'Arsenal with your boys, please Pis maintenant t'étudies la mode Ya même pas deux mois tu portais encore du Billabong Get the fuck out of my city avant que je plis ta robe Tu veux devenir couturier, moi je te donne du fil à retordre Get money shit School drop outs, fuel pour les cop cars Red Bull in the cup a'ec la vodka, go fuck off Born sinners Cry me a river, let it sink en dessous du pont Pie IX I gotta stay scheming' Sur ces rappers queb nés pour un p'tit pain steamé C'est juste logique si ils manquent le toast They know nothing 'bout this life we chose Suit case Ralph Lauren, les souliers that's foreign Ship 'em off du UK, j'donne des coups de pieds avec quand même Saoul comme une botte j'm'en caliss J'suis Bass God, Bootsy Collins Les groupies bouches pâteuses when they hollering' the God Mais I don't stop for nothin' Des mouches dans le pare-brise New Darth Vader, tout de noir vêtu Ch'mise Candlewood comme un baseball player May Gullywood be that brand you trust Montréal su'l chandail pas de Brandon Prust Pour les médias on est rien d'autre que des trending topics Men I should fuck this whole game, random thoughts Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Yo one two three four five six seven Les realest mothafuckers sont back dans cuisine Pis c'est pas rien que du quiquine quand je step sur le beat en comme c'est wicked Le feu devient liquide Quand je spit c'est du bacon Stacké comme du bacon Trois points, Scottie Pippen They call me Scotty bibinne Heyy, c'est même pas le mois de mars On the beat comme un policier J'rap comme un policier J'te vole ton weed, pis j'le smoke comme un policier Chillin' sur le DS Ma femme chill sur le VS Mon fils dort pis j'écris des raps comme un TS Chillin' avec pis Bossé Mon rap c'est buzzé, but I'm fly like Réal Bossé Ehin! Jettes ton drink dans les airs Pis fais comme si t'allais don't care qui te r'tombe ç'a poire Uptown, c't'écrit sur le corner Même si tu finis lock-down pis tu sors pus des borders Fly as a motherfuckin kite, aight Pourquoi tu feel tout triste? C'est juste du rap musique Fuck that shit! Double L-A rap shit for the life! Merci bonsoir Brouillon À compléter</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'ai appris que les courant d'air n'étaient pas des fantômes Assez triste je ne suis plus roi de mon petit royaume Ma boite à secrets hier je l'ai jetée Les étoiles dans le ciel ne sont que des soleils éloignés Les heures deviennent des jours les mystères se font plus mince Et ce n'est plus aussi drôle de salir mon pantalon à pinces Mes yeux ne brillent plus devant les bougies d'anniversaire La poussière s'accumule sur mon déguisement de corsaire Je ne retrouve plus mes anciens pouvoirs surnaturels Moins jolis sont mes dessins sans maison ni arc-en-ciel Ma peau est taillée dans la brique, mes rêves rayés par un bic Submergé par la logique, mon placard n'est plus magique Mes jouets ne me répondent plus quand je leur parle de mon amoureuse L'innocence ne raisonne plus ma raison est suspicieuse Un jour comme les autres est devenu le mercredi Il n'y a plus non plus de monstre caché sous mon lit Dans ce jeu de dupe, bousculé dans nos tumultes Maintenant la vie m'insulte, j'ai compris je deviens adulteYou might also like</t>
+          <t>J'ai appris que les courant d'air n'étaient pas des fantômes Assez triste je ne suis plus roi de mon petit royaume Ma boite à secrets hier je l'ai jetée Les étoiles dans le ciel ne sont que des soleils éloignés Les heures deviennent des jours les mystères se font plus mince Et ce n'est plus aussi drôle de salir mon pantalon à pinces Mes yeux ne brillent plus devant les bougies d'anniversaire La poussière s'accumule sur mon déguisement de corsaire Je ne retrouve plus mes anciens pouvoirs surnaturels Moins jolis sont mes dessins sans maison ni arc-en-ciel Ma peau est taillée dans la brique, mes rêves rayés par un bic Submergé par la logique, mon placard n'est plus magique Mes jouets ne me répondent plus quand je leur parle de mon amoureuse L'innocence ne raisonne plus ma raison est suspicieuse Un jour comme les autres est devenu le mercredi Il n'y a plus non plus de monstre caché sous mon lit Dans ce jeu de dupe, bousculé dans nos tumultes Maintenant la vie m'insulte, j'ai compris je deviens adulte</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Surpris dans la nuit très tôt le matin Quand ma bite me dit Hello, jmappelle Julien Et me raconte sa vie, que son père Émilien Gourdin Était frein à main sur une R21 Il aime les femmes aux jolis sourires, ça cest certain Pour y tirer des obus façon char Paladin Son hobby cest la spéléo, il y plonge tête baissé Avec son walkman branché sur baiser, baiser, baiser Câlin mais indécis, adepte du va-et-viens Il prend la grosse tête à entendre son nom dans un refrain Avec lui pour décoller pas besoin de tremplin Puisque nul en math, il ne sait compter que jusquà hin Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Bien que la nature lai doté dun frein Il nest pas genre lover latin mais plutôt casseur style parpaing Il naime pas les enfants leur préférant Gaëlle Heureusement ce nest jamais lui qui se déguise en père noël Son meilleur amis cest Jean-Ronald ma main Tous les matins ils fonts du sport rien que pour lentretien Lesprit ce nest pas son truc, il a lhumour de Darry Cowl Il est dégouté de ne pas avoir la tête sur les épaules Il aime bien prendre les gens par surprise le matin Avec comme font sonore le chant des marcassins de Chopin Branché sur Myspace ethnique white caucasien Mais quand il dort, je lentends, il rêve dêtre africain You might also like Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Juju, cest un mec droit qui a de la retenue Inattendu, il passe derrière dans les voies sans issues Les mauvaises langues disent quil crache dans le dos Sur meetic the winner is son pseudo cest oizo Par contre il déteste Flipper le dauphin Bien que lui aussi navigue dans des bassins Quand il bosse sa combi de latex cest son ange gardien Avec lui pas de train-train il aime lart contemporain Addict aux moules et autres crustacés des fonds marins Il suit une thérapie, Alain Feelgood est son médecin Souvent il à du mal à tisser des liens Parce quil ne dit pas je taime mais plutôt à demain Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin</t>
+          <t>Surpris dans la nuit très tôt le matin Quand ma bite me dit Hello, jmappelle Julien Et me raconte sa vie, que son père Émilien Gourdin Était frein à main sur une R21 Il aime les femmes aux jolis sourires, ça cest certain Pour y tirer des obus façon char Paladin Son hobby cest la spéléo, il y plonge tête baissé Avec son walkman branché sur baiser, baiser, baiser Câlin mais indécis, adepte du va-et-viens Il prend la grosse tête à entendre son nom dans un refrain Avec lui pour décoller pas besoin de tremplin Puisque nul en math, il ne sait compter que jusquà hin Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Bien que la nature lai doté dun frein Il nest pas genre lover latin mais plutôt casseur style parpaing Il naime pas les enfants leur préférant Gaëlle Heureusement ce nest jamais lui qui se déguise en père noël Son meilleur amis cest Jean-Ronald ma main Tous les matins ils fonts du sport rien que pour lentretien Lesprit ce nest pas son truc, il a lhumour de Darry Cowl Il est dégouté de ne pas avoir la tête sur les épaules Il aime bien prendre les gens par surprise le matin Avec comme font sonore le chant des marcassins de Chopin Branché sur Myspace ethnique white caucasien Mais quand il dort, je lentends, il rêve dêtre africain Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Juju, cest un mec droit qui a de la retenue Inattendu, il passe derrière dans les voies sans issues Les mauvaises langues disent quil crache dans le dos Sur meetic the winner is son pseudo cest oizo Par contre il déteste Flipper le dauphin Bien que lui aussi navigue dans des bassins Quand il bosse sa combi de latex cest son ange gardien Avec lui pas de train-train il aime lart contemporain Addict aux moules et autres crustacés des fonds marins Il suit une thérapie, Alain Feelgood est son médecin Souvent il à du mal à tisser des liens Parce quil ne dit pas je taime mais plutôt à demain Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Le vent souffle sur le temps et l'automne balaie l'été Chaque jour levant je bâtis le bonhomme que je n'ai été Dans la cour des grands résonne la nouvelle année scolaire On s'étudie nous-mêmes on n'connaît jamais assez ce qu'on est Un salut à leurs âmes, à tous ces défunts qui meurent Et j'serai si seul pour fêter la Toussaint ce vingt-et-un du neuf Personne ne trompe la tumeur, tu paieras le prix du leurre L'histoire confuse de celui qui l'a conçu et qui tue luf L'amour rend aveugle mais toute la meute se porte lil Je réanime les feuilles mortes je n'écris pas ce que les autres veulent Le peuple souffre trop, le désespoir et l'agonie Qui se maquillent tous les matins comme les soirs d'Halloween Les degrés chutent et tout prend l'allure de la brume De fil en aiguille je prête ma plume aux plus dévêtus Voué au naturel et je vous laisse le vécu d'la rue Je voudrais pas saturer donc mes couplets écoutent les adultes Et j'me sens riche sans être fortuné Comme de renaître dans une chambre mortuaire Le mois d'septembre ne m'inspire que des décors funèbres Les infarctus, les enterrements, et la blessure fut nette Toi tu rêves d'autres choses et je n'en fais pas moins Le treize octobre me rappelle que je n'ai rien d'un parrain Bientôt la fin de l'année, le froid qui froisse la neige Au rythme des saisons je gère ma vie à Liège You might also like Yeah Metissa Je verrai des tonnes d'oiseaux migrer avant de prétendre être honorable Je nage dans mes pensées automnales j'essaie d'être fort face au système Le quart de siècle dans les dents je vis et je m'en sors pas mal Je taffe le reste du temps je fréquente le beat et je m'endors la voix Au gré des feuilles qui tombent j'pense à tout ces gens partis trop tôt Paumé j'ai peur puis je fonce sans voir où je vais dans ma vie morose Éternel insatisfait mec j'ai des rêves plein ma petite tête Mais croire en moi c'est pas pensable et je préfère être un gars discret Je laisse les crétins croire qu'ils pèsent dans leur jeunesse ou dans le rap Ils manquent de cur mais pourtant sages ils bé-bégaient plein de balivernes J'ai d'autres chats à fouetter, moi cette saison me rappelle la purge, la dépression Noire est la bulle et choses que je dois pas souhaiter Ma folie m'effrayait grave gros la police séchait mes assocs Pas de soutien c'est la Toussaint et Halloween derrière les barreaux Saloperies de méfaits j'étais ado et je voyais que l'argent facile Je festoyais salement la nuit, je mappauvrissait pété à mort Avec le temps j'ai capté qu'chaque échec me tirait vers l'haut Là j'essaie de renier ce game comme la haine que je pensais larguer Je dévalais la pente j'étais pas préparé à changer T'exagères avec l'argent et l'État t'écarte c'est navrant Mais tu sais qu'à attiser le feu tu risques surtout de prendre ta gifle Moi, plus je cours dans la vie plus je dis que je dois m'appliquer, vieux La fin de l'année se ramène je traîne seul près des charmes de la nature Je m'abstiens de rapper de la merde et je gère les bailles à Namur Eh, Youssef À l'heure d'automne on vit juste nos vies c'est pas une légende Loin des contes de fées Morphée y perd ses bras et ses jambes Des rimes qui tombent comme des feuilles mortes sur l'métronome Du soleil on est a des milliers de kilomètres au nord L'espoir a tout pris dans nos poches, imaginer nos blazes sur des gros titres Quand les gens nous voient rapper tout seul dans le bus comme un autiste Rien à perdre, c'était ce que je m'étais dit à la base Mais, les choses ont bien changés je range mes souvenirs à leur place et J'oublierais pas les heures qu'on a passé à rêver Refaire le monde dans une Clio le poste à fond la fenêtre baissée Alors j'emmerde les gens qui nous serrent la main par intérêt On disait l'avenir est à nous, on nous répondait Dans tes rêves Et cinq saisons plus tard nous voir ici ça les embête Mon rêve un battement d'ailes aujourd'hui voilà la tempête Le papillon a pris des couleurs Ils voulaient nous couper les ailes on est insensible à la douleur Les gens avancent ou reculent on ne sait pas trop Ont la liberté absolue, enfin sauf celle de leur patron On m'a dit n'ouvre pas la porte le vent nous rend visite à coup sûr On f'ra couler l'encre ma plume s'inspire des éclaboussures Le temps passe on m'a dit La roue tournera À l'époque ou je comptais déjà mes mesures en cours de maths Un automne de plus à Tournai, il était pas incroyable J'y ai vécu des choses j'irais en chercher d'autres en voyage Parlez bien de l'automne Hun Scylla L'automne sera bientôt de retour et donc l'inspi aussi, j'ai hâte que ma plume renaisse Elle ressuscite chaque mois d'octobre Lorsque la date approche chaque année qui passe m'offre une nouvelle cure d'jeunesse Mais malgré moi je reste encore homme Je cherche en vain à me connecter à l'ancien bambin qu'j'étais Je le sens plein de piété, peut-être en train de m'épier? Faut pas tant t'inquiéter je suis peut-être en train de rêver Je dois être le seul clampin qui aime fêter la fin de l'été hun Vas-y à la tienne, bois ça, puis rechante moi c't'air triste Lâche toi, vite avant que ça se termine Regarde bien les arbres autour de toi, tu vois la couleur de leurs feuilles? Elle s'imbibent déjà du sang de mes ennemis Ah mais parlez bien de la saison des poètes, l'âme de la bohème La promesse, je crois même qu'elle me protège Où est le problème, accroc d'elle, j'sais pas j'l'ai dans la peau mec Elle change en poésie tout même les plus noires de mes colères Bienvenue au cur de la saison des morts qui déchaîne chez moi le feu, ou les sortes d'esprits moyenâgeux C'est pour ceux et celles qui tout comme moi depuis leur tendre enfance ont toujours été passionné par ce foutu ciel nuageux Quand se fanent les corps là c'est la mort du Moi je Je me regarde mourir à genoux sous le ciel nuageux L'air d'automne laisse comme un arrière goût de phnix Comme d'habitude j'attends la fin du monde posté sur la plus haute tour de BX Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus Alors à quoi bon se mettre à l'abri ou se mettre à la C'est le malheur d'autres hommes à l'heure d'automne que soumettra la brique Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus C'est sous ses branches qu'on pend des des seizes on Sait que c'est à l'heure d'automne qu'ont décédé les saisons</t>
+          <t>Le vent souffle sur le temps et l'automne balaie l'été Chaque jour levant je bâtis le bonhomme que je n'ai été Dans la cour des grands résonne la nouvelle année scolaire On s'étudie nous-mêmes on n'connaît jamais assez ce qu'on est Un salut à leurs âmes, à tous ces défunts qui meurent Et j'serai si seul pour fêter la Toussaint ce vingt-et-un du neuf Personne ne trompe la tumeur, tu paieras le prix du leurre L'histoire confuse de celui qui l'a conçu et qui tue luf L'amour rend aveugle mais toute la meute se porte lil Je réanime les feuilles mortes je n'écris pas ce que les autres veulent Le peuple souffre trop, le désespoir et l'agonie Qui se maquillent tous les matins comme les soirs d'Halloween Les degrés chutent et tout prend l'allure de la brume De fil en aiguille je prête ma plume aux plus dévêtus Voué au naturel et je vous laisse le vécu d'la rue Je voudrais pas saturer donc mes couplets écoutent les adultes Et j'me sens riche sans être fortuné Comme de renaître dans une chambre mortuaire Le mois d'septembre ne m'inspire que des décors funèbres Les infarctus, les enterrements, et la blessure fut nette Toi tu rêves d'autres choses et je n'en fais pas moins Le treize octobre me rappelle que je n'ai rien d'un parrain Bientôt la fin de l'année, le froid qui froisse la neige Au rythme des saisons je gère ma vie à Liège Yeah Metissa Je verrai des tonnes d'oiseaux migrer avant de prétendre être honorable Je nage dans mes pensées automnales j'essaie d'être fort face au système Le quart de siècle dans les dents je vis et je m'en sors pas mal Je taffe le reste du temps je fréquente le beat et je m'endors la voix Au gré des feuilles qui tombent j'pense à tout ces gens partis trop tôt Paumé j'ai peur puis je fonce sans voir où je vais dans ma vie morose Éternel insatisfait mec j'ai des rêves plein ma petite tête Mais croire en moi c'est pas pensable et je préfère être un gars discret Je laisse les crétins croire qu'ils pèsent dans leur jeunesse ou dans le rap Ils manquent de cur mais pourtant sages ils bé-bégaient plein de balivernes J'ai d'autres chats à fouetter, moi cette saison me rappelle la purge, la dépression Noire est la bulle et choses que je dois pas souhaiter Ma folie m'effrayait grave gros la police séchait mes assocs Pas de soutien c'est la Toussaint et Halloween derrière les barreaux Saloperies de méfaits j'étais ado et je voyais que l'argent facile Je festoyais salement la nuit, je mappauvrissait pété à mort Avec le temps j'ai capté qu'chaque échec me tirait vers l'haut Là j'essaie de renier ce game comme la haine que je pensais larguer Je dévalais la pente j'étais pas préparé à changer T'exagères avec l'argent et l'État t'écarte c'est navrant Mais tu sais qu'à attiser le feu tu risques surtout de prendre ta gifle Moi, plus je cours dans la vie plus je dis que je dois m'appliquer, vieux La fin de l'année se ramène je traîne seul près des charmes de la nature Je m'abstiens de rapper de la merde et je gère les bailles à Namur Eh, Youssef À l'heure d'automne on vit juste nos vies c'est pas une légende Loin des contes de fées Morphée y perd ses bras et ses jambes Des rimes qui tombent comme des feuilles mortes sur l'métronome Du soleil on est a des milliers de kilomètres au nord L'espoir a tout pris dans nos poches, imaginer nos blazes sur des gros titres Quand les gens nous voient rapper tout seul dans le bus comme un autiste Rien à perdre, c'était ce que je m'étais dit à la base Mais, les choses ont bien changés je range mes souvenirs à leur place et J'oublierais pas les heures qu'on a passé à rêver Refaire le monde dans une Clio le poste à fond la fenêtre baissée Alors j'emmerde les gens qui nous serrent la main par intérêt On disait l'avenir est à nous, on nous répondait Dans tes rêves Et cinq saisons plus tard nous voir ici ça les embête Mon rêve un battement d'ailes aujourd'hui voilà la tempête Le papillon a pris des couleurs Ils voulaient nous couper les ailes on est insensible à la douleur Les gens avancent ou reculent on ne sait pas trop Ont la liberté absolue, enfin sauf celle de leur patron On m'a dit n'ouvre pas la porte le vent nous rend visite à coup sûr On f'ra couler l'encre ma plume s'inspire des éclaboussures Le temps passe on m'a dit La roue tournera À l'époque ou je comptais déjà mes mesures en cours de maths Un automne de plus à Tournai, il était pas incroyable J'y ai vécu des choses j'irais en chercher d'autres en voyage Parlez bien de l'automne Hun Scylla L'automne sera bientôt de retour et donc l'inspi aussi, j'ai hâte que ma plume renaisse Elle ressuscite chaque mois d'octobre Lorsque la date approche chaque année qui passe m'offre une nouvelle cure d'jeunesse Mais malgré moi je reste encore homme Je cherche en vain à me connecter à l'ancien bambin qu'j'étais Je le sens plein de piété, peut-être en train de m'épier? Faut pas tant t'inquiéter je suis peut-être en train de rêver Je dois être le seul clampin qui aime fêter la fin de l'été hun Vas-y à la tienne, bois ça, puis rechante moi c't'air triste Lâche toi, vite avant que ça se termine Regarde bien les arbres autour de toi, tu vois la couleur de leurs feuilles? Elle s'imbibent déjà du sang de mes ennemis Ah mais parlez bien de la saison des poètes, l'âme de la bohème La promesse, je crois même qu'elle me protège Où est le problème, accroc d'elle, j'sais pas j'l'ai dans la peau mec Elle change en poésie tout même les plus noires de mes colères Bienvenue au cur de la saison des morts qui déchaîne chez moi le feu, ou les sortes d'esprits moyenâgeux C'est pour ceux et celles qui tout comme moi depuis leur tendre enfance ont toujours été passionné par ce foutu ciel nuageux Quand se fanent les corps là c'est la mort du Moi je Je me regarde mourir à genoux sous le ciel nuageux L'air d'automne laisse comme un arrière goût de phnix Comme d'habitude j'attends la fin du monde posté sur la plus haute tour de BX Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus Alors à quoi bon se mettre à l'abri ou se mettre à la C'est le malheur d'autres hommes à l'heure d'automne que soumettra la brique Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus C'est sous ses branches qu'on pend des des seizes on Sait que c'est à l'heure d'automne qu'ont décédé les saisons</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oh mon amour, nous voilà enfin réunis tous les deux pour ne plus jamais nous quitter Chaque jour que Dieu fait nous ferons l'amour Chaque jour le plaisir nous envahira comme pour la première fois et pour toujours Ouais, parce que chez moi... Sa libido a l'encéphale plat m'a dit l'coroner J'ai donc enterré mes fringales avec mes exploits d'cascadeurs Avant je me souviens les cabrioles c'était l'bon temps Pourtant ça fait déjà longtemps puisque j'payais ma baguette en francs Ma puce depuis que je n'goûte plus ta feuille de lotus Je régresse du sapiens à l'homo erectus Mon sexe n'étant plus qu'un symbole Pour éviter la camisole, je chantonne ou je t'immole Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! 69 ne représente plus qu'un chaîne sur Canal Sat Tes gémissements sont remplacés par l'générique de Thalassa Si le désir est un diamant, toi il était en toc C'est soudainement qu'ça m'est tombé dessus comme le revival du rock J't'en supplie, pour un câlin je suis même prêt à faire de l'RB Oxmo l'cactus de Sibérie il est dans mon lit Plutôt que d'se taper un travelo entre deux fougères Au lieu d't'arracher la chair, je préfère gueuler cet air You might also like Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Errant dans le désert conjugal transformé en Touareg Les seules meufs que j'me tape se terminent en .jpeg C'est l'anorexie sexuelle même quand j'fais l'paon J'ai dans les balloches de quoi repeupler tout un continent La frustration me rend bizarre, fou peut-être Jusqu'à penser t'faire mal avec un gode à urètre Mais qu'est-ce qui m'retient de n'pas t'ouvrir le corps Ah oui, mon psy m'a dit en cas d'crise de chanter encore Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Terroriste, puisque j'glisse vers l'attentat à la pudeur Je rêve de seins, d'entrecuisse et je m'réveille en sueur Ma belle, mon hirondelle, crois-moi j'ai des séquelles Et j'crains l'pire pour la rondelle de ton putain de teckel Les souvenirs passés font tomber mes larmes de petit garçon T'as déjà essayé d'rallumer une flamme sur un tas d'glaçons Demain j'dors en prison pour viol aggravé avec ustensile Mes codétenus m'attendront en chantant cet air débile Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux!</t>
+          <t>Oh mon amour, nous voilà enfin réunis tous les deux pour ne plus jamais nous quitter Chaque jour que Dieu fait nous ferons l'amour Chaque jour le plaisir nous envahira comme pour la première fois et pour toujours Ouais, parce que chez moi... Sa libido a l'encéphale plat m'a dit l'coroner J'ai donc enterré mes fringales avec mes exploits d'cascadeurs Avant je me souviens les cabrioles c'était l'bon temps Pourtant ça fait déjà longtemps puisque j'payais ma baguette en francs Ma puce depuis que je n'goûte plus ta feuille de lotus Je régresse du sapiens à l'homo erectus Mon sexe n'étant plus qu'un symbole Pour éviter la camisole, je chantonne ou je t'immole Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! 69 ne représente plus qu'un chaîne sur Canal Sat Tes gémissements sont remplacés par l'générique de Thalassa Si le désir est un diamant, toi il était en toc C'est soudainement qu'ça m'est tombé dessus comme le revival du rock J't'en supplie, pour un câlin je suis même prêt à faire de l'RB Oxmo l'cactus de Sibérie il est dans mon lit Plutôt que d'se taper un travelo entre deux fougères Au lieu d't'arracher la chair, je préfère gueuler cet air Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Errant dans le désert conjugal transformé en Touareg Les seules meufs que j'me tape se terminent en .jpeg C'est l'anorexie sexuelle même quand j'fais l'paon J'ai dans les balloches de quoi repeupler tout un continent La frustration me rend bizarre, fou peut-être Jusqu'à penser t'faire mal avec un gode à urètre Mais qu'est-ce qui m'retient de n'pas t'ouvrir le corps Ah oui, mon psy m'a dit en cas d'crise de chanter encore Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Terroriste, puisque j'glisse vers l'attentat à la pudeur Je rêve de seins, d'entrecuisse et je m'réveille en sueur Ma belle, mon hirondelle, crois-moi j'ai des séquelles Et j'crains l'pire pour la rondelle de ton putain de teckel Les souvenirs passés font tomber mes larmes de petit garçon T'as déjà essayé d'rallumer une flamme sur un tas d'glaçons Demain j'dors en prison pour viol aggravé avec ustensile Mes codétenus m'attendront en chantant cet air débile Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux!</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ma bouche est lissée d'incisives joliment aiguisées Qui sait qui de toi ou de moi est le plus déguisé Imposteur, ta posture de vie est cariée En réponse contre nature je suis devenu carnassier Puisque tu as détaché mes liens d'aliéné Je vais te digérer pour mieux te recracher J'suis pourtant putréfié à l'ADN déformé Mais tu vas caresser ma fourrure en verre pilé Mutilé par l'altitude, prêt à dévorer les rois Jouant de la servitude pour approcher mes proies Avec une douce mâchoire affutée comme une disqueuse Les yeux d'où s'échappent une poésie visqueuse C'est sans jurons que mes crocs ont l'amour cruel Prompt à pratiquer l'adorable trachéo manuelle J'aurais pu devenir un jeune cadre qui s'ennuie Mais maintenant c'est trop tard je suis... Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel Premier spécimen de la nouvelle espèce Pestiférée qui dépèce avec politesse Toutes tes croyances je les mets en pièce Pendu à ta jugulaire, cramponné comme un herpès Oh! Tu as mal au cou, ça te blesse Que ce soit à mon tour de tirer sur ta laisse Docilement, mes ancêtres vous ont nourris C'est sur le champ que tu en paies le prix N'espère pas clémence, tu fais partie de mon festin Dès lors le moindre lapin vous arrachera les mains Pas de bimbo ni de fortune pour la roue du destin Les victimes d'hier deviennent les monstres de demain Dans mon dédale je rime, moi le cannibale Sans déprime qui déballe ses crimes Comme une hyène au régime Sous une pluie qui bruisse, le bruit J'en suis le fruit des principes s'enfuient Juste, je suis... You might also like x2 Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel</t>
+          <t>Ma bouche est lissée d'incisives joliment aiguisées Qui sait qui de toi ou de moi est le plus déguisé Imposteur, ta posture de vie est cariée En réponse contre nature je suis devenu carnassier Puisque tu as détaché mes liens d'aliéné Je vais te digérer pour mieux te recracher J'suis pourtant putréfié à l'ADN déformé Mais tu vas caresser ma fourrure en verre pilé Mutilé par l'altitude, prêt à dévorer les rois Jouant de la servitude pour approcher mes proies Avec une douce mâchoire affutée comme une disqueuse Les yeux d'où s'échappent une poésie visqueuse C'est sans jurons que mes crocs ont l'amour cruel Prompt à pratiquer l'adorable trachéo manuelle J'aurais pu devenir un jeune cadre qui s'ennuie Mais maintenant c'est trop tard je suis... Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel Premier spécimen de la nouvelle espèce Pestiférée qui dépèce avec politesse Toutes tes croyances je les mets en pièce Pendu à ta jugulaire, cramponné comme un herpès Oh! Tu as mal au cou, ça te blesse Que ce soit à mon tour de tirer sur ta laisse Docilement, mes ancêtres vous ont nourris C'est sur le champ que tu en paies le prix N'espère pas clémence, tu fais partie de mon festin Dès lors le moindre lapin vous arrachera les mains Pas de bimbo ni de fortune pour la roue du destin Les victimes d'hier deviennent les monstres de demain Dans mon dédale je rime, moi le cannibale Sans déprime qui déballe ses crimes Comme une hyène au régime Sous une pluie qui bruisse, le bruit J'en suis le fruit des principes s'enfuient Juste, je suis... x2 Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-Bonjour professeur Chandra, ici Hal. Je suis prêt pour mon premier test... -Bonjour HAL, ici Chandra. Voici ton premier test test de syntaxe numéro 1.0. Utilise les timbres vocaux D et J, je t'écoute... JAMES DELLECK Cest organique, je détecte des dessins dans la terre glaise Pas de panique, la mousse passe son permis sur une fourchette franco-albanaise Le petit Jean sème des euros pour retrouver le chemin de lécole Perdu dans un octave, il croise une clef de sol Laraignée lui demande la cacahuète chante à quel décibel Et pourquoi les avions volent sils ne battent pas des ailes Les bonnes surs danse le jerk dans un bol en peau de buffle Pausé sur une table en chêne rustique entouré de Pom-Pom LE JOUAGE ...Girls and boys, tous ensembles déguisés en pastille de menthe Bigout fraîcheur testicule Lil de Vénus drague le logo exobiologie qui applause au type Qui stape de la bière sans alcool et qui est quand même saoul Au bar d'à côté du Galactica Là où Bobby Ewing joue au scrabble avec des phoques en polystyrène Jplace mes chevilles dans mes dauphins puant la sueur de pied Mais quest-il arrivé des jours heureux où ils sentaient bon le neuf ? JAMES DELLECK Quatre plus sept moins deux égalent neuf Prêtres cherchant leurs chemins Perdu dans une constellation infinie de poils pubiens La tache dencre est symétrique alors le docteur hurle tu piges ? Je vois une fille qui sort dun bureau de vote en forme de coton-tige Jhydrate mes lèvres, il fait mouillé ses jours-ci ça sent lail Le Soleil a rendez-vous avec une plume qui picore des écailles La montagne soulève sa jupe Xuly.Bët Pour voyager autour dune noisette en jumbo-jet parce quelle nest si bête You might also likeLE JOUAGE Elle peut le faire comme la virgule et en plus cest une blonde A la recherche des mystérieuse contrées du port-salut espiègle Cest comme au cinéma tu sais a quelle heure tu y rentres mais pas quand tu y sors Demain jirai commander dla banane vapeur préparée à la circus Comme dans un fast food, ha ha je vais bien tout va bien Le tout rajouté sur mon ardoise grâce a ma carte fidélité Cest la foire aux strings, strings grillés, string aère En coulisse de vrais folles sur monolithe du Fleury-St-Hubert JAMES DELLECK Par tous les saints, insinuez-vous que je serais sénile ? De leau de javel entre dans les interstices du vinyle Les griffes chatouille le fer a repassé 1 an Prisonnier au sauna public, il fait des frises sur un cahier denfant Cest physique, le rien souffre du vide, le plus attire le moins Et si tu perds ton pari, je te coupe la main Furieux, même Adam en a marre de s'taper Ève Pourquoi le gluon du bouillon Knor fait-il grève ? LE JOUAGE Parce quil a une ablation de lorteil inférieur droit et sniffe du magnésium Et rêve dune pâquerette en boucle de ceinture et voit la vie en opium En plus vous savez que cest un espion ? Et quil milite pour le retour de Sidney hip hop a la télévision Allez! Viendez danser dans un fracas de bulle dhirondelle rance Ça devient vulgaire que de toujours devoir repousser les avances Du ptérodactyle en talons aiguilles qui recherche de laventure Jai lsourire électrique qui est en symbiose avec ma carcasse couleur feuille de lotus JAMES DELLECK Fluorées les dents se percutent en silence Musique, montre, il-de-buf, TF1, pénitence Le grumeau du liquide biliaire nest pas commode Alors place au commandant Stubin parce que lui connaît la mode Cest gratis, je monte dans une belle voiture auto-bronzante Essieux montés sur échasses pour quelle soit moins bruyante Terré dans mon trou le terreau entre dans mon cerveau Les microbes me parlent alors je deviens bio LE JOUAGE Man le rouge de préférence parce que cest le chef de la bande Ma préférée couleur cest le vert pourpre par ce quelle se marie bien avec mon teint, cest excitant Ya aussi le signe chez le jack New-jack en français ça veut dire jack le nouveau ou le nouveau jack Exclusif jai le témoignage dune tuile en sweat-shirt come-8 de retour de vacances Lentrevue se déroule en présence de 7 nains, Blanche-Fesse et les 7 mains Et mon pote Harry Plotteur, un ami qui vous veut du bien JAMES DELLECK Le bien, le mal, lasperge, la catin La bière et la courroie qui ressert un bout de sein façon SM Sème la graine du compact disque poilu Moelleux, pâlis denvie la crise de palu' emmène la crasse de Paris Pas vu pas pris je discute avec une prostate en smoking Qui me vend en contre-bande une place de parking Start end rec. review pause Vas-y mets la dose pense à autre chose même si tes albinos ! LE JOUAGE Et même si tes con on fera un tour par chez Bénédicta Boire en plat de résistance des pattes Benetton et du thon mayonnaise Pour être fraîche cool et bien portant comme lenvol dun piano a queue Parfume toi avec du Wizard parce que tu ne vaux rien Si ce nest un concentré de coït manuel dicté par une bonne aventure ingurgitée a midi Un apport de glucidique avarié au goût de bibine Ces derniers jours seul linterrogation ma préservé du désespoir Professeur je vais bien jai dans la tête comme un goût de miroir</t>
+          <t>-Bonjour professeur Chandra, ici Hal. Je suis prêt pour mon premier test... -Bonjour HAL, ici Chandra. Voici ton premier test test de syntaxe numéro 1.0. Utilise les timbres vocaux D et J, je t'écoute... JAMES DELLECK Cest organique, je détecte des dessins dans la terre glaise Pas de panique, la mousse passe son permis sur une fourchette franco-albanaise Le petit Jean sème des euros pour retrouver le chemin de lécole Perdu dans un octave, il croise une clef de sol Laraignée lui demande la cacahuète chante à quel décibel Et pourquoi les avions volent sils ne battent pas des ailes Les bonnes surs danse le jerk dans un bol en peau de buffle Pausé sur une table en chêne rustique entouré de Pom-Pom LE JOUAGE ...Girls and boys, tous ensembles déguisés en pastille de menthe Bigout fraîcheur testicule Lil de Vénus drague le logo exobiologie qui applause au type Qui stape de la bière sans alcool et qui est quand même saoul Au bar d'à côté du Galactica Là où Bobby Ewing joue au scrabble avec des phoques en polystyrène Jplace mes chevilles dans mes dauphins puant la sueur de pied Mais quest-il arrivé des jours heureux où ils sentaient bon le neuf ? JAMES DELLECK Quatre plus sept moins deux égalent neuf Prêtres cherchant leurs chemins Perdu dans une constellation infinie de poils pubiens La tache dencre est symétrique alors le docteur hurle tu piges ? Je vois une fille qui sort dun bureau de vote en forme de coton-tige Jhydrate mes lèvres, il fait mouillé ses jours-ci ça sent lail Le Soleil a rendez-vous avec une plume qui picore des écailles La montagne soulève sa jupe Xuly.Bët Pour voyager autour dune noisette en jumbo-jet parce quelle nest si bête LE JOUAGE Elle peut le faire comme la virgule et en plus cest une blonde A la recherche des mystérieuse contrées du port-salut espiègle Cest comme au cinéma tu sais a quelle heure tu y rentres mais pas quand tu y sors Demain jirai commander dla banane vapeur préparée à la circus Comme dans un fast food, ha ha je vais bien tout va bien Le tout rajouté sur mon ardoise grâce a ma carte fidélité Cest la foire aux strings, strings grillés, string aère En coulisse de vrais folles sur monolithe du Fleury-St-Hubert JAMES DELLECK Par tous les saints, insinuez-vous que je serais sénile ? De leau de javel entre dans les interstices du vinyle Les griffes chatouille le fer a repassé 1 an Prisonnier au sauna public, il fait des frises sur un cahier denfant Cest physique, le rien souffre du vide, le plus attire le moins Et si tu perds ton pari, je te coupe la main Furieux, même Adam en a marre de s'taper Ève Pourquoi le gluon du bouillon Knor fait-il grève ? LE JOUAGE Parce quil a une ablation de lorteil inférieur droit et sniffe du magnésium Et rêve dune pâquerette en boucle de ceinture et voit la vie en opium En plus vous savez que cest un espion ? Et quil milite pour le retour de Sidney hip hop a la télévision Allez! Viendez danser dans un fracas de bulle dhirondelle rance Ça devient vulgaire que de toujours devoir repousser les avances Du ptérodactyle en talons aiguilles qui recherche de laventure Jai lsourire électrique qui est en symbiose avec ma carcasse couleur feuille de lotus JAMES DELLECK Fluorées les dents se percutent en silence Musique, montre, il-de-buf, TF1, pénitence Le grumeau du liquide biliaire nest pas commode Alors place au commandant Stubin parce que lui connaît la mode Cest gratis, je monte dans une belle voiture auto-bronzante Essieux montés sur échasses pour quelle soit moins bruyante Terré dans mon trou le terreau entre dans mon cerveau Les microbes me parlent alors je deviens bio LE JOUAGE Man le rouge de préférence parce que cest le chef de la bande Ma préférée couleur cest le vert pourpre par ce quelle se marie bien avec mon teint, cest excitant Ya aussi le signe chez le jack New-jack en français ça veut dire jack le nouveau ou le nouveau jack Exclusif jai le témoignage dune tuile en sweat-shirt come-8 de retour de vacances Lentrevue se déroule en présence de 7 nains, Blanche-Fesse et les 7 mains Et mon pote Harry Plotteur, un ami qui vous veut du bien JAMES DELLECK Le bien, le mal, lasperge, la catin La bière et la courroie qui ressert un bout de sein façon SM Sème la graine du compact disque poilu Moelleux, pâlis denvie la crise de palu' emmène la crasse de Paris Pas vu pas pris je discute avec une prostate en smoking Qui me vend en contre-bande une place de parking Start end rec. review pause Vas-y mets la dose pense à autre chose même si tes albinos ! LE JOUAGE Et même si tes con on fera un tour par chez Bénédicta Boire en plat de résistance des pattes Benetton et du thon mayonnaise Pour être fraîche cool et bien portant comme lenvol dun piano a queue Parfume toi avec du Wizard parce que tu ne vaux rien Si ce nest un concentré de coït manuel dicté par une bonne aventure ingurgitée a midi Un apport de glucidique avarié au goût de bibine Ces derniers jours seul linterrogation ma préservé du désespoir Professeur je vais bien jai dans la tête comme un goût de miroir</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Il y flotte toujours un glacial vent d'hiver Où croupit la pisse des bergers sans muselière Quelques crevasses ressortent dans la lumière Ses frontières s'étendent comme l'injustice d'un cancer Il y pousse des tulipes mellifères Et de jolies jolies roses trémières Les ronces sont ornées de couronne dentaire Dans le jardin d'Hitler C'est le royaume des vers de terre Des larmes d'enfants et de leurs mères Une pépinière de pus calcaire Dans le jardin d'Hitler Plutôt paisible je l'confère Arrosé d'une haine urinaire Les étoiles elles sont sous la terre Dans le jardin d'Hitler Du chiendent à l'odeur de chair Ondule dans des orifices oculaires Putréfiés sous une lune aurifère Dans le jardin d'Hitler Même les insectes préfèrent s'épanouir en lisière Evitant les fleurs de l'aride litière Bien derrière le lit de la petite rivière Où sont emprisonnées tant de prières You might also likeCertes d'un style un peu militaire Les bourgeons y croisent quelques maxillaires Le pollen sent le gaz et l'éther Dans le jardin d'Hitler Des cris remontent comme des lianes de lierre Chuchotés pour passer les millénaires Acides comme du liquide biliaire Dans le jardin d'Hitler Quelle connerie de retourner poussière Le pire c'est que dans l'ombre d'hier Des senteurs me semblent aujourd'hui aujourd'hui si familières Peut-être que l'Aryen n'est pas qu'en arrière Et que le putain d'temps n'a pas tout recouvert</t>
+          <t>Il y flotte toujours un glacial vent d'hiver Où croupit la pisse des bergers sans muselière Quelques crevasses ressortent dans la lumière Ses frontières s'étendent comme l'injustice d'un cancer Il y pousse des tulipes mellifères Et de jolies jolies roses trémières Les ronces sont ornées de couronne dentaire Dans le jardin d'Hitler C'est le royaume des vers de terre Des larmes d'enfants et de leurs mères Une pépinière de pus calcaire Dans le jardin d'Hitler Plutôt paisible je l'confère Arrosé d'une haine urinaire Les étoiles elles sont sous la terre Dans le jardin d'Hitler Du chiendent à l'odeur de chair Ondule dans des orifices oculaires Putréfiés sous une lune aurifère Dans le jardin d'Hitler Même les insectes préfèrent s'épanouir en lisière Evitant les fleurs de l'aride litière Bien derrière le lit de la petite rivière Où sont emprisonnées tant de prières Certes d'un style un peu militaire Les bourgeons y croisent quelques maxillaires Le pollen sent le gaz et l'éther Dans le jardin d'Hitler Des cris remontent comme des lianes de lierre Chuchotés pour passer les millénaires Acides comme du liquide biliaire Dans le jardin d'Hitler Quelle connerie de retourner poussière Le pire c'est que dans l'ombre d'hier Des senteurs me semblent aujourd'hui aujourd'hui si familières Peut-être que l'Aryen n'est pas qu'en arrière Et que le putain d'temps n'a pas tout recouvert</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bonjour, bienvenue dans notre agence de rencontres spécialisée dans les Suédoises. Asseyez-vous. Alors, pour mieux vous connaître, je vais vous donner le formulaire à remplir. C'est juste pour faire votre profil psychologique. Alors vous allez voir, c'est très simple dans la colonne plus vous mettez tout ce que vous aimez. Tout ce qui vous passe par la tête. Prenez votre temps, je reviens vous voir tout à l'heure Merci! Je vous en prie! J'aime monter en scène avec des baskets sans lacets Passer le jour de l'An avec 6 Thaïlandaises pour me masser Manger avec Michael Moore dans un resto indien Le monoski, Belle mais pas Sébastien Les polaroïds jaunâtres et leur cortège de souvenirs Les MacIntosh et les blagues qui font pas rire Partir dans un fou rire sans s'arrêter Admirer Audrey Tautou même si elle est habillée Entendre crapoter le début d'un bon vinyle Observer les videurs s'afficher, pensant qu'ils sont virils Le Tibet, son peuple, la propreté des chats L'augmentation du prix du tabac Les dragons de Komodo et les fleurs factices Qu'une fan me dise que j'ai un air de Guy Pearce La sieste après une bonne digestion Les angines qui empêchent de chanter Céline Dion J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil You might also like J'aime voir le ciel pleurer l'été Déguster un poulet au citron en dégrafant un bustier Traîner pendant le mois d'août à Paris Mettre les doigts dans la pâte à gaufre surtout quand c'est pas permis Ecouter les gens en croquant un tic-tac orange Arriver à l'heure au rendez-vous et les films étranges Les pandas géants, le suicide d'un mormon polygame La Soupline et les barbus qui respectent les femmes Le parfum d'la vérité, vivre l'instant Par nature avoir raison, mais pas tout l'temps Le langage et les richesses que l'on partage Le planning familial, m'envoler sans truquage Le rire des libellules, les radars de recul La légère brise qui caresse les testicules Regarder la télé avec une hache Les pavés, ceux qui se lancent, et les idéaux qui se crachent J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil</t>
+          <t>Bonjour, bienvenue dans notre agence de rencontres spécialisée dans les Suédoises. Asseyez-vous. Alors, pour mieux vous connaître, je vais vous donner le formulaire à remplir. C'est juste pour faire votre profil psychologique. Alors vous allez voir, c'est très simple dans la colonne plus vous mettez tout ce que vous aimez. Tout ce qui vous passe par la tête. Prenez votre temps, je reviens vous voir tout à l'heure Merci! Je vous en prie! J'aime monter en scène avec des baskets sans lacets Passer le jour de l'An avec 6 Thaïlandaises pour me masser Manger avec Michael Moore dans un resto indien Le monoski, Belle mais pas Sébastien Les polaroïds jaunâtres et leur cortège de souvenirs Les MacIntosh et les blagues qui font pas rire Partir dans un fou rire sans s'arrêter Admirer Audrey Tautou même si elle est habillée Entendre crapoter le début d'un bon vinyle Observer les videurs s'afficher, pensant qu'ils sont virils Le Tibet, son peuple, la propreté des chats L'augmentation du prix du tabac Les dragons de Komodo et les fleurs factices Qu'une fan me dise que j'ai un air de Guy Pearce La sieste après une bonne digestion Les angines qui empêchent de chanter Céline Dion J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil J'aime voir le ciel pleurer l'été Déguster un poulet au citron en dégrafant un bustier Traîner pendant le mois d'août à Paris Mettre les doigts dans la pâte à gaufre surtout quand c'est pas permis Ecouter les gens en croquant un tic-tac orange Arriver à l'heure au rendez-vous et les films étranges Les pandas géants, le suicide d'un mormon polygame La Soupline et les barbus qui respectent les femmes Le parfum d'la vérité, vivre l'instant Par nature avoir raison, mais pas tout l'temps Le langage et les richesses que l'on partage Le planning familial, m'envoler sans truquage Le rire des libellules, les radars de recul La légère brise qui caresse les testicules Regarder la télé avec une hache Les pavés, ceux qui se lancent, et les idéaux qui se crachent J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Du haut de la canopée de béton j'suis d'humeur clair-obscur Quand dans ma lueur éclate le sang de vos bavures Mon halo lumineux met en lumière toutes vos hontes Pendant que la sueur sociale s'accumule à ma base A genoux, une mère pleure, un sac de course l'anse rompue Comme si c'était le signe d'un destin déchu De l'aurore à l'aube, j'éclaire sans jamais vaciller Pour mettre en luminescence vos vies sordides Un soir, j'entendis même des S.O.S stressés Les cris d'une fille que l'on salissait près du bloc C Tout le monde s'en moque, c'est devenu si commun Que la crasse de vos âmes peut même masquer votre chagrin Sous mon il de lumière Sous mon il de lumière Au-dessus de vos corps sans vie, j'inhale les vapeurs de souffrance Mais quand j'y pense, j'sais pas si j'en ai encore envie Hier, j'ai éclairé un chien s'faire débiter Après avoir été donné en pâture à trois pitts, et Quand la pluie se mit à tomber, le SDF du Square Pagnol Su que la carcasse accrochée était son ex-compagnon J'étais devenu autel de sacrifice Totem du mal, où se défoulent les fils de putes et leurs vices Planté sur l'épicentre du tourment Je ne sers plus, ne rassure plus, ou rarement Alors plutôt que de voir le sol et ses désastres Parfois j'aimerais tourner la tête pour contempler les astres You might also like Sous mon il de lumière Sous mon il de lumière Sous mon il de lumière, j'ai la vision trouble À cause de vos parjures et autres substituts de vie Noyé dans vos brumes, je ne suis qu'un cierge Pendant qu'vous vous débattez comme des carpes sur une berge J'ai même éclairé des cavaliers de l'apocalypse en BMV Faire commerce de mort derrière leurs vitres teintées Éreinté de voir sans pouvoir Miné du haut de ma cime, je m'affaiblis en silence Mais là, en-dessous je revis la jeune mère et ses mioches Décidée à tout plaquer sans un regret en poche Marre d'être rouée de coups elle se voûte sous ma lueur Certains la diront lâche, moi je m'éteins pour lui faire honneur</t>
+          <t>Du haut de la canopée de béton j'suis d'humeur clair-obscur Quand dans ma lueur éclate le sang de vos bavures Mon halo lumineux met en lumière toutes vos hontes Pendant que la sueur sociale s'accumule à ma base A genoux, une mère pleure, un sac de course l'anse rompue Comme si c'était le signe d'un destin déchu De l'aurore à l'aube, j'éclaire sans jamais vaciller Pour mettre en luminescence vos vies sordides Un soir, j'entendis même des S.O.S stressés Les cris d'une fille que l'on salissait près du bloc C Tout le monde s'en moque, c'est devenu si commun Que la crasse de vos âmes peut même masquer votre chagrin Sous mon il de lumière Sous mon il de lumière Au-dessus de vos corps sans vie, j'inhale les vapeurs de souffrance Mais quand j'y pense, j'sais pas si j'en ai encore envie Hier, j'ai éclairé un chien s'faire débiter Après avoir été donné en pâture à trois pitts, et Quand la pluie se mit à tomber, le SDF du Square Pagnol Su que la carcasse accrochée était son ex-compagnon J'étais devenu autel de sacrifice Totem du mal, où se défoulent les fils de putes et leurs vices Planté sur l'épicentre du tourment Je ne sers plus, ne rassure plus, ou rarement Alors plutôt que de voir le sol et ses désastres Parfois j'aimerais tourner la tête pour contempler les astres Sous mon il de lumière Sous mon il de lumière Sous mon il de lumière, j'ai la vision trouble À cause de vos parjures et autres substituts de vie Noyé dans vos brumes, je ne suis qu'un cierge Pendant qu'vous vous débattez comme des carpes sur une berge J'ai même éclairé des cavaliers de l'apocalypse en BMV Faire commerce de mort derrière leurs vitres teintées Éreinté de voir sans pouvoir Miné du haut de ma cime, je m'affaiblis en silence Mais là, en-dessous je revis la jeune mère et ses mioches Décidée à tout plaquer sans un regret en poche Marre d'être rouée de coups elle se voûte sous ma lueur Certains la diront lâche, moi je m'éteins pour lui faire honneur</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Je me sens bien, en paix avec moi-même J'entends les cris des enfants jouant dans la cour Les feuilles frémissent sur ma fenêtre du huitième Pendant qu'une douce chaleur entre et me parcourt Elle vient, je la sens, j'abandonne C'est le moment, personne ne peut rien y faire Les bruits s'amplifient et petit à petit résonnent Je me fonds dans la lumière qui embaume l'air Les miens m'entourent alors de leur tristesse Mais 87 ans déjà que je suis né Si évidentes, toutes les réponses m'apparaissent Dans un moment magique d'une intense légèreté Mon petit-fils me murmure pas maintenant Mais tu comprends que je ne peux rien Profite, sans vouloir trop vite devenir grand Belle est l'insouciance quand on ne pense au lendemain Les derniers grains du sablier se sont écoulés Alors je me sens voler au-dessus de nous Et même si cette longue route m'a fatigué Prenez, mon dernier sourire est pour vousYou might also like</t>
+          <t>Je me sens bien, en paix avec moi-même J'entends les cris des enfants jouant dans la cour Les feuilles frémissent sur ma fenêtre du huitième Pendant qu'une douce chaleur entre et me parcourt Elle vient, je la sens, j'abandonne C'est le moment, personne ne peut rien y faire Les bruits s'amplifient et petit à petit résonnent Je me fonds dans la lumière qui embaume l'air Les miens m'entourent alors de leur tristesse Mais 87 ans déjà que je suis né Si évidentes, toutes les réponses m'apparaissent Dans un moment magique d'une intense légèreté Mon petit-fils me murmure pas maintenant Mais tu comprends que je ne peux rien Profite, sans vouloir trop vite devenir grand Belle est l'insouciance quand on ne pense au lendemain Les derniers grains du sablier se sont écoulés Alors je me sens voler au-dessus de nous Et même si cette longue route m'a fatigué Prenez, mon dernier sourire est pour vous</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ici les corps et les âmes se déforment et s'enchevêtrent Troublée tu contemples ta douce pudeur disparaître La masse ondule comme un océan sous la surface Tu surpasses tes impasses à chaque flux qui t'enlace Chacun abandonne sa cuirasse du quotidien Tous se brassent, à l'abri du péché des surfaciens La volupté t'enveloppe à l'excès, dans l'extase C'est sur des torses que tes seins s'écrasent Des inconnus t'frôlent dans la foule en liesse Le rythme t'enivre, tu transgresses Sans frein, à chaque mouvement d'bassin Tu t'sens partir toujours plus loin quand arrivent les refrains Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Quand la sueur s'exprime, la raison se tait C'est quand la proie a peur que le prédateur le sait Les gens s'explorent du regard, les mots se susurrent Ton corps humide est poussé jusqu'au point d'rupture Tes postures vont jusqu'à faire saliver les bouches L'ange sans auréole se transforme en sainte qui touche À demi-nue, tu n'peux plus te dominer Damned, tu t'aventures au milieu de c'terrain pas déminé Du lâcher-prise, tu n'en voulais pas tant Tu trembles comme parcourue par un orgasme latent Bercée au plus profond de l'irrésistible danse Seules peuvent savoir celles qui ont déjà connu cette transe! You might also like Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Envoûtée, tu courbes ta croupe veloutée Tu n'écoutes plus tes doutes, tes yeux larmoyants sont floutés La musique se déverse et pervertit ta perception Tu vois les murs suinter d'une étrange sécrétion Dans c'chaos, pris par l'ivresse des sons digitaux Tu n'avais pas vu que les pieds de ces gens étaient des sabots Derrière le rideau pourpre se trouve le chef des lieux Bercée dans ce brasier, tu savoures ses caresses de feu! Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale</t>
+          <t>Ici les corps et les âmes se déforment et s'enchevêtrent Troublée tu contemples ta douce pudeur disparaître La masse ondule comme un océan sous la surface Tu surpasses tes impasses à chaque flux qui t'enlace Chacun abandonne sa cuirasse du quotidien Tous se brassent, à l'abri du péché des surfaciens La volupté t'enveloppe à l'excès, dans l'extase C'est sur des torses que tes seins s'écrasent Des inconnus t'frôlent dans la foule en liesse Le rythme t'enivre, tu transgresses Sans frein, à chaque mouvement d'bassin Tu t'sens partir toujours plus loin quand arrivent les refrains Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Quand la sueur s'exprime, la raison se tait C'est quand la proie a peur que le prédateur le sait Les gens s'explorent du regard, les mots se susurrent Ton corps humide est poussé jusqu'au point d'rupture Tes postures vont jusqu'à faire saliver les bouches L'ange sans auréole se transforme en sainte qui touche À demi-nue, tu n'peux plus te dominer Damned, tu t'aventures au milieu de c'terrain pas déminé Du lâcher-prise, tu n'en voulais pas tant Tu trembles comme parcourue par un orgasme latent Bercée au plus profond de l'irrésistible danse Seules peuvent savoir celles qui ont déjà connu cette transe! Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Envoûtée, tu courbes ta croupe veloutée Tu n'écoutes plus tes doutes, tes yeux larmoyants sont floutés La musique se déverse et pervertit ta perception Tu vois les murs suinter d'une étrange sécrétion Dans c'chaos, pris par l'ivresse des sons digitaux Tu n'avais pas vu que les pieds de ces gens étaient des sabots Derrière le rideau pourpre se trouve le chef des lieux Bercée dans ce brasier, tu savoures ses caresses de feu! Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L'étranger 3 J'rentre dans la danse, des scalps sous votre apparence En crachant le galbe des mots jusqu'à en perdre connaissance Je n'ai pas l'échine souple et un certain handicap à m'soumettre Peut-être suis-je comme Ferré ni Dieu ni maître Prisonnier de ce bocal, je ne vois même plus l'Océan La plupart des psys consultés m'appellent le déviant Seul comme un chien sur la tombe d'une vie qui s'étiole Je gémis, entendu seulement par les vents de la nécropole Je n'reconnais plus mes congénères à la souche Avachis dans leurs petites vies, un anus à la place de la bouche Le sapiens civilisé m'apparaît flou, je me recroqueville loin de nous Je ne suis pas d'chez vous L'étranger 6 Mes cheveux se dressent à la vue des pantins Je sors des chapeaux de la gueule des lapins Au-dessus de la surface, mon exil est dans chaque syllabe En éternel ostracisme, mes cils transpirent de sel Je ne veux plus vivre dans cette étoffe qui m'oxyde Un jour, vous de n'retrouverez de moi qu'une enveloppe translucide En silence, j'panse mes plaies en me recueillant Inquiet de n'pas avoir de nouvelles de Dieu depuis 30 ans Je n'suis pas l'homme moderne, toutes options en série Fabriqué dans l'usine human global industry Vos vies figées dans les affres de la conformité Me rendent absent d'un monde dans lequel je n'suis pas agréé You might also like L'étranger 6 J'inquiète vos certitudes puisque moi J'ai du Ciel dans les yeux et des oiseaux dans la voix Prophète d'une improbable révolte Ecorché, mon insurrection se nourrit de peines incandescentes Je me croise sans me reconnaître dans des rues vidées de sens Dans l'abominable ventre de nos viles existences Suspendu dans l'vide, je m'invente une vie pour rester debout Sans trahir mes tourments et ses tumultes remous Sans racines, je me sens comme un touriste dans vos clapiers Un déporté asphyxié par vos sombres gémissements Je dois m'envoler loin derrière l'écume Si je bats des ailes fort, peut-être qu'un gamin ramassera ma plume</t>
+          <t>L'étranger 3 J'rentre dans la danse, des scalps sous votre apparence En crachant le galbe des mots jusqu'à en perdre connaissance Je n'ai pas l'échine souple et un certain handicap à m'soumettre Peut-être suis-je comme Ferré ni Dieu ni maître Prisonnier de ce bocal, je ne vois même plus l'Océan La plupart des psys consultés m'appellent le déviant Seul comme un chien sur la tombe d'une vie qui s'étiole Je gémis, entendu seulement par les vents de la nécropole Je n'reconnais plus mes congénères à la souche Avachis dans leurs petites vies, un anus à la place de la bouche Le sapiens civilisé m'apparaît flou, je me recroqueville loin de nous Je ne suis pas d'chez vous L'étranger 6 Mes cheveux se dressent à la vue des pantins Je sors des chapeaux de la gueule des lapins Au-dessus de la surface, mon exil est dans chaque syllabe En éternel ostracisme, mes cils transpirent de sel Je ne veux plus vivre dans cette étoffe qui m'oxyde Un jour, vous de n'retrouverez de moi qu'une enveloppe translucide En silence, j'panse mes plaies en me recueillant Inquiet de n'pas avoir de nouvelles de Dieu depuis 30 ans Je n'suis pas l'homme moderne, toutes options en série Fabriqué dans l'usine human global industry Vos vies figées dans les affres de la conformité Me rendent absent d'un monde dans lequel je n'suis pas agréé L'étranger 6 J'inquiète vos certitudes puisque moi J'ai du Ciel dans les yeux et des oiseaux dans la voix Prophète d'une improbable révolte Ecorché, mon insurrection se nourrit de peines incandescentes Je me croise sans me reconnaître dans des rues vidées de sens Dans l'abominable ventre de nos viles existences Suspendu dans l'vide, je m'invente une vie pour rester debout Sans trahir mes tourments et ses tumultes remous Sans racines, je me sens comme un touriste dans vos clapiers Un déporté asphyxié par vos sombres gémissements Je dois m'envoler loin derrière l'écume Si je bats des ailes fort, peut-être qu'un gamin ramassera ma plume</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C'est qui? James Delleck C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck J'ai pas de tenue d'apparat pour paraphraser le perfect J'suis juste d'apparence clean quand j'place mon pugilat de rimes Certain me hait parce que je fous les vumètres dans l'rouge Mais si c'est si nase, pourquoi t'as la tête qui bouge? À coup de flow syncopé, coté, mon attaque en haute technologie J'place ma tessiture sur rythme illogique Parfois provoc', mais jamais vulgaire Comme un Slim Shady qui traite sa reum Ou comme une tass' qui traîne une haleine de rhum J'suis le petit du dessous qui compte comme une rumeur Avec le verbe pour vice, mixé dans les fracas de sampler Je resserre l'étau sur notre air vicié Pour rendre les vues d'l'esprit plus lourds qu'les métaux précieux You might also like C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck Face à toutes ces fientes qui veulent que le hip-hop se gaspille Je me dresse, fais remonter la soliste dans un concert gospel J'suis pas à la mode que j'entends sur les FM Et pas ces beaufs, qu'un slogan du FN mixé aux infos d'TF1 Alors jusqu'au bout d'la dignité, je puise la source Pour que l'auditeur ne s'transforme pas en gnou perdu en brousse Sur les fausses loops de faux MC Alors les gens m'jugent rebelle comme le bio face à l'OMC J'suis celui qui pète leurs formats Et franchit franchement jusqu'aux frontières de c'qu'ils ont décrété possible Descendant du bonobo de M, j'balance de l'anti-lobotomie Pour transformer la foule en peuple C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck</t>
+          <t>C'est qui? James Delleck C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck J'ai pas de tenue d'apparat pour paraphraser le perfect J'suis juste d'apparence clean quand j'place mon pugilat de rimes Certain me hait parce que je fous les vumètres dans l'rouge Mais si c'est si nase, pourquoi t'as la tête qui bouge? À coup de flow syncopé, coté, mon attaque en haute technologie J'place ma tessiture sur rythme illogique Parfois provoc', mais jamais vulgaire Comme un Slim Shady qui traite sa reum Ou comme une tass' qui traîne une haleine de rhum J'suis le petit du dessous qui compte comme une rumeur Avec le verbe pour vice, mixé dans les fracas de sampler Je resserre l'étau sur notre air vicié Pour rendre les vues d'l'esprit plus lourds qu'les métaux précieux C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck Face à toutes ces fientes qui veulent que le hip-hop se gaspille Je me dresse, fais remonter la soliste dans un concert gospel J'suis pas à la mode que j'entends sur les FM Et pas ces beaufs, qu'un slogan du FN mixé aux infos d'TF1 Alors jusqu'au bout d'la dignité, je puise la source Pour que l'auditeur ne s'transforme pas en gnou perdu en brousse Sur les fausses loops de faux MC Alors les gens m'jugent rebelle comme le bio face à l'OMC J'suis celui qui pète leurs formats Et franchit franchement jusqu'aux frontières de c'qu'ils ont décrété possible Descendant du bonobo de M, j'balance de l'anti-lobotomie Pour transformer la foule en peuple C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Salut je m'intitule celui dont tout le monde veut copier l'attitude La stature, la carrure, l'immature qui assure A ton insu bien-sûr Bref il ne reste plus de place pour un message venant d'un mâle Je préfère les seins durs, gonflés Si t'es une femme bien montée sans hésiter s'il te plait laisses moi un massage Je réponds bien au doux nom de Nikk' Laissez votre requête, en français, sans accent tonique Et hop, le bip ! Salut c'est Slick Nikk' T'aurais pas vu ma plate-name ? J'ai eu votre candidature, vous êtes Arabe , et ça m'gène ! Ouais, c'est Kim, j'suis encore au Vietnam J'filme une équipe de déminaaage ! C'est Edgar Passez donc à mon vernissage Ouais, c'est Saïd, hey, j'suis en panne d'essence sur l'A86 Bonjour, c'est Pierre, en CM1, j'étais ton instit' ! Donc, rien d'intéressant en ce jour de 22 décembre J'suis endeuillé et j'dois pécho 5 keus d'essence ! Je suis très absent pour le moment convalescent en tout sens Je vous rappellerais après avoir repris connaissance Séquencées en mesures, mes pensées copulent c'est insensé Symptôme je n'arrive pas à danser Considéré comme pollution sonore, cela m'honore Perdu dans mon labyrinthe je joue au scrabble avec un minotaure À mi-chemin entre mes chimères et son diocèse Pour un message étoile une insulte appuyé sur dièse ! You might also like Allo Ouais? Ça va? Ok, hmm, non Sérieux? ah chanmé C'etait une blague désolé Je suis encore occupé Je ne suis là pour personne J'ai même éteint mon téléphone J'ai du travail à terminer Des conneries à enregistrer Des lesbiennes à sodomiser Donc rappelez plus tard S.V.P. laissez un message clair après le bip sonore Ivre mort je suis absent si c'est pour l'absynthe Appelle ma masseuse taïwanaise au commissariat En laissant ton adresse pour la livraison rapide cinq minutes Chronopost Glisse le mot de passe et si tu comptes acquérir une magnifique Simca Laisse le numéro de ta mastercard et son code Dans une putain d'ambiance hardcore crade En bipant 12 et la touche dièse, à bientôt ! P.S Si tu es bip ne me laisse pas d'message !</t>
+          <t>Salut je m'intitule celui dont tout le monde veut copier l'attitude La stature, la carrure, l'immature qui assure A ton insu bien-sûr Bref il ne reste plus de place pour un message venant d'un mâle Je préfère les seins durs, gonflés Si t'es une femme bien montée sans hésiter s'il te plait laisses moi un massage Je réponds bien au doux nom de Nikk' Laissez votre requête, en français, sans accent tonique Et hop, le bip ! Salut c'est Slick Nikk' T'aurais pas vu ma plate-name ? J'ai eu votre candidature, vous êtes Arabe , et ça m'gène ! Ouais, c'est Kim, j'suis encore au Vietnam J'filme une équipe de déminaaage ! C'est Edgar Passez donc à mon vernissage Ouais, c'est Saïd, hey, j'suis en panne d'essence sur l'A86 Bonjour, c'est Pierre, en CM1, j'étais ton instit' ! Donc, rien d'intéressant en ce jour de 22 décembre J'suis endeuillé et j'dois pécho 5 keus d'essence ! Je suis très absent pour le moment convalescent en tout sens Je vous rappellerais après avoir repris connaissance Séquencées en mesures, mes pensées copulent c'est insensé Symptôme je n'arrive pas à danser Considéré comme pollution sonore, cela m'honore Perdu dans mon labyrinthe je joue au scrabble avec un minotaure À mi-chemin entre mes chimères et son diocèse Pour un message étoile une insulte appuyé sur dièse ! Allo Ouais? Ça va? Ok, hmm, non Sérieux? ah chanmé C'etait une blague désolé Je suis encore occupé Je ne suis là pour personne J'ai même éteint mon téléphone J'ai du travail à terminer Des conneries à enregistrer Des lesbiennes à sodomiser Donc rappelez plus tard S.V.P. laissez un message clair après le bip sonore Ivre mort je suis absent si c'est pour l'absynthe Appelle ma masseuse taïwanaise au commissariat En laissant ton adresse pour la livraison rapide cinq minutes Chronopost Glisse le mot de passe et si tu comptes acquérir une magnifique Simca Laisse le numéro de ta mastercard et son code Dans une putain d'ambiance hardcore crade En bipant 12 et la touche dièse, à bientôt ! P.S Si tu es bip ne me laisse pas d'message !</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Échappé du buffet des anciens élèves Mes cris s'élèvent, sincères, sur le bout des lèvres Mon sortilège, je l'subis ou j'en crève Sur le manège d'enfants, j'ai attrapé une grappe de rêves Depuis, j'ai l'allocution épicée J'essaie de vivre pour jamais m'asphyxier Sans mettre des patins pour l'parquet C'est toute une génération qu'j'ai marquée Axé sur l'abstrait onirique Une armée de Shadoks pour public L'il sombre comme le cul d'un lombric Nous tous formerons une éclipse J'éclate sur l'antre de ma folie Va chez Darty c'est pas fini De l'acouphène jusqu'au papillon qui crie Te demande pas c'est qui? Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux You might also like Agréable comme un verre de javel, appelle Les secours vu qu'j'crache mes rimes à coups d'pelle Dur et froid comme un gosse au congèl' Je tache les convenances façon fluide menstruel J'abonde sans placebo J'suis l'Othello du caniveau Chaque bout de moi sont comme des briques de Lego Qui grondent comme une armée d'ados Moi l'artilleur prêt à m'éparpiller Crier dans un monde quadrillé Désolé si tu fais la musique d'hier Comme une escadrille je me compte par milliers J'suis comme une ruche qui part au galop Drogué à la menthe à l'eau Clown à la triste mine, au teint pâlot Même ma femme m'appelle le salaud Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux Ouais James, y a un problème technique, on règle ça vite! Qu'une minute Une minute? Non mais je... parce qu'on est sur l'album là, j'vais pas laisser les gens comme ça... bah écoute j'vais faire un slam pour combler un petit peu J'aimerais parler d'une grande dame qu'on appelle Paris Princesse, ô princesse! Princesse de nuit qui n'a d'cesse de briller sous les flashs Tu défiles sur les scènes illusoires des spectres du succès Ta mère pense que tu perces vu ta plastique Mais sous les paillettes t'a la face plein d'liquide spermatique Comme un vulgaire appât tu t'plais autour des hyènes Ornée d'carats tu rutiles, du futile tu es reine Comme une limace, on t'suit à la trace À ton aspect tu laisses derrière toi une file en érection au lieu d'respect Dans les réceptions tu détournes l'attention sur ton bonnet C Car si tu l'ouvres, t'es aussi vide qu'une réplique de Taxi 2 Tes meilleurs amis, c'est Lexomil et le laxatif Ooh! T'es une femme super active, mais aussi lisse Qu'une rime de Ségara passée au Babyliss Tu caches tes cicatrices en thérapie Parce que ton père voulait un fils Tu t'prends pour une panthère toi la chatte miaulante Tout l'temps souriante puisque heureuse et ignorante Ton plan d'carrière, fille à Papa pro Puis starlette amateur pour terminer couverte de parures au bras d'un armateur Piétinée par l'temps t'es plus qu'un soda éventée Tu chiales de perdre tes mensurations jalousées Dire qu't'auras fait tant d'bruit pour être reine des abeilles Une fois fanée tu n'seras plus qu'un murmure dans une abbaye Ouais c'est réglé, on y retourne</t>
+          <t>Échappé du buffet des anciens élèves Mes cris s'élèvent, sincères, sur le bout des lèvres Mon sortilège, je l'subis ou j'en crève Sur le manège d'enfants, j'ai attrapé une grappe de rêves Depuis, j'ai l'allocution épicée J'essaie de vivre pour jamais m'asphyxier Sans mettre des patins pour l'parquet C'est toute une génération qu'j'ai marquée Axé sur l'abstrait onirique Une armée de Shadoks pour public L'il sombre comme le cul d'un lombric Nous tous formerons une éclipse J'éclate sur l'antre de ma folie Va chez Darty c'est pas fini De l'acouphène jusqu'au papillon qui crie Te demande pas c'est qui? Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux Agréable comme un verre de javel, appelle Les secours vu qu'j'crache mes rimes à coups d'pelle Dur et froid comme un gosse au congèl' Je tache les convenances façon fluide menstruel J'abonde sans placebo J'suis l'Othello du caniveau Chaque bout de moi sont comme des briques de Lego Qui grondent comme une armée d'ados Moi l'artilleur prêt à m'éparpiller Crier dans un monde quadrillé Désolé si tu fais la musique d'hier Comme une escadrille je me compte par milliers J'suis comme une ruche qui part au galop Drogué à la menthe à l'eau Clown à la triste mine, au teint pâlot Même ma femme m'appelle le salaud Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux Ouais James, y a un problème technique, on règle ça vite! Qu'une minute Une minute? Non mais je... parce qu'on est sur l'album là, j'vais pas laisser les gens comme ça... bah écoute j'vais faire un slam pour combler un petit peu J'aimerais parler d'une grande dame qu'on appelle Paris Princesse, ô princesse! Princesse de nuit qui n'a d'cesse de briller sous les flashs Tu défiles sur les scènes illusoires des spectres du succès Ta mère pense que tu perces vu ta plastique Mais sous les paillettes t'a la face plein d'liquide spermatique Comme un vulgaire appât tu t'plais autour des hyènes Ornée d'carats tu rutiles, du futile tu es reine Comme une limace, on t'suit à la trace À ton aspect tu laisses derrière toi une file en érection au lieu d'respect Dans les réceptions tu détournes l'attention sur ton bonnet C Car si tu l'ouvres, t'es aussi vide qu'une réplique de Taxi 2 Tes meilleurs amis, c'est Lexomil et le laxatif Ooh! T'es une femme super active, mais aussi lisse Qu'une rime de Ségara passée au Babyliss Tu caches tes cicatrices en thérapie Parce que ton père voulait un fils Tu t'prends pour une panthère toi la chatte miaulante Tout l'temps souriante puisque heureuse et ignorante Ton plan d'carrière, fille à Papa pro Puis starlette amateur pour terminer couverte de parures au bras d'un armateur Piétinée par l'temps t'es plus qu'un soda éventée Tu chiales de perdre tes mensurations jalousées Dire qu't'auras fait tant d'bruit pour être reine des abeilles Une fois fanée tu n'seras plus qu'un murmure dans une abbaye Ouais c'est réglé, on y retourne</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tes lèvres me blasphèment De jolis petits poèmes Sur ton faible pour le bondage extrême Oh je crois bien que tu m'aimes Tes belles dents bien alignées Tes analyses sans MST Tout ça me semble parfait Oui mais y a un mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Pourtant Troisième dan de tango argentin Une fatale chute de reins Ton 36 taille mannequin Tu tiens l'pouvoir entre tes mains Un côté sexy-austère Tes jarretelles noir panthère Un vrai fantasme publicitaire Le haut d'gamme des mammifères Le brushing de tes cheveux Le courage de tes aveux Le regard des hommes envieux La transparence de tes yeux bleus De partout bien épilée Ton petit chemisier tout serré Tout ça me semble parfait Oui mais... You might also like Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Une frimousse insolente Ta voix qui me complimente Ton regard de biche provocante Tes bisous cerise-menthe Ton nez si bien dessiné T'as une forme parfaite de pieds D'une famille fortunée Ton haleine est bien élevée Ta voiture décapotable Ton ventre plat est confortable Au grain de peau impeccable Tes jambes sont interminables Tes promesses de tour du Monde Ton château près de Londres Tout ça pour que je succombe Oui mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Mariée mais célibataire Tu minaudes comme un revolver Même déguisée en Bunny Ne m'attends pas toute la vie Mais putain t'as pas compris Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Je t'aime pas Je t'aime pas</t>
+          <t>Tes lèvres me blasphèment De jolis petits poèmes Sur ton faible pour le bondage extrême Oh je crois bien que tu m'aimes Tes belles dents bien alignées Tes analyses sans MST Tout ça me semble parfait Oui mais y a un mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Pourtant Troisième dan de tango argentin Une fatale chute de reins Ton 36 taille mannequin Tu tiens l'pouvoir entre tes mains Un côté sexy-austère Tes jarretelles noir panthère Un vrai fantasme publicitaire Le haut d'gamme des mammifères Le brushing de tes cheveux Le courage de tes aveux Le regard des hommes envieux La transparence de tes yeux bleus De partout bien épilée Ton petit chemisier tout serré Tout ça me semble parfait Oui mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Une frimousse insolente Ta voix qui me complimente Ton regard de biche provocante Tes bisous cerise-menthe Ton nez si bien dessiné T'as une forme parfaite de pieds D'une famille fortunée Ton haleine est bien élevée Ta voiture décapotable Ton ventre plat est confortable Au grain de peau impeccable Tes jambes sont interminables Tes promesses de tour du Monde Ton château près de Londres Tout ça pour que je succombe Oui mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Mariée mais célibataire Tu minaudes comme un revolver Même déguisée en Bunny Ne m'attends pas toute la vie Mais putain t'as pas compris Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Je t'aime pas Je t'aime pas</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Un démon me dévore, se glissant dans ma solitude Tel un ange de glace , je suis fixé sur le réseau Paris-Sud Perdu dans un jardin de rose, rassuré par ma sueur Je souffre, écorché par leurs épines mais fasciné par leur couleur Mi-homme, mi-disloqué, encaissant l'inexorable L'esprit fané, mon visage se plisse comme une rose des sables Mes troubles ricochent sur l'étang formant des anneaux grandissants J'entends mes larmes crier dans leur chute devant vos yeux lisses Je me dispute avec toutes les ombres qui rodent autour de moi De derrière ma cornée, je vois des spectres s'échapper de vos sacs Zara À l'écart du réel, je porte ma crasse comme le noir du deuil En marge comme le numéro griffonné sur le coin d'une feuille Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Je suis précaire, réchauffé par la nuit tel un duvet de mohair L'astre lunaire me guette comme un cerbère de lumière Je m'enlise dans toutes ces images de clairvoyance Dans le ravin social ravagé par mes cinq sens J'ai vu des choses que vous ne soupçonnez pas, au verso Tous ces gens avec ces monstres accrochés dans leur dos En vous massant la nuque pensant à une douleur musculaire Alors que des bêtes sucent votre lumière contenue dans la moelle épinière Vous, moi, qui est le mort parmi les vivants Dans les yeux se dessinent l'amour ou les tyrans J'aimerais croire en la vie pour en recommencer une deuxième Tout effacer comme une dispute qui se termine par un je t'aime You might also like Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Mon corps de poussière se torture de mélodies passées Que je chante à l'envers sans jamais pouvoir les recto verser Assis sur le quai, j'écris avec mon index à mon fils Joseph Dessinant d'étranges signes sur un bas-relief Des rêves je n'en fais plus même en rêve Je tutoie le néant de l'autre côté de la rive Le chaos m'absorbe dans les faubourgs de mes peurs Quand il prend la forme d'une fillette qui me fixe avec son sourire fleur ! Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit</t>
+          <t>Un démon me dévore, se glissant dans ma solitude Tel un ange de glace , je suis fixé sur le réseau Paris-Sud Perdu dans un jardin de rose, rassuré par ma sueur Je souffre, écorché par leurs épines mais fasciné par leur couleur Mi-homme, mi-disloqué, encaissant l'inexorable L'esprit fané, mon visage se plisse comme une rose des sables Mes troubles ricochent sur l'étang formant des anneaux grandissants J'entends mes larmes crier dans leur chute devant vos yeux lisses Je me dispute avec toutes les ombres qui rodent autour de moi De derrière ma cornée, je vois des spectres s'échapper de vos sacs Zara À l'écart du réel, je porte ma crasse comme le noir du deuil En marge comme le numéro griffonné sur le coin d'une feuille Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Je suis précaire, réchauffé par la nuit tel un duvet de mohair L'astre lunaire me guette comme un cerbère de lumière Je m'enlise dans toutes ces images de clairvoyance Dans le ravin social ravagé par mes cinq sens J'ai vu des choses que vous ne soupçonnez pas, au verso Tous ces gens avec ces monstres accrochés dans leur dos En vous massant la nuque pensant à une douleur musculaire Alors que des bêtes sucent votre lumière contenue dans la moelle épinière Vous, moi, qui est le mort parmi les vivants Dans les yeux se dessinent l'amour ou les tyrans J'aimerais croire en la vie pour en recommencer une deuxième Tout effacer comme une dispute qui se termine par un je t'aime Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Mon corps de poussière se torture de mélodies passées Que je chante à l'envers sans jamais pouvoir les recto verser Assis sur le quai, j'écris avec mon index à mon fils Joseph Dessinant d'étranges signes sur un bas-relief Des rêves je n'en fais plus même en rêve Je tutoie le néant de l'autre côté de la rive Le chaos m'absorbe dans les faubourgs de mes peurs Quand il prend la forme d'une fillette qui me fixe avec son sourire fleur ! Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Viens-là! Explique-moi pourquoi T'as fait du ciment avec les cendres de Papy En dansant gaiement avant d'brûler le tapis Craché sur les passants, vendu le chien sur eBay Mis un crampon à la place de ta dent d'lait Triché pour gagner au poker Tapé l'voisin avec une batte de croquet Hep tu fais même peur à ta maîtresse Normal depuis qu'tu lui as brûlé ses tresses Pourquoi t'as égorgé la peluche d'Odile Et simulé une orgie avec ses Playmobil Rayé tous mes disques de Serge Lama Arrête de traiter d'pédé l'Dalaï-Lama Ta mère et moi sommes sceptiques Si tu continues, tu vas finir homme politique Même le pasteur t'appelle Satan Tu trouves normal d'écouter Marilyn Manson à cinq ans Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con You might also like Tu vas te taire, arrache-moi ces posters Me regarde pas comme ça, et pose-moi ce cutter C'est pas les WC, c'est le salon ici J't'ai déjà dit mille fois d'pas y faire pipi Enlève-moi cette croix gammée, c'est vulgaire À la télé tu regardes pas Dora mais Dexter Tu sais t'auras rien à Noël Si tu continues à t'mettre des coups de truelle J'compte plus les fois où c'est la panique La liste est aussi grande qu'une queue aux Assedic Ta maman n'supporte plus tes crises de nerfs Quand t'essaies de l'étouffer avec une fougère Mais pourquoi lacérer ma chemise pure soie Ou ébouillanter tes potes à coup d'potage pékinois Ça suffit, tu seras privé de dessert Tant qu'tu nous diras pas où t'as mis le corps de grand-mère Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con Cracher c'est mal Taper c'est mal Désobéir c'est mal Mordre c'est mal Voler c'est mal S'bagarrer c'est mal Tricher c'est mal Mentir c'est mal Séquestrer c'est mal Étouffer c'est mal Amputer c'est mal Lacérer c'est mal Lapider c'est mal Immoler c'est mal Découper c'est mal Énucléer c'est mal Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con</t>
+          <t>Viens-là! Explique-moi pourquoi T'as fait du ciment avec les cendres de Papy En dansant gaiement avant d'brûler le tapis Craché sur les passants, vendu le chien sur eBay Mis un crampon à la place de ta dent d'lait Triché pour gagner au poker Tapé l'voisin avec une batte de croquet Hep tu fais même peur à ta maîtresse Normal depuis qu'tu lui as brûlé ses tresses Pourquoi t'as égorgé la peluche d'Odile Et simulé une orgie avec ses Playmobil Rayé tous mes disques de Serge Lama Arrête de traiter d'pédé l'Dalaï-Lama Ta mère et moi sommes sceptiques Si tu continues, tu vas finir homme politique Même le pasteur t'appelle Satan Tu trouves normal d'écouter Marilyn Manson à cinq ans Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con Tu vas te taire, arrache-moi ces posters Me regarde pas comme ça, et pose-moi ce cutter C'est pas les WC, c'est le salon ici J't'ai déjà dit mille fois d'pas y faire pipi Enlève-moi cette croix gammée, c'est vulgaire À la télé tu regardes pas Dora mais Dexter Tu sais t'auras rien à Noël Si tu continues à t'mettre des coups de truelle J'compte plus les fois où c'est la panique La liste est aussi grande qu'une queue aux Assedic Ta maman n'supporte plus tes crises de nerfs Quand t'essaies de l'étouffer avec une fougère Mais pourquoi lacérer ma chemise pure soie Ou ébouillanter tes potes à coup d'potage pékinois Ça suffit, tu seras privé de dessert Tant qu'tu nous diras pas où t'as mis le corps de grand-mère Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con Cracher c'est mal Taper c'est mal Désobéir c'est mal Mordre c'est mal Voler c'est mal S'bagarrer c'est mal Tricher c'est mal Mentir c'est mal Séquestrer c'est mal Étouffer c'est mal Amputer c'est mal Lacérer c'est mal Lapider c'est mal Immoler c'est mal Découper c'est mal Énucléer c'est mal Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C'est l'attaque des mal-aimés Les détestés qui même molestés vont infester le gang T'as des airs incontestés Force et honneur à tous mes gris tachetés Voila les révoltés les maltraités au sang-mêlé Vandales prêts à tout péter On fiente sur le prince Rainier jusqu'aux mains de bébé On est la face cachée de vos grandes cités Une race de flibustiers préparée pour se libérer à la vue pigeonnante sur vos décolletés Portés par les vents pollués les holsters sous les yeux ronds par milliers à vous observer Parés, comme des acharnés, ailes déployées Sache que ta couette en plume n'est qu'un charnier Les rôles vont s'inverser on va laver notre honneur dans une flaque d'eau frelatée Fait pas l'étonné qu'on soit des oiseaux fâchés Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme Anarchiste, déféqueur Visant les parts des hipsters Fiantant même sur ton comics collector sans blister À tous nos frères tombés sous les roues des livreurs DHL pour seul crime d'avoir voulu finir un putain de burger béchamel On tapisse le ciel, tapis dans les ruelles L'ombre de nos ailes vous annonce La fin de votre expansion naturelle Postée sur la bordure d'une gouttière une mer de fiente tombera sur tes prières C'est bien vous, qui êtes dans une cage sans litière You might also like Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme On slalom entre vos silhouettes parasites On allait pas se contenter de Parassi Gare à ta calvitie ton blond va virer au gris khaleesi C'est la révolte des rats volants descendants-descendants de toutan dans l'boucan Regarde sur ton front, y'a un truc coulant, y'a un truc coulant, y'a un truc coulant On est tous le pigeon de quelqu'un c'est ça le pire On plane, tu transpires J'étale mon empire Conspire, sur les cendres de vos sourires Ramasse donc ma plume si tu veux maigrir</t>
+          <t>C'est l'attaque des mal-aimés Les détestés qui même molestés vont infester le gang T'as des airs incontestés Force et honneur à tous mes gris tachetés Voila les révoltés les maltraités au sang-mêlé Vandales prêts à tout péter On fiente sur le prince Rainier jusqu'aux mains de bébé On est la face cachée de vos grandes cités Une race de flibustiers préparée pour se libérer à la vue pigeonnante sur vos décolletés Portés par les vents pollués les holsters sous les yeux ronds par milliers à vous observer Parés, comme des acharnés, ailes déployées Sache que ta couette en plume n'est qu'un charnier Les rôles vont s'inverser on va laver notre honneur dans une flaque d'eau frelatée Fait pas l'étonné qu'on soit des oiseaux fâchés Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme Anarchiste, déféqueur Visant les parts des hipsters Fiantant même sur ton comics collector sans blister À tous nos frères tombés sous les roues des livreurs DHL pour seul crime d'avoir voulu finir un putain de burger béchamel On tapisse le ciel, tapis dans les ruelles L'ombre de nos ailes vous annonce La fin de votre expansion naturelle Postée sur la bordure d'une gouttière une mer de fiente tombera sur tes prières C'est bien vous, qui êtes dans une cage sans litière Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme On slalom entre vos silhouettes parasites On allait pas se contenter de Parassi Gare à ta calvitie ton blond va virer au gris khaleesi C'est la révolte des rats volants descendants-descendants de toutan dans l'boucan Regarde sur ton front, y'a un truc coulant, y'a un truc coulant, y'a un truc coulant On est tous le pigeon de quelqu'un c'est ça le pire On plane, tu transpires J'étale mon empire Conspire, sur les cendres de vos sourires Ramasse donc ma plume si tu veux maigrir</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>L'autre matin là, je me suis réveillé anormal mes bras, mes jambes, bah, ils faisaient ce qu'ils voulaient ! J'étais...J'étais comme prisonnier de mon corps, et c'est là que Jouage, il m'dit Quoi ? Toi aussi t'as la Pixel Puppet ? J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet Il n'est plus question de ne pas y croire Moi qui les croyait tous saouls Cherchant l'erreur parmi les dires et les écrits Se dandinaient la fantaisie plus que la folie Mon erreur a été de me croire en sécurité Protégé par une immunité futile Je me perds dans cette douce folie Commune car je le sais maintenant nul n'est à l'abri Je vis, je suis régi par l'inexpliqué qui me dépasse Qui engendre des multiples angoisses Ai-je besoin de thérapie ? Merde mon corps joue le danseur contemporain J'ai bien l'impression de ne plus avoir ma vie entre les mains Mes aisselles sentent la vulve de Vulcain J'sors plus par peur de m'pousser tout seul sous l'train Chaque matin ma brosse à dent devient un gourdin Voilà pourquoi ma langue a une haleine d'oursin Ma propre main veut métouffer sous un coussin P'tain j'dance comme un rockeur qui fête sa grève du rein You might also likeJ'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'crois qu'on a chopé ça sur l'net Mais c'est quoi ce virus dextra terrien Il y a comme des liens qui me mettent la tête dans le purin Dis rien, ne me rappelle pas quand j'ai fais le chien Et que mon bassin a fait des spasmes malsains Mes pieds écrasent des bouses et des poussins Mes doigts tapent sur mes dents, comme un clavecin Chez moi c'est propre vu que j'bouffe les acariens Tellement j'bug c'est d'un exorcisme dont j'ai besoin Faut se rendre à l'évidence, nous sommes tous fous Donc crier à l'aide ne sert strictement à rien Jessaie de m'adapter à ce phénomène mais j'angoisse Je ne sais plus si l'effet est tactique ou si je suis victime de simples spasmes Lassé, je conspue cet état de bassesse Parfois mon esprit tordu s'en sert comme un prétexte Pour assouvir mon instinct de faiblesse Je cherche l'erreur dans ce mystère qui est devenu notre enfer J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet</t>
+          <t>L'autre matin là, je me suis réveillé anormal mes bras, mes jambes, bah, ils faisaient ce qu'ils voulaient ! J'étais...J'étais comme prisonnier de mon corps, et c'est là que Jouage, il m'dit Quoi ? Toi aussi t'as la Pixel Puppet ? J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet Il n'est plus question de ne pas y croire Moi qui les croyait tous saouls Cherchant l'erreur parmi les dires et les écrits Se dandinaient la fantaisie plus que la folie Mon erreur a été de me croire en sécurité Protégé par une immunité futile Je me perds dans cette douce folie Commune car je le sais maintenant nul n'est à l'abri Je vis, je suis régi par l'inexpliqué qui me dépasse Qui engendre des multiples angoisses Ai-je besoin de thérapie ? Merde mon corps joue le danseur contemporain J'ai bien l'impression de ne plus avoir ma vie entre les mains Mes aisselles sentent la vulve de Vulcain J'sors plus par peur de m'pousser tout seul sous l'train Chaque matin ma brosse à dent devient un gourdin Voilà pourquoi ma langue a une haleine d'oursin Ma propre main veut métouffer sous un coussin P'tain j'dance comme un rockeur qui fête sa grève du rein J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'crois qu'on a chopé ça sur l'net Mais c'est quoi ce virus dextra terrien Il y a comme des liens qui me mettent la tête dans le purin Dis rien, ne me rappelle pas quand j'ai fais le chien Et que mon bassin a fait des spasmes malsains Mes pieds écrasent des bouses et des poussins Mes doigts tapent sur mes dents, comme un clavecin Chez moi c'est propre vu que j'bouffe les acariens Tellement j'bug c'est d'un exorcisme dont j'ai besoin Faut se rendre à l'évidence, nous sommes tous fous Donc crier à l'aide ne sert strictement à rien Jessaie de m'adapter à ce phénomène mais j'angoisse Je ne sais plus si l'effet est tactique ou si je suis victime de simples spasmes Lassé, je conspue cet état de bassesse Parfois mon esprit tordu s'en sert comme un prétexte Pour assouvir mon instinct de faiblesse Je cherche l'erreur dans ce mystère qui est devenu notre enfer J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vous êtes célibataire et vous en avez marre de dormir seul ? Aujourd'hui à la MJC de Soisson cest soirée speed-dating ! Vous avez trois minutes pour trouver l'amour ! Et TOP pour l'amour ! Bah vas-y parle moi de toi ? Moi ? Jaime dessiner des p'tits coeurs, sur le miroir des urinoirs .. Si tu cherchais un loveur, bébé, on est fait pour se revoir ... Comme, un fluide en apesanteur, l'amour je sais l'faire pleuvoir J'fabrique moi même ma liqueur, tu sais ? Il faut le boire pour le croire .. Une belle rose comme toi ça s'arrose à la carotide J'suis qu'un poète qui fabrique un soleil liquide Ya autant damour possible, que de façon d'faire la guerre Jserais tenté qu'elle alors sois mon réverbère Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout sessuie J'peace and love, j'peace and love J'peace-and-love. x2 You might also likeUn couple, ça peut soulager Au propre, comme au figuré Même les racines de tes cheveux .. Eh', j'peux les décolorer Pars avec moi voyager, dans des contrées, pas très reculées J'ai de l'amour à déverser, viens naviguer, sur ma belle rivière dorée .. Allez ! On ira s'lover sur une colline isolée Là où tu pourras t'mettre à genoux .. pour me dézipper Alors j'montrais mon jet, dans cette golden hour Ça fera un arc-en-ciel classe, pour ton golden shower Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2 En tout cas, moi .. tu me plais beaucoup et .. alors, viens Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2</t>
+          <t>Vous êtes célibataire et vous en avez marre de dormir seul ? Aujourd'hui à la MJC de Soisson cest soirée speed-dating ! Vous avez trois minutes pour trouver l'amour ! Et TOP pour l'amour ! Bah vas-y parle moi de toi ? Moi ? Jaime dessiner des p'tits coeurs, sur le miroir des urinoirs .. Si tu cherchais un loveur, bébé, on est fait pour se revoir ... Comme, un fluide en apesanteur, l'amour je sais l'faire pleuvoir J'fabrique moi même ma liqueur, tu sais ? Il faut le boire pour le croire .. Une belle rose comme toi ça s'arrose à la carotide J'suis qu'un poète qui fabrique un soleil liquide Ya autant damour possible, que de façon d'faire la guerre Jserais tenté qu'elle alors sois mon réverbère Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout sessuie J'peace and love, j'peace and love J'peace-and-love. x2 Un couple, ça peut soulager Au propre, comme au figuré Même les racines de tes cheveux .. Eh', j'peux les décolorer Pars avec moi voyager, dans des contrées, pas très reculées J'ai de l'amour à déverser, viens naviguer, sur ma belle rivière dorée .. Allez ! On ira s'lover sur une colline isolée Là où tu pourras t'mettre à genoux .. pour me dézipper Alors j'montrais mon jet, dans cette golden hour Ça fera un arc-en-ciel classe, pour ton golden shower Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2 En tout cas, moi .. tu me plais beaucoup et .. alors, viens Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C'est Delleck, le leader d'ceux qu'en ont marre Mon armée c'est vous et tous ceux qui veulent encore y croire En pirate des ondes, je place mes bombes vocales Pendant qu'les snipers m'cherchent dans leurs focales Bancal à souhait, sur rythme anti-clean J'resterai MC, gourou fou comme Aphex Twin Si vous m'coupez, j'fais tout péter J'ai une ceinture de D.A.T. explosive, de quoi faire sauter les fêtards Y a trop de merde sur mégahertz, putain l'rap est mourant Alors j'fous des mégas d'ram pour mes beats contre-courant Je veux toujours qu'ça booste dans les boomers Bosse pour faire péter le son et le léguer à nos gosses J'ai du flow dans l'accent, l'expression en dit long sur mon compte Sais éveiller l'intérêt qui me botte, comme de mêler l'utile et l'agréable J'suis là pour bénir l'oracle d'une prophétie prescrite par les anciens Lancelot du mic braquant sous musical circus Quel fantastique spécimen rap XXX à puce Moi c'est le Jouage, écrit comme ça se prononce J'ai l'don d'voir tout donc profitons-en, XXX notre jargon Ce n'est pas très complexe de comprendre mon sens Sur le net j'en ai fait un jeu-réponses pour gagner des millions C'est une combinaison attractive donc tout bénéf Duo de MC deux fois le Jouage et Delleck You might also like En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat J'aurais voulu être l'artiste qui met fin à sa détresse Le Jouage optimiste dit que XXX partout dans mes scripts Dans mes brouillons calligraphes la source de mes nectars Fleurissent les ébauches de mes pensées Des grailleurs de pages blanches J'suis une agence matrimoniale qui marie textes et instrus Le dire c'est énoncer l'critère de ma bataille L'idéal c'est quand le cohérent sonne doux à mon oreille Comme le chant d'une charnelle jouissant d'un fort potentiel C'est comme de rouler en Lexus Que mes ex me sucent Luxure en bonus, sur fond de paresse en plus C'est qu'on va nous prendre pour des fous ma parole T'façon on est venus envahir le show à coup de micro Comme pour le champ magnétique j'ai d'la résonance Même en stéréo c'qui donne de l'écho à mon rap idéaux Quand j'surfe sur mon tuner radio J'y entends qu'des sons aussi niais que Faudel en promo C'est dingue, même en mixtape, les mecs tapent plus sur des mix style Alors que sur FM c'est naze Skyrock Maintenant infiltrés, on fout le feu tous les ouais fils Des MC dormeurs juste bons à fumer des spliffs et Contre la World Company, j'ai ma horde de compagnons Pour mener campagne même si c'est pas gagné Libre comme Mel Gibson en guerrier écossais Je signe Delleck à coup d'instrus bien bossées En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat</t>
+          <t>C'est Delleck, le leader d'ceux qu'en ont marre Mon armée c'est vous et tous ceux qui veulent encore y croire En pirate des ondes, je place mes bombes vocales Pendant qu'les snipers m'cherchent dans leurs focales Bancal à souhait, sur rythme anti-clean J'resterai MC, gourou fou comme Aphex Twin Si vous m'coupez, j'fais tout péter J'ai une ceinture de D.A.T. explosive, de quoi faire sauter les fêtards Y a trop de merde sur mégahertz, putain l'rap est mourant Alors j'fous des mégas d'ram pour mes beats contre-courant Je veux toujours qu'ça booste dans les boomers Bosse pour faire péter le son et le léguer à nos gosses J'ai du flow dans l'accent, l'expression en dit long sur mon compte Sais éveiller l'intérêt qui me botte, comme de mêler l'utile et l'agréable J'suis là pour bénir l'oracle d'une prophétie prescrite par les anciens Lancelot du mic braquant sous musical circus Quel fantastique spécimen rap XXX à puce Moi c'est le Jouage, écrit comme ça se prononce J'ai l'don d'voir tout donc profitons-en, XXX notre jargon Ce n'est pas très complexe de comprendre mon sens Sur le net j'en ai fait un jeu-réponses pour gagner des millions C'est une combinaison attractive donc tout bénéf Duo de MC deux fois le Jouage et Delleck En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat J'aurais voulu être l'artiste qui met fin à sa détresse Le Jouage optimiste dit que XXX partout dans mes scripts Dans mes brouillons calligraphes la source de mes nectars Fleurissent les ébauches de mes pensées Des grailleurs de pages blanches J'suis une agence matrimoniale qui marie textes et instrus Le dire c'est énoncer l'critère de ma bataille L'idéal c'est quand le cohérent sonne doux à mon oreille Comme le chant d'une charnelle jouissant d'un fort potentiel C'est comme de rouler en Lexus Que mes ex me sucent Luxure en bonus, sur fond de paresse en plus C'est qu'on va nous prendre pour des fous ma parole T'façon on est venus envahir le show à coup de micro Comme pour le champ magnétique j'ai d'la résonance Même en stéréo c'qui donne de l'écho à mon rap idéaux Quand j'surfe sur mon tuner radio J'y entends qu'des sons aussi niais que Faudel en promo C'est dingue, même en mixtape, les mecs tapent plus sur des mix style Alors que sur FM c'est naze Skyrock Maintenant infiltrés, on fout le feu tous les ouais fils Des MC dormeurs juste bons à fumer des spliffs et Contre la World Company, j'ai ma horde de compagnons Pour mener campagne même si c'est pas gagné Libre comme Mel Gibson en guerrier écossais Je signe Delleck à coup d'instrus bien bossées En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JAMES DELLECK Jai enfin franchi les portes du ciel, au-delà du voile nocturne Je me dilue sans fin dans les anneaux de Saturne Chevauchant une hydre a deux têtes non muselées Mes rimes fuselées hissent les mots jusqu'à Cassiopée Né dans un chant de briques, je mévade au plus haut Ravivant le chaos qui bouillonne sous ma peau Dans le creux du vide astral, le verbe est manié De ma tanière, je rugis comme un tigre de papier Quelquefois lassé, je mentrelace détoiles filantes Les lueurs se reflètent sur ma rétine luisante Enchaîné hier Libre demain Insensible a lesbroufe des révolutionnaires mondains Ma déviance se déplace au travers des trous de ver Troubadours de la science nous ne sommes que particules de poussières Asséchés par le vent solaire les soucis se consument Alors doucement je massoupit sur un lit de lunes ! Refrain x4 Infini LE JOUAGE Mon texte a prit naissance dans un monospace sur une boucle de Moebius Pour finir sur le toit dun starminus Il était une fois le noir total ayant lenvie de conquérir la lumière Un rêve qui prit forme malgré toutes ces années évanouies Le Jouage provoque la tache indélébile mon corps astral Nage dans le vide il se libère de sa prison mentale Sillonnant les voies lactées en thématique Je discute avec Rodolph Ertel de son uvre cosmique Une effluve de souffrance sharmonise dans un souffle de vie Jattends une réponse alors que les mots troublent le sommeil et glissent sur mon écorce Dans un langage corporel la symphonie sconjugue Dans une suite de respirations et d'inspirations Alors que lombre laisse place aux premières lueurs du jour Un parfum de victoire écume de ma silhouette a son tour Noyé dans livresse je renais à nouveau Comme lhistoire sans fin du cycle infini dune goutte deau You might also likeRefrain x6</t>
+          <t>JAMES DELLECK Jai enfin franchi les portes du ciel, au-delà du voile nocturne Je me dilue sans fin dans les anneaux de Saturne Chevauchant une hydre a deux têtes non muselées Mes rimes fuselées hissent les mots jusqu'à Cassiopée Né dans un chant de briques, je mévade au plus haut Ravivant le chaos qui bouillonne sous ma peau Dans le creux du vide astral, le verbe est manié De ma tanière, je rugis comme un tigre de papier Quelquefois lassé, je mentrelace détoiles filantes Les lueurs se reflètent sur ma rétine luisante Enchaîné hier Libre demain Insensible a lesbroufe des révolutionnaires mondains Ma déviance se déplace au travers des trous de ver Troubadours de la science nous ne sommes que particules de poussières Asséchés par le vent solaire les soucis se consument Alors doucement je massoupit sur un lit de lunes ! Refrain x4 Infini LE JOUAGE Mon texte a prit naissance dans un monospace sur une boucle de Moebius Pour finir sur le toit dun starminus Il était une fois le noir total ayant lenvie de conquérir la lumière Un rêve qui prit forme malgré toutes ces années évanouies Le Jouage provoque la tache indélébile mon corps astral Nage dans le vide il se libère de sa prison mentale Sillonnant les voies lactées en thématique Je discute avec Rodolph Ertel de son uvre cosmique Une effluve de souffrance sharmonise dans un souffle de vie Jattends une réponse alors que les mots troublent le sommeil et glissent sur mon écorce Dans un langage corporel la symphonie sconjugue Dans une suite de respirations et d'inspirations Alors que lombre laisse place aux premières lueurs du jour Un parfum de victoire écume de ma silhouette a son tour Noyé dans livresse je renais à nouveau Comme lhistoire sans fin du cycle infini dune goutte deau Refrain x6</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dis oncle James euh c'est quoi l'amour ? L'amour, l'amour, tu m'emmerdes... Alors, amorçage, amoché, amortisseur... Amour Nom masculin, attraction passionnée Attirance affective et sexuelle d'un être humain pour un autre être humain Émotion pouvant déclencher des effets secondaires comme Moiteur des mains et sécheresse buccale Ton lobe frontal en discernement minimal Pris dans la spirale, du feu hormonal Des sautes d'humeur passent du sombre au boréal Quand tes sentiments ne sont pas séminales Il arrive que ton il devienne floral Alors tu t'fous du lendemain, le pouls en rafale Fixant bêtement ton bol de céréales Tu fais des poèmes avec ses initiales Rêve de la dévorer façon rorqual Ça s'emballe, tu réduis ta focale Toutes les autres te sont égales Même les incassables sont friables La pluie le vent te deviennent agréables Vulnérable et animal Dans ses interstices tu tintercales You might also like S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant Des ailes te poussent sur les cils Toutes tes cicatrices deviennent fossiles Ta flamme te consume de lintérieur Suffoquant, tu t'habitues à la douleur Tes crocs deviennent dociles Son nombril est ta presquîle Du pire tu tires le meilleur Pour une fois que tes peurs prennent des couleurs Dressé comme une fleur réhydratée Elle est ton arche, tu es son Noé Comme décapité de la réalité Irradié par un halo d'barbelés Fragile tel un bouton d'rosée Puissant comme un shoot bien dosé Inconscient face aux dégâts causés En amour il faut juste oser S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant</t>
+          <t>Dis oncle James euh c'est quoi l'amour ? L'amour, l'amour, tu m'emmerdes... Alors, amorçage, amoché, amortisseur... Amour Nom masculin, attraction passionnée Attirance affective et sexuelle d'un être humain pour un autre être humain Émotion pouvant déclencher des effets secondaires comme Moiteur des mains et sécheresse buccale Ton lobe frontal en discernement minimal Pris dans la spirale, du feu hormonal Des sautes d'humeur passent du sombre au boréal Quand tes sentiments ne sont pas séminales Il arrive que ton il devienne floral Alors tu t'fous du lendemain, le pouls en rafale Fixant bêtement ton bol de céréales Tu fais des poèmes avec ses initiales Rêve de la dévorer façon rorqual Ça s'emballe, tu réduis ta focale Toutes les autres te sont égales Même les incassables sont friables La pluie le vent te deviennent agréables Vulnérable et animal Dans ses interstices tu tintercales S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant Des ailes te poussent sur les cils Toutes tes cicatrices deviennent fossiles Ta flamme te consume de lintérieur Suffoquant, tu t'habitues à la douleur Tes crocs deviennent dociles Son nombril est ta presquîle Du pire tu tires le meilleur Pour une fois que tes peurs prennent des couleurs Dressé comme une fleur réhydratée Elle est ton arche, tu es son Noé Comme décapité de la réalité Irradié par un halo d'barbelés Fragile tel un bouton d'rosée Puissant comme un shoot bien dosé Inconscient face aux dégâts causés En amour il faut juste oser S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'ai grandi lentement sur le bord d'une bouche de métal Pendant qu'd'autres ont la chance d'être la rosée sur un pétale Personne ne prend conscience de mon réel J'ai dans le corps toutes les couleurs de l'arc-en-ciel Je sens qu'il va falloir que je m'élance Je laisse derrière tous mes souvenirs d'enfance Plus je grandis, plus j'ai le vertige de la vie Plus je grossis et plus le vide m'attire vers lui Adieu je me décroche de la plate-forme Je tombe, caressée par le vent qui me déforme Je vole et virevolte malgré l'implacable trajectoire Éole, fais-moi danser ou fais-moi le croire Trop vite, la vasque approche dangereusement Pourtant j'ai prié, espérant arrêter le temps Mais... a y est, il fait tout noir Je m'suis éparpillée comme les éclats d'un vieux miroir Je n'étais qu'une petite gouttelette au sourire muet À travers moi, la lumière se sublimait Juste une petite gouttelette inutile et délicate Qui une fois morte avait bien droit à sa sonateYou might also like</t>
+          <t>J'ai grandi lentement sur le bord d'une bouche de métal Pendant qu'd'autres ont la chance d'être la rosée sur un pétale Personne ne prend conscience de mon réel J'ai dans le corps toutes les couleurs de l'arc-en-ciel Je sens qu'il va falloir que je m'élance Je laisse derrière tous mes souvenirs d'enfance Plus je grandis, plus j'ai le vertige de la vie Plus je grossis et plus le vide m'attire vers lui Adieu je me décroche de la plate-forme Je tombe, caressée par le vent qui me déforme Je vole et virevolte malgré l'implacable trajectoire Éole, fais-moi danser ou fais-moi le croire Trop vite, la vasque approche dangereusement Pourtant j'ai prié, espérant arrêter le temps Mais... a y est, il fait tout noir Je m'suis éparpillée comme les éclats d'un vieux miroir Je n'étais qu'une petite gouttelette au sourire muet À travers moi, la lumière se sublimait Juste une petite gouttelette inutile et délicate Qui une fois morte avait bien droit à sa sonate</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mon backstage au bout d'un lacet Ressens jusqu'au moindre et indicible coup d'stress Que laisse trahir mon buste essoufflé Le plexus solaire rayonne pendant qu'l'hypophyse frémit Donc j'm'essuie les mains aux excès d'sébum sur l'baggy d'Teki Le visage livide, j'répète mes textes hybrides Avec la hantise de faire un bide devant une salle devenue vide Je m'sens seul comme un moineau sous l'orage Alors j'bouffe des céréales aux ailerons d'requin pour m'donner du courage Sur les nerfs, j'espère foutre la foule en transe Et j'ai foi vu qu'en scène notre hip-hop fait acte de résistance OK, mais t'es pas anxieux d'te faire siffler? Non J'ai comme gri-gri un collier fait avec les dents d'lait d'Alizée À J moins dix secondes, on m'file le HF ma grenade Excité, c'soir j'vais exister en faisant gronder les façades Ma chevelure apparaît dans la lumière, les MD des fans sont en rec Alors j'enchaîne avec C'est qui James Delleck Putain d'merde, les gars, j'ai des montées Quelque chose fait vibrer mon corps, je suis stressé Mais mes émotions sont dressées depuis un certain temps Aucun sentiment n'est véhiculé, est-ce un tort? Cependant en ce moment-même, j'suis en train d'tuer la scène J'ai des penchants pour l'obscène Donc on ramène cette chakra d'plastique Statique, c'est une nympho gonflable Le public acclame puis les lumières s'éteignent C'est une montée d'adrénaline D'un trait j'aligne mon mouvement des ruelles Le monument est ma proie, ce morceau de ciment est à moi Certains passants interloqués font la loi Le surplus coule, le mur mouille, je lui fais l'amour Me grouille tel un éjaculateur précoce Féroce, le sperme se fixe, derrière moi la police Retentissent les sirènes, une réelle Montée d'adrénaline qui ma personne contamine J'en suis la victime, choisis d'être la cible, té-je des bombes et m'casse You might also like Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline Sa salive déglutir Dans les sables mouvants d'ses peurs S'engloutir et ne plus s'investir L'adrénaline sur un starting-block Des fonctions analysatrices se mettent en marche Comme XXX je fais le vide Ton esprit ventile, évacue tout facteur de stress Le micro combustible, j'ai de l'essence dans le corps J'suis pas un MC comestible qui avance pour un sucre d'orge J'aime les bains d'foule La transpiration des corps en contact des autres Quand j'délivre des algorithmes XXX ma façon bulldozer a traversé l'espace du XXX On s'remet en question, qu'on puisse nous dire c'est net Écoute comme j'me contrôle À l'épiderme aucune chair de poule, faut pas qu'j'extrapole Afin qu'les subtilités soient respectées dans le protocole de ma montée en puissance Impeccable et de manière orchestrale Faire en sorte que l'énorme effort fourni par mes ennemis S'anéantisse, et de lui-même J'escalade la scène même si j'ai le vertige J'assume, cette fois-ci j'assure, j'inspire J'expire et chasse toute distraction de mon esprit À peine le temps d'réagir et je suis déjà parti Mes muscles me lâchent sans m'avertir Comme au moment d'm'endormir, je sens que je tombe dans le vide J'entends ma voix dans les enceintes et mon cur palpiter À travers chacune de mes extrémités C'est la panique, toutes mes facultés sont décuplées Mais ma gorge est paralysée, c'est pathétique Quand je crie c'n'est qu'un soupir qui dans la salle s'éparpille J'me sens si bien, j'ai la chair de poule, j'ai l'âme saoule Lorsque j'ouvre les yeux, des larmes coulent Une peur énorme forme dans ma gorge une large boule Pourtant je me sens confiant en regardant le public s'approcher J'aimerais que l'atmosphère soit tangible afin de m'y accrocher Tellement je perds mes repères et le sens de l'équilibre Ivre, heureux de vivre C'est la salle toute entière qui vibre dans le creux de ma main qui tremble Il me semble que fine est la ligne qui sépare le stress de la motivation L'adrénaline Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline</t>
+          <t>Mon backstage au bout d'un lacet Ressens jusqu'au moindre et indicible coup d'stress Que laisse trahir mon buste essoufflé Le plexus solaire rayonne pendant qu'l'hypophyse frémit Donc j'm'essuie les mains aux excès d'sébum sur l'baggy d'Teki Le visage livide, j'répète mes textes hybrides Avec la hantise de faire un bide devant une salle devenue vide Je m'sens seul comme un moineau sous l'orage Alors j'bouffe des céréales aux ailerons d'requin pour m'donner du courage Sur les nerfs, j'espère foutre la foule en transe Et j'ai foi vu qu'en scène notre hip-hop fait acte de résistance OK, mais t'es pas anxieux d'te faire siffler? Non J'ai comme gri-gri un collier fait avec les dents d'lait d'Alizée À J moins dix secondes, on m'file le HF ma grenade Excité, c'soir j'vais exister en faisant gronder les façades Ma chevelure apparaît dans la lumière, les MD des fans sont en rec Alors j'enchaîne avec C'est qui James Delleck Putain d'merde, les gars, j'ai des montées Quelque chose fait vibrer mon corps, je suis stressé Mais mes émotions sont dressées depuis un certain temps Aucun sentiment n'est véhiculé, est-ce un tort? Cependant en ce moment-même, j'suis en train d'tuer la scène J'ai des penchants pour l'obscène Donc on ramène cette chakra d'plastique Statique, c'est une nympho gonflable Le public acclame puis les lumières s'éteignent C'est une montée d'adrénaline D'un trait j'aligne mon mouvement des ruelles Le monument est ma proie, ce morceau de ciment est à moi Certains passants interloqués font la loi Le surplus coule, le mur mouille, je lui fais l'amour Me grouille tel un éjaculateur précoce Féroce, le sperme se fixe, derrière moi la police Retentissent les sirènes, une réelle Montée d'adrénaline qui ma personne contamine J'en suis la victime, choisis d'être la cible, té-je des bombes et m'casse Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline Sa salive déglutir Dans les sables mouvants d'ses peurs S'engloutir et ne plus s'investir L'adrénaline sur un starting-block Des fonctions analysatrices se mettent en marche Comme XXX je fais le vide Ton esprit ventile, évacue tout facteur de stress Le micro combustible, j'ai de l'essence dans le corps J'suis pas un MC comestible qui avance pour un sucre d'orge J'aime les bains d'foule La transpiration des corps en contact des autres Quand j'délivre des algorithmes XXX ma façon bulldozer a traversé l'espace du XXX On s'remet en question, qu'on puisse nous dire c'est net Écoute comme j'me contrôle À l'épiderme aucune chair de poule, faut pas qu'j'extrapole Afin qu'les subtilités soient respectées dans le protocole de ma montée en puissance Impeccable et de manière orchestrale Faire en sorte que l'énorme effort fourni par mes ennemis S'anéantisse, et de lui-même J'escalade la scène même si j'ai le vertige J'assume, cette fois-ci j'assure, j'inspire J'expire et chasse toute distraction de mon esprit À peine le temps d'réagir et je suis déjà parti Mes muscles me lâchent sans m'avertir Comme au moment d'm'endormir, je sens que je tombe dans le vide J'entends ma voix dans les enceintes et mon cur palpiter À travers chacune de mes extrémités C'est la panique, toutes mes facultés sont décuplées Mais ma gorge est paralysée, c'est pathétique Quand je crie c'n'est qu'un soupir qui dans la salle s'éparpille J'me sens si bien, j'ai la chair de poule, j'ai l'âme saoule Lorsque j'ouvre les yeux, des larmes coulent Une peur énorme forme dans ma gorge une large boule Pourtant je me sens confiant en regardant le public s'approcher J'aimerais que l'atmosphère soit tangible afin de m'y accrocher Tellement je perds mes repères et le sens de l'équilibre Ivre, heureux de vivre C'est la salle toute entière qui vibre dans le creux de ma main qui tremble Il me semble que fine est la ligne qui sépare le stress de la motivation L'adrénaline Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Dimanche pendant la messe j'ai crié ferme ta gueule! Comme un déclic maintenant libéré J'crache des ferme ta gueule! Hein? c'est pour ça qu'vous m'avez radié? Non mais ferme ta gueule! Malgré la grève, tu contrôles mes billets? Tu sais quoi ferme ta gueule! Monsieur du téléachat faudrait quand même qu'tu fermes ta gueule! Ah ouais? Patron fais-nous plaisir et ferme ta gueule! Ton putain de chien qui aboie toute la nuit L'ordi qui bugge, mais hors garantie Ton air qui sait tout, ton haleine d'épagneul Me rendent pas content alors fermez vos gueules! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! You might also like Quoi, quoi? C'est ça mes agios? Mais ferme ta gueule! A ton coach de vie n'hésite pas balance-lui ferme ta gueule! Ramène-le moi ton ado rebelle qu'j'lui dise ferme ta gueule! Hier t'as croisé Michael Jackson? Pff... mais ferme ta gueule! Taxi t'as priorité à gauche, ah bon? Mais ferme ta gueule! Viens pas chialer tu l'as élu alors ferme ta gueule! Aussi poli qu'un Gérard à jeun Étonnant comme des dents dans un vagin Poétique comme un clodo qui dégueule Devant nos vies en disant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Tu penses que j'en fais trop avec mes ferme ta gueule! Désolé, syndrome Gilles de la Tourette alors ferme ta gueule! Hein? Moi, tu m'trouves impoli? Allez ferme ta gueule! Please, Christophe Maé, ça serait vraiment bien qu'tu fermes ta gueule! Petit con avec ton T-shirt du Che, mais ferme ta gueule! Mère, vous serait-il possible que tu fermes ta gueule! Conditionné, préparé, fabriqué pour qu'tu fermes ta gueule! Là c'est le moment d'bouger comme des rageux En criant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule!1</t>
+          <t>J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Dimanche pendant la messe j'ai crié ferme ta gueule! Comme un déclic maintenant libéré J'crache des ferme ta gueule! Hein? c'est pour ça qu'vous m'avez radié? Non mais ferme ta gueule! Malgré la grève, tu contrôles mes billets? Tu sais quoi ferme ta gueule! Monsieur du téléachat faudrait quand même qu'tu fermes ta gueule! Ah ouais? Patron fais-nous plaisir et ferme ta gueule! Ton putain de chien qui aboie toute la nuit L'ordi qui bugge, mais hors garantie Ton air qui sait tout, ton haleine d'épagneul Me rendent pas content alors fermez vos gueules! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Quoi, quoi? C'est ça mes agios? Mais ferme ta gueule! A ton coach de vie n'hésite pas balance-lui ferme ta gueule! Ramène-le moi ton ado rebelle qu'j'lui dise ferme ta gueule! Hier t'as croisé Michael Jackson? Pff... mais ferme ta gueule! Taxi t'as priorité à gauche, ah bon? Mais ferme ta gueule! Viens pas chialer tu l'as élu alors ferme ta gueule! Aussi poli qu'un Gérard à jeun Étonnant comme des dents dans un vagin Poétique comme un clodo qui dégueule Devant nos vies en disant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Tu penses que j'en fais trop avec mes ferme ta gueule! Désolé, syndrome Gilles de la Tourette alors ferme ta gueule! Hein? Moi, tu m'trouves impoli? Allez ferme ta gueule! Please, Christophe Maé, ça serait vraiment bien qu'tu fermes ta gueule! Petit con avec ton T-shirt du Che, mais ferme ta gueule! Mère, vous serait-il possible que tu fermes ta gueule! Conditionné, préparé, fabriqué pour qu'tu fermes ta gueule! Là c'est le moment d'bouger comme des rageux En criant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule!1</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Maintenant t'es grand, aujourd'hui t'as sept ans Solitaire à l'arrêt d'bus, le bonheur tu l'attends Le feu, t'as compris seul qu'il fallait pas y toucher Devant la rivière, tu sais même pas faire d'ricochet À la piscine tu nages comme une pierre Personne t'as fait goûter ta première bière Même Bart Simpson, lui il en a Tu sauras jamais jouer au foot et ça Parce que T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Triste, ton petit cur est tout cassé T'en as assez d'pas savoir faire tes lacets T'as des croûtes aux genoux à force de tomber d'vélo Tu sais pas non plus serrer ton kimono Tu t'demandes à quoi peuvent bien servir tous ces poils Et si ton poisson rouge est parti dans les étoiles Les gosses te jettent des cailloux c'est injuste C'est pas qu't'es moche mais c'est juste Que You might also like T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà T'as une maman alors fais pas ton caprice par terre D'ailleurs elle t'as acheté une nouvelle paire de rollers Avec lesquels tu dévales les pentes de la vie Mon petit, la famille est juste à demi Tu t'imagines que ton jardin est une savane Mais dans l'arbre, personne te construira d'cabane À moitié orphelin, c'est mieux que rien Alors putain de quoi tu t'plains T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Il t'aurait amené à la découverte de tant de choses Te caressant la joue quand ton blues est morose Ensemble rire en chur devant l'dernier Pixar Ou rire plus fort encore devant Mamie et ses escarres Faire de longues balades en forêt Mettre la table à deux, manger comme des gorets Alors tu pries l'Seigneur en lui criant pourquoi? Sûrement qu'Dieu nous aime... Sauf toi T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà</t>
+          <t>Maintenant t'es grand, aujourd'hui t'as sept ans Solitaire à l'arrêt d'bus, le bonheur tu l'attends Le feu, t'as compris seul qu'il fallait pas y toucher Devant la rivière, tu sais même pas faire d'ricochet À la piscine tu nages comme une pierre Personne t'as fait goûter ta première bière Même Bart Simpson, lui il en a Tu sauras jamais jouer au foot et ça Parce que T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Triste, ton petit cur est tout cassé T'en as assez d'pas savoir faire tes lacets T'as des croûtes aux genoux à force de tomber d'vélo Tu sais pas non plus serrer ton kimono Tu t'demandes à quoi peuvent bien servir tous ces poils Et si ton poisson rouge est parti dans les étoiles Les gosses te jettent des cailloux c'est injuste C'est pas qu't'es moche mais c'est juste Que T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà T'as une maman alors fais pas ton caprice par terre D'ailleurs elle t'as acheté une nouvelle paire de rollers Avec lesquels tu dévales les pentes de la vie Mon petit, la famille est juste à demi Tu t'imagines que ton jardin est une savane Mais dans l'arbre, personne te construira d'cabane À moitié orphelin, c'est mieux que rien Alors putain de quoi tu t'plains T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Il t'aurait amené à la découverte de tant de choses Te caressant la joue quand ton blues est morose Ensemble rire en chur devant l'dernier Pixar Ou rire plus fort encore devant Mamie et ses escarres Faire de longues balades en forêt Mettre la table à deux, manger comme des gorets Alors tu pries l'Seigneur en lui criant pourquoi? Sûrement qu'Dieu nous aime... Sauf toi T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Quand tu t'hérisses, je gonfle mes harmoniques Mon iris glisse sur le sentier des poussières syllabiques Dans une onde à la force tellurique, je déforme mon Spencer En te fixant, mes sourcils gonflés par la sueur Sans rictus, le chant des cactus nous épie Deux divins Spartacus sans cursus ni répit Il n'y a plus de mécanique céleste, plus de marée, plus de courant Plus de nuit, plus de naissance, plus de mourant Totem et tabou Totem et tabou Juste moi contre le maître de Solaris Je jette un dernier regard sur ma fleur de lys Et je gronde d'un pouvoir qui vous échappe Ma lumière emplit l'espace, déjà ton pied dérape C'est le dernier combat, la dernière pierre d'une guerre liquide Entre Jéhovah et son fils dans un duel fratricide Sens-tu l'air comme déjà il semble moins amer C'est sans colère que je te dis c'est fini père Totem et tabou Totem et tabou You might also like Le désert se ride, les dunes deviennent pâles L'océan se fige, les salives se ravalent Palpable chez les sapiens la tension se ressent Sans cri ni son ton vide s'étire en m'aveuglant Les mâchoires crispées dans un arrière-plan bleuet Tes prêtres n'auront plus de bouche puisque les livres saints seront muets Tes mots ne résonnent plus, les parois n'ont plus d'écho Il en a fallu des bévues pour que tu n'aies plus ton halo Totem et tabou Totem et tabou Je te terrasse en un éclair là où tu poses genou à terre Les hommes en feront un sanctuaire pour des millénaires Pour chaque âme il faudra vous reconstruire Sous chaque arbre vous devrez vous réunir C'est chaque étoile qu'il faudra renommer Chaque souvenir qu'il faudra pardonner Ta dépouille se disperse enfin dans toute l'humanité Ainsi tes petites créatures pourront peut-être évoluer Totem et tabou Totem et tabou1</t>
+          <t>Quand tu t'hérisses, je gonfle mes harmoniques Mon iris glisse sur le sentier des poussières syllabiques Dans une onde à la force tellurique, je déforme mon Spencer En te fixant, mes sourcils gonflés par la sueur Sans rictus, le chant des cactus nous épie Deux divins Spartacus sans cursus ni répit Il n'y a plus de mécanique céleste, plus de marée, plus de courant Plus de nuit, plus de naissance, plus de mourant Totem et tabou Totem et tabou Juste moi contre le maître de Solaris Je jette un dernier regard sur ma fleur de lys Et je gronde d'un pouvoir qui vous échappe Ma lumière emplit l'espace, déjà ton pied dérape C'est le dernier combat, la dernière pierre d'une guerre liquide Entre Jéhovah et son fils dans un duel fratricide Sens-tu l'air comme déjà il semble moins amer C'est sans colère que je te dis c'est fini père Totem et tabou Totem et tabou Le désert se ride, les dunes deviennent pâles L'océan se fige, les salives se ravalent Palpable chez les sapiens la tension se ressent Sans cri ni son ton vide s'étire en m'aveuglant Les mâchoires crispées dans un arrière-plan bleuet Tes prêtres n'auront plus de bouche puisque les livres saints seront muets Tes mots ne résonnent plus, les parois n'ont plus d'écho Il en a fallu des bévues pour que tu n'aies plus ton halo Totem et tabou Totem et tabou Je te terrasse en un éclair là où tu poses genou à terre Les hommes en feront un sanctuaire pour des millénaires Pour chaque âme il faudra vous reconstruire Sous chaque arbre vous devrez vous réunir C'est chaque étoile qu'il faudra renommer Chaque souvenir qu'il faudra pardonner Ta dépouille se disperse enfin dans toute l'humanité Ainsi tes petites créatures pourront peut-être évoluer Totem et tabou Totem et tabou1</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Je suis ? du rap donc tous veulent me disséquer le Cortex au scalpel et me faire des tests kinésiques Même vu par David Vincent je reste antique Vu que ni l'unique Fox n'est apte à me choper La air force effacée d'un coup de puissance de feu Foutaises comme quoi on croupirait confiné en zone 51 enfantin Je crois que votre infanterie bye bye foutrait en l'air nos fast styles UFO flow fait vroom vroom sorti des caissons de basses Pour buter les wacks de base Alors je fous le trouble pire que lil d'un myope Et brille fort comme le 6ème soleil de Cassiopée X2 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer Moi Le Jouage vouloir téléphone maison quand vu dans télévision mon étrange Moi prendre téléphone mobile commandé dans téléachat yabon Moi dire eux m'auront pas de ces comptines avec l'accent t'as pas l'air con C'est comme dirait mon pote je te fais savoir comme Chewbacca je suis un dans Star Wars En fait on est mal vu on est toujours à perdre dans leur projecteur d'image à Ça rime avec schmit clique, non? non C'est comme dans cette émission mystère du coup? est mon Faut faire gaffe mec c'est que j'ai pas envie de finir comme ces pauvres gars des affaires non classées Moi le You might also like X2 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer Venu de la galaxie pour malaxer suicide et cervelle Pour se relaxer faut maxi, taxer tout ici ça mémerveille Je rentre dans la surface plein de terre de la planète terre Ils vont me dire oh t'es pas net merde En voyant ma pure face neuve, débarquement j'atterris dans ton département Venu d'ailleurs, d'ailleurs mange pas mon tailleur oh mais garnements Tu dans les parcs et appartement je passe un message casse, jacasse, fracasse Car appartenant à la race inconnue genre prédateur dans le Predator Je mets à mort, élabore pour ce faire tout est prêt à bord sonnent faux? Pour ton info j'aimerai miner le globe j'en gobe 2-3 avant de tous les exterminer X4 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer UFO</t>
+          <t>Je suis ? du rap donc tous veulent me disséquer le Cortex au scalpel et me faire des tests kinésiques Même vu par David Vincent je reste antique Vu que ni l'unique Fox n'est apte à me choper La air force effacée d'un coup de puissance de feu Foutaises comme quoi on croupirait confiné en zone 51 enfantin Je crois que votre infanterie bye bye foutrait en l'air nos fast styles UFO flow fait vroom vroom sorti des caissons de basses Pour buter les wacks de base Alors je fous le trouble pire que lil d'un myope Et brille fort comme le 6ème soleil de Cassiopée X2 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer Moi Le Jouage vouloir téléphone maison quand vu dans télévision mon étrange Moi prendre téléphone mobile commandé dans téléachat yabon Moi dire eux m'auront pas de ces comptines avec l'accent t'as pas l'air con C'est comme dirait mon pote je te fais savoir comme Chewbacca je suis un dans Star Wars En fait on est mal vu on est toujours à perdre dans leur projecteur d'image à Ça rime avec schmit clique, non? non C'est comme dans cette émission mystère du coup? est mon Faut faire gaffe mec c'est que j'ai pas envie de finir comme ces pauvres gars des affaires non classées Moi le X2 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer Venu de la galaxie pour malaxer suicide et cervelle Pour se relaxer faut maxi, taxer tout ici ça mémerveille Je rentre dans la surface plein de terre de la planète terre Ils vont me dire oh t'es pas net merde En voyant ma pure face neuve, débarquement j'atterris dans ton département Venu d'ailleurs, d'ailleurs mange pas mon tailleur oh mais garnements Tu dans les parcs et appartement je passe un message casse, jacasse, fracasse Car appartenant à la race inconnue genre prédateur dans le Predator Je mets à mort, élabore pour ce faire tout est prêt à bord sonnent faux? Pour ton info j'aimerai miner le globe j'en gobe 2-3 avant de tous les exterminer X4 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer UFO</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_James_Delleck_songs.xlsx
+++ b/data/02_intermediate/cleaned_James_Delleck_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Boule de cristal</t>
+          <t>C’est “In”</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>La lune était en son plein, le ciel était découvert, et neuf heures du soir étaient sonnées lorsque nous revenions dune maison proche de Paris, quatre de mes amis et moi. Les diverses pensées que nous donna la vue de cette boule de safran nous défrayèrent sur le chemin. Les yeux noyés dans ce grand astre, tantôt lun le prenait pour une lucarne du ciel par où lon entrevoyait la gloire des bienheureux tantôt lautre protestait que cétait la platine où Diane dresse les rabats dApollon tantôt un autre sécriait que ce pourrait bien être le soleil lui-même, qui sétant au soir dépouillé de ses rayons regardait par un trou ce quon faisait au monde quand il ny était plus. Et moi, dis-je, qui souhaite mêler mes enthousiasmes aux vôtres, je crois sans mamuser aux imaginations pointues dont vous chatouillez le temps pour le faire marcher plus vite, que la lune est un monde comme celui-ci, à qui le nôtre sert de lune. La compagnie me régala dun grand éclat de rire. Ainsi peut-être, leur dis-je, se moque-t-on maintenant dans la lune, de quelque autre, qui soutient que ce globe-ci est un monde. Mais jeus beau leur alléguer que Pythagore, Epicure, Démocrite et, de notre âge, Copernic et Kepler, avaient été de cette opinion, je ne les obligeai quà ségosiller de plus belle. Cette pensée, dont la hardiesse biaisait en mon humeur, affermie par la contradiction, se plongea si profondément chez moi que, pendant tout le reste du chemin, je demeurai gros de mille définitions de lune, dont je ne pouvais accoucher et à force dappuyer cette créance burlesque par des raisonnements sérieux, je me le persuadai quasi, mais, écoute, lecteur, le miracle ou laccident dont la Providence ou la fortune se servirent pour me le confirmer. Jétais de retour à mon logis et, pour me délasser de la promenade, jétais à peine entré dans ma chambre quand sur ma table je trouvai un livre ouvert que je ny avais point mis. Cétait les oeuvres de Cardan et quoique je neusse pas dessein dy lire, je tombai de la vue, comme par force, justement dans une histoire que raconte ce philosophe il écrit quétudiant un soir à la chandelle, il aperçut entrer, à travers les portes fermées de sa chambre, deux grands vieillards, lesquels, après beaucoup dinterrogations quil leur fit, répondirent quils étaient habitants de la lune, et cela dit, ils disparurent. Je demeurai si surpris, tant de voir un livre qui sétait apporté là tout seul, que du temps et de la feuille où il sétait rencontré ouvert, que je pris toute cette enchaînure dincidents pour une inspiration de Dieu qui me poussait à faire connaître aux hommes que la lune est un monde. Quoi ! disais-je en moi-même, après avoir tout aujourdhui parlé dune chose, un livre qui peut-être est le seul au monde où cette matière se traite voler de ma bibliothèque sur ma table, devenir capable de raison, pour souvrir justement à lendroit dune aventure si merveilleuse et fournir ensuite à ma fantaisie les réflexions et à ma volonté les desseins que je fais !... Sans doute, continuais-je, les deux vieillards qui apparurent à ce grand homme sont ceux-là mêmes qui ont dérangé mon livre, et qui lont ouvert sur cette page, pour sépargner la peine de me faire cette harangue quils ont faite à Cardan. Mais, ajoutais-je, je ne saurais méclaircir de ce doute, si je ne monte jusque-là ? Et pourquoi non ? me répondais-je aussitôt. Prométhée fut bien autrefois au ciel dérober du feu. À ces boutades de fièvres chaudes, succéda lespérance de faire réussir un si beau voyage. Je menfermai, pour en venir à bout, dans une maison de campagne assez écartée, où après avoir flatté mes rêveries de quelques moyens capables de my porter, voici comme je me donnai au ciel. Je métais attaché autour de moi quantité de fioles pleines de rosée, et la chaleur du soleil qui les attirait méleva si haut, quà la fin je me trouvai au-dessus des plus hautes nuées. Mais comme cette attraction me faisait monter avec trop de rapidité, et quau lieu de mapprocher de la lune, comme je prétendais, elle me paraissait plus éloignée quà mon partement, je cassai plusieurs de mes fioles, jusquà ce que je sentis que ma pesanteur surmontait lattraction et que je descendais vers la terre. Mon opinion ne fut point fausse, car jy retombai quelque temps après, et à compter lheure que jen étais parti, il devait être minuit. Cependant je reconnus que le soleil était alors au plus haut de lhorizon, et quil était midi. Je vous laisse à penser combien je fus étonné certes je le fus de si bonne sorte que, ne sachant à quoi attribuer ce miracle, jeus linsolence de mimaginer quen faveur de ma hardiesse, Dieu avait encore une fois recloué le soleil aux cieux, afin déclairer une si généreuse entreprise. Ce qui accrut mon ébahissement, ce fut de ne point connaître le pays où jétais, vu quil me semblait quétant monté droit, je devais être descendu au même lieu doù jétais parti. Equipé comme jétais, je macheminai vers une chaumière, où japerçus de la fumée et jen étais à peine à une portée de pistolet, que je me vis entouré dun grand nombre de sauvages. Ils parurent fort surpris de ma rencontre car jétais le premier, à ce que je pense, quils eussent jamais vu habillé de bouteilles. Et pour renverser encore toutes les interprétations quils auraient pu donner à cet équipage, ils voyaient quen marchant je ne touchais presque point à la terre aussi ne savaient-ils pas quau premier branle que je donnais à mon corps, lardeur des rayons de midi me soulevait avec ma rosée, et sans que mes fioles nétaient plus en assez grand nombre, jeusse été, possible, à leur vue enlevé dans les airs. Je les voulus aborder mais comme si la frayeur les eût changés en oiseaux, un moment les vit perdre dans la forêt prochaine. Jen attrapai toutefois un, dont les jambes sans doute avaient trahi le coeur. Je lui demandai avec bien de la peine car jétais essoufflé, combien on comptait de là à Paris, depuis quand en France le monde allait tout nu, et pourquoi ils me fuyaient avec tant dépouvante. Cet homme à qui je parlais était un vieillard olivâtre, qui dabord se jeta à mes genoux et joignant les mains en haut derrière la tête, ouvrit la bouche et ferma les yeux. Il marmotta longtemps, mais je ne discernai point quil articulât rien de façon que je pris son langage pour le gazouillement enroué dun muet. À quelque temps de là, je vis arriver une compagnie de soldats tambour battant, et jen remarquai deux se séparer du gros pour me reconnaître. Quand ils furent assez proche pour être entendu, je leur demandai où jétais. Vous êtes en France, me répondirent-ils mais qui diable vous a mis dans cet état ? et doù vient que nous ne vous connaissons point ? Est-ce que les vaisseaux sont arrivés ? En allez-vous donner avis à M. le Gouverneur ? Et pourquoi avez-vous divisé votre eau-de-vie en tant de bouteilles ? À tout cela, je leur repartis que le diable ne mavait point mis en cet état quils ne me connaissaient pas, à cause quils ne pouvaient pas connaître tous les hommes que je ne savais point que la Seine portât des navires que je navais point davis à donner à M. de Montbazon et que je nétais point chargé deau-de-vie. Ho, ho, me dirent-ils, me prenant par le bras, vous faites le gaillard ? M. le Gouverneur vous connaîtra bien, lui ! Ils me menèrent vers leur gros, me disant ces paroles, et jappris deux que jétais en France et nétais point en Europe, car jétais en la Nouvelle France. Je fus présenté à M. de Montmagny, qui en est le vice-roi. Il me demanda mon pays, mon nom et ma qualité et après que je leus satisfait, en lui racontant lagréable succès de mon voyage, soit quil le crût, soit quil feignît de le croire, il eut la bonté de me faire donner une chambre dans son appartement. Mon bonheur fut grand de rencontrer un homme capable de hautes opinions, et qui ne sétonna point quand je lui dis quil fallait que la terre eût tourné pendant mon élévation puisque ayant commencé de monter à deux lieues de Paris, jétais tombé par une ligne quasi perpendiculaire en Canada. Le soir, comme je mallais coucher, je le vis entrer dans ma chambre Je ne serais pas venu, me dit-il, interrompre votre repos, si je navais cru quune personne qui a pu faire neuf cents lieues en demi-journée les a pu faire sans se lasser. Mais vous ne savez pas, ajouta-t-il, la plaisante querelle que je viens davoir pour vous avec nos Pères jésuites ? Ils veulent absolument que vous soyez magicien et la plus grande grâce que vous puissiez obtenir deux, cest de ne passer que pour imposteur. Et en vérité, ce mouvement que vous attribuez à la terre nest-ce point un beau paradoxe ce qui fait que je ne suis pas bien fort de votre opinion, cest quencore quhier vous fussiez parti de Paris, vous pouvez être arrivé aujourdhui en cette contrée, sans que la terre ait tourné car le soleil vous ayant enlevé par le moyen de vos bouteilles, ne doit-il pas vous avoir amené ici, puisque, selon Ptolémée, Tyco-Brahé, et les philosophes modernes, il chemine du biais que vous faites marcher la terre ? Et puis quelles grandes vraisemblances avez-vous pour vous figurer que le soleil soit immobile, quand nous le voyons marcher ? et que la terre tourne autour de son centre avec tant de rapidité, quand nous la sentons ferme dessous nous ? Monsieur, lui répliquai-je, voici les raisons qui nous obligent à le préjuger. Premièrement, il est du sens commun de croire que le soleil a pris place au centre de lunivers, puisque tous les corps qui sont dans la nature ont besoin de ce feu radical qui habite au coeur du royaume pour être en état de satisfaire promptement à leurs nécessités et que la cause des générations soit placée également entre les corps, où elle agit, de même que la sage nature a placé les parties génitales dans lhomme, les pépins dans le centre des pommes, les noyaux au milieu de leur fruit et de même que loignon conserve à labri de cent écorces qui lenvironnent le précieux germe où dix millions dautres ont à puiser leur essence. Car cette pomme est un petit univers à soi-même, dont le pépin plus chaud que les autres parties est le soleil, qui répand autour de soi la chaleur, conservatrice de son globe et ce germe, dans cet oignon, est le petit soleil de ce petit monde, qui réchauffe et nourrit le sel végétatif de cette masse. Cela donc supposé, je dis que la terre ayant besoin de la lumière, de la chaleur, et de linfluence de ce grand feu, elle se tourne autour de lui pour recevoir également en toutes ses parties cette vertu qui la conserve. Car il serait aussi ridicule de croire que ce grand corps lumineux tournât autour dun point dont il na que faire, que de simaginer quand nous voyons une alouette rôtie, quon a, pour la cuire, tourné la cheminée à lentour. Autrement si cétait au soleil à faire cette corvée, il semblerait que la médecine eût besoin du malade que le fort dût plier sous le faible, le grand servir au petit et quau lieu quun vaisseau cingle le long des côtes dune province, on dût faire promener la province autour du vaisseau. Que si vous avez de la peine à comprendre comme une masse si lourde se peut mouvoir, dites-moi, je vous prie, les astres et les cieux que vous faites si solides, sont-ils plus légers ? Encore nous, qui sommes assurés de la rondeur de la terre, il nous est aisé de conclure son mouvement par sa figure. Mais pourquoi supposer le ciel rond, puisque vous ne le sauriez savoir, et que de toutes les figures, sil na pas celle-ci, il est certain quil ne se peut pas mouvoir ? Je ne vous reproche point vos excentriques, vos concentriques ni vos épicycles tous lesquels vous ne sauriez expliquer que très confusément, et dont je sauve mon système. Parlons seulement des causes naturelles de ce mouvement. Vous êtes contraints vous autres de recourir aux intelligences qui remuent et gouvernent vos globes. Mais moi, sans interrompre le repos du Souverain Etre, qui sans doute a créé la nature toute parfaite, et de la sagesse duquel il est de lavoir achevée, de telle sorte que, layant accomplie pour une chose, il ne lait pas rendue défectueuse pour une autre moi, dis-je, je trouve dans la terre les vertus qui la font mouvoir. Je dis donc que les rayons du soleil, avec ses influences, venant à frapper dessus par leur circulation, la font tourner comme nous faisons tourner un globe en le frappant de la main ou que les fumées qui sévaporent continuellement de son sein du côté que le soleil la regarde, répercutées par le froid de la moyenne région, rejaillissent dessus, et de nécessité ne la pouvant frapper que de biais, la font ainsi pirouetter. Lexplication des deux autres mouvements est encore moins embrouillée, considérez, je vous prie... À ces mots, M. de Montmagny minterrompit et Jaime mieux, dit-il, vous dispenser de cette peine aussi bien ai-je lu sur ce sujet quelques livres de Gassendi, à la charge que vous écouterez ce que me répondit un jour lun de nos Pères qui soutenait votre opinion En effet, disait-il, je mimagine que la terre tourne, non point pour les raisons quallègue Coprins, mais pour ce que le feu denfer, ainsi que nous apprend la Sainte Ecriture, étant enclos au centre de la terre, les damnés qui veulent fuir lardeur de la flamme, gravissent pour sen éloigner contre la voûte, et font ainsi tourner la terre, comme un chien fait tourner une roue, lorsquil court enfermé dedans. Nous louâmes quelque temps le zèle du bon Père et son panégyrique étant achevé, M. de Montmagny me dit quil sétonnait fort, vu que le système de Ptolémée était si peu probable, quil eût été si généralement reçu. Monsieur, lui répondis-je, la plupart des hommes, qui ne jugent que par les sens, se sont laissé persuader à leurs yeux et de même que celui dont le vaisseau navigue terre à terre croit demeurer immobile, et que le rivage chemine, ainsi les hommes tournant avec la terre autour du ciel, ont cru que cétait le ciel lui-même qui tournait autour deux. Ajoutez à cela lorgueil insupportable des humains, qui leur persuade que la nature na été faite que pour eux comme sil était vraisemblable que le soleil, un grand corps, quatre cent trente-quatre fois plus vaste que la terre, neût été allumé que pour mûrir ses nèfles, et pommer ses choux. Quant à moi, bien loin de consentir à linsolence de ces brutaux, je crois que les planètes sont des mondes autour du soleil, et que les étoiles fixes sont aussi des soleils qui ont des planètes autour deux, cest-à-dire des mondes que nous ne voyons pas dici à cause de leur petitesse, et parce que leur lumière empruntée ne saurait venir jusquà nous. Car comment, en bonne foi, simaginer que ces globes si spacieux ne soient que de grandes campagnes désertes, et que le nôtre, à cause que nous y rampons, une douzaine de glorieux coquins, ait été bâti pour commander à tous ? Quoi ! parce que le soleil compasse nos jours et nos années, est-ce à dire pour cela quil nait été construit quafin que nous ne cognions pas de la tête contre les murs ? Non, non, si ce Dieu visible éclaire lhomme, cest par accident, comme le flambeau du roi éclaire par accident au crocheteur qui passe par la rue. Mais, me dit-il, si comme vous assurez, les étoiles fixes sont autant de soleils, on pourrait conclure de là que le monde serait infini, puisquil est vraisemblable que les peuples de ces mondes qui sont autour dune étoile fixe que vous prenez pour un soleil découvrent encore au-dessus deux dautres étoiles fixes que nous ne saurions apercevoir dici, et quil en va éternellement de cette sorte. Nen doutez point, lui répliquai-je comme Dieu a pu faire lâme immortelle, il a pu faire le monde infini, sil est vrai que léternité nest rien autre chose quune durée sans bornes, et linfini une étendue sans limites. Et puis Dieu serait fini lui-même, supposé que le monde ne fût pas infini, puisquil ne pourrait pas être où il ny aurait rien, et quil ne pourrait accroître la grandeur du monde, quil najoutât quelque chose à sa propre étendue, commençant dêtre où il nétait pas auparavant. Il faut donc croire que comme nous voyons dici Saturne et Jupiter, si nous étions dans lun ou dans lautre, nous découvririons beaucoup de mondes que nous napercevons pas dici, et que lunivers est éternellement construit de cette sorte. Ma foi ! me répliqua-t-il, vous avez beau dire, je ne saurais du tout comprendre cet infini. Hé ! dites-moi, lui dis-je, comprenez-vous mieux le rien qui est au delà ? Point du tout. Quand vous songez à ce néant, vous vous limaginez tout au moins comme du vent, comme de lair, et cela est quelque chose mais linfini, si vous ne le comprenez en général, vous le concevez au moins par parties, car il nest pas difficile de se figurer de la terre, du feu, de leau, de lair, des astres, des cieux. Or, linfini nest rien quune tissure sans bornes de tout cela. Que si vous me demandez de quelle façon ces mondes ont été faits, vu que la Sainte Ecriture parle seulement dun que Dieu créa, je réponds quelle ne parle que du nôtre à cause quil est le seul que Dieu ait voulu prendre la peine de faire de sa propre main, mais tous les autres quon voit ou quon ne voit pas, suspendus parmi lazur de lunivers, ne sont rien que lécume des soleils qui se purgent. Car comment ces grands feux pourraient-ils subsister, sils nétaient attachés à quelque matière qui les nourrit ? Or comme le feu pousse loin de chez soi la cendre dont il est étouffé de même que lor dans le creuset, se détache en saffinant du marcassite qui affaiblit son carat, et de même que notre coeur se dégage par le vomissement des humeurs indigestes qui lattaquent ainsi le soleil dégorge tous les jours et se purge des restes de la matière qui nourrit son feu. Mais lorsquil aura tout à fait consommé cette matière qui lentretient, vous ne devez point douter quil ne se répande de tous côtés pour chercher une autre pâture, et quil ne sattache à tous les mondes quil aura construits autrefois, à ceux particulièrement quil rencontrera les plus proches alors ce grand feu, rebrouillant tous les corps, les rechassera pêle-mêle de toutes parts comme auparavant, et sétant peu à peu purifié, il commencera de servir de soleil à ces petits mondes quil engendrera en les poussant hors de sa sphère. Cest ce qui a fait sans doute prédire aux pythagoriciens lembrasement universel. Ceci nest pas une imagination ridicule la Nouvelle-France, ou nous sommes, en produit un exemple bien convaincant. Ce vaste continent de lAmérique est une moitié de la terre, laquelle en dépit de nos prédécesseurs qui avaient mille fois cinglé lOcéan, navait point encore été découverte aussi ny était-elle pas encore non plus que beaucoup dîles, de péninsules, et de montagnes, qui se sont soulevées sur notre globe, quand les rouillures du soleil qui se nettoie ont été poussées assez loin, et condensées en pelotons assez pesants pour être attirées par le centre de notre monde, possible peu à peu en particules menues, peut-être aussi tout à coup en une masse. Cela nest pas si déraisonnable, que saint Augustin ny eût applaudi, si la découverte de ce pays eût été faite de son âge, puisque ce grand personnage, dont le génie était éclairé du Saint-Esprit, assure que de son temps la terre était plate comme un four, et quelle nageait sur leau comme la moitié dune orange coupée. Mais si jai jamais lhonneur de vous voir en France, je vous ferai observer par le moyen dune lunette fort excellente que jai que certaines obscurités qui dici paraissent des taches sont des mondes qui se construisent. Mes yeux qui se fermaient en achevant ce discours obligèrent M. de Montmagny à me souhaiter le bonsoir. Nous eûmes, le lendemain et les jours suivants, des entretiens de pareille nature. Mais comme quelque temps après lembarras des affaires de la province accrocha notre philosophie, je retombai de plus belle au dessein de monter à la lune. Je men allais dés quelle était levée, parmi les bois, à la conduite et au réussit de mon entreprise. Enfin, un jour, la veille de Saint-Jean, quon tenait conseil dans le fort pour déterminer si on donnerait secours aux sauvages du pays contre les Iroquois, je men fus tout seul derrière notre habitation au coupeau dune petite montagne, où voici ce que jexécutai Avec une machine que je construisis et que je mimaginais être capable de mélever autant que je voudrais, je me précipitai en lair du faîte dune roche. Mais parce que je navais pas bien pris mes mesures, je culbutai rudement dans la vallée. Tout froissé que jétais, je men retournai dans ma chambre sans pourtant me décourager. Je pris de la moelle de boeuf, dont je moignis tout le corps, car il était meurtri depuis la tête jusquaux pieds et après mêtre fortifié le coeur dune bouteille dessence cordiale, je men retournai chercher ma machine. Mais je ne la retrouvai point, car certains soldats, quon avait envoyés dans la forêt couper du bois pour faire léchafaudage du feu de la Saint-Jean quon devait allumer le soir, layant rencontrée par hasard, lavaient apportée au fort. Après plusieurs explications de ce que ce pouvait être, quand on eut découvert linvention du ressort, quelques-uns avaient dit quil fallait attacher autour quantité de fusées volantes, pour ce que, leur rapidité layant enlevée bien haut, et le ressort agitant ses grandes ailes, i1 ny aurait personne qui ne prît cette machine pour un dragon de feu. Je la cherchai longtemps, mais enfin je la trouvai au milieu de la place de Québec, comme on y mettait le feu. La douleur de rencontrer louvrage de mes mains en un si grand péril me transporta tellement que je courus saisir le bras du soldat qui allumait le feu. Je lui arrachai sa mèche, et me jetai tout furieux dans ma machine pour briser lartifice dont elle était environnée mais jarrivai trop tard, car à peine y eus-je les deux pieds que me voilà enlevé dans la nue. Lépouvantable horreur dont je fus consterné ne renversa point tellement les facultés de mon âme, que je ne me sois souvenu depuis de tout ce qui marriva dans cet instant. Vous saurez donc que la flamme ayant dévoré un rang de fusées car on les avait disposées six à six, par le moyen dune amorce qui bordait chaque demi-douzaine un autre étage sembrasait, puis un autre, en sorte que le salpêtre embrasé éloignait le péril en le croissant. La matière toutefois étant usée fit que lartifice manqua et lorsque je ne songeais plus quà laisser ma tête sur celle de quelque montagne, je sentis sans que je remuasse aucunement mon élévation continuer, et ma machine prenant congé de moi, je la vis retomber vers la terre. Cette aventure extraordinaire me gonfla dune joie si peu commune que, ravi de me voir délivré dun danger assuré, jeus limpudence de philosopher dessus. Comme donc je cherchais des yeux et de la pensée ce qui pouvait être la cause de ce miracle, japerçus ma chair boursouflée, et grasse encore de la moelle dont je métais enduit pour les meurtrissures de mon trébuchement je connus quétant alors en décours, et la lune pendant ce quartier ayant accoutumé de sucer la moelle des animaux, elle buvait celle dont je métais enduit avec dautant plus de force que son globe était plus proche de moi, et que linterposition des nuées nen affaiblissait point la vigueur. Quand jeus percé, selon le calcul que jai fait depuis, beaucoup plus des trois quarts du chemin qui sépare la terre davec la lune, je me vis tout dun coup choir les pieds en haut, sans avoir culbuté en aucune façon. Encore ne men fus-je pas aperçu, si je neusse senti ma tête chargée du poids de mon corps. Je connus bien à la vérité que je ne retombais pas vers notre monde car encore que je me trouvasse entre deux lunes, et que je remarquasse fort bien que je méloignais de lune à mesure que je mapprochais de lautre, jétais très assuré que la plus grande était notre terre pour ce quau bout dun jour ou deux de voyage, les réfractions éloignées du soleil venant à confondre la diversité des corps et des climats, il ne mavait plus paru que comme une grande plaque dor ainsi que lautre cela me fit imaginer que jabaissais vers la lune, et je me confirmai dans cette opinion, quand je vins à me souvenir que je navais commencé de choir quaprès les trois quarts du chemin. Car, disais-je en moi-même, cette masse étant moindre que la nôtre, il faut que la sphère de son activité soit aussi moins étendue, et que, par conséquent, jaie senti plus tard la force de son centre. Après avoir été fort longtemps à tomber, à ce que je préjuge car la violence du précipice doit mavoir empêché de le remarquer, le plus loin dont je me souviens est que je me trouvai sous un arbre embarrassé avec trois ou quatre branches assez grosses que javais éclatées par ma chute, et le visage mouillé dune pomme qui sétait écachée contre. Par bonheur, ce lieu-là était, comme vous le saurez bientôt, le Paradis terrestre, et larbre sur lequel je tombai se trouva justement lArbre de Vie. Ainsi vous pouvez bien juger que sans ce miraculeux hasard, jétais mille fois mort. Jai souvent depuis fait réflexion sur ce que le vulgaire assure quen se précipitant dun lieu fort haut, on est étouffé auparavant de toucher la terre et jai conclu de mon aventure quil en avait menti, ou bien quil fallait que le jus énergique de ce fruit qui mavait coulé dans la bouche eût rappelé mon âme qui nétait pas loin dans mon cadavre encore tout tiède et encore disposé aux fonctions de la vie. En effet, sitôt que je fus à terre ma douleur sen alla auparavant même de se peindre en ma mémoire et la faim, dont pendant mon voyage javais été beaucoup travaillé, ne me fit trouver en sa place quun léger souvenir de lavoir perdue. À peine, quand je fus relevé, eus-je remarqué les bords de la plus large de quatre grandes rivières qui forment un lac en la bouchant, que lesprit ou lâme invisible des simples qui sexhalent sur cette contrée me vint réjouir lodorat les petits cailloux nétaient raboteux ni durs quà la vue ils avaient soin de samollir quand on marchait dessus. Je rencontrai dabord une étoile de cinq avenues, dont les chênes qui la composent semblaient par leur excessive hauteur porter au ciel un parterre de haute futaie. En promenant mes yeux de la racine jusquau sommet, puis les précipitant du faîte jusquau pied, je doutais si la terre les portait, ou si eux-mêmes ne portaient point la terre pendue à leur racine, on dirait que leur front superbement élevé pliait comme par force sous la pesanteur des globes célestes dont ils ne soutiennent la charge quen gémissant leurs bras étendus vers le ciel semblent en lembrassant demander aux astres la bénignité toute pure de leurs influences, et la recevoir, auparavant quelles aient rien perdu de leur innocence, au lit des éléments. Là, de tous côtés, les fleurs, sans avoir eu dautres jardiniers que la nature, respirent une haleine sauvage, qui réveille et satisfait lodorat là lincarnat dune rose sur léglantier, et lazur éclatant dune violette sous des ronces, ne laissant point de liberté pour le choix, vous font juger quelles sont toutes deux plus belles lune que lautre là le printemps compose toutes les saisons là ne germe point de plante vénéneuse que sa naissance ne trahisse sa conservation là les ruisseaux racontent leurs voyages aux cailloux là mille petites voix emplumées font retentir la forêt au bruit de leurs chansons et la trémoussante assemblée de ces gosiers mélodieux est si générale quil semble que chaque feuille dans le bois ait pris la langue et la figure dun rossignol écho prend tant de plaisir à leurs airs quon dirait à les lui entendre répéter quelle ait envie de les apprendre. À côté de ce bois se voient deux prairies, dont le vert gai continu fait une émeraude à perte de vue. Le mélange confus des peintures que le printemps attache à cent petites fleurs égare les nuances lune dans lautre et ces fleurs agitées semblent courir après elles-mêmes pour échapper aux caresses du vent. On prendrait cette prairie pour un océan, mais parce que cest une mer qui noffre point de rivage, mon oeil, épouvanté davoir couru si loin sans découvrir le bord, y envoyait vitement ma pensée et ma pensée doutant que ce fût la fin du monde, se voulait persuader que des lieux si charmants avaient peut-être forcé le ciel de se joindre à la terre. Au milieu dun tapis si vaste et si parfait, court à bouillons dargent une fontaine rustique qui couronne ses bords dun gazon émaillé de pâquerettes, de bassinets, de violettes, et ces fleurs qui se pressent tout à lentour font croire quelles se pressent à qui se mirera la première elle est encore au berceau, car elle ne fait que de naître, et sa face jeune et polie ne montre pas seulement une ride. Les grands cercles quelle promène, en revenant mille fois sur soi-même, montrent que cest bien à regret quelle sort de son pays natal et comme si elle eût été honteuse de se voir caressée auprès de sa mère, elle repoussa toujours en murmurant ma main folâtre qui la voulait toucher. Les animaux qui sy venaient désaltérer, plus raisonnables que ceux de notre monde, témoignaient être surpris de voir quil faisait grand jour sur lhorizon, pendant quils regardaient le soleil aux antipodes, et nosaient quasi se pencher sur le bord, de crainte quils avaient de tomber au firmament. Il faut que je vous avoue quà la vue de tant de belles choses je me sentis chatouillé de ces agréables douleurs, où on dit que lembryon se trouve à linfusion de son âme. Le vieux poil me tomba pour faire place à dautres cheveux plus épais et plus déliés. Je sentis ma jeunesse se rallumer, mon visage devenir vermeil, ma chaleur naturelle se remêler doucement à mon humide radical enfin je reculai sur mon âge environ quatorze ans. Javais cheminé demi-lieue à travers une forêt de jasmins et de myrtes, quand japerçus couché à lombre je ne sais quoi qui remuait cétait un jeune adolescent, dont la majestueuse beauté me força presque à ladoration. Il se leva pour men empêcher Et ce nest pas à moi, sécria-t-il fortement, cest à Dieu que tu dois ces humilités ! Vous voyez une personne, lui répondis-je, consternée de tant de miracles, que je ne sais par lequel débuter mes admirations car, en premier lieu, venant dun monde que vous prenez sans doute ici pour une lune, je pensais être abordé dans un autre que ceux de mon pays appellent la lune aussi et voilà que je me trouve en paradis, aux pieds dun dieu qui ne veut pas être adoré, et dun étranger qui parle ma langue. Hormis la qualité de dieu, me répliqua-t-il, ce que vous dites est véritable cette terre-ci est la lune que vous voyez de votre globe et ce lieu-ci où vous marchez est le paradis, mais cest le paradis terrestre où nont jamais entré que six personnes Adam, Eve, Enoch, moi qui suis le vieil Elie, saint Jean lEvangéliste, et vous. Vous savez bien comment les deux premiers en furent bannis, mais vous ne savez pas comme ils arrivèrent en votre monde. Sachez donc quaprès avoir tâté tous deux de la pomme défendue, Adam, qui craignait que Dieu, irrité par sa présence, ne rengrégeât sa punition, considéra la lune, votre terre, comme le seul refuge où il se pouvait mettre à labri des poursuites de son Créateur. Or, en ce temps-là, limagination chez lhomme était si forte, pour navoir point encore été corrompue, ni par les débauches, ni par la crudité des aliments, ni par laltération des maladies, quétant alors excité du violent désir daborder cet asile, et que toute sa masse étant devenue légère par le feu de cet enthousiasme, il y fut enlevé de la même sorte quil sest vu des philosophes, leur imagination fortement tendue à quelque chose, être emportés en lair par des ravissements que vous appelez extatiques. Eve, que linfirmité de son sexe rendait plus faible et moins chaude, naurait pas eu sans doute limaginative assez vigoureuse pour vaincre par la contention de sa volonté le poids de la matière, mais parce quil y avait très peu quelle avait été tirée du corps de son mari, la sympathie dont cette moitié était encore liée à son tout, la porta vers lui à mesure quil montait, comme lambre se fait suivre de la paille, comme laimant se tourne au septentrion doù il a été arraché, et Adam attira louvrage de sa côte comme la mer attire les fleuves qui sont sortis delle. Arrivés quils furent en votre terre, ils shabituèrent entre la Mésopotamie et lArabie les Hébreux lont connu sous le nom dAdam, et les idolâtres sous le nom de Prométhée, que leurs poètes feignirent avoir dérobé le feu du ciel, à cause de ses descendants quil engendra pourvus dune âme aussi parfaite que celle dont Dieu lavait rempli. Ainsi pour habiter votre monde, le premier homme laissa celui-ci désert mais le Tout-Sage ne voulut pas quune demeure si heureuse restât sans habitants il permit peu de siècles après quEnoch, ennuyé de la compagnie des hommes, dont linnocence se corrompait, eût envie de les abandonner. Mais ce saint personnage ne jugea point de retraite assurée contre lambition de ses parents qui ségorgeaient déjà pour le partage d</t>
+          <t>C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je suis in, je suis dedans, j'incarne le bon goût Je bouffe bio, quand je racole j'ai le bagout branché Je veux être le mec le plus fashion des Carpates Le gars cool qui se fout des piercings partout pour qu'on le mate Je vote écolo depuis que les cocos c'est plus hype Je tape mon accent anglais, ma bite je l'appelle une bite Cathy Guetta me fait la bise, putain j'ai tapé haut Je suis in, je vais même voir des films croates en VO Et je vais à des expos d'avant-garde, là où y a du neuf Et où les gens classieux s'échangent leurs meufs Je suis une caricature du con sans le voir Mais je bosse dur mon charisme à coup de lunettes noires fumées C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je veux être une star, le blason des cow-boys de Dallas Prêt à tout pour goûter les call-girls des palaces chics Je serai invité des talk-shows, je toucherai des bakchichs Et j'aurai le nez dans la coke pour arrêter le haschich Ça le fait d'être une merde classe aux lourdes finances Mais je donne aux chards-clo vu que c'est tendance mode J'ai un Kandinsky dans mes chiottes, je lis Kant Pour me sentir in, mais je suis qu'à la page soixante En bon branchouillard, je roule en Smart et J'ai enregistré toutes les thématiques d'Arte Quand je sors, je mets mon T-shirt Rawkus mais j'écoute Sky Je suis le beauf qui croit être style C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je me la pète tellement qu'on m'a conseillé de rapper, de foutre un baggy Pour palper le flouse et avoir de grosses bagouzes comme Biggie Je fais partie de la select jet-set du monde Où la dope et le Get 27 sont servis par de fausses blondes Ibiza, L.A., Miami Bah ouais, je connais, je suis un mec in, tu me prends pour qui? Micro check, un deux, je suis OK si tout va Mais je sais qu'il y aura toujours des vrais pour me gueuler coupe ça C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh C'est in et ah C'est in et oh C'est in et ah C'est in et oh</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C’est “In”</t>
+          <t>C’est le Klub des 7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je suis in, je suis dedans, j'incarne le bon goût Je bouffe bio, quand je racole j'ai le bagout branché Je veux être le mec le plus fashion des Carpates Le gars cool qui se fout des piercings partout pour qu'on le mate Je vote écolo depuis que les cocos c'est plus hype Je tape mon accent anglais, ma bite je l'appelle une bite Cathy Guetta me fait la bise, putain j'ai tapé haut Je suis in, je vais même voir des films croates en VO Et je vais à des expos d'avant-garde, là où y a du neuf Et où les gens classieux s'échangent leurs meufs Je suis une caricature du con sans le voir Mais je bosse dur mon charisme à coup de lunettes noires fumées C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je veux être une star, le blason des cow-boys de Dallas Prêt à tout pour goûter les call-girls des palaces chics Je serai invité des talk-shows, je toucherai des bakchichs Et j'aurai le nez dans la coke pour arrêter le haschich Ça le fait d'être une merde classe aux lourdes finances Mais je donne aux chards-clo vu que c'est tendance mode J'ai un Kandinsky dans mes chiottes, je lis Kant Pour me sentir in, mais je suis qu'à la page soixante En bon branchouillard, je roule en Smart et J'ai enregistré toutes les thématiques d'Arte Quand je sors, je mets mon T-shirt Rawkus mais j'écoute Sky Je suis le beauf qui croit être style C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh Je me la pète tellement qu'on m'a conseillé de rapper, de foutre un baggy Pour palper le flouse et avoir de grosses bagouzes comme Biggie Je fais partie de la select jet-set du monde Où la dope et le Get 27 sont servis par de fausses blondes Ibiza, L.A., Miami Bah ouais, je connais, je suis un mec in, tu me prends pour qui? Micro check, un deux, je suis OK si tout va Mais je sais qu'il y aura toujours des vrais pour me gueuler coupe ça C'est in C'est in et ah oh yeah C'est in et oh C'est in C'est in et ah oh yeah C'est in et oh C'est in et ah C'est in et oh C'est in et ah C'est in et oh</t>
+          <t>Gerard Baste Vas y Dédé, Envoie la Musique! Ha ce que c'est Bath, d'être avec les copains et d'faire du Rap Ha c'est bien chouette d'faire partie du putain Klub Des 7 Ca roule un peu des mécaniques mais toujours à la bonne Franquette Tu vas rester comme deux ronds de flan C'est qu'c'est un sacré orchestre! A peine tu poses l'aiguille du pick-up sur l'microsillon Tu verras qu'ça déménage, tu t'diras Ca c'est champion! Et ça met l'animation, c'est sûr qu'y'a une drôle d'ambiance Y'a des signes qui trompent pas Y'a tout les jeunes qui dansent! Alors on va pousser les meubles et dérider les vieux schnockes Si y'a des rabats-joies je les renvoie à Pétaouchnok Tu t'rends quand même compte qu'c'est du haut-de-gamme mon vieux ? Mais où qu'y planquent leurs instruments Bon Dieu !? Rho dis-donc ! C'est qu'y z'ont l'pactole dans l'slibard T'as touché l'Jackpot car ce groupe est formidable C'est bizarre, j'crois qu'on deviens plus fort à chaque seconde Klub Des 7 c'est l'Meilleur Super Groupe Du Monde ! Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut-être un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu Cyanure Trop de faribole, les fanfarons se fourvoient dans leur farandoles Flagornent le fabuleux et fantastique Klub par leur ?? sol Nous emparant de leurs fifres, nous croyant fichus, fichtre Mais notre foi prête à sortir du four ?s'élève telle un enfant qui s'pisse? Ca c'est du rap freestyle, félicité par fameuse académie française et ses bureaux Les ?formant félons, scribes minots minables? ?Gueux dealeurs en gouailles? ???? mais chacun à la gouache Mes griffes sur l'orgue appellent comme une griffure C'est du Hip-Hop, un ouragan braisé, rôti par Cyanure Fuzati On te remet à ta place comme des bières qu'on ne vole pas Te laisse payer pour te braquer au lance pierre et au compas D'après les commerçants on est qu'une bande de bandits Toi, un cancer des ovaires qui finalement aurait grandi! ??? de nous filer tes thunes parce que c'est l'heure de la sortie ! Tu rêverais d'être comme nous mais tes parents l'ont interdits Une tête dure entre deux poings l'avenir était déjà tracé On se battra pour des billes, des filles, puis des billets ! Detect scratch Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu James Delleck On démarre au quart-de-couille en classe de musique T'as raison d'avoir la trouille on est pas sympathiques bruit crachat Gout à mon Molard, prépare toi à douter Le Delleck prêt pour la bagarre, j'ferme doucement ma boite à ?clouter? Re-Vlà l'équipe de rêve qui met fin à la trêve On shoote dans les galettes de vinyles Ben ouai, on a d'jà toutes les fèves Nos cartables sont trop lourds puisque nos rimes ont du poids Enfants rois à l'humour qui jète un froid Uuuumpf, deux doigts, croit moi, on restera 7 Jéhova, qu'es-ce-tu vas prendre quand on t'verras ! Pendant que les rappeurs s'frappent le torse comme des gorilles Nous on remonte à la surface façon tigres et ?gorilles? Bon en langues mais nul en anglais j'confond toujours la plage et les filles de joies! Putain j'tricote un pull avec la laine de Danielle Darc Ici y'a pas de Dirty South mais du Dirty South Park ! Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu1</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C’est le Klub des 7</t>
+          <t>Chaman</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gerard Baste Vas y Dédé, Envoie la Musique! Ha ce que c'est Bath, d'être avec les copains et d'faire du Rap Ha c'est bien chouette d'faire partie du putain Klub Des 7 Ca roule un peu des mécaniques mais toujours à la bonne Franquette Tu vas rester comme deux ronds de flan C'est qu'c'est un sacré orchestre! A peine tu poses l'aiguille du pick-up sur l'microsillon Tu verras qu'ça déménage, tu t'diras Ca c'est champion! Et ça met l'animation, c'est sûr qu'y'a une drôle d'ambiance Y'a des signes qui trompent pas Y'a tout les jeunes qui dansent! Alors on va pousser les meubles et dérider les vieux schnockes Si y'a des rabats-joies je les renvoie à Pétaouchnok Tu t'rends quand même compte qu'c'est du haut-de-gamme mon vieux ? Mais où qu'y planquent leurs instruments Bon Dieu !? Rho dis-donc ! C'est qu'y z'ont l'pactole dans l'slibard T'as touché l'Jackpot car ce groupe est formidable C'est bizarre, j'crois qu'on deviens plus fort à chaque seconde Klub Des 7 c'est l'Meilleur Super Groupe Du Monde ! Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut-être un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu Cyanure Trop de faribole, les fanfarons se fourvoient dans leur farandoles Flagornent le fabuleux et fantastique Klub par leur ?? sol Nous emparant de leurs fifres, nous croyant fichus, fichtre Mais notre foi prête à sortir du four ?s'élève telle un enfant qui s'pisse? Ca c'est du rap freestyle, félicité par fameuse académie française et ses bureaux Les ?formant félons, scribes minots minables? ?Gueux dealeurs en gouailles? ???? mais chacun à la gouache Mes griffes sur l'orgue appellent comme une griffure C'est du Hip-Hop, un ouragan braisé, rôti par Cyanure Fuzati On te remet à ta place comme des bières qu'on ne vole pas Te laisse payer pour te braquer au lance pierre et au compas D'après les commerçants on est qu'une bande de bandits Toi, un cancer des ovaires qui finalement aurait grandi! ??? de nous filer tes thunes parce que c'est l'heure de la sortie ! Tu rêverais d'être comme nous mais tes parents l'ont interdits Une tête dure entre deux poings l'avenir était déjà tracé On se battra pour des billes, des filles, puis des billets ! Detect scratch Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu James Delleck On démarre au quart-de-couille en classe de musique T'as raison d'avoir la trouille on est pas sympathiques bruit crachat Gout à mon Molard, prépare toi à douter Le Delleck prêt pour la bagarre, j'ferme doucement ma boite à ?clouter? Re-Vlà l'équipe de rêve qui met fin à la trêve On shoote dans les galettes de vinyles Ben ouai, on a d'jà toutes les fèves Nos cartables sont trop lourds puisque nos rimes ont du poids Enfants rois à l'humour qui jète un froid Uuuumpf, deux doigts, croit moi, on restera 7 Jéhova, qu'es-ce-tu vas prendre quand on t'verras ! Pendant que les rappeurs s'frappent le torse comme des gorilles Nous on remonte à la surface façon tigres et ?gorilles? Bon en langues mais nul en anglais j'confond toujours la plage et les filles de joies! Putain j'tricote un pull avec la laine de Danielle Darc Ici y'a pas de Dirty South mais du Dirty South Park ! Refrain Haaaa Revoilà le klub des 7 Heyyy Le Rap et l'? dans l'concept Huuu Il y aura peut etre un peu d'cohue Que des mecs pas connus Qui rappent dans c'tohu-bohu1</t>
+          <t>Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman La mâchoire crispée dans l'épreuve dans un monde si grave Je vocifère, strident comme le cri d'un lépreux Explore le derrière de tes globes oculaires Et tu chevaucheras le dragon de verre aux ailes de lumière Caresse la peau du miroir en monolithe noir Pour comprendre l'invisible il te suffira d'y croire Rentre dans le nuage à la forme de cathédrale Et tu verras qu'elles disparaîtront tes ecchymoses de crotale L'homme se couvre de honte comme un mort se couvre de terre Face à vos peurs qui grondent, des incantations je libère Sous la pleine lune sans calumet, je m'extrais du bitume Juste armé d'un crayon d'bois et d'une armure de plumes Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman Exilé dans l'éveil alors que tant dorment En appuyant sur play t'as ouvert la boîte de Pandore Nous sommes un bout d'pierre de la cruelle Babel Contre elle pour mieux mordre, les fauves déploient leurs ailes Oublie tes certitudes, ici la science est dévoyée En pleine béatitude, laisse la nature te transpercer Dans l'immatériel, il n'y plus d'envers ni d'endroit Réveille la zone endormie de ton hémisphère droit En dehors du folklore, j'plane comme une ombre sonore Et paresse dans le vent quand l'aube se couche sur l'aurore En saccades je m'évade jusqu'à tutoyer les dieux Tu peux toi aussi passer au travers de la cascade bleue Alors ferme les yeux... Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chaman</t>
+          <t>Dans ma tête</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman La mâchoire crispée dans l'épreuve dans un monde si grave Je vocifère, strident comme le cri d'un lépreux Explore le derrière de tes globes oculaires Et tu chevaucheras le dragon de verre aux ailes de lumière Caresse la peau du miroir en monolithe noir Pour comprendre l'invisible il te suffira d'y croire Rentre dans le nuage à la forme de cathédrale Et tu verras qu'elles disparaîtront tes ecchymoses de crotale L'homme se couvre de honte comme un mort se couvre de terre Face à vos peurs qui grondent, des incantations je libère Sous la pleine lune sans calumet, je m'extrais du bitume Juste armé d'un crayon d'bois et d'une armure de plumes Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman Exilé dans l'éveil alors que tant dorment En appuyant sur play t'as ouvert la boîte de Pandore Nous sommes un bout d'pierre de la cruelle Babel Contre elle pour mieux mordre, les fauves déploient leurs ailes Oublie tes certitudes, ici la science est dévoyée En pleine béatitude, laisse la nature te transpercer Dans l'immatériel, il n'y plus d'envers ni d'endroit Réveille la zone endormie de ton hémisphère droit En dehors du folklore, j'plane comme une ombre sonore Et paresse dans le vent quand l'aube se couche sur l'aurore En saccades je m'évade jusqu'à tutoyer les dieux Tu peux toi aussi passer au travers de la cascade bleue Alors ferme les yeux... Je m'élève Au-dessus des vestiges Je m'érige Les pieds dans la sève J'ai les rêves Comme des bulles qui voltigent Chaman, chaman</t>
+          <t>Dans ma tête il pleut des hommes en chapeau haut-de-forme Ornés de nains dorés s'balançant au bout d'une corde Elles-mêmes reliées à des iPod autoreverse Fabriqués par des bonnes bonnes surs aux mauvaises murs Ici je perds la raison pour mieux savoir quand j'ai tort J'y croise ma prostate promenant son Minotaure Je m'élance pour faire une chute mortelle Rebondissant sur des punchlines hydratées aux larmes de pucelles Dans ma tête je passe de délicat à délinquant J'ai tellement de démence contenue dans ce petit continent Depuis bien longtemps j'ai attrapé le lapin chapelier Pour lui botter le cul sur la Lune de Georges Méliès Sur le Mont Ardent j'y regarde le couchant Rouge comme la joue d'un enfant bien trop insolent Dans ma tête ils m'ont dit de m'appeler Delleck Depuis j'vaseline mes mots pour qu'on m'écoute cul sec Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Je rassemble mes résidus qui ont survécu Pour en faire des poèmes aux rimes bien trop têtues Sur ma colline autour de moi des formes gravitent Un peu comme dans l'arrière-plan d'un Magritte Flottant sans faux-semblant, comme renaissant J'y croise parfois des trafiquants aux griffes de chats persans Non loin d'la tour où je grave mes aigus Là où je soigne mes poings qui se sont trop battus Dans ma tête je donne de la stature à mes sutures J'reste un punk sans crête qui pense qu'il y a un futur Un crooner de haut niveau, bouffeur d'enfants indigos Inventeur d'mots encore inconnus dans les dicos Un tatouage sur l'il, des fois je rentre dedans Pour y ramener ma verve et des crachats d'garnement Je vaux cent vauriens même si mon cerveau est un taudis Moi l'impoli qui a plutôt choisi de s'donner la vie Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Dans ma tête des choses sortent des miroirs Les éléphants sont roses sans porte ni tiroir Du fait d'un esprit un peu mal loti J'ai abandonné tout espoir de devenir poli Alors j'essaie d'pas courir après le temps Pour qu'à la fin je puisse mourir vivant En construisant ce monde dans ma cachette Même si pour vous c'est qu'dans ma tête Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dans ma tête</t>
+          <t>De quoi tu te plains?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dans ma tête il pleut des hommes en chapeau haut-de-forme Ornés de nains dorés s'balançant au bout d'une corde Elles-mêmes reliées à des iPod autoreverse Fabriqués par des bonnes bonnes surs aux mauvaises murs Ici je perds la raison pour mieux savoir quand j'ai tort J'y croise ma prostate promenant son Minotaure Je m'élance pour faire une chute mortelle Rebondissant sur des punchlines hydratées aux larmes de pucelles Dans ma tête je passe de délicat à délinquant J'ai tellement de démence contenue dans ce petit continent Depuis bien longtemps j'ai attrapé le lapin chapelier Pour lui botter le cul sur la Lune de Georges Méliès Sur le Mont Ardent j'y regarde le couchant Rouge comme la joue d'un enfant bien trop insolent Dans ma tête ils m'ont dit de m'appeler Delleck Depuis j'vaseline mes mots pour qu'on m'écoute cul sec Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Je rassemble mes résidus qui ont survécu Pour en faire des poèmes aux rimes bien trop têtues Sur ma colline autour de moi des formes gravitent Un peu comme dans l'arrière-plan d'un Magritte Flottant sans faux-semblant, comme renaissant J'y croise parfois des trafiquants aux griffes de chats persans Non loin d'la tour où je grave mes aigus Là où je soigne mes poings qui se sont trop battus Dans ma tête je donne de la stature à mes sutures J'reste un punk sans crête qui pense qu'il y a un futur Un crooner de haut niveau, bouffeur d'enfants indigos Inventeur d'mots encore inconnus dans les dicos Un tatouage sur l'il, des fois je rentre dedans Pour y ramener ma verve et des crachats d'garnement Je vaux cent vauriens même si mon cerveau est un taudis Moi l'impoli qui a plutôt choisi de s'donner la vie Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Dans ma tête des choses sortent des miroirs Les éléphants sont roses sans porte ni tiroir Du fait d'un esprit un peu mal loti J'ai abandonné tout espoir de devenir poli Alors j'essaie d'pas courir après le temps Pour qu'à la fin je puisse mourir vivant En construisant ce monde dans ma cachette Même si pour vous c'est qu'dans ma tête Aller tout droit dans les virages C'est dans ma tête Faire un dérapage dans les nuages C'est dans ma tête Connaître la fin sans tourner les pages C'est dans ma tête C'est dans ma tête ça C'est dans ma tête Sur le Soleil poser mes bagages C'est dans ma tête Vivre l'amour sans cafouillage C'est dans ma tête Habiter une maison en coloriage C'est dans ma tête C'est dans ma tête ça C'est dans ma tête</t>
+          <t>De quoi tu t'plains? Alors putain de quoi tu t'plains? De quoi tu t'plains, t'as deux mains Malgré les épreuves, il t'reste un rein T'as plus de dépenses à faire pour le chien Depuis qu'il habite au cimetière canin Ton HLM est parisien Côté tsunami tu risques rien L'il bouffé par l'vaccin Avec l'autre au moins tu vois bien Mais de quoi tu t'plains? Ton verre à moitié vide est aussi à moitié plein Tu refais le monde avec trois grammes d'alcool Te défoulant derrière ta console Ouf t'es pas né Américain Fier d'être un Français moyen Beau prince et châtelain Cool, l'amant de ta femme c'est un mec bien Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? Factures, impôts, emprunts Font de toi un bon citoyen Seul homme atteint d'un cancer du sein T'es plébiscité par tous les médecins Ta fille a laissé une jambe au requin C'est con qu'elle l'ait pris pour un dauphin On t'a spolié tous tes points Bien, sans voiture tu pollues moins Alors, de quoi tu t'plains? Ça aurait pu être pire, t'es pas Roumain T'façon tu peux mourir serein Depuis qu'Drucker t'a serré la main OK, bientôt y aura plus d'eau Mais qu'est-ce que tu t'en fous, il fait beau Dans la télé le monde a faim Mais t'auras oublié demain matin Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? Ton fils est parti avec tout ton fric Pour retrouver son père biologique Toutes tes économies envolées T'as plus à faire la queue au guichet De quoi tu t'plains? De quoi tu t'plains? Mais putain putain putain de quoi tu t'plains? Avec ton odeur de marcassin C'est déjà bien que t'aies accès aux soins Malgré ton trauma crânien Bouge tes cheveux sur ce refrain Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? De quoi tu t'plains? Alors putain de quoi tu t'plains?</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>De quoi tu te plains?</t>
+          <t>Dieu est un chanteur de pop</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>De quoi tu t'plains? Alors putain de quoi tu t'plains? De quoi tu t'plains, t'as deux mains Malgré les épreuves, il t'reste un rein T'as plus de dépenses à faire pour le chien Depuis qu'il habite au cimetière canin Ton HLM est parisien Côté tsunami tu risques rien L'il bouffé par l'vaccin Avec l'autre au moins tu vois bien Mais de quoi tu t'plains? Ton verre à moitié vide est aussi à moitié plein Tu refais le monde avec trois grammes d'alcool Te défoulant derrière ta console Ouf t'es pas né Américain Fier d'être un Français moyen Beau prince et châtelain Cool, l'amant de ta femme c'est un mec bien Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? Factures, impôts, emprunts Font de toi un bon citoyen Seul homme atteint d'un cancer du sein T'es plébiscité par tous les médecins Ta fille a laissé une jambe au requin C'est con qu'elle l'ait pris pour un dauphin On t'a spolié tous tes points Bien, sans voiture tu pollues moins Alors, de quoi tu t'plains? Ça aurait pu être pire, t'es pas Roumain T'façon tu peux mourir serein Depuis qu'Drucker t'a serré la main OK, bientôt y aura plus d'eau Mais qu'est-ce que tu t'en fous, il fait beau Dans la télé le monde a faim Mais t'auras oublié demain matin Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? Ton fils est parti avec tout ton fric Pour retrouver son père biologique Toutes tes économies envolées T'as plus à faire la queue au guichet De quoi tu t'plains? De quoi tu t'plains? Mais putain putain putain de quoi tu t'plains? Avec ton odeur de marcassin C'est déjà bien que t'aies accès aux soins Malgré ton trauma crânien Bouge tes cheveux sur ce refrain Mais de quoi tu t'plains? De quoi tu t'plains? Tu chiales pour un rien De quoi tu t'plains? Mais de quoi tu t'plains? De quoi tu t'plains? T'es même pas rouquin Alors putain de quoi tu t'plains? De quoi tu t'plains? Alors putain de quoi tu t'plains?</t>
+          <t>Bonjour Delleck, je suis Dieu Quoi, t'es ça Dieu? Mais qu'est-ce tu fais avec ta guitare? Oh non, j'en étais sûr, pfff... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes T'as préféré laisser les lapins devenir carnivores Préféré en faire des chansons avec deux accords Du soir au matin, tes chers petits enfants s'piétinent Ton jardin s'est transformé en une jungle sanguine Inferne, doucement, la fin se dessine D'ailleurs Dieu, c'est même plus toi, mais un certain Zinédine Dépêche-toi en bas, faut du gros uvre, pas des rustines Bientôt tes montagnes ne seront plus qu'des collines Sans cur, tu nages en plein Flower Power Ton seul bonheur c'est d'faire des accords en do majeur Si t'as l'souffle divin, mets-toi au saxophone Mais range-moi cette guitare, tu seras jamais Lennon Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Lâche ta gratte, t'as du travail en retard Tarde pas trop, en bas on t'traite déjà d'salopard Tes succulentes mélopées douces comme un coussin mammaire Contrastent avec l'Enfer dans lequel nous, on macère Frénétique, pendant qu'tu cherches ton parfait refrain Les mauvaises herbes ont recouvert tous tes sacro-saints T'as pas l'impression d'avoir laissé quelqu'chose sur le feu Sept milliards de sapiens comptent moins qu'ta Gibson 62 Tu t'es affalé dans une pétillante légèreté Quitte à nous abandonner à notre humiliante liberté Remarque, T'as même pas su prendre soin des tiens Regarde ton fils, Il a des trous dans les mains... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Chez toi c'est psychédélique et celtico-lyrique Et dire qu'c'est l'autre que tu traites de diabolique Tu papillonnes d'étoile en refrain Fredonne en remuant l'bassin Perfectionne ton jeu aérien Postillonne en araméen Espèce de Mika, tu m'mérites pas, renvoie-moi sur Terre Que j'leur dise de rien attendre de toi ni d'tes émissaires Tes mélodies sucrées, amères, nous ramènent à l'ère glaciaire Mais, t'es vraiment Dieu ou un intérimaire ? Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Bon alors vous m'repeignez les nuages en rose, là Et puis t'es gentil, là, j'ai deux-trois autographes à signer puis ensuite j'ai une gonzesse qu'a envie d'chialer deux secondes, là</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dieu est un chanteur de pop</t>
+          <t>Gérard de Roubaix</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bonjour Delleck, je suis Dieu Quoi, t'es ça Dieu? Mais qu'est-ce tu fais avec ta guitare? Oh non, j'en étais sûr, pfff... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes T'as préféré laisser les lapins devenir carnivores Préféré en faire des chansons avec deux accords Du soir au matin, tes chers petits enfants s'piétinent Ton jardin s'est transformé en une jungle sanguine Inferne, doucement, la fin se dessine D'ailleurs Dieu, c'est même plus toi, mais un certain Zinédine Dépêche-toi en bas, faut du gros uvre, pas des rustines Bientôt tes montagnes ne seront plus qu'des collines Sans cur, tu nages en plein Flower Power Ton seul bonheur c'est d'faire des accords en do majeur Si t'as l'souffle divin, mets-toi au saxophone Mais range-moi cette guitare, tu seras jamais Lennon Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Lâche ta gratte, t'as du travail en retard Tarde pas trop, en bas on t'traite déjà d'salopard Tes succulentes mélopées douces comme un coussin mammaire Contrastent avec l'Enfer dans lequel nous, on macère Frénétique, pendant qu'tu cherches ton parfait refrain Les mauvaises herbes ont recouvert tous tes sacro-saints T'as pas l'impression d'avoir laissé quelqu'chose sur le feu Sept milliards de sapiens comptent moins qu'ta Gibson 62 Tu t'es affalé dans une pétillante légèreté Quitte à nous abandonner à notre humiliante liberté Remarque, T'as même pas su prendre soin des tiens Regarde ton fils, Il a des trous dans les mains... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Chez toi c'est psychédélique et celtico-lyrique Et dire qu'c'est l'autre que tu traites de diabolique Tu papillonnes d'étoile en refrain Fredonne en remuant l'bassin Perfectionne ton jeu aérien Postillonne en araméen Espèce de Mika, tu m'mérites pas, renvoie-moi sur Terre Que j'leur dise de rien attendre de toi ni d'tes émissaires Tes mélodies sucrées, amères, nous ramènent à l'ère glaciaire Mais, t'es vraiment Dieu ou un intérimaire ? Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Bon alors vous m'repeignez les nuages en rose, là Et puis t'es gentil, là, j'ai deux-trois autographes à signer puis ensuite j'ai une gonzesse qu'a envie d'chialer deux secondes, là</t>
+          <t>Bon, on va gratter ça... Oh, il a une étoile Gégé Putain, 2 étoiles! Oh mais... oh! Oh putain, j'ai les 4 étoiles! Un léger sourire lubrique se visse à ma face ankylosée Déjà j'imagine dire à mon chef de service vas t'faire encu... Je vais quitter mon appart' miteux et décrépi Jeter ma femme et flirter avec les actrices vues dans Voici Me voilà dans le luxe, même si je suis parti d'pas très haut C'est fini l'PQ, j'm'essuierai le cul avec des paréos Très vite tout c'que j'toucherai deviendra pépite Mon nom dans les moteurs de recherche trouvera des milliers d'sites J'marcherai sur la foule comme Jésus marcha sur l'eau J'guérirai les cons avec ma pisse en effet placebo Je fabriquerai tout à mon image, comme Hitler le voulait mais comme Bill Gates l'a fait Moi c'est Gérard de Roubaix Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut L'été j'sortirai ma R21 customisée J'deviendrai branché en allant au concert de TTC Avec tout mon blé, j'manquerai jamais de Gitanes maïs A moi les vacances et l'tourisme sexuel au Laos Jury pour l'casting Graine de pouf, j'ferai partie du PAF Et les week-ends j'ferai du jet-ski avec Lagaf' Ma vie n'sera qu'plaisir alors j'lui donnerai un sens En faisant la tournée des Enfoirés... cocaïne de circonstance Après j'm'achèterai une Harley Davidson J'ferai un road-movie avec Johnny en écoutant du George Benson A Saint-Trop', j'serai sur le yacht au design ovoïde L'exemple, le héros du peuple dans tous les tabloïds Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut Mes mémoires en best-seller Donneront un film où Bruce Willis Incarnera un type salace Se transformant en star céleste Même une goutte d'eau sur une vitre peut briller sous la lumière Mais une fois atteint la flaque, elle n'est qu'H2O malgré ses prières Ma main s'transforme en poing, mes yeux s'gorgent d'eau L'atmosphère s'assombrit, les pigeons se changent en corbeaux Mes fantasmes dégoulinent sur la toile de mes rêves Je ne suis qu'un roi déchu qui aurait avalé la fève Mon regard se fixe sur mon ticket par terre Là où mon putain d'gosse a gratté la case nul si découvert Gérard, Gérard, Gérard, ouais!!! J'suis qu'un prolo qu'a les nerfs, l'icône pathétique Qui voit l'monde qu'au travers d'son antenne parabolique Gérard, Gérard, Gérard, ouais!!! De la star j'ai que les excès, j'suis qu'un alcoolo Qui se sent si petit face à la France d'en haut Gérard, Gérard, Gérard, ouais!!! Gérard, Gérard, Gérard, ouais!!!</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gérard de Roubaix</t>
+          <t>G Zone</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bon, on va gratter ça... Oh, il a une étoile Gégé Putain, 2 étoiles! Oh mais... oh! Oh putain, j'ai les 4 étoiles! Un léger sourire lubrique se visse à ma face ankylosée Déjà j'imagine dire à mon chef de service vas t'faire encu... Je vais quitter mon appart' miteux et décrépi Jeter ma femme et flirter avec les actrices vues dans Voici Me voilà dans le luxe, même si je suis parti d'pas très haut C'est fini l'PQ, j'm'essuierai le cul avec des paréos Très vite tout c'que j'toucherai deviendra pépite Mon nom dans les moteurs de recherche trouvera des milliers d'sites J'marcherai sur la foule comme Jésus marcha sur l'eau J'guérirai les cons avec ma pisse en effet placebo Je fabriquerai tout à mon image, comme Hitler le voulait mais comme Bill Gates l'a fait Moi c'est Gérard de Roubaix Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut L'été j'sortirai ma R21 customisée J'deviendrai branché en allant au concert de TTC Avec tout mon blé, j'manquerai jamais de Gitanes maïs A moi les vacances et l'tourisme sexuel au Laos Jury pour l'casting Graine de pouf, j'ferai partie du PAF Et les week-ends j'ferai du jet-ski avec Lagaf' Ma vie n'sera qu'plaisir alors j'lui donnerai un sens En faisant la tournée des Enfoirés... cocaïne de circonstance Après j'm'achèterai une Harley Davidson J'ferai un road-movie avec Johnny en écoutant du George Benson A Saint-Trop', j'serai sur le yacht au design ovoïde L'exemple, le héros du peuple dans tous les tabloïds Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut Mes mémoires en best-seller Donneront un film où Bruce Willis Incarnera un type salace Se transformant en star céleste Même une goutte d'eau sur une vitre peut briller sous la lumière Mais une fois atteint la flaque, elle n'est qu'H2O malgré ses prières Ma main s'transforme en poing, mes yeux s'gorgent d'eau L'atmosphère s'assombrit, les pigeons se changent en corbeaux Mes fantasmes dégoulinent sur la toile de mes rêves Je ne suis qu'un roi déchu qui aurait avalé la fève Mon regard se fixe sur mon ticket par terre Là où mon putain d'gosse a gratté la case nul si découvert Gérard, Gérard, Gérard, ouais!!! J'suis qu'un prolo qu'a les nerfs, l'icône pathétique Qui voit l'monde qu'au travers d'son antenne parabolique Gérard, Gérard, Gérard, ouais!!! De la star j'ai que les excès, j'suis qu'un alcoolo Qui se sent si petit face à la France d'en haut Gérard, Gérard, Gérard, ouais!!! Gérard, Gérard, Gérard, ouais!!!</t>
+          <t>Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Les fils de 3801 s'présentent, de nos valvules reviennent Non réclamer ce qui leur est dû mais reprendre ce qui leur revient de droit Par vagues, scélérats, on déferlent comme une Black Nova La rime ardente puis qu'elle est sculptée à même le magma Il est temps de suivre sa destinée, et de se débarrasser des consciences Imaginaire sans prime au détriment du craintif qui n'est que re-luisance Vivre le demain pour m'extraire du hier En colère, j'préfère m'éclabousser d'une flaque de lumière A ce moment précis, il n'est plus question de complaisance Les fidèles seront récompensés Nul ne peut noyer la flamme de la foi qui brûle en chacun d'eux depuis l'avènement de notre dernier passage L'effervescence passionne le bon sens Pour le bien des nôtres, l'apport d'éléments est planifié Admiratrice de l'impossible qui devient palpable C'est la quintessence à l'état pur Feindre l'ignorance n'est que des coups On est tellement en avance que le futur est derrière nous Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Sorti d'un lit de lune Entre les cratères et les dunes Mon éclipse à la masse d'une enclume Nos ailes ne sont faites que de brumes Je vis je suis la série d'un multiple d'un ADN non défini En bien ou en interdit, je ne reste que le suis J'ai la furie de l'infini A la souche d'où tout est parti Maintenant il est temps pour le temps qu'il se replie Unique comme deux frères d'arme Lemblème trempé du sang des impurs Ne suivent pas ma charte, la force de 1000 et 1 trous noirs Cyberdruide à l'exosquelette lisse et hystérique A la métrique plasmique, créant des AVC Déployer l'avenir peut créer l'offense du passé Comme des mécréants brandissant un Coran dédicacé Nos scaphandres sont fait des cendres du Big Bang La tête dans les nuages, on sera jamais prêt à redescendre Votre vulgaire raison, nous préférons vous la rendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée !</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>G Zone</t>
+          <t>Il Vous Reste une Minute</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Les fils de 3801 s'présentent, de nos valvules reviennent Non réclamer ce qui leur est dû mais reprendre ce qui leur revient de droit Par vagues, scélérats, on déferlent comme une Black Nova La rime ardente puis qu'elle est sculptée à même le magma Il est temps de suivre sa destinée, et de se débarrasser des consciences Imaginaire sans prime au détriment du craintif qui n'est que re-luisance Vivre le demain pour m'extraire du hier En colère, j'préfère m'éclabousser d'une flaque de lumière A ce moment précis, il n'est plus question de complaisance Les fidèles seront récompensés Nul ne peut noyer la flamme de la foi qui brûle en chacun d'eux depuis l'avènement de notre dernier passage L'effervescence passionne le bon sens Pour le bien des nôtres, l'apport d'éléments est planifié Admiratrice de l'impossible qui devient palpable C'est la quintessence à l'état pur Feindre l'ignorance n'est que des coups On est tellement en avance que le futur est derrière nous Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée ! Sorti d'un lit de lune Entre les cratères et les dunes Mon éclipse à la masse d'une enclume Nos ailes ne sont faites que de brumes Je vis je suis la série d'un multiple d'un ADN non défini En bien ou en interdit, je ne reste que le suis J'ai la furie de l'infini A la souche d'où tout est parti Maintenant il est temps pour le temps qu'il se replie Unique comme deux frères d'arme Lemblème trempé du sang des impurs Ne suivent pas ma charte, la force de 1000 et 1 trous noirs Cyberdruide à l'exosquelette lisse et hystérique A la métrique plasmique, créant des AVC Déployer l'avenir peut créer l'offense du passé Comme des mécréants brandissant un Coran dédicacé Nos scaphandres sont fait des cendres du Big Bang La tête dans les nuages, on sera jamais prêt à redescendre Votre vulgaire raison, nous préférons vous la rendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre GZ, on vit le futur plutôt que de l'attendre Pactole de stars nous allons glisser dans notre odyssée Les voix cutés, nos coups périssent et s'mélange au crachat d'acier GZ, bannière hissée ! Pareil pour froisser les nuques et briser les Colisées On écrit des mots braillés comme des bêtes s'échappent en dix brasier GZ, bannière hissée !</t>
+          <t>Gotta run on drop top screaming now fuck the world Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? One shot, one deal, fuck around tu te fais take out J'get super wasted in an all black Benz and I watch the city fade out What you know about the type of shit that we on Aeon Flux, yeah le genre de chicks that we on On fait des bad moves, that'll be on us Mais d'ici la on reach pour les billions R. Kelly fuck boys get peed on, ton shit est bidon Move a kilo on a d-low cock back reload Fuck that where my hustlers at, où sont mes bad girls, où sont mes bad goons, , où sont mes bad goons Gotta run on drop top screaming now ''Fuck the world'' Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? So what you say now? Invincible depuis cinq semaines solide À mélanger l'ambition et l'insomnie Toujours sur le grind, ain't no summertime for me Un pied sous la terre, un oeil sur la terre promise Y'a pas de suite logique Already run le show, pourquoi hit le gym ? Ton boy se maintient sur un strict régime Nothing but champagne and sweet revenge Man, I swear I'm goin' crazy these days J'signe des contrats comme des autographes But I own my masters, ain't no slave, sorry Audiogram They say time is money, I've been winning the whole summertime Y'a pu personne à mon niveau, non y'a personne à mon niveau Now, c'est ça mon drame Sur le south shore pour un sold-out show avec le chauffeur T'étais chaud for a minute, but you ain't got shit to show for it Sittin' on top, voyez ce que le rap a fait de lui La Dolce Vita dans mon 8 12, feelin' so Fellini Hum That's all black pour elle et lui yeah Right That's all black pour elle et lui Not bad pour un dropout selling weed Now I need that drop top, Thelma and Louise Hum Pas d'marge pour me tromper, toujours marcher du bon pied Pas d'farces, baby I don't play Je check Pensado's place at my side hoe's place And that's work work, wo-work, work Go to work chaque soir pour redonner l'espoir aux depressed kids J'vous amène au sommet, then I got a little something pour l'après-ski Few drugs proscrites getting prescrites Trudeau Pas le genre de story que tu liras dans mon press kit Underdog until I'm under God Get me some avant qu'sonne le glas Split la job avec les chums de gars Dès que j'donne le go, tout le monde donne le gas, like Tout le monde donne le gas, like Dès que j'donne le go, tout le monde donne le gas, like Go Y'a des glaçons dans lpunch fruité Tassaisonnes le Jameson, c'est pas une bonne idée C'est tu lfun pisser du whiskey pis du rhum givrée? Déconne ivre et dégringole lescalier avec un pichet digne de Paul Piché Cte punch là, tu vas pas lpiger, mais livrogne il sait Que jparle des marches qui consomment qui tes Démarche de drunk, les neurones giflés Après tavoir hissé dla bolle tous tes chums tauront comme quittés Don Quichotte tu ripostes dans les clubs, t'es fucked Mais une fois sobre la poque sur los sphénoïde te choques Ton ego trip de brosse gosse comme lhaleine de scotch Cest ptêtre pour ça que même tes potes se tiennent jamais trop proche On te demande de prendre la porte des que tu rentres dans lspot Les clés dans les chiottes enclenchent la cadence sur ton stéthoscope Tes mieux dattendre à soir ou ben donc dapprendre à boire Tellement qu'téchappes le fort on sort le scaphandre d'la boite En accord avec les lois sur les Honda croches Les undercover cops te menottent pis tapportent au poste Tu cherches la merde, mais test trop pas game Tu régurgites ta dose de Troika comme un yoga flame Tu vois, moi Même quand jsuis saoul jsuis chill J'suis capable de résoudre le trouble avec des foutu skills Shooter dans lnombril de la barmaid le spliff sparké Les bitches sur le party minvitent à lhit dans lwhip parké Jpense que tu comprends merci pour ma tranche de vie Maintenant retour au focus man, y'est temps que tu changes de beat Tu déranges les gens calisse que tu gosses en crisse Tes homies ten informent pas parce que test un gars sensible Ton insecurité saigne man, tu tpognes le beigne x3 Jmenvais play hard, go hard Jouer dur comme un hooligan Mother fuck the police, lâche mon bounda Quand tu mcroises, haut les mains Hold it down, fuck les guns Mon gars fuck ton money, fuck tes conne Quand tu joues aux échecs Ça sent dicite jusquau Mont Ste-Anne Bless Les roues tournent sur l'éconoline Whole squad on the road now what a life Sun light fade dans le rétroviseur Six heures qu'on roule libre comme l'air Woke up counting money down in Morin-Heights Même chose tomorrow night Demain soir rentrée montréalaise Immortalize the young rap legend on the rise J'ai laver mon linge sale devant une salle comble Ma famille étaient VIP sur le balcon J'ai laissé les patnais avec le bracelet On va party like it's back then, backstage ahhh I've been in and out of love, in and out of money J'ai perdu mon temps dans la mélancolie Perdu ma tête dans un instant de folie But I never lost faith on a homie counting on me mmmh Toujours rock solid pour mes soldats À chacun son hustle then it's all love On a booké des shows, then they showed up Sold out Club Soda like we sold drugs Les gars sur qui j'peux compter, j'peux les compter sur mes doigts Tu peux toujours tout me conter, j'vais pas compter c'que tu me dois Tu maurais donné lchoix jt'aurais dit non Non plus oui ctu égal dans lfond Vaut mieux stimuler lénergie pour arriver au front Prêts, ready comme des enfants à qui on passe un ballon Jai du faire le tour du globe pour aller au dépanneur Comme quoi faut savoir le temps pour demander quelle heure Nous cest piles comprises si tas bien compris Pas besoin de batteries le stock est dans machine On est là, que des humains la fine pointe de la magie Nous on déchire, on crie Sans micro, jusquà Paris Juste des ronds dans lstreet comme Ogden le dit Montre-moi cque tas dans lventre Jvais découvrir qui jsuis Tu croyais que jtait ici mais j'suis sur St-Cyrille Lock down le boulevard comme en guerre civile Tu mcherches encore pis jsuis en train dsourire Jt'à Montréal coin Peel, mon gars, Peel! Reste cool tu veux tpayer une bouffe au resto Va falloir faire du temps comme les dudes à Bordeaux Non, non cest vrai qui a des jobs dehors Mais jme sens comme un esclave qui pars à lîle de Gorée Encore, le poids dla vie sur mon corps Jvoulais mtirer dans rivière mais jattendais ton call, hmm Fuck that, tout ltemps pluggé pourtant Lordi buggait pis tes parti comme un gars qui a pu ddents Si faut séparer lhomme de la Le bon sens dla folie Le bon sens dla folie La connerie dla manchette Comme si pour creuser il me fallait une machette Jai des dents, pis des bras, pis surtout une pensée claire et nette Cyfo ça y faut lfaire cypher juste pour savoir cquon vaut sans silence Juste au moment où la seconde devient si lente cest élastique Jécrase les batteries sur le ciment x4 Run around en bus dans le hooptie, nobody can touch me Shoutout à mes vendeurs, faut ce qu'il faut, yeah, il faut garder les custies One shot one deal fuck around tu te fait take out J'get super wasted in an all black Benz and I wonder 'till you fade out What you know about the type of shit that we on What you know about the type of shit that we on I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn Si les mots te plaisent Fait en sorte que mon bread il multiply Few new joints dans mon dope supply Si le team est trop gros tout le dough se perd So we stay close, pas de nouveau gars sur le pay roll Juste les day ones, pi les A-1 Keep a plug for the yayo Better lay low, j'ai un semi-automatique pour les impôts And un fresh éconoline pour les bang bros And I take you for a ride on Saint-Lau And Im always down for my day ones Wassup big homie, get your cake up And I'm talking big money, pas juste quelques K J'serai toujours là si t'as besoin de quelqu'un X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Trust personne, le coeur crushed comme des somnifères So many days, so many nights Les nuits sont blanches en été à Montréal So many friends Vingt shooters, trois taxis, then it's on to the next 'Doit rien à personne, dites à son amour qu'elle est morte Noyer la pression, get drunk, fucking and then some Mourir trop vite, tout vivre trop jeune Styrofoam cup full of mixed emotions Le nouvel appart' coin ParcSt-Joseph, huh Mais pas d'épargnes dans le compte chèques X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Tic tac diggity wrap the fuck up Deux feuilles de tabac deux grammes de bleu gras À chaque cousin français qui spointe Pus dcoin y avait pu ça du we du weed de même Deux puffs dégeule à terre un classique Y dvient blanc comme lhiver, j'y goût d'.... aaah! J'aaarhh jécris 45 barres, prochain coup dcymbale Pif paf un aut blunt qui passe Deux bières tappe les deux mains, passe le mic Jai assez dtextes pour rapper jusquà demain soir Tu m'passes mon tape, je comprends rien, tu connais rien Christ de ciboire, t'as du rap, pas du simili-porc Ogden fuck avec un maudit post-rigodon, passe à coté Lâche le citron, fais demi-thon Tas pas à penser penser juste danser dans ces cas-là Bouge un peu ton bassin Martin On est pas faite en chocolat Men ici Québec, Félix Leclerc, Jean Leloup, f... Kendrick Aaah! Get the fuck out on est plastifié, blast le shit gun en plastique dans Dichet Derjardins coin Cartier Dopeness quasi-interdite, choke su lspliff pendant quOgden te décalisse Je choke mon rap, that's it Alaclair most high to the... fuck that! Street dreams dans les fenêtres d'école T'as besoin d'dough then you sell dope, basic stuff It gets tough though, le game c'est un sable mouvant Une fois que tu fais des revenus then you can never move on Whatever Le boy Joe avait la Blue Volvo Le Blueprint disait U Don't Know Sure we did not Little did we know, we could get a lot Move a kilo on a d-low, make a killing as a dealer On a toujours été rêveurs since for ever Deux pieds sur le terre-plein, on pensait airplanes Big things to come Young kings to crown Now we run things, that something to think about, uh L'ignorance était tellement wrong La ligne orange semblait tellement longue When she was still around Still friends no difference Nothing but a nostalgie thang baby, uh Garde une couple de connexions à Ahuntsic Y'ont toujours les remèdes maisons quand j'feel home sick On fait comme si, mais c'est p'us comme les premières fois Maintenant j'garde la tête froide devant la mauvaise foi Une coupe de fake friends disent qu'j'suis plus really real Si j'avais fail, peut-être qu'on pourrait relate Mais là j'sais pas, man Some people that I grew up with just never grew up J'ai préféré les perdre de vue que d'les voir perdre, uh Avec tout ce fucking blow il me faut une paire de Merrel I be stuntin' on these fuckboys dans une Panamera Extra extra Lady Antebellum Own the Night status Compare-moi à personne dans ton rap queb Ton premier handicap c'est ton Yankee cap Young fashion God, Denis Gagnon, fancy rap Realest shit I ever wrote Matter of fact I don't write shit, let 'em know Semi-auto squirt, drette dans ton Givenchy shirt Juste parce que j'me sens vicieux Ginette Reno when it's lunch time Jacques Parizeau when it's Scotch time Lise Watier, blush time Loudmouth c'est le best so mo'fucker respect Lary Kidd est fresh, that's right, correct A-Justice est cinglé, that's right, correct Boy, flat line, you're dead You suck, you're a shame, but am I to blame To blame you for being such a motherfucking lame Ain't shit changed, le Kidd est still the same Rien à foutre de me faire remercier parce que j'ai changé le game Crazy in the brain, deux hoes dans le Range Rover Going both ways vitres baissées sur la main Fuck all of y'all Switch lane, change de bord Get paid ou retourne jouer dans ton carré de sable Mon wrist game est modeste, mon piss game est ugly I squeeze it out my dick like it's fucking silly putty Yo peep le visuel Sul banc sal au spot habituel Janvier gèle le parc Puff-pass, le rituel Swigg la Grolsh Pose dans un coat de snow J'porte un toast Au North Face Qui nous chauffe les os Chocolat chaud Des guimauves Pis une blonde qui blow En Penfield Herringbone Une bombe quand elle pompe l'hydro Trempée dans le bubble goose Perrier pour la vodka juice Poche pour le baggie-toots Sur le Kanuk avec le col hibou Ton Columbia Brah, c'est pas si officiel que ca Même couleur ciel Avec une clip Pour tenir ton cell qui sonne Match tes shits Les accents sur les Arcteryx Doivent combiner avec Le panneau latéral des kicks Maléfique La veste cache les armes Qui tag les briques C'est à mes risques Si les manches sont sales Faut que je lave les fibres Y'a tu d'la place pour stash Le fuckin pic-à-glace terrible Qui laisse des traces Néfastes, ça frappe et puis Efface les snitches Montréal, c'est frette On calle les Boréales des deps Défaite de la capitale On sort le tricolor Les patch sur les vestes Le jacket cardinal est fresh J'le porte avec allégresse Classic vintage Y'a pas mal d'années de faites Emmettre le memorable, c'est l'best Des fois il faut se forcer à les mettre Camouflage 900 plumage d'oie, j'tai dead Tu fais des arabesques On fait des airs avec Vole un mulet pis tu traverses le désert avec Envoi les signaux, black signets, plaque signée Statu quo prend lbord comme une statue fausse Cest du Fake comme la marque à Wats Débarque à soir des cochons smilent comme Jam et Dox Tu veux du boulet jai des canons Va tu écrire cque tu penses littéralement sur la face du monde Pas d'temps à perdre à soir Entouré d'buddy quyont des formes austoires Jai remarqué les rues sont coupées par des coins Ya plein dparty roulés par des joints Laurent jimmy qui mdit qui connait Pour moi l'stiff est fucked comme du comète Entouré de problèmes pogné au centre De toi même, tas tu lgoût dcouper ta chaîne ? On veut vivre dans lrêve, vivre dans lluxe Tu défèques déjà d'in bol deau pure Tu veux jouer les Jo connaissant Tu vas finir par te perdre sans connaissances Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire T'as déjà vu des dollar signs sur l'odomètre Ben l'éconoline c'est d'ça qu'a d'l'air They say crazy shit about us They say crazy shit about us They say crazy shit about us They say crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes Crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes And I don't sleep gotta go to work, poser pour des caméras Rock stars et fashion gods qui tear apart des arénas I just woke up in a hotel avec 15 000 fucking dollars Pis un chapeau d'poil du Lowell Pis un chapeau d'poil du Lowell They say crazy shit about us Young man with the money Goddamn shit ain't funny I'm a fan of the money Je suis rien de plus qu'le produit I'll be damned if I let another man Essayer d'venir mettre la main sur mon produit Donc, kesser tu veux faire? Tu rêvais d'être un baller Shot caller, le grand luxe Drop out of college, 10 dollars l'heure Le rap a foutu ta vie en l'air All 'em bitches want my picture Mais y'a pas de quoi s'pitcher ses murs Tu ferais ben mieux d'être rich Que d'être almost rich and famous Les labels voudraient du beef Mais tu sais qu'on est cool avec les Dead Obies And they know they damn well better be T'es-tu sûr sûr que tu veux survivre Comme moi c'est dur Comme le verse de Connaisseur sur Sur le corner T'as vu l'heure qu'il est ? Baby I'm working late Faut que j'travaille pour mon siège à l'Adisq entre les soeurs Boulay I'm tryna get that James Hyndman Money man Top rappers in the game, still jamais nominés Hey, is that a real day job ? C'est dur à dire comme Loud Lary Ajust Yeah they talk a lot of shit All for the show If it ain't about my money Dis moi qu'est-ce vous marmonnez Yeah I get a lot of... huh They all give me... huh Jeune fille t'as pas changé Mais c'est sûr t'allais pas changer Aucune bitch autour de moi pour venir me backstabber You can tell by the way I walk that I'm a youngin' Beat you on some stupid shit, fait pas ton comique I be the one with the rubber gloves Duckin' under the bridge pour te pogner ? Au pire mon gars on te pogne chez vous, juste fuck it Pi on laisse ton linge real souillé Long John chrome real rouillé As well, to shoot you to hell Walk around with a pimp strut like a fly gangster With them thick wallys on Plein de peinture I be the one getting money in this bitch and you know it And en fait j'suis broke, c'pour ca que le rap queb est dans le coma Donnes moi des moyens pi j'vais noyer le street Charlie Sheen on a hoe Over a bag of weed and some blow I walk around like you walk around walk around with this trap I don't walk around with a strap I walk around like I'm strapped You fuck around and get clapped If you walk around with a strap Le bruit des balles à blanc qui fend l'air dans la nuit like ''PAH!'' I'm keeping it real, I'm keeping raw, forever I'm so white j'allais oublier de dire Nigga J'suis un miracle, jai encore failli mourir vla deux mois Je mappelle Emmanuel comme Selassie Haile Yo smash up le thon Jusqua c que le carton cramme Je m'approprie des grosses puffs Qui vident mes poches de grammes Cinq piasse la touche le gros Ca coute la peau des fesses Ajoute ton bras au total Lets go, on smoke smoke le cess Une forte haleine de thon Grace a l'innalation Quebec gold et silver haze Merite les medailles de bronze Vagabonds et fils de riches Ensemble se twist des spliffs Unis dans l harmonie De la potence du kryptonite Smashed par les poff de mangue Mes potes qui puff ensemble S comportent comme mon prof de science Qui porte une robe de chambre Relax divan pantoufles La chambre du parlement sen doutent Y bloquent les chances du chanvre Comme l'Avalanche Sans Vincent Damphousse Y faut defendre le parti Bloc pot pour que notre patrie Legalise moi ca moi ca tout suite Et-pis criss moi le dub dans l tapis Dla bombe comme nagasaki Qui fait quon plonge dans-le monde de alice Comme alexandre despatie Qui participe au olympiques pis le triple flips Sont freestyle comme du ski gratuit Y'a de la la glace sur le freezeland Osti que mon flow y patine Tire la toke de creme Le THC glacee qu jaime Paqueté dans le cornet Legenre qui donne des migraines J vaccine mes alvéoles La peau est faite de pulpe De papier qui plie parfaitement Pour que j reste dans ma bulle Petite fumée nocturne Qui danse a l'aube dla vie La poesie du moment C'tune grosse philosophie Epistemologie d coin table Pendant que j'egraine les coots Ma pensée est rendu instable Y'en a qui disent que j'suis fou Le gros tu reflechis trop Faudrait que tu lache la drogue Mais c pas justle le weed dans vie Qui fait q jm interroge Débug mon cervaux de stress Ca m prend un joint solide Une osti toke qui fesse Pis la chu euphorique Un autre pak de rizz Une grosse mission au dep Habile on roule le spliff Architechte comme Imhotep Defois j prend des puffs Juste pour le fait de prendre une puff Fak la joublie mon texte Fak a place jprend une puff Deuces! Ok jeunes filles going crazy, um Des supermodels, elle sont nerveuses elle sont nerveuses Nouveau record soon to drop Elles jure qu'elles sont pas des groupies chaque fois qu'on est sous les draps Man elle dira ce qu'elle voudra they always lie when they do drugs I was way too drunk, maintenant pourquoi t'es toujours là Ca pourra pas marcher but we still had a good run tu trouve pas ? Oublis jamais qu'on est super unofficial On the side, all joke aside, I'm just fucking with you huh I got to keep it movin quest-ce tu croyais ? Ma vie c'est un movie when I'm shootin keep quiet Comment tu me comparais à ton average citoyen J'paye mon loyer ak du rap money, travailler pour soi-même Employée de la semaine à chaque semaine that's what I am Pas de vacances pas de poste vacant 9 a 5 AM, I mean I mean don't wait on me girl I'm on my way to work, work work work You can still find me flexin' out of the Candlewood Suites Chug un 40oz de vodka avant d'aller au lit Imma die so fly ça vous m'aviez compris In a white suit Tom Wolfe, radical chic Plus a large amount of coco MM6 SS15 Graduited from the Polo Sucker free squad Toutes les hoes sont ravies Jeune artiste en vogue Mon appart ressemble à Paris Realest in tha hood Freshest on tha block J'en ai rien à foutre Let the semi pop Shootin' blanks outta fuckin cabriolet Avec ta girlfriend in tha back Qui s'débrouille si bien que j'vais l'appeler Marie-Soleil It's a shame à quel point on est juste ailleurs Spaced out hoes, j'les appelle Julie Payette Welcome to the other side où les choses sont plus pareil Rap money is the motive Pop le Moet dans un câlice Gotta keep it eh!- Keep it balanced Mon boy, quel bon beat Baby there's nothing you can tell me Baby there's nothing you can tell me A m'a demandé si j'tais jeune et fly, I told her hell oui A m'a demandé si j'allais pouvoir lui cop du LV Man I'm so high that I'm tryin' to find a LZ A m'a demandé si j'allais pouvoir lui cop du LV Better find me drug if you wanna know about me J'vais jamais toucher un million à moins que j'vende d'la coke J'ai choisi d'rester broke, mais j'veux pas finir fru comme Zïlon J'ai l'goût d'finir su' un boat M'enlever d'la liste d'élections Crier fuck vous autres, fuck nous autres Mourir dans un typhon But I'm gettin' all that paper Les maudits publi-sac que j'feuillette, feuillette, feuillette, feuillette Finissent toutes dans le recyclage, bud' God knows, première page des journaux Un chien retrouvé mort dans le fond d'une ruelle proche de Deschambault Pis j'vas... Pis j'vas jamais dire de niaiseries J'suis ben trop préoccupé à écrire des bijoux de la langue française En gros... En gros sale québécois Joual. Quoi? Fédéral? Fuck that général! Pis j'suis fier de mon gouvernement Une gang de mottés millionnaires qui s'tirent les cheveux depuis soixante ans Pendant c'temps là, man pipi dans l'eau potable Gettin' all that paper, man Mais ça finit dans le recyclage Cause it's all about that money It's all about that money It's all about that money And we all about that money, man All about that money All about that money Osti, j'suis fucké Roule un blunt je cotise Alejandro Jodorowsky El Topo pollo Kentucky Se7en up Super croc J'pèse play le dvd rush L'écran picotte Parce que le disque c'est une copie ? Crache les puffs toxiques Traumatisme pour le cortex Être braindead c'est une force cosmique Peter Jackson laisse un bad taste sur tes papilles ? Mes pensées s'éparpillent Comme une pélicule de Guy Ritchie Up in smoke, tie dye trippy Easy Rider Taxi Driver, Jeune De Niro ou Gerard Pirès Frank Sivero snipe Al Pacino snuff le Cineplex Tequila toute épreuve Oh boy qui déguste la pieuvre ? Kubrick qui shoot des oeuvres Crade Battle Royale Takashi Miike sur le flow Nouvelle génération ? Tetsuo La biologie selon Ricardo Trogi Québec Montréal Un crack dans la tête la puff lobotomie Du weed Denys Arcand ciel Lève l'Armée des Ténèbres Sam Raimi trilogie L'original c'était Evil Dead Peur et dégoût en français ? Alice était merveilleuse en criss Dans la version Czech Dans la vie j'suis plus vedge Que Henri dans Eraserhead ? pour un rêve Terry Gillam et les frères Coen Mange l'Orange Méchanique Tu te sens comme John Malkovich Planète Sauvage La ciudad de Dieu des narcotiques Le crash de Paul Haggis Les cités crack haine irréversible Charles Foster game Toutes les images réflechissent I'm on my hometown glory shit Sort of like a young Jim Morrison Les poèmes et la drogues man je suis horrifié Boîtes de chaussure Adidas, we used em as storages Le whip se doit d'être Oreo, drive that shit to Florida Don't care where you at, where you from and your origins Tu te mets dans le chemin du bread Pis on te laisse trainé dans un corridor I just might cop un semi-auto Juste pour me faire un peu de fun Real life Grand Theft Auto, bitch On est dans ta ville, quelques voitures back to back Posons, parade style, hate me now C'est quoi apprécier l'art de nos jours Gossip over un verre de vin a l'Arsenal with your boys, please Pis maintenant t'étudies la mode Ya même pas deux mois tu portais encore du Billabong Get the fuck out of my city avant que je plis ta robe Tu veux devenir couturier, moi je te donne du fil à retordre Get money shit School drop outs, fuel pour les cop cars Red Bull in the cup a'ec la vodka, go fuck off Born sinners Cry me a river, let it sink en dessous du pont Pie IX I gotta stay scheming' Sur ces rappers queb nés pour un p'tit pain steamé C'est juste logique si ils manquent le toast They know nothing 'bout this life we chose Suit case Ralph Lauren, les souliers that's foreign Ship 'em off du UK, j'donne des coups de pieds avec quand même Saoul comme une botte j'm'en caliss J'suis Bass God, Bootsy Collins Les groupies bouches pâteuses when they hollering' the God Mais I don't stop for nothin' Des mouches dans le pare-brise New Darth Vader, tout de noir vêtu Ch'mise Candlewood comme un baseball player May Gullywood be that brand you trust Montréal su'l chandail pas de Brandon Prust Pour les médias on est rien d'autre que des trending topics Men I should fuck this whole game, random thoughts Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Yo one two three four five six seven Les realest mothafuckers sont back dans cuisine Pis c'est pas rien que du quiquine quand je step sur le beat en comme c'est wicked Le feu devient liquide Quand je spit c'est du bacon Stacké comme du bacon Trois points, Scottie Pippen They call me Scotty bibinne Heyy, c'est même pas le mois de mars On the beat comme un policier J'rap comme un policier J'te vole ton weed, pis j'le smoke comme un policier Chillin' sur le DS Ma femme chill sur le VS Mon fils dort pis j'écris des raps comme un TS Chillin' avec pis Bossé Mon rap c'est buzzé, but I'm fly like Réal Bossé Ehin! Jettes ton drink dans les airs Pis fais comme si t'allais don't care qui te r'tombe ç'a poire Uptown, c't'écrit sur le corner Même si tu finis lock-down pis tu sors pus des borders Fly as a motherfuckin kite, aight Pourquoi tu feel tout triste? C'est juste du rap musique Fuck that shit! Double L-A rap shit for the life! Merci bonsoir Brouillon À compléter</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Il Vous Reste une Minute</t>
+          <t>J’ai appris</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gotta run on drop top screaming now fuck the world Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? One shot, one deal, fuck around tu te fais take out J'get super wasted in an all black Benz and I watch the city fade out What you know about the type of shit that we on Aeon Flux, yeah le genre de chicks that we on On fait des bad moves, that'll be on us Mais d'ici la on reach pour les billions R. Kelly fuck boys get peed on, ton shit est bidon Move a kilo on a d-low cock back reload Fuck that where my hustlers at, où sont mes bad girls, où sont mes bad goons, , où sont mes bad goons Gotta run on drop top screaming now ''Fuck the world'' Imma throw a fuck around si les choses vont pas comme tu veux So what you say now? So what you say now? Invincible depuis cinq semaines solide À mélanger l'ambition et l'insomnie Toujours sur le grind, ain't no summertime for me Un pied sous la terre, un oeil sur la terre promise Y'a pas de suite logique Already run le show, pourquoi hit le gym ? Ton boy se maintient sur un strict régime Nothing but champagne and sweet revenge Man, I swear I'm goin' crazy these days J'signe des contrats comme des autographes But I own my masters, ain't no slave, sorry Audiogram They say time is money, I've been winning the whole summertime Y'a pu personne à mon niveau, non y'a personne à mon niveau Now, c'est ça mon drame Sur le south shore pour un sold-out show avec le chauffeur T'étais chaud for a minute, but you ain't got shit to show for it Sittin' on top, voyez ce que le rap a fait de lui La Dolce Vita dans mon 8 12, feelin' so Fellini Hum That's all black pour elle et lui yeah Right That's all black pour elle et lui Not bad pour un dropout selling weed Now I need that drop top, Thelma and Louise Hum Pas d'marge pour me tromper, toujours marcher du bon pied Pas d'farces, baby I don't play Je check Pensado's place at my side hoe's place And that's work work, wo-work, work Go to work chaque soir pour redonner l'espoir aux depressed kids J'vous amène au sommet, then I got a little something pour l'après-ski Few drugs proscrites getting prescrites Trudeau Pas le genre de story que tu liras dans mon press kit Underdog until I'm under God Get me some avant qu'sonne le glas Split la job avec les chums de gars Dès que j'donne le go, tout le monde donne le gas, like Tout le monde donne le gas, like Dès que j'donne le go, tout le monde donne le gas, like Go Y'a des glaçons dans lpunch fruité Tassaisonnes le Jameson, c'est pas une bonne idée C'est tu lfun pisser du whiskey pis du rhum givrée? Déconne ivre et dégringole lescalier avec un pichet digne de Paul Piché Cte punch là, tu vas pas lpiger, mais livrogne il sait Que jparle des marches qui consomment qui tes Démarche de drunk, les neurones giflés Après tavoir hissé dla bolle tous tes chums tauront comme quittés Don Quichotte tu ripostes dans les clubs, t'es fucked Mais une fois sobre la poque sur los sphénoïde te choques Ton ego trip de brosse gosse comme lhaleine de scotch Cest ptêtre pour ça que même tes potes se tiennent jamais trop proche On te demande de prendre la porte des que tu rentres dans lspot Les clés dans les chiottes enclenchent la cadence sur ton stéthoscope Tes mieux dattendre à soir ou ben donc dapprendre à boire Tellement qu'téchappes le fort on sort le scaphandre d'la boite En accord avec les lois sur les Honda croches Les undercover cops te menottent pis tapportent au poste Tu cherches la merde, mais test trop pas game Tu régurgites ta dose de Troika comme un yoga flame Tu vois, moi Même quand jsuis saoul jsuis chill J'suis capable de résoudre le trouble avec des foutu skills Shooter dans lnombril de la barmaid le spliff sparké Les bitches sur le party minvitent à lhit dans lwhip parké Jpense que tu comprends merci pour ma tranche de vie Maintenant retour au focus man, y'est temps que tu changes de beat Tu déranges les gens calisse que tu gosses en crisse Tes homies ten informent pas parce que test un gars sensible Ton insecurité saigne man, tu tpognes le beigne x3 Jmenvais play hard, go hard Jouer dur comme un hooligan Mother fuck the police, lâche mon bounda Quand tu mcroises, haut les mains Hold it down, fuck les guns Mon gars fuck ton money, fuck tes conne Quand tu joues aux échecs Ça sent dicite jusquau Mont Ste-Anne Bless Les roues tournent sur l'éconoline Whole squad on the road now what a life Sun light fade dans le rétroviseur Six heures qu'on roule libre comme l'air Woke up counting money down in Morin-Heights Même chose tomorrow night Demain soir rentrée montréalaise Immortalize the young rap legend on the rise J'ai laver mon linge sale devant une salle comble Ma famille étaient VIP sur le balcon J'ai laissé les patnais avec le bracelet On va party like it's back then, backstage ahhh I've been in and out of love, in and out of money J'ai perdu mon temps dans la mélancolie Perdu ma tête dans un instant de folie But I never lost faith on a homie counting on me mmmh Toujours rock solid pour mes soldats À chacun son hustle then it's all love On a booké des shows, then they showed up Sold out Club Soda like we sold drugs Les gars sur qui j'peux compter, j'peux les compter sur mes doigts Tu peux toujours tout me conter, j'vais pas compter c'que tu me dois Tu maurais donné lchoix jt'aurais dit non Non plus oui ctu égal dans lfond Vaut mieux stimuler lénergie pour arriver au front Prêts, ready comme des enfants à qui on passe un ballon Jai du faire le tour du globe pour aller au dépanneur Comme quoi faut savoir le temps pour demander quelle heure Nous cest piles comprises si tas bien compris Pas besoin de batteries le stock est dans machine On est là, que des humains la fine pointe de la magie Nous on déchire, on crie Sans micro, jusquà Paris Juste des ronds dans lstreet comme Ogden le dit Montre-moi cque tas dans lventre Jvais découvrir qui jsuis Tu croyais que jtait ici mais j'suis sur St-Cyrille Lock down le boulevard comme en guerre civile Tu mcherches encore pis jsuis en train dsourire Jt'à Montréal coin Peel, mon gars, Peel! Reste cool tu veux tpayer une bouffe au resto Va falloir faire du temps comme les dudes à Bordeaux Non, non cest vrai qui a des jobs dehors Mais jme sens comme un esclave qui pars à lîle de Gorée Encore, le poids dla vie sur mon corps Jvoulais mtirer dans rivière mais jattendais ton call, hmm Fuck that, tout ltemps pluggé pourtant Lordi buggait pis tes parti comme un gars qui a pu ddents Si faut séparer lhomme de la Le bon sens dla folie Le bon sens dla folie La connerie dla manchette Comme si pour creuser il me fallait une machette Jai des dents, pis des bras, pis surtout une pensée claire et nette Cyfo ça y faut lfaire cypher juste pour savoir cquon vaut sans silence Juste au moment où la seconde devient si lente cest élastique Jécrase les batteries sur le ciment x4 Run around en bus dans le hooptie, nobody can touch me Shoutout à mes vendeurs, faut ce qu'il faut, yeah, il faut garder les custies One shot one deal fuck around tu te fait take out J'get super wasted in an all black Benz and I wonder 'till you fade out What you know about the type of shit that we on What you know about the type of shit that we on I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn I'm a rider, never doubt it Blood spilled sur le pare-brise I'm a rider, never doubt it Mon équipe be the baddest, goddamn Si les mots te plaisent Fait en sorte que mon bread il multiply Few new joints dans mon dope supply Si le team est trop gros tout le dough se perd So we stay close, pas de nouveau gars sur le pay roll Juste les day ones, pi les A-1 Keep a plug for the yayo Better lay low, j'ai un semi-automatique pour les impôts And un fresh éconoline pour les bang bros And I take you for a ride on Saint-Lau And Im always down for my day ones Wassup big homie, get your cake up And I'm talking big money, pas juste quelques K J'serai toujours là si t'as besoin de quelqu'un X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Trust personne, le coeur crushed comme des somnifères So many days, so many nights Les nuits sont blanches en été à Montréal So many friends Vingt shooters, trois taxis, then it's on to the next 'Doit rien à personne, dites à son amour qu'elle est morte Noyer la pression, get drunk, fucking and then some Mourir trop vite, tout vivre trop jeune Styrofoam cup full of mixed emotions Le nouvel appart' coin ParcSt-Joseph, huh Mais pas d'épargnes dans le compte chèques X-O-X-O tattoué sur mes phalanges Only live once in a while so you wild out Texte nos ex, no so nonchalantes La poudre aux yeux qui pèse lourd dans la balance's What you all about And it's only right Tic tac diggity wrap the fuck up Deux feuilles de tabac deux grammes de bleu gras À chaque cousin français qui spointe Pus dcoin y avait pu ça du we du weed de même Deux puffs dégeule à terre un classique Y dvient blanc comme lhiver, j'y goût d'.... aaah! J'aaarhh jécris 45 barres, prochain coup dcymbale Pif paf un aut blunt qui passe Deux bières tappe les deux mains, passe le mic Jai assez dtextes pour rapper jusquà demain soir Tu m'passes mon tape, je comprends rien, tu connais rien Christ de ciboire, t'as du rap, pas du simili-porc Ogden fuck avec un maudit post-rigodon, passe à coté Lâche le citron, fais demi-thon Tas pas à penser penser juste danser dans ces cas-là Bouge un peu ton bassin Martin On est pas faite en chocolat Men ici Québec, Félix Leclerc, Jean Leloup, f... Kendrick Aaah! Get the fuck out on est plastifié, blast le shit gun en plastique dans Dichet Derjardins coin Cartier Dopeness quasi-interdite, choke su lspliff pendant quOgden te décalisse Je choke mon rap, that's it Alaclair most high to the... fuck that! Street dreams dans les fenêtres d'école T'as besoin d'dough then you sell dope, basic stuff It gets tough though, le game c'est un sable mouvant Une fois que tu fais des revenus then you can never move on Whatever Le boy Joe avait la Blue Volvo Le Blueprint disait U Don't Know Sure we did not Little did we know, we could get a lot Move a kilo on a d-low, make a killing as a dealer On a toujours été rêveurs since for ever Deux pieds sur le terre-plein, on pensait airplanes Big things to come Young kings to crown Now we run things, that something to think about, uh L'ignorance était tellement wrong La ligne orange semblait tellement longue When she was still around Still friends no difference Nothing but a nostalgie thang baby, uh Garde une couple de connexions à Ahuntsic Y'ont toujours les remèdes maisons quand j'feel home sick On fait comme si, mais c'est p'us comme les premières fois Maintenant j'garde la tête froide devant la mauvaise foi Une coupe de fake friends disent qu'j'suis plus really real Si j'avais fail, peut-être qu'on pourrait relate Mais là j'sais pas, man Some people that I grew up with just never grew up J'ai préféré les perdre de vue que d'les voir perdre, uh Avec tout ce fucking blow il me faut une paire de Merrel I be stuntin' on these fuckboys dans une Panamera Extra extra Lady Antebellum Own the Night status Compare-moi à personne dans ton rap queb Ton premier handicap c'est ton Yankee cap Young fashion God, Denis Gagnon, fancy rap Realest shit I ever wrote Matter of fact I don't write shit, let 'em know Semi-auto squirt, drette dans ton Givenchy shirt Juste parce que j'me sens vicieux Ginette Reno when it's lunch time Jacques Parizeau when it's Scotch time Lise Watier, blush time Loudmouth c'est le best so mo'fucker respect Lary Kidd est fresh, that's right, correct A-Justice est cinglé, that's right, correct Boy, flat line, you're dead You suck, you're a shame, but am I to blame To blame you for being such a motherfucking lame Ain't shit changed, le Kidd est still the same Rien à foutre de me faire remercier parce que j'ai changé le game Crazy in the brain, deux hoes dans le Range Rover Going both ways vitres baissées sur la main Fuck all of y'all Switch lane, change de bord Get paid ou retourne jouer dans ton carré de sable Mon wrist game est modeste, mon piss game est ugly I squeeze it out my dick like it's fucking silly putty Yo peep le visuel Sul banc sal au spot habituel Janvier gèle le parc Puff-pass, le rituel Swigg la Grolsh Pose dans un coat de snow J'porte un toast Au North Face Qui nous chauffe les os Chocolat chaud Des guimauves Pis une blonde qui blow En Penfield Herringbone Une bombe quand elle pompe l'hydro Trempée dans le bubble goose Perrier pour la vodka juice Poche pour le baggie-toots Sur le Kanuk avec le col hibou Ton Columbia Brah, c'est pas si officiel que ca Même couleur ciel Avec une clip Pour tenir ton cell qui sonne Match tes shits Les accents sur les Arcteryx Doivent combiner avec Le panneau latéral des kicks Maléfique La veste cache les armes Qui tag les briques C'est à mes risques Si les manches sont sales Faut que je lave les fibres Y'a tu d'la place pour stash Le fuckin pic-à-glace terrible Qui laisse des traces Néfastes, ça frappe et puis Efface les snitches Montréal, c'est frette On calle les Boréales des deps Défaite de la capitale On sort le tricolor Les patch sur les vestes Le jacket cardinal est fresh J'le porte avec allégresse Classic vintage Y'a pas mal d'années de faites Emmettre le memorable, c'est l'best Des fois il faut se forcer à les mettre Camouflage 900 plumage d'oie, j'tai dead Tu fais des arabesques On fait des airs avec Vole un mulet pis tu traverses le désert avec Envoi les signaux, black signets, plaque signée Statu quo prend lbord comme une statue fausse Cest du Fake comme la marque à Wats Débarque à soir des cochons smilent comme Jam et Dox Tu veux du boulet jai des canons Va tu écrire cque tu penses littéralement sur la face du monde Pas d'temps à perdre à soir Entouré d'buddy quyont des formes austoires Jai remarqué les rues sont coupées par des coins Ya plein dparty roulés par des joints Laurent jimmy qui mdit qui connait Pour moi l'stiff est fucked comme du comète Entouré de problèmes pogné au centre De toi même, tas tu lgoût dcouper ta chaîne ? On veut vivre dans lrêve, vivre dans lluxe Tu défèques déjà d'in bol deau pure Tu veux jouer les Jo connaissant Tu vas finir par te perdre sans connaissances Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire Just woke up this morning screaming fuck my life Avec le vodka jus d'orange protocolaire T'as déjà vu des dollar signs sur l'odomètre Ben l'éconoline c'est d'ça qu'a d'l'air They say crazy shit about us They say crazy shit about us They say crazy shit about us They say crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes Crazy shit about us Loud est dans les tabloids, Ajust dans les pages jaunes And I don't sleep gotta go to work, poser pour des caméras Rock stars et fashion gods qui tear apart des arénas I just woke up in a hotel avec 15 000 fucking dollars Pis un chapeau d'poil du Lowell Pis un chapeau d'poil du Lowell They say crazy shit about us Young man with the money Goddamn shit ain't funny I'm a fan of the money Je suis rien de plus qu'le produit I'll be damned if I let another man Essayer d'venir mettre la main sur mon produit Donc, kesser tu veux faire? Tu rêvais d'être un baller Shot caller, le grand luxe Drop out of college, 10 dollars l'heure Le rap a foutu ta vie en l'air All 'em bitches want my picture Mais y'a pas de quoi s'pitcher ses murs Tu ferais ben mieux d'être rich Que d'être almost rich and famous Les labels voudraient du beef Mais tu sais qu'on est cool avec les Dead Obies And they know they damn well better be T'es-tu sûr sûr que tu veux survivre Comme moi c'est dur Comme le verse de Connaisseur sur Sur le corner T'as vu l'heure qu'il est ? Baby I'm working late Faut que j'travaille pour mon siège à l'Adisq entre les soeurs Boulay I'm tryna get that James Hyndman Money man Top rappers in the game, still jamais nominés Hey, is that a real day job ? C'est dur à dire comme Loud Lary Ajust Yeah they talk a lot of shit All for the show If it ain't about my money Dis moi qu'est-ce vous marmonnez Yeah I get a lot of... huh They all give me... huh Jeune fille t'as pas changé Mais c'est sûr t'allais pas changer Aucune bitch autour de moi pour venir me backstabber You can tell by the way I walk that I'm a youngin' Beat you on some stupid shit, fait pas ton comique I be the one with the rubber gloves Duckin' under the bridge pour te pogner ? Au pire mon gars on te pogne chez vous, juste fuck it Pi on laisse ton linge real souillé Long John chrome real rouillé As well, to shoot you to hell Walk around with a pimp strut like a fly gangster With them thick wallys on Plein de peinture I be the one getting money in this bitch and you know it And en fait j'suis broke, c'pour ca que le rap queb est dans le coma Donnes moi des moyens pi j'vais noyer le street Charlie Sheen on a hoe Over a bag of weed and some blow I walk around like you walk around walk around with this trap I don't walk around with a strap I walk around like I'm strapped You fuck around and get clapped If you walk around with a strap Le bruit des balles à blanc qui fend l'air dans la nuit like ''PAH!'' I'm keeping it real, I'm keeping raw, forever I'm so white j'allais oublier de dire Nigga J'suis un miracle, jai encore failli mourir vla deux mois Je mappelle Emmanuel comme Selassie Haile Yo smash up le thon Jusqua c que le carton cramme Je m'approprie des grosses puffs Qui vident mes poches de grammes Cinq piasse la touche le gros Ca coute la peau des fesses Ajoute ton bras au total Lets go, on smoke smoke le cess Une forte haleine de thon Grace a l'innalation Quebec gold et silver haze Merite les medailles de bronze Vagabonds et fils de riches Ensemble se twist des spliffs Unis dans l harmonie De la potence du kryptonite Smashed par les poff de mangue Mes potes qui puff ensemble S comportent comme mon prof de science Qui porte une robe de chambre Relax divan pantoufles La chambre du parlement sen doutent Y bloquent les chances du chanvre Comme l'Avalanche Sans Vincent Damphousse Y faut defendre le parti Bloc pot pour que notre patrie Legalise moi ca moi ca tout suite Et-pis criss moi le dub dans l tapis Dla bombe comme nagasaki Qui fait quon plonge dans-le monde de alice Comme alexandre despatie Qui participe au olympiques pis le triple flips Sont freestyle comme du ski gratuit Y'a de la la glace sur le freezeland Osti que mon flow y patine Tire la toke de creme Le THC glacee qu jaime Paqueté dans le cornet Legenre qui donne des migraines J vaccine mes alvéoles La peau est faite de pulpe De papier qui plie parfaitement Pour que j reste dans ma bulle Petite fumée nocturne Qui danse a l'aube dla vie La poesie du moment C'tune grosse philosophie Epistemologie d coin table Pendant que j'egraine les coots Ma pensée est rendu instable Y'en a qui disent que j'suis fou Le gros tu reflechis trop Faudrait que tu lache la drogue Mais c pas justle le weed dans vie Qui fait q jm interroge Débug mon cervaux de stress Ca m prend un joint solide Une osti toke qui fesse Pis la chu euphorique Un autre pak de rizz Une grosse mission au dep Habile on roule le spliff Architechte comme Imhotep Defois j prend des puffs Juste pour le fait de prendre une puff Fak la joublie mon texte Fak a place jprend une puff Deuces! Ok jeunes filles going crazy, um Des supermodels, elle sont nerveuses elle sont nerveuses Nouveau record soon to drop Elles jure qu'elles sont pas des groupies chaque fois qu'on est sous les draps Man elle dira ce qu'elle voudra they always lie when they do drugs I was way too drunk, maintenant pourquoi t'es toujours là Ca pourra pas marcher but we still had a good run tu trouve pas ? Oublis jamais qu'on est super unofficial On the side, all joke aside, I'm just fucking with you huh I got to keep it movin quest-ce tu croyais ? Ma vie c'est un movie when I'm shootin keep quiet Comment tu me comparais à ton average citoyen J'paye mon loyer ak du rap money, travailler pour soi-même Employée de la semaine à chaque semaine that's what I am Pas de vacances pas de poste vacant 9 a 5 AM, I mean I mean don't wait on me girl I'm on my way to work, work work work You can still find me flexin' out of the Candlewood Suites Chug un 40oz de vodka avant d'aller au lit Imma die so fly ça vous m'aviez compris In a white suit Tom Wolfe, radical chic Plus a large amount of coco MM6 SS15 Graduited from the Polo Sucker free squad Toutes les hoes sont ravies Jeune artiste en vogue Mon appart ressemble à Paris Realest in tha hood Freshest on tha block J'en ai rien à foutre Let the semi pop Shootin' blanks outta fuckin cabriolet Avec ta girlfriend in tha back Qui s'débrouille si bien que j'vais l'appeler Marie-Soleil It's a shame à quel point on est juste ailleurs Spaced out hoes, j'les appelle Julie Payette Welcome to the other side où les choses sont plus pareil Rap money is the motive Pop le Moet dans un câlice Gotta keep it eh!- Keep it balanced Mon boy, quel bon beat Baby there's nothing you can tell me Baby there's nothing you can tell me A m'a demandé si j'tais jeune et fly, I told her hell oui A m'a demandé si j'allais pouvoir lui cop du LV Man I'm so high that I'm tryin' to find a LZ A m'a demandé si j'allais pouvoir lui cop du LV Better find me drug if you wanna know about me J'vais jamais toucher un million à moins que j'vende d'la coke J'ai choisi d'rester broke, mais j'veux pas finir fru comme Zïlon J'ai l'goût d'finir su' un boat M'enlever d'la liste d'élections Crier fuck vous autres, fuck nous autres Mourir dans un typhon But I'm gettin' all that paper Les maudits publi-sac que j'feuillette, feuillette, feuillette, feuillette Finissent toutes dans le recyclage, bud' God knows, première page des journaux Un chien retrouvé mort dans le fond d'une ruelle proche de Deschambault Pis j'vas... Pis j'vas jamais dire de niaiseries J'suis ben trop préoccupé à écrire des bijoux de la langue française En gros... En gros sale québécois Joual. Quoi? Fédéral? Fuck that général! Pis j'suis fier de mon gouvernement Une gang de mottés millionnaires qui s'tirent les cheveux depuis soixante ans Pendant c'temps là, man pipi dans l'eau potable Gettin' all that paper, man Mais ça finit dans le recyclage Cause it's all about that money It's all about that money It's all about that money And we all about that money, man All about that money All about that money Osti, j'suis fucké Roule un blunt je cotise Alejandro Jodorowsky El Topo pollo Kentucky Se7en up Super croc J'pèse play le dvd rush L'écran picotte Parce que le disque c'est une copie ? Crache les puffs toxiques Traumatisme pour le cortex Être braindead c'est une force cosmique Peter Jackson laisse un bad taste sur tes papilles ? Mes pensées s'éparpillent Comme une pélicule de Guy Ritchie Up in smoke, tie dye trippy Easy Rider Taxi Driver, Jeune De Niro ou Gerard Pirès Frank Sivero snipe Al Pacino snuff le Cineplex Tequila toute épreuve Oh boy qui déguste la pieuvre ? Kubrick qui shoot des oeuvres Crade Battle Royale Takashi Miike sur le flow Nouvelle génération ? Tetsuo La biologie selon Ricardo Trogi Québec Montréal Un crack dans la tête la puff lobotomie Du weed Denys Arcand ciel Lève l'Armée des Ténèbres Sam Raimi trilogie L'original c'était Evil Dead Peur et dégoût en français ? Alice était merveilleuse en criss Dans la version Czech Dans la vie j'suis plus vedge Que Henri dans Eraserhead ? pour un rêve Terry Gillam et les frères Coen Mange l'Orange Méchanique Tu te sens comme John Malkovich Planète Sauvage La ciudad de Dieu des narcotiques Le crash de Paul Haggis Les cités crack haine irréversible Charles Foster game Toutes les images réflechissent I'm on my hometown glory shit Sort of like a young Jim Morrison Les poèmes et la drogues man je suis horrifié Boîtes de chaussure Adidas, we used em as storages Le whip se doit d'être Oreo, drive that shit to Florida Don't care where you at, where you from and your origins Tu te mets dans le chemin du bread Pis on te laisse trainé dans un corridor I just might cop un semi-auto Juste pour me faire un peu de fun Real life Grand Theft Auto, bitch On est dans ta ville, quelques voitures back to back Posons, parade style, hate me now C'est quoi apprécier l'art de nos jours Gossip over un verre de vin a l'Arsenal with your boys, please Pis maintenant t'étudies la mode Ya même pas deux mois tu portais encore du Billabong Get the fuck out of my city avant que je plis ta robe Tu veux devenir couturier, moi je te donne du fil à retordre Get money shit School drop outs, fuel pour les cop cars Red Bull in the cup a'ec la vodka, go fuck off Born sinners Cry me a river, let it sink en dessous du pont Pie IX I gotta stay scheming' Sur ces rappers queb nés pour un p'tit pain steamé C'est juste logique si ils manquent le toast They know nothing 'bout this life we chose Suit case Ralph Lauren, les souliers that's foreign Ship 'em off du UK, j'donne des coups de pieds avec quand même Saoul comme une botte j'm'en caliss J'suis Bass God, Bootsy Collins Les groupies bouches pâteuses when they hollering' the God Mais I don't stop for nothin' Des mouches dans le pare-brise New Darth Vader, tout de noir vêtu Ch'mise Candlewood comme un baseball player May Gullywood be that brand you trust Montréal su'l chandail pas de Brandon Prust Pour les médias on est rien d'autre que des trending topics Men I should fuck this whole game, random thoughts Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Combien pour la signature L'argent à pas d'odeur sauf pour celui qui la brûle Yo one two three four five six seven Les realest mothafuckers sont back dans cuisine Pis c'est pas rien que du quiquine quand je step sur le beat en comme c'est wicked Le feu devient liquide Quand je spit c'est du bacon Stacké comme du bacon Trois points, Scottie Pippen They call me Scotty bibinne Heyy, c'est même pas le mois de mars On the beat comme un policier J'rap comme un policier J'te vole ton weed, pis j'le smoke comme un policier Chillin' sur le DS Ma femme chill sur le VS Mon fils dort pis j'écris des raps comme un TS Chillin' avec pis Bossé Mon rap c'est buzzé, but I'm fly like Réal Bossé Ehin! Jettes ton drink dans les airs Pis fais comme si t'allais don't care qui te r'tombe ç'a poire Uptown, c't'écrit sur le corner Même si tu finis lock-down pis tu sors pus des borders Fly as a motherfuckin kite, aight Pourquoi tu feel tout triste? C'est juste du rap musique Fuck that shit! Double L-A rap shit for the life! Merci bonsoir Brouillon À compléter</t>
+          <t>J'ai appris que les courant d'air n'étaient pas des fantômes Assez triste je ne suis plus roi de mon petit royaume Ma boite à secrets hier je l'ai jetée Les étoiles dans le ciel ne sont que des soleils éloignés Les heures deviennent des jours les mystères se font plus mince Et ce n'est plus aussi drôle de salir mon pantalon à pinces Mes yeux ne brillent plus devant les bougies d'anniversaire La poussière s'accumule sur mon déguisement de corsaire Je ne retrouve plus mes anciens pouvoirs surnaturels Moins jolis sont mes dessins sans maison ni arc-en-ciel Ma peau est taillée dans la brique, mes rêves rayés par un bic Submergé par la logique, mon placard n'est plus magique Mes jouets ne me répondent plus quand je leur parle de mon amoureuse L'innocence ne raisonne plus ma raison est suspicieuse Un jour comme les autres est devenu le mercredi Il n'y a plus non plus de monstre caché sous mon lit Dans ce jeu de dupe, bousculé dans nos tumultes Maintenant la vie m'insulte, j'ai compris je deviens adulte</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J’ai appris</t>
+          <t>Juju</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>J'ai appris que les courant d'air n'étaient pas des fantômes Assez triste je ne suis plus roi de mon petit royaume Ma boite à secrets hier je l'ai jetée Les étoiles dans le ciel ne sont que des soleils éloignés Les heures deviennent des jours les mystères se font plus mince Et ce n'est plus aussi drôle de salir mon pantalon à pinces Mes yeux ne brillent plus devant les bougies d'anniversaire La poussière s'accumule sur mon déguisement de corsaire Je ne retrouve plus mes anciens pouvoirs surnaturels Moins jolis sont mes dessins sans maison ni arc-en-ciel Ma peau est taillée dans la brique, mes rêves rayés par un bic Submergé par la logique, mon placard n'est plus magique Mes jouets ne me répondent plus quand je leur parle de mon amoureuse L'innocence ne raisonne plus ma raison est suspicieuse Un jour comme les autres est devenu le mercredi Il n'y a plus non plus de monstre caché sous mon lit Dans ce jeu de dupe, bousculé dans nos tumultes Maintenant la vie m'insulte, j'ai compris je deviens adulte</t>
+          <t>Surpris dans la nuit très tôt le matin Quand ma bite me dit Hello, jmappelle Julien Et me raconte sa vie, que son père Émilien Gourdin Était frein à main sur une R21 Il aime les femmes aux jolis sourires, ça cest certain Pour y tirer des obus façon char Paladin Son hobby cest la spéléo, il y plonge tête baissé Avec son walkman branché sur baiser, baiser, baiser Câlin mais indécis, adepte du va-et-viens Il prend la grosse tête à entendre son nom dans un refrain Avec lui pour décoller pas besoin de tremplin Puisque nul en math, il ne sait compter que jusquà hin Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Bien que la nature lai doté dun frein Il nest pas genre lover latin mais plutôt casseur style parpaing Il naime pas les enfants leur préférant Gaëlle Heureusement ce nest jamais lui qui se déguise en père noël Son meilleur amis cest Jean-Ronald ma main Tous les matins ils fonts du sport rien que pour lentretien Lesprit ce nest pas son truc, il a lhumour de Darry Cowl Il est dégouté de ne pas avoir la tête sur les épaules Il aime bien prendre les gens par surprise le matin Avec comme font sonore le chant des marcassins de Chopin Branché sur Myspace ethnique white caucasien Mais quand il dort, je lentends, il rêve dêtre africain Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Juju, cest un mec droit qui a de la retenue Inattendu, il passe derrière dans les voies sans issues Les mauvaises langues disent quil crache dans le dos Sur meetic the winner is son pseudo cest oizo Par contre il déteste Flipper le dauphin Bien que lui aussi navigue dans des bassins Quand il bosse sa combi de latex cest son ange gardien Avec lui pas de train-train il aime lart contemporain Addict aux moules et autres crustacés des fonds marins Il suit une thérapie, Alain Feelgood est son médecin Souvent il à du mal à tisser des liens Parce quil ne dit pas je taime mais plutôt à demain Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Juju</t>
+          <t>La Cour des grands</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Surpris dans la nuit très tôt le matin Quand ma bite me dit Hello, jmappelle Julien Et me raconte sa vie, que son père Émilien Gourdin Était frein à main sur une R21 Il aime les femmes aux jolis sourires, ça cest certain Pour y tirer des obus façon char Paladin Son hobby cest la spéléo, il y plonge tête baissé Avec son walkman branché sur baiser, baiser, baiser Câlin mais indécis, adepte du va-et-viens Il prend la grosse tête à entendre son nom dans un refrain Avec lui pour décoller pas besoin de tremplin Puisque nul en math, il ne sait compter que jusquà hin Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Bien que la nature lai doté dun frein Il nest pas genre lover latin mais plutôt casseur style parpaing Il naime pas les enfants leur préférant Gaëlle Heureusement ce nest jamais lui qui se déguise en père noël Son meilleur amis cest Jean-Ronald ma main Tous les matins ils fonts du sport rien que pour lentretien Lesprit ce nest pas son truc, il a lhumour de Darry Cowl Il est dégouté de ne pas avoir la tête sur les épaules Il aime bien prendre les gens par surprise le matin Avec comme font sonore le chant des marcassins de Chopin Branché sur Myspace ethnique white caucasien Mais quand il dort, je lentends, il rêve dêtre africain Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin Juju, cest un mec droit qui a de la retenue Inattendu, il passe derrière dans les voies sans issues Les mauvaises langues disent quil crache dans le dos Sur meetic the winner is son pseudo cest oizo Par contre il déteste Flipper le dauphin Bien que lui aussi navigue dans des bassins Quand il bosse sa combi de latex cest son ange gardien Avec lui pas de train-train il aime lart contemporain Addict aux moules et autres crustacés des fonds marins Il suit une thérapie, Alain Feelgood est son médecin Souvent il à du mal à tisser des liens Parce quil ne dit pas je taime mais plutôt à demain Julien Dans mon bain il apparaît comme un aileron de requin Julien Il parle à plusieurs langues à la fois et ça ce nest pas commun Julien Yo yo, crétin comme un rappeur il représente pour les siens Julien Si il sappelle Julien, cest quil déteste quon lappelle machin</t>
+          <t>Le vent souffle sur le temps et l'automne balaie l'été Chaque jour levant je bâtis le bonhomme que je n'ai été Dans la cour des grands résonne la nouvelle année scolaire On s'étudie nous-mêmes on n'connaît jamais assez ce qu'on est Un salut à leurs âmes, à tous ces défunts qui meurent Et j'serai si seul pour fêter la Toussaint ce vingt-et-un du neuf Personne ne trompe la tumeur, tu paieras le prix du leurre L'histoire confuse de celui qui l'a conçu et qui tue luf L'amour rend aveugle mais toute la meute se porte lil Je réanime les feuilles mortes je n'écris pas ce que les autres veulent Le peuple souffre trop, le désespoir et l'agonie Qui se maquillent tous les matins comme les soirs d'Halloween Les degrés chutent et tout prend l'allure de la brume De fil en aiguille je prête ma plume aux plus dévêtus Voué au naturel et je vous laisse le vécu d'la rue Je voudrais pas saturer donc mes couplets écoutent les adultes Et j'me sens riche sans être fortuné Comme de renaître dans une chambre mortuaire Le mois d'septembre ne m'inspire que des décors funèbres Les infarctus, les enterrements, et la blessure fut nette Toi tu rêves d'autres choses et je n'en fais pas moins Le treize octobre me rappelle que je n'ai rien d'un parrain Bientôt la fin de l'année, le froid qui froisse la neige Au rythme des saisons je gère ma vie à Liège Yeah Metissa Je verrai des tonnes d'oiseaux migrer avant de prétendre être honorable Je nage dans mes pensées automnales j'essaie d'être fort face au système Le quart de siècle dans les dents je vis et je m'en sors pas mal Je taffe le reste du temps je fréquente le beat et je m'endors la voix Au gré des feuilles qui tombent j'pense à tout ces gens partis trop tôt Paumé j'ai peur puis je fonce sans voir où je vais dans ma vie morose Éternel insatisfait mec j'ai des rêves plein ma petite tête Mais croire en moi c'est pas pensable et je préfère être un gars discret Je laisse les crétins croire qu'ils pèsent dans leur jeunesse ou dans le rap Ils manquent de cur mais pourtant sages ils bé-bégaient plein de balivernes J'ai d'autres chats à fouetter, moi cette saison me rappelle la purge, la dépression Noire est la bulle et choses que je dois pas souhaiter Ma folie m'effrayait grave gros la police séchait mes assocs Pas de soutien c'est la Toussaint et Halloween derrière les barreaux Saloperies de méfaits j'étais ado et je voyais que l'argent facile Je festoyais salement la nuit, je mappauvrissait pété à mort Avec le temps j'ai capté qu'chaque échec me tirait vers l'haut Là j'essaie de renier ce game comme la haine que je pensais larguer Je dévalais la pente j'étais pas préparé à changer T'exagères avec l'argent et l'État t'écarte c'est navrant Mais tu sais qu'à attiser le feu tu risques surtout de prendre ta gifle Moi, plus je cours dans la vie plus je dis que je dois m'appliquer, vieux La fin de l'année se ramène je traîne seul près des charmes de la nature Je m'abstiens de rapper de la merde et je gère les bailles à Namur Eh, Youssef À l'heure d'automne on vit juste nos vies c'est pas une légende Loin des contes de fées Morphée y perd ses bras et ses jambes Des rimes qui tombent comme des feuilles mortes sur l'métronome Du soleil on est a des milliers de kilomètres au nord L'espoir a tout pris dans nos poches, imaginer nos blazes sur des gros titres Quand les gens nous voient rapper tout seul dans le bus comme un autiste Rien à perdre, c'était ce que je m'étais dit à la base Mais, les choses ont bien changés je range mes souvenirs à leur place et J'oublierais pas les heures qu'on a passé à rêver Refaire le monde dans une Clio le poste à fond la fenêtre baissée Alors j'emmerde les gens qui nous serrent la main par intérêt On disait l'avenir est à nous, on nous répondait Dans tes rêves Et cinq saisons plus tard nous voir ici ça les embête Mon rêve un battement d'ailes aujourd'hui voilà la tempête Le papillon a pris des couleurs Ils voulaient nous couper les ailes on est insensible à la douleur Les gens avancent ou reculent on ne sait pas trop Ont la liberté absolue, enfin sauf celle de leur patron On m'a dit n'ouvre pas la porte le vent nous rend visite à coup sûr On f'ra couler l'encre ma plume s'inspire des éclaboussures Le temps passe on m'a dit La roue tournera À l'époque ou je comptais déjà mes mesures en cours de maths Un automne de plus à Tournai, il était pas incroyable J'y ai vécu des choses j'irais en chercher d'autres en voyage Parlez bien de l'automne Hun Scylla L'automne sera bientôt de retour et donc l'inspi aussi, j'ai hâte que ma plume renaisse Elle ressuscite chaque mois d'octobre Lorsque la date approche chaque année qui passe m'offre une nouvelle cure d'jeunesse Mais malgré moi je reste encore homme Je cherche en vain à me connecter à l'ancien bambin qu'j'étais Je le sens plein de piété, peut-être en train de m'épier? Faut pas tant t'inquiéter je suis peut-être en train de rêver Je dois être le seul clampin qui aime fêter la fin de l'été hun Vas-y à la tienne, bois ça, puis rechante moi c't'air triste Lâche toi, vite avant que ça se termine Regarde bien les arbres autour de toi, tu vois la couleur de leurs feuilles? Elle s'imbibent déjà du sang de mes ennemis Ah mais parlez bien de la saison des poètes, l'âme de la bohème La promesse, je crois même qu'elle me protège Où est le problème, accroc d'elle, j'sais pas j'l'ai dans la peau mec Elle change en poésie tout même les plus noires de mes colères Bienvenue au cur de la saison des morts qui déchaîne chez moi le feu, ou les sortes d'esprits moyenâgeux C'est pour ceux et celles qui tout comme moi depuis leur tendre enfance ont toujours été passionné par ce foutu ciel nuageux Quand se fanent les corps là c'est la mort du Moi je Je me regarde mourir à genoux sous le ciel nuageux L'air d'automne laisse comme un arrière goût de phnix Comme d'habitude j'attends la fin du monde posté sur la plus haute tour de BX Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus Alors à quoi bon se mettre à l'abri ou se mettre à la C'est le malheur d'autres hommes à l'heure d'automne que soumettra la brique Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus C'est sous ses branches qu'on pend des des seizes on Sait que c'est à l'heure d'automne qu'ont décédé les saisons</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>La Cour des grands</t>
+          <t>L’amour</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Le vent souffle sur le temps et l'automne balaie l'été Chaque jour levant je bâtis le bonhomme que je n'ai été Dans la cour des grands résonne la nouvelle année scolaire On s'étudie nous-mêmes on n'connaît jamais assez ce qu'on est Un salut à leurs âmes, à tous ces défunts qui meurent Et j'serai si seul pour fêter la Toussaint ce vingt-et-un du neuf Personne ne trompe la tumeur, tu paieras le prix du leurre L'histoire confuse de celui qui l'a conçu et qui tue luf L'amour rend aveugle mais toute la meute se porte lil Je réanime les feuilles mortes je n'écris pas ce que les autres veulent Le peuple souffre trop, le désespoir et l'agonie Qui se maquillent tous les matins comme les soirs d'Halloween Les degrés chutent et tout prend l'allure de la brume De fil en aiguille je prête ma plume aux plus dévêtus Voué au naturel et je vous laisse le vécu d'la rue Je voudrais pas saturer donc mes couplets écoutent les adultes Et j'me sens riche sans être fortuné Comme de renaître dans une chambre mortuaire Le mois d'septembre ne m'inspire que des décors funèbres Les infarctus, les enterrements, et la blessure fut nette Toi tu rêves d'autres choses et je n'en fais pas moins Le treize octobre me rappelle que je n'ai rien d'un parrain Bientôt la fin de l'année, le froid qui froisse la neige Au rythme des saisons je gère ma vie à Liège Yeah Metissa Je verrai des tonnes d'oiseaux migrer avant de prétendre être honorable Je nage dans mes pensées automnales j'essaie d'être fort face au système Le quart de siècle dans les dents je vis et je m'en sors pas mal Je taffe le reste du temps je fréquente le beat et je m'endors la voix Au gré des feuilles qui tombent j'pense à tout ces gens partis trop tôt Paumé j'ai peur puis je fonce sans voir où je vais dans ma vie morose Éternel insatisfait mec j'ai des rêves plein ma petite tête Mais croire en moi c'est pas pensable et je préfère être un gars discret Je laisse les crétins croire qu'ils pèsent dans leur jeunesse ou dans le rap Ils manquent de cur mais pourtant sages ils bé-bégaient plein de balivernes J'ai d'autres chats à fouetter, moi cette saison me rappelle la purge, la dépression Noire est la bulle et choses que je dois pas souhaiter Ma folie m'effrayait grave gros la police séchait mes assocs Pas de soutien c'est la Toussaint et Halloween derrière les barreaux Saloperies de méfaits j'étais ado et je voyais que l'argent facile Je festoyais salement la nuit, je mappauvrissait pété à mort Avec le temps j'ai capté qu'chaque échec me tirait vers l'haut Là j'essaie de renier ce game comme la haine que je pensais larguer Je dévalais la pente j'étais pas préparé à changer T'exagères avec l'argent et l'État t'écarte c'est navrant Mais tu sais qu'à attiser le feu tu risques surtout de prendre ta gifle Moi, plus je cours dans la vie plus je dis que je dois m'appliquer, vieux La fin de l'année se ramène je traîne seul près des charmes de la nature Je m'abstiens de rapper de la merde et je gère les bailles à Namur Eh, Youssef À l'heure d'automne on vit juste nos vies c'est pas une légende Loin des contes de fées Morphée y perd ses bras et ses jambes Des rimes qui tombent comme des feuilles mortes sur l'métronome Du soleil on est a des milliers de kilomètres au nord L'espoir a tout pris dans nos poches, imaginer nos blazes sur des gros titres Quand les gens nous voient rapper tout seul dans le bus comme un autiste Rien à perdre, c'était ce que je m'étais dit à la base Mais, les choses ont bien changés je range mes souvenirs à leur place et J'oublierais pas les heures qu'on a passé à rêver Refaire le monde dans une Clio le poste à fond la fenêtre baissée Alors j'emmerde les gens qui nous serrent la main par intérêt On disait l'avenir est à nous, on nous répondait Dans tes rêves Et cinq saisons plus tard nous voir ici ça les embête Mon rêve un battement d'ailes aujourd'hui voilà la tempête Le papillon a pris des couleurs Ils voulaient nous couper les ailes on est insensible à la douleur Les gens avancent ou reculent on ne sait pas trop Ont la liberté absolue, enfin sauf celle de leur patron On m'a dit n'ouvre pas la porte le vent nous rend visite à coup sûr On f'ra couler l'encre ma plume s'inspire des éclaboussures Le temps passe on m'a dit La roue tournera À l'époque ou je comptais déjà mes mesures en cours de maths Un automne de plus à Tournai, il était pas incroyable J'y ai vécu des choses j'irais en chercher d'autres en voyage Parlez bien de l'automne Hun Scylla L'automne sera bientôt de retour et donc l'inspi aussi, j'ai hâte que ma plume renaisse Elle ressuscite chaque mois d'octobre Lorsque la date approche chaque année qui passe m'offre une nouvelle cure d'jeunesse Mais malgré moi je reste encore homme Je cherche en vain à me connecter à l'ancien bambin qu'j'étais Je le sens plein de piété, peut-être en train de m'épier? Faut pas tant t'inquiéter je suis peut-être en train de rêver Je dois être le seul clampin qui aime fêter la fin de l'été hun Vas-y à la tienne, bois ça, puis rechante moi c't'air triste Lâche toi, vite avant que ça se termine Regarde bien les arbres autour de toi, tu vois la couleur de leurs feuilles? Elle s'imbibent déjà du sang de mes ennemis Ah mais parlez bien de la saison des poètes, l'âme de la bohème La promesse, je crois même qu'elle me protège Où est le problème, accroc d'elle, j'sais pas j'l'ai dans la peau mec Elle change en poésie tout même les plus noires de mes colères Bienvenue au cur de la saison des morts qui déchaîne chez moi le feu, ou les sortes d'esprits moyenâgeux C'est pour ceux et celles qui tout comme moi depuis leur tendre enfance ont toujours été passionné par ce foutu ciel nuageux Quand se fanent les corps là c'est la mort du Moi je Je me regarde mourir à genoux sous le ciel nuageux L'air d'automne laisse comme un arrière goût de phnix Comme d'habitude j'attends la fin du monde posté sur la plus haute tour de BX Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus Alors à quoi bon se mettre à l'abri ou se mettre à la C'est le malheur d'autres hommes à l'heure d'automne que soumettra la brique Il pleut des cordes les buts que j'atteignais sont nuls Dans ces décors où plumes et châtaigniers sont nus C'est sous ses branches qu'on pend des des seizes on Sait que c'est à l'heure d'automne qu'ont décédé les saisons</t>
+          <t>Oh mon amour, nous voilà enfin réunis tous les deux pour ne plus jamais nous quitter Chaque jour que Dieu fait nous ferons l'amour Chaque jour le plaisir nous envahira comme pour la première fois et pour toujours Ouais, parce que chez moi... Sa libido a l'encéphale plat m'a dit l'coroner J'ai donc enterré mes fringales avec mes exploits d'cascadeurs Avant je me souviens les cabrioles c'était l'bon temps Pourtant ça fait déjà longtemps puisque j'payais ma baguette en francs Ma puce depuis que je n'goûte plus ta feuille de lotus Je régresse du sapiens à l'homo erectus Mon sexe n'étant plus qu'un symbole Pour éviter la camisole, je chantonne ou je t'immole Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! 69 ne représente plus qu'un chaîne sur Canal Sat Tes gémissements sont remplacés par l'générique de Thalassa Si le désir est un diamant, toi il était en toc C'est soudainement qu'ça m'est tombé dessus comme le revival du rock J't'en supplie, pour un câlin je suis même prêt à faire de l'RB Oxmo l'cactus de Sibérie il est dans mon lit Plutôt que d'se taper un travelo entre deux fougères Au lieu d't'arracher la chair, je préfère gueuler cet air Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Errant dans le désert conjugal transformé en Touareg Les seules meufs que j'me tape se terminent en .jpeg C'est l'anorexie sexuelle même quand j'fais l'paon J'ai dans les balloches de quoi repeupler tout un continent La frustration me rend bizarre, fou peut-être Jusqu'à penser t'faire mal avec un gode à urètre Mais qu'est-ce qui m'retient de n'pas t'ouvrir le corps Ah oui, mon psy m'a dit en cas d'crise de chanter encore Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Terroriste, puisque j'glisse vers l'attentat à la pudeur Je rêve de seins, d'entrecuisse et je m'réveille en sueur Ma belle, mon hirondelle, crois-moi j'ai des séquelles Et j'crains l'pire pour la rondelle de ton putain de teckel Les souvenirs passés font tomber mes larmes de petit garçon T'as déjà essayé d'rallumer une flamme sur un tas d'glaçons Demain j'dors en prison pour viol aggravé avec ustensile Mes codétenus m'attendront en chantant cet air débile Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux!</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>La Femme de Fer</t>
+          <t>Lapin Carnivore</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Étienne, dégrisé par les gifles de Catherine, était resté à la tête des camarades. Mais, pendant quil les jetait sur Montsou, dune voix enrouée, il entendait une autre voix en lui, une voix de raison qui sétonnait, qui demandait pourquoi tout cela. Il navait rien voulu de ces choses, comment pouvait-il se faire que, parti pour Jean-Bart dans le but dagir froidement et dempêcher un désastre, il achevât la journée, de violence en violence, par assiéger lhôtel du directeur ? Cétait bien lui cependant qui venait de crier halte ! Seulement, il navait dabord eu que lidée de protéger les Chantiers de la Compagnie, où lon parlait daller tout saccager. Et, maintenant que des pierres éraflaient déjà la façade de lhôtel, il cherchait, sans la trouver, sur quelle proie légitime il devait lancer la bande, afin déviter de plus grands malheurs. Comme il demeurait seul ainsi, impuissant au milieu de la route, quelquun lappela, un homme debout sur le seuil de lestaminet Tison, dont la cabaretière sétait hâtée de mettre les volets, en ne laissant libre que la porte. - Oui, cest moi Écoute donc. Cétait Rasseneur. Une trentaine dhommes et de femmes presque tous du coron des Deux-Cent-Quarante, restés chez eux le matin et venus le soir aux nouvelles, avaient envahi cet estaminet, à lapproche des grévistes. Zacharie occupait une table avec sa femme Philomène. Plus loin, Pierron et la Pierronne, tournant le dos, se cachaient le visage. Dailleurs, personne ne buvait, on sétait abrité, simplement. Étienne reconnut Rasseneur, et il sécartait, lorsque celui-ci ajouta - Ma vue te gêne, nest-ce pas ? Je tavais prévenu, les embêtements commencent. Maintenant, vous pouvez réclamer du pain, cest du plomb quon vous donnera. Alors, il revint, il répondit - Ce qui me gêne, ce sont les lâches qui, les bras croisés, nous regardent risquer notre peau. - Ton idée est donc de piller en face ? demanda Rasseneur. - Mon idée est de rester jusquau bout avec les amis, quittes à crever tous ensemble. Désespéré, Étienne rentra dans la foule, prêt à mourir. Sur la route, trois enfants lançaient des pierres, et il leur allongea un grand coup de pied, en criant, pour arrêter les camarades, que ça navançait à rien de casser des vitres. Bébert et Lydie, qui venaient de rejoindre Jeanlin, apprenaient de ce dernier à manier sa fronde. Ils lançaient chacun un caillou, jouant à qui ferait le plus gros dégât. Lydie, par un coup de maladresse, avait fêlé la tête dune femme, dans la cohue et les deux garçons se tenaient les côtes. Derrière eux, Bonnemort et Mouque, assis sur un banc, les regardaient. Les jambes enflées de Bonnemort le portaient si mal, quil avait eu grandpeine à se traîner jusque-là, sans quon sût quelle curiosité le poussait, car il avait son visage terreux des jours où lon ne pouvait lui tirer une parole. Personne, du reste, nobéissait plus à Étienne. Les pierres, malgré ses ordres, continuaient à grêler, et il sétonnait, il seffarait devant ces brutes démuselées par lui, si lentes à sémouvoir, terribles ensuite, dune ténacité féroce dans la colère. Tout le vieux sang flamand était là, lourd et placide, mettant des mois à séchauffer, se jetant aux sauvageries abominables, sans rien entendre, jusquà ce que la bête fût soûle datrocités. Dans son midi, les foules flambaient plus vite, seulement elles faisaient moins de besogne. Il dut se battre avec Levaque pour lui arracher sa hache, il en était à ne savoir comment contenir les Maheu, qui lançaient les cailloux des deux mains. Et les femmes surtout leffrayaient, la Levaque, la Mouquette et les autres, agitées dune fureur meurtrière, les dents et les ongles dehors, aboyantes comme des chiennes, sous les excitations de la Brûlé, qui les dominait de sa taille maigre. Mais il y eut un brusque arrêt, la surprise dune minute déterminait un peu du calme que les supplications dÉtienne ne pouvaient obtenir. Cétaient simplement les Grégoire qui se décidaient à prendre congé du notaire, pour se rendre en face, chez le directeur et ils semblaient si paisibles, ils avaient si bien lair de croire à une pure plaisanterie de la part de leurs braves mineurs, dont la résignation les nourrissait depuis un siècle, que ceux-ci, étonnés, avaient en effet cessé de jeter des pierres, de peur datteindre ce vieux monsieur et cette vieille dame, tombés du ciel. Ils les laissèrent entrer dans le jardin, monter le perron, sonner à la porte barricadée, quon ne se pressait pas de leur ouvrir. Justement, la femme de chambre, Rose, rentrait de sa sortie, en riant aux ouvriers furieux, quelle connaissait tous, car elle était de Montsou. Et ce fut elle qui, à coups de poing dans la porte, finit par forcer Hippolyte à lentrebâiller. Il était temps, les Grégoire disparaissaient, lorsque la grêle des pierres recommença. Revenue de son étonnement, la foule clamait plus fort - À mort les bourgeois ! vive la sociale ! Rose continuait à rire, dans le vestibule de lhôtel, comme égayée de laventure, répétant au domestique terrifié - Ils ne sont pas méchants, je les connais. M. Grégoire accrocha méthodiquement son chapeau. Puis, lorsquil eut aidé madame Grégoire à retirer sa mante de gros drap, il dit à son tour - Sans doute, ils nont pas de malice au fond. Lorsquils auront bien crié, ils iront souper avec plus dappétit. À ce moment, M. Hennebeau descendait du second étage. Il avait vu la scène, et il venait recevoir ses invités, de son air habituel, froid et poli. Seule, la pâleur de son visage disait les larmes qui lavaient secoué. Lhomme était dompté, il ne restait en lui que ladministrateur correct, résolu à remplir son devoir. - Vous savez, dit-il, que ces dames ne sont pas rentrées encore. Pour la première fois, une inquiétude émotionna les Grégoire. Cécile pas rentrée ! comment rentrerait-elle, si la plaisanterie de ces mineurs se prolongeait ? - Jai songé à faire dégager la maison, ajouta M. Hennebeau. Le malheur est que je suis seul ici, et que je ne sais dailleurs où envoyer mon domestique, pour me ramener quatre hommes et un caporal, qui me nettoieraient cette canaille. Rose, demeurée là, osa murmurer de nouveau - Oh ! monsieur, ils ne sont pas méchants. Le directeur hocha la tête, pendant que le tumulte croissait au-dehors et quon entendait le sourd écrasement des pierres contre la façade. - Je ne leur en veux pas, je les excuse même, il faut être bêtes comme eux pour croire que nous nous acharnons à leur malheur. Seulement, je réponds de la tranquillité Dire quil y a des gendarmes par les routes, à ce quon maffirme, et que, depuis ce matin, je nai pu en avoir un seul ! Il sinterrompit, il seffaça devant madame Grégoire, en disant - Je vous en prie, madame, ne restez pas là, entrez dans le salon. Mais la cuisinière, qui montait du sous-sol, exaspérée, les retint dans le vestibule quelques minutes encore. Elle déclara quelle nacceptait plus la responsabilité du dîner, car elle attendait, de chez le pâtissier de Marchiennes, des croûtes de vol-au-vent, quelle avait demandées pour quatre heures. Évidemment, le pâtissier sétait égaré en chemin, pris de la peur de ces bandits. Peut-être même avait-on pillé ses mannes. Elle voyait les vol-au-vent bloqués derrière un buisson, assiégés, gonflant les ventres des trois mille misérables qui demandaient du pain. En tout cas, monsieur était prévenu, elle préférait flanquer son dîner au feu, si elle le ratait, à cause de la révolution. - Un peu de patience, dit M. Hennebeau. Rien nest perdu, le pâtissier peut venir. Et, comme il se retournait vers madame Grégoire, en ouvrant lui-même la porte du salon, il fut très surpris dapercevoir, assis sur la banquette du vestibule, un homme quil navait pas distingué jusque-là, dans lombre croissante. - Tiens ! cest vous, Maigrat, quy a-t-il donc ? Maigrat sétait levé, et son visage apparut, gras et blême, décomposé par lépouvante. Il navait plus sa carrure de gros homme calme, il expliqua humblement quil sétait glissé chez monsieur le directeur, pour réclamer aide et protection, si les brigands sattaquaient à son magasin. - Vous voyez que je suis menacé moi-même et que je nai personne, répondit M. Hennebeau. Vous auriez mieux fait de rester chez vous, à garder vos marchandises. - Oh ! jai mis les barres de fer, puis jai laissé ma femme. Le directeur simpatienta, sans cacher son mépris. Une belle garde, que cette créature chétive, maigrie de coups ! - Enfin, je ny peux rien, tâchez de vous défendre. Et je vous conseille de rentrer tout de suite, car les voilà qui demandent encore du pain Écoutez En effet, le tumulte reprenait, et Maigrat crut entendre son nom, au milieu des cris. Rentrer, ce nétait plus possible, on laurait écharpé. Dautre part, lidée de sa ruine le bouleversait. Il colla son visage au panneau vitré de la porte, suant, tremblant, guettant le désastre tandis que les Grégoire se décidaient à passer dans le salon. Tranquillement, M. Hennebeau affectait de faire les honneurs de chez lui. Mais il priait en vain ses invités de sasseoir, la pièce close, barricadée, éclairée de deux lampes avant la tombée du jour, semplissait deffroi, à chaque nouvelle clameur du dehors. Dans létouffement des tentures, la colère de la foule ronflait, plus inquiétante, dune menace vague et terrible. On causa pourtant, sans cesse ramené à cette inconcevable révolte. Lui, sétonnait de navoir rien prévu et sa police était si mal faite, quil semportait surtout contre Rasseneur, dont il disait reconnaître linfluence détestable. Du reste, les gendarmes allaient venir, il était impossible quon labandonnât de la sorte. Quant aux Grégoire, ils ne pensaient quà leur fille la pauvre chérie qui seffrayait si vite ! peut-être, devant le péril, la voiture était-elle retournée à Marchiennes. Pendant un quart dheure encore, lattente dura, énervée par le vacarme de la route, par le bruit des pierres tapant de temps à autre dans les volets fermés, qui sonnaient ainsi que des tambours. Cette situation nétait plus tolérable, M. Hennebeau parlait de sortir, de chasser à lui seul les braillards et daller au-devant de la voiture, lorsque Hippolyte parut en criant - Monsieur ! monsieur ! voici madame, on tue madame ! La voiture nayant pu dépasser la ruelle de Réquillart, au milieu des groupes menaçants, Négrel avait suivi son idée, faire à pied les cent mètres qui les séparaient de lhôtel, puis frapper à la petite porte donnant sur le jardin, près des communs le jardinier les entendrait, il y aurait bien toujours là quelquun pour ouvrir. Et, dabord, les choses avaient marché parfaitement, déjà madame Hennebeau et ces demoiselles frappaient, lorsque des femmes, prévenues, se jetèrent dans la ruelle. Alors, tout se gâta. On nouvrait pas la porte, Négrel avait tâché vainement de lenfoncer à coups dépaule. Le flot des femmes croissait, il craignit dêtre débordé, il prit le parti désespéré de pousser devant lui sa tante et les jeunes filles, pour gagner le perron, au travers des assiégeants. Mais cette manuvre amena une bousculade on ne les lâchait pas, une bande hurlante les traquait, tandis que la foule refluait de droite et de gauche, sans comprendre encore, étonnée seulement de ces dames en toilette, perdues dans la bataille. À cette minute, la confusion devint telle, quil se produisit un de ces faits daffolement qui restent inexplicables. Lucie et Jeanne, arrivées au perron, sétaient glissées par la porte que la femme de chambre entrebâillait madame Hennebeau avait réussi à les suivre et, derrière elles, Négrel entra enfin, remit les verrous, persuadé quil avait vu Cécile passer la première. Elle nétait plus là, disparue en route, emportée par une telle peur, quelle avait tourné le dos à la maison, et sétait jetée delle-même en plein danger. Aussitôt, le cri séleva - Vive la sociale ! à mort les bourgeois ! à mort ! Quelques-uns, de loin, sous la voilette qui lui cachait le visage, la prenaient pour madame Hennebeau. Dautres nommaient une amie de la directrice, la jeune femme dun usinier voisin, exécré de ses ouvriers. Et, dailleurs, peu importait, cétaient sa robe de soie, son manteau de fourrure, jusquà la plume blanche de son chapeau, qui exaspéraient. Elle sentait le parfum, elle avait une montre, elle avait une peau fine de fainéante qui ne touchait pas au charbon. - Attends ! cria la Brûlé, on va ten mettre au cul, de la dentelle ! - Cest à nous que ces salopes volent ça, reprit la Levaque. Elles se collent du poil sur la peau, lorsque nous crevons de froid Foutez-moi-la donc toute nue, pour lui apprendre à vivre ! Du coup, la Mouquette sélança. - Oui, oui, faut la fouetter. Et les femmes, dans cette rivalité sauvage, sétouffaient, allongeaient leurs guenilles, voulaient chacune un morceau de cette fille de riche. Sans doute quelle navait pas le derrière mieux fait quune autre. Plus dune même était pourrie, sous ses fanfreluches. Voilà assez longtemps que linjustice durait, on les forcerait bien toutes à shabiller comme des ouvrières, ces catins qui osaient dépenser cinquante sous pour le blanchissage dun jupon ! Au milieu de ces furies, Cécile grelottait, les jambes paralysées, bégayant à vingt reprises la même phrase - Mesdames, je vous en prie, mesdames, ne me faites pas du mal. Mais elle eut un cri rauque des mains froides venaient de la prendre au cou. Cétait le vieux Bonnemort, près duquel le flot lavait poussée, et qui lempoignait. Il semblait ivre de faim, hébété par sa longue misère, sorti brusquement de sa résignation dun demi-siècle, sans quil fût possible de savoir sous quelle poussée de rancune. Après avoir, en sa vie, sauvé de la mort une douzaine de camarades, risquant ses os dans le grisou et dans les éboulements, il cédait à des choses quil naurait pu dire, à un besoin de faire ça, à la fascination de ce cou blanc de jeune fille. Et, comme ce jour-là il avait perdu sa langue, il serrait les doigts, de son air de vieille bête infirme, en train de ruminer des souvenirs. - Non ! Non ! hurlaient les femmes, le cul à lair ! le cul à lair ! Dans lhôtel, dès quon sétait aperçu de laventure, Négrel et M. Hennebeau avaient rouvert la porte, bravement, pour courir au secours de Cécile. Mais la foule, maintenant, se jetait contre la grille du jardin, et il nétait plus facile de sortir. Une lutte sengageait là, pendant que les Grégoire, épouvantés, apparaissaient sur le perron. - Laissez-la donc, vieux ! cest la demoiselle de la Piolaine ! cria la Maheude au grand-père, en reconnaissant Cécile, dont une femme avait déchiré la voilette. De son côté, Étienne, bouleversé de ces représailles contre une enfant, sefforçait de faire lâcher prise à la bande. Il eut une inspiration, il brandit la hache quil avait arrachée des poings de Levaque. - Chez Maigrat, nom de Dieu ! Il y a du pain, là-dedans ! Foutons la baraque à Maigrat par terre ! Et, à la volée, il donna un premier coup de hache dans la porte de la boutique. Des camarades lavaient suivi, Levaque, Maheu et quelques autres. Mais les femmes sacharnaient, Cécile était retombée des doigts de Bonnemort dans les mains de la Brûlé. À quatre pattes, Lydie et Bébert, conduits par Jeanlin, se glissaient entre les jupes, pour voir le derrière de la dame. Déjà, on la tiraillait, ses vêtements craquaient, lorsquun homme à cheval parut, poussant sa bête, cravachant ceux qui ne se rangeaient pas assez vite. - Ah ! canailles, vous en êtes à fouetter nos filles ! Cétait Deneulin qui arrivait au rendez-vous, pour le dîner. Vivement, il sauta sur la route, prit Cécile par la taille et, de lautre main, manuvrant le cheval avec une adresse et une force extraordinaires, il sen servait comme dun coin vivant, fendait la foule, qui reculait devant les ruades. À la grille, la bataille continuait. Pourtant, il passa, écrasa des membres. Ce secours imprévu délivra Négrel et M. Hennebeau, en grand danger, au milieu des jurons et des coups. Et, tandis que le jeune homme rentrait enfin avec Cécile évanouie, Deneulin, qui couvrait le directeur de son grand corps, en haut du perron, reçut une pierre, dont le choc faillit lui démonter lépaule. - Cest ça, cria-t-il, cassez-moi les os, après avoir cassé mes machines ! Il repoussa promptement la porte. Une bordée de cailloux sabattit dans le bois. - Quels enragés ! reprit-il. Deux secondes de plus, et ils me crevaient le crâne comme une courge vide On na rien à leur dire, que voulez-vous ? Ils ne savent plus, il ny a quà les assommer. Dans le salon, les Grégoire pleuraient, en voyant Cécile revenir à elle. Elle navait aucun mal, pas même une égratignure sa voilette seule était perdue. Mais leur effarement augmenta, lorsquils reconnurent devant eux leur cuisinière, Mélanie, qui contait comment la bande avait démoli la Piolaine. Folle de peur, elle accourait avertir ses maîtres. Elle était entrée, elle aussi, par la porte entrebâillée, au moment de la bagarre, sans que personne la remarquât et, dans son récit interminable, lunique pierre de Jeanlin qui avait brisé une seule vitre devenait une canonnade en règle, dont les murs restaient fendus. Alors, les idées de M. Grégoire furent bouleversées on égorgeait sa fille, on rasait sa maison, cétait donc vrai que ces mineurs pouvaient lui en vouloir, parce quil vivait en brave homme de leur travail ? La femme de chambre, qui avait apporté une serviette et de leau de Cologne, répéta - Tout de même, cest drôle, ils ne sont pas méchants. Madame Hennebeau, assise, très pâle, ne se remettait pas de la secousse de son émotion et elle retrouva seulement un sourire, lorsquon félicita Négrel. Les parents de Cécile remerciaient surtout le jeune homme, cétait maintenant un mariage conclu. M. Hennebeau regardait en silence, allait de sa femme à cet amant quil jurait de tuer le matin, puis à cette jeune fille qui len débarrasserait bientôt sans doute. Il navait aucune hâte, une seule peur lui restait, celle de voir sa femme tomber plus bas, à quelque laquais peut-être. - Et vous, mes petites chéries, demanda Deneulin à ses filles, on ne vous a rien cassé ? Lucie et Jeanne avaient eu bien peur, mais elles étaient contentes davoir vu ça. Elles riaient à présent. - Sapristi ! continua le père, voilà une bonne journée ! Si vous voulez une dot, vous ferez bien de la gagner vous-mêmes et attendez-vous encore à être forcées de me nourrir. Il plaisantait, la voix tremblante. Ses yeux se gonflèrent, quand ses deux filles se jetèrent dans ses bras. M. Hennebeau avait écouté cet aveu de ruine. Une pensée vive éclaira son visage. En effet, Vandame allait être à Montsou, cétait la compensation espérée, le coup de fortune qui le remettrait en faveur, près de ces messieurs de la Régie. À chaque désastre de son existence, il se réfugiait dans la stricte exécution des ordres reçus, il faisait de la discipline militaire où il vivait, sa part réduite de bonheur. Mais on se calmait, le salon tombait à une paix lasse, avec la lumière tranquille des deux lampes et le tiède étouffement des portières. Que se passait-il donc, dehors ? Les braillards se taisaient, des pierres ne battaient plus la façade et lon entendait seulement de grands coups sourds, ces coups de cognée qui sonnent au lointain des bois. On voulut savoir, on retourna dans le vestibule risquer un regard par le panneau vitré de la porte. Même ces dames et ces demoiselles montèrent se poster derrière les persiennes du premier étage. - Voyez-vous ce gredin de Rasseneur, en face, sur le seuil de ce cabaret ? dit M. Hennebeau à Deneulin. Je lavais flairé, il faut quil en soit. Pourtant, ce nétait pas Rasseneur, cétait Étienne qui enfonçait à coups de hache le magasin de Maigrat. Et il appelait toujours les camarades est-ce que les marchandises, là-dedans, nappartenaient pas aux charbonniers ? est-ce quils navaient pas le droit de reprendre leur bien à ce voleur qui les exploitait depuis si longtemps, qui les affamait sur un mot de la Compagnie ? Peu à peu, tous lâchaient lhôtel du directeur, accouraient au pillage de la boutique voisine. Le cri du pain ! du pain ! du pain ! grondait de nouveau. On en trouverait, du pain, derrière cette porte. Une rage de faim les soulevait, comme si, brusquement, ils ne pouvaient attendre davantage, sans expirer sur cette route. De telles poussées se ruaient dans la porte, quÉtienne craignait de blesser quelquun, à chaque volée de la hache. Cependant, Maigrat, qui avait quitté le vestibule de lhôtel, sétait dabord réfugié dans la cuisine mais il ny entendait rien, il y rêvait des attentats abominables contre sa boutique et il venait de remonter pour se cacher derrière la pompe, dehors, lorsquil distingua nettement les craquements de la porte, les vociférations de pillage, où se mêlait son nom. Ce nétait donc pas un cauchemar sil ne voyait pas, il entendait maintenant, il suivait lattaque, les oreilles bourdonnantes. Chaque coup de cognée lui entrait en plein cur. Un gond avait dû sauter, encore cinq minutes, et la boutique était prise. Cela se peignait dans son crâne en images réelles, effrayantes, les brigands qui se ruaient, puis les tiroirs forcés, les sacs éventrés, tout mangé, tout bu, la maison elle-même emportée, plus rien, pas même un bâton pour aller mendier au travers des villages. Non, il ne leur permettrait pas dachever sa ruine, il préférait y laisser la peau. Depuis quil était là, il apercevait à une fenêtre de sa maison, sur la façade en retour, la chétive silhouette de sa femme, pâle et brouillée derrière les vitres sans doute elle regardait arriver les coups, de son air muet de pauvre être battu. Au-dessous, il y avait un hangar, placé de telle sorte, que, du jardin de lhôtel, on pouvait y monter en grimpant au treillage du mur mitoyen puis, de là, il était facile de ramper sur les tuiles, jusquà la fenêtre. Et lidée de rentrer ainsi chez lui le torturait à présent, dans son remords den être sorti. Peut-être aurait-il le temps de barricader le magasin avec des meubles même il inventait dautres défenses héroïques, de lhuile bouillante, du pétrole enflammé, versé den haut. Mais cet amour de ses marchandises luttait contre sa peur, il râlait de lâcheté combattue. Tout dun coup, il se décida, à un retentissement plus profond de la hache. Lavarice lemportait, lui et sa femme couvriraient les sacs de leur corps, plutôt que dabandonner un pain. Des huées, presque aussitôt, éclatèrent. - Regardez ! regardez ! Le matou est là-haut ! au chat ! au chat ! La bande venait dapercevoir Maigrat, sur la toiture du hangar. Dans sa fièvre, malgré sa lourdeur, il avait monté au treillage avec agilité, sans se soucier des bois qui cassaient et, maintenant, il saplatissait le long des tuiles, il sefforçait datteindre la fenêtre. Mais la pente se trouvait très raide, il était gêné par son ventre, ses ongles sarrachaient. Pourtant, il se serait traîné jusquen haut, sil ne sétait mis à trembler, dans la crainte de recevoir des pierres car la foule, quil ne voyait plus, continuait à crier, sous lui - Au chat ! au chat ! Faut le démolir ! Et, brusquement, ses deux mains lâchèrent à la fois, il roula comme une boule, sursauta à la gouttière, tomba en travers du mur mitoyen, si malheureusement, quil rebondit du côté de la route, où il souvrit le crâne, à langle dune borne. La cervelle avait jailli. Il était mort. Sa femme, en haut, pâle et brouillée derrière les vitres, regardait toujours. Dabord, ce fut une stupeur. Étienne sétait arrêté, la hache glissée des poings. Maheu, Levaque, tous les autres, oubliaient la boutique, les yeux tournés vers le mur, où coulait lentement un mince filet rouge. Et les cris avaient cessé, un silence sélargissait dans lombre croissante. Tout de suite, les huées recommencèrent. Cétaient les femmes qui se précipitaient, prises de livresse du sang. - Il y a donc un bon Dieu ! Ah ! cochon, cest fini ! Elles entouraient le cadavre encore chaud, elles linsultaient avec des rires, traitant de sale gueule sa tête fracassée, hurlant à la face de la mort la longue rancune de leur vie sans pain. - Je te devais soixante francs, te voilà payé, voleur ! dit la Maheude, enragée parmi les autres. Tu ne me refuseras plus crédit Attends ! attends ! il faut que je tengraisse encore. De ses dix doigts, elle grattait la terre, elle en prit deux poignées, dont elle lui emplit la bouche, violemment. - Tiens ! mange donc ! Tiens ! mange, mange, toi qui nous mangeais ! Les injures redoublèrent, pendant que le mort, étendu sur le dos, regardait, immobile, de ses grands yeux fixes, le ciel immense doù tombait la nuit. Cette terre, tassée dans sa bouche, cétait le pain quil avait refusé. Et il ne mangerait plus que de ce pain-là, maintenant. Ça ne lui avait guère porté bonheur, daffamer le pauvre monde. Mais les femmes avaient à tirer de lui dautres vengeances. Elles tournaient en le flairant, pareilles à des louves. Toutes cherchaient un outrage, une sauvagerie qui les soulageât. On entendit la voix aigre de la Brûlé. - Faut le couper comme un matou ! - Oui, oui ! au chat ! au chat ! Il en a trop fait, le salaud ! Déjà, la Mouquette le déculottait, tirait le pantalon, tandis que la Levaque soulevait les jambes. Et la Brûlé, de ses mains sèches de vieille, écarta les cuisses nues, empoigna cette virilité morte. Elle tenait tout, arrachant, dans un effort qui tendait sa maigre échine et faisait craquer ses grands bras. Les peaux molles résistaient, elle dut sy reprendre, elle finit par emporter le lambeau, un paquet de chair velue et sanglante, quelle agita, avec un rire de triomphe - Je lai ! je lai ! Des voix aiguës saluèrent dimprécations labominable trophée. - Ah ! bougre, tu nempliras plus nos filles ! - Oui, cest fini de te payer sur la bête, nous ny passerons plus toutes, à tendre le derrière pour avoir un pain. - Tiens ! je te dois six francs, veux-tu prendre un acompte ? moi, je veux bien, si tu peux encore ! Cette plaisanterie les secoua dune gaieté terrible. Elles se montraient le lambeau sanglant, comme une bête mauvaise, dont chacune avait eu à souffrir, et quelles venaient décraser enfin, quelles voyaient là, inerte, en leur pouvoir. Elles crachaient dessus, elles avançaient leurs mâchoires, en répétant, dans un furieux éclat de mépris - Il ne peut plus ! il ne peut plus ! Ce nest plus un homme quon va foutre dans la terre Va donc pourrir, bon à rien ! La Brûlé, alors, planta tout le paquet au bout de son bâton et, le portant en lair, le promenant ainsi quun drapeau, elle se lança sur la route, suivie de la débandade hurlante des femmes. Des gouttes de sang pleuvaient, cette chair lamentable pendait, comme un déchet de viande à létal dun boucher. En haut, à la fenêtre, madame Maigrat ne bougeait toujours pas mais, sous la dernière lueur du couchant, les défauts brouillés des vitres déformaient sa face blanche, qui semblait rire. Battue, trahie à chaque heure, les épaules pliées du matin au soir sur un registre, peut-être riait-elle, quand la bande des femmes galopa, avec la bête mauvaise, la bête écrasée, au bout dun bâton. Cette mutilation affreuse sétait accomplie dans une horreur glacée. Ni Étienne, ni Maheu, ni les autres navaient eu le temps dintervenir ils restaient immobiles, devant ce galop de furies. Sur la porte de lestaminet Tison, des têtes se montraient, Rasseneur blême de révolte, et Zacharie, et Philomène, stupéfiés davoir vu. Les deux vieux, Bonnemort et Mouque, très graves, hochaient la tête. Seul, Jeanlin rigolait, poussait du coude Bébert, forçait Lydie à lever le nez. Mais les femmes revenaient déjà, tournant sur elles-mêmes, passant sous les fenêtres de la Direction. Et, derrière les persiennes, ces dames et ces demoiselles allongeaient le cou. Elles navaient pu apercevoir la scène, cachée par le mur, elles distinguaient mal, dans la nuit devenue noire. - Quont-elles donc au bout de ce bâton ? demanda Cécile, qui sétait enhardie jusquà regarder. Lucie et Jeanne déclarèrent que ce devait être une peau de lapin. - Non, non, murmura madame Hennebeau, ils auront pillé la charcuterie, on dirait un débris de porc. À ce moment, elle tressaillit et elle se tut. Madame Grégoire lui avait donné un coup de genou. Toutes deux restèrent béantes. Ces demoiselles, très pâles, ne questionnaient plus, suivaient de leurs grands yeux cette vision rouge, au fond des ténèbres. Étienne de nouveau brandit la hache. Mais le malaise ne se dissipait pas, ce cadavre à présent barrait la route et protégeait la boutique. Beaucoup avaient reculé. Cétait comme un assouvissement qui les apaisait tous. Maheu demeurait sombre, lorsquil entendit une voix lui dire à loreille de se sauver. Il se retourna, il reconnut Catherine, toujours dans son vieux paletot dhomme, noire, haletante. Dun geste, il la repoussa. Il ne voulait pas lécouter, il menaçait de la battre. Alors, elle eut un geste de désespoir, elle hésita, puis courut vers Étienne. - Sauve-toi, sauve-toi, voilà les gendarmes ! Lui aussi la chassait, linjuriait, en sentant remonter à ses joues le sang des gifles quil avait reçues. Mais elle ne se rebutait pas, elle lobligeait à jeter la hache, elle lentraînait par les deux bras, avec une force irrésistible. - Quand je te dis que voilà les gendarmes ! Écoute-moi donc. Cest Chaval qui est allé les chercher et qui les amène, si tu veux savoir. Moi, ça ma dégoûtée, je suis venue Sauve-toi, je ne veux pas quon te prenne. Et Catherine lemmena, à linstant où un lourd galop ébranlait au loin le pavé. Tout de suite, un cri éclata Les gendarmes ! les gendarmes ! Ce fut une débâcle, un sauve-qui-peut si éperdu, quen deux minutes la route se trouva libre, absolument nette, comme balayée par un ouragan. Le cadavre de Maigrat faisait seul une tache dombre sur la terre blanche. Devant lestaminet Tison, il nétait resté que Rasseneur, qui, soulagé, la face ouverte, applaudissait à la facile victoire des sabres tandis que, dans Montsou désert, éteint, dans le silence des façades closes, les bourgeois, la sueur à la peau, nosant risquer un il, claquaient des dents. La plaine se noyait sous lépaisse nuit, il ny avait plus que les hauts fourneaux et les fours à coke incendiés au fond du ciel tragique. Pesamment, le galop des gendarmes approchait, ils débouchèrent sans quon les distinguât, en une masse sombre. Et, derrière eux, confiée à leur garde, la voiture du pâtissier de Marchiennes arrivait enfin, une carriole doù sauta un marmiton, qui se mit dun air tranquille à déballer les croûtes des vol-au-vent.</t>
+          <t>Ma bouche est lissée d'incisives joliment aiguisées Qui sait qui de toi ou de moi est le plus déguisé Imposteur, ta posture de vie est cariée En réponse contre nature je suis devenu carnassier Puisque tu as détaché mes liens d'aliéné Je vais te digérer pour mieux te recracher J'suis pourtant putréfié à l'ADN déformé Mais tu vas caresser ma fourrure en verre pilé Mutilé par l'altitude, prêt à dévorer les rois Jouant de la servitude pour approcher mes proies Avec une douce mâchoire affutée comme une disqueuse Les yeux d'où s'échappent une poésie visqueuse C'est sans jurons que mes crocs ont l'amour cruel Prompt à pratiquer l'adorable trachéo manuelle J'aurais pu devenir un jeune cadre qui s'ennuie Mais maintenant c'est trop tard je suis... Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel Premier spécimen de la nouvelle espèce Pestiférée qui dépèce avec politesse Toutes tes croyances je les mets en pièce Pendu à ta jugulaire, cramponné comme un herpès Oh! Tu as mal au cou, ça te blesse Que ce soit à mon tour de tirer sur ta laisse Docilement, mes ancêtres vous ont nourris C'est sur le champ que tu en paies le prix N'espère pas clémence, tu fais partie de mon festin Dès lors le moindre lapin vous arrachera les mains Pas de bimbo ni de fortune pour la roue du destin Les victimes d'hier deviennent les monstres de demain Dans mon dédale je rime, moi le cannibale Sans déprime qui déballe ses crimes Comme une hyène au régime Sous une pluie qui bruisse, le bruit J'en suis le fruit des principes s'enfuient Juste, je suis... x2 Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L’amour</t>
+          <t>Le hip hop c’est mon pote</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oh mon amour, nous voilà enfin réunis tous les deux pour ne plus jamais nous quitter Chaque jour que Dieu fait nous ferons l'amour Chaque jour le plaisir nous envahira comme pour la première fois et pour toujours Ouais, parce que chez moi... Sa libido a l'encéphale plat m'a dit l'coroner J'ai donc enterré mes fringales avec mes exploits d'cascadeurs Avant je me souviens les cabrioles c'était l'bon temps Pourtant ça fait déjà longtemps puisque j'payais ma baguette en francs Ma puce depuis que je n'goûte plus ta feuille de lotus Je régresse du sapiens à l'homo erectus Mon sexe n'étant plus qu'un symbole Pour éviter la camisole, je chantonne ou je t'immole Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! 69 ne représente plus qu'un chaîne sur Canal Sat Tes gémissements sont remplacés par l'générique de Thalassa Si le désir est un diamant, toi il était en toc C'est soudainement qu'ça m'est tombé dessus comme le revival du rock J't'en supplie, pour un câlin je suis même prêt à faire de l'RB Oxmo l'cactus de Sibérie il est dans mon lit Plutôt que d'se taper un travelo entre deux fougères Au lieu d't'arracher la chair, je préfère gueuler cet air Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Errant dans le désert conjugal transformé en Touareg Les seules meufs que j'me tape se terminent en .jpeg C'est l'anorexie sexuelle même quand j'fais l'paon J'ai dans les balloches de quoi repeupler tout un continent La frustration me rend bizarre, fou peut-être Jusqu'à penser t'faire mal avec un gode à urètre Mais qu'est-ce qui m'retient de n'pas t'ouvrir le corps Ah oui, mon psy m'a dit en cas d'crise de chanter encore Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux! Terroriste, puisque j'glisse vers l'attentat à la pudeur Je rêve de seins, d'entrecuisse et je m'réveille en sueur Ma belle, mon hirondelle, crois-moi j'ai des séquelles Et j'crains l'pire pour la rondelle de ton putain de teckel Les souvenirs passés font tomber mes larmes de petit garçon T'as déjà essayé d'rallumer une flamme sur un tas d'glaçons Demain j'dors en prison pour viol aggravé avec ustensile Mes codétenus m'attendront en chantant cet air débile Oh oh oh! Oh oh oh! Oh oh oh! L'amour c'est mieux quand c'est à deux!</t>
+          <t>-Bonjour professeur Chandra, ici Hal. Je suis prêt pour mon premier test... -Bonjour HAL, ici Chandra. Voici ton premier test test de syntaxe numéro 1.0. Utilise les timbres vocaux D et J, je t'écoute... JAMES DELLECK Cest organique, je détecte des dessins dans la terre glaise Pas de panique, la mousse passe son permis sur une fourchette franco-albanaise Le petit Jean sème des euros pour retrouver le chemin de lécole Perdu dans un octave, il croise une clef de sol Laraignée lui demande la cacahuète chante à quel décibel Et pourquoi les avions volent sils ne battent pas des ailes Les bonnes surs danse le jerk dans un bol en peau de buffle Pausé sur une table en chêne rustique entouré de Pom-Pom LE JOUAGE ...Girls and boys, tous ensembles déguisés en pastille de menthe Bigout fraîcheur testicule Lil de Vénus drague le logo exobiologie qui applause au type Qui stape de la bière sans alcool et qui est quand même saoul Au bar d'à côté du Galactica Là où Bobby Ewing joue au scrabble avec des phoques en polystyrène Jplace mes chevilles dans mes dauphins puant la sueur de pied Mais quest-il arrivé des jours heureux où ils sentaient bon le neuf ? JAMES DELLECK Quatre plus sept moins deux égalent neuf Prêtres cherchant leurs chemins Perdu dans une constellation infinie de poils pubiens La tache dencre est symétrique alors le docteur hurle tu piges ? Je vois une fille qui sort dun bureau de vote en forme de coton-tige Jhydrate mes lèvres, il fait mouillé ses jours-ci ça sent lail Le Soleil a rendez-vous avec une plume qui picore des écailles La montagne soulève sa jupe Xuly.Bët Pour voyager autour dune noisette en jumbo-jet parce quelle nest si bête LE JOUAGE Elle peut le faire comme la virgule et en plus cest une blonde A la recherche des mystérieuse contrées du port-salut espiègle Cest comme au cinéma tu sais a quelle heure tu y rentres mais pas quand tu y sors Demain jirai commander dla banane vapeur préparée à la circus Comme dans un fast food, ha ha je vais bien tout va bien Le tout rajouté sur mon ardoise grâce a ma carte fidélité Cest la foire aux strings, strings grillés, string aère En coulisse de vrais folles sur monolithe du Fleury-St-Hubert JAMES DELLECK Par tous les saints, insinuez-vous que je serais sénile ? De leau de javel entre dans les interstices du vinyle Les griffes chatouille le fer a repassé 1 an Prisonnier au sauna public, il fait des frises sur un cahier denfant Cest physique, le rien souffre du vide, le plus attire le moins Et si tu perds ton pari, je te coupe la main Furieux, même Adam en a marre de s'taper Ève Pourquoi le gluon du bouillon Knor fait-il grève ? LE JOUAGE Parce quil a une ablation de lorteil inférieur droit et sniffe du magnésium Et rêve dune pâquerette en boucle de ceinture et voit la vie en opium En plus vous savez que cest un espion ? Et quil milite pour le retour de Sidney hip hop a la télévision Allez! Viendez danser dans un fracas de bulle dhirondelle rance Ça devient vulgaire que de toujours devoir repousser les avances Du ptérodactyle en talons aiguilles qui recherche de laventure Jai lsourire électrique qui est en symbiose avec ma carcasse couleur feuille de lotus JAMES DELLECK Fluorées les dents se percutent en silence Musique, montre, il-de-buf, TF1, pénitence Le grumeau du liquide biliaire nest pas commode Alors place au commandant Stubin parce que lui connaît la mode Cest gratis, je monte dans une belle voiture auto-bronzante Essieux montés sur échasses pour quelle soit moins bruyante Terré dans mon trou le terreau entre dans mon cerveau Les microbes me parlent alors je deviens bio LE JOUAGE Man le rouge de préférence parce que cest le chef de la bande Ma préférée couleur cest le vert pourpre par ce quelle se marie bien avec mon teint, cest excitant Ya aussi le signe chez le jack New-jack en français ça veut dire jack le nouveau ou le nouveau jack Exclusif jai le témoignage dune tuile en sweat-shirt come-8 de retour de vacances Lentrevue se déroule en présence de 7 nains, Blanche-Fesse et les 7 mains Et mon pote Harry Plotteur, un ami qui vous veut du bien JAMES DELLECK Le bien, le mal, lasperge, la catin La bière et la courroie qui ressert un bout de sein façon SM Sème la graine du compact disque poilu Moelleux, pâlis denvie la crise de palu' emmène la crasse de Paris Pas vu pas pris je discute avec une prostate en smoking Qui me vend en contre-bande une place de parking Start end rec. review pause Vas-y mets la dose pense à autre chose même si tes albinos ! LE JOUAGE Et même si tes con on fera un tour par chez Bénédicta Boire en plat de résistance des pattes Benetton et du thon mayonnaise Pour être fraîche cool et bien portant comme lenvol dun piano a queue Parfume toi avec du Wizard parce que tu ne vaux rien Si ce nest un concentré de coït manuel dicté par une bonne aventure ingurgitée a midi Un apport de glucidique avarié au goût de bibine Ces derniers jours seul linterrogation ma préservé du désespoir Professeur je vais bien jai dans la tête comme un goût de miroir</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lapin Carnivore</t>
+          <t>Le jardin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ma bouche est lissée d'incisives joliment aiguisées Qui sait qui de toi ou de moi est le plus déguisé Imposteur, ta posture de vie est cariée En réponse contre nature je suis devenu carnassier Puisque tu as détaché mes liens d'aliéné Je vais te digérer pour mieux te recracher J'suis pourtant putréfié à l'ADN déformé Mais tu vas caresser ma fourrure en verre pilé Mutilé par l'altitude, prêt à dévorer les rois Jouant de la servitude pour approcher mes proies Avec une douce mâchoire affutée comme une disqueuse Les yeux d'où s'échappent une poésie visqueuse C'est sans jurons que mes crocs ont l'amour cruel Prompt à pratiquer l'adorable trachéo manuelle J'aurais pu devenir un jeune cadre qui s'ennuie Mais maintenant c'est trop tard je suis... Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel Premier spécimen de la nouvelle espèce Pestiférée qui dépèce avec politesse Toutes tes croyances je les mets en pièce Pendu à ta jugulaire, cramponné comme un herpès Oh! Tu as mal au cou, ça te blesse Que ce soit à mon tour de tirer sur ta laisse Docilement, mes ancêtres vous ont nourris C'est sur le champ que tu en paies le prix N'espère pas clémence, tu fais partie de mon festin Dès lors le moindre lapin vous arrachera les mains Pas de bimbo ni de fortune pour la roue du destin Les victimes d'hier deviennent les monstres de demain Dans mon dédale je rime, moi le cannibale Sans déprime qui déballe ses crimes Comme une hyène au régime Sous une pluie qui bruisse, le bruit J'en suis le fruit des principes s'enfuient Juste, je suis... x2 Un lapin carnivore ! Vous n'êtes plus dignes d'être les dominants du réel Depuis que j'ai retrouvé vos sourires dans mes selles Condamnés sans appel dans une chute sans rappel Sapiens, savoure mes câlins au scalpel</t>
+          <t>Il y flotte toujours un glacial vent d'hiver Où croupit la pisse des bergers sans muselière Quelques crevasses ressortent dans la lumière Ses frontières s'étendent comme l'injustice d'un cancer Il y pousse des tulipes mellifères Et de jolies jolies roses trémières Les ronces sont ornées de couronne dentaire Dans le jardin d'Hitler C'est le royaume des vers de terre Des larmes d'enfants et de leurs mères Une pépinière de pus calcaire Dans le jardin d'Hitler Plutôt paisible je l'confère Arrosé d'une haine urinaire Les étoiles elles sont sous la terre Dans le jardin d'Hitler Du chiendent à l'odeur de chair Ondule dans des orifices oculaires Putréfiés sous une lune aurifère Dans le jardin d'Hitler Même les insectes préfèrent s'épanouir en lisière Evitant les fleurs de l'aride litière Bien derrière le lit de la petite rivière Où sont emprisonnées tant de prières Certes d'un style un peu militaire Les bourgeons y croisent quelques maxillaires Le pollen sent le gaz et l'éther Dans le jardin d'Hitler Des cris remontent comme des lianes de lierre Chuchotés pour passer les millénaires Acides comme du liquide biliaire Dans le jardin d'Hitler Quelle connerie de retourner poussière Le pire c'est que dans l'ombre d'hier Des senteurs me semblent aujourd'hui aujourd'hui si familières Peut-être que l'Aryen n'est pas qu'en arrière Et que le putain d'temps n'a pas tout recouvert</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>La Réunion Secrète</t>
+          <t>Le profil psychologique</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Bonjour, bienvenue dans notre agence de rencontres spécialisée dans les Suédoises. Asseyez-vous. Alors, pour mieux vous connaître, je vais vous donner le formulaire à remplir. C'est juste pour faire votre profil psychologique. Alors vous allez voir, c'est très simple dans la colonne plus vous mettez tout ce que vous aimez. Tout ce qui vous passe par la tête. Prenez votre temps, je reviens vous voir tout à l'heure Merci! Je vous en prie! J'aime monter en scène avec des baskets sans lacets Passer le jour de l'An avec 6 Thaïlandaises pour me masser Manger avec Michael Moore dans un resto indien Le monoski, Belle mais pas Sébastien Les polaroïds jaunâtres et leur cortège de souvenirs Les MacIntosh et les blagues qui font pas rire Partir dans un fou rire sans s'arrêter Admirer Audrey Tautou même si elle est habillée Entendre crapoter le début d'un bon vinyle Observer les videurs s'afficher, pensant qu'ils sont virils Le Tibet, son peuple, la propreté des chats L'augmentation du prix du tabac Les dragons de Komodo et les fleurs factices Qu'une fan me dise que j'ai un air de Guy Pearce La sieste après une bonne digestion Les angines qui empêchent de chanter Céline Dion J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil J'aime voir le ciel pleurer l'été Déguster un poulet au citron en dégrafant un bustier Traîner pendant le mois d'août à Paris Mettre les doigts dans la pâte à gaufre surtout quand c'est pas permis Ecouter les gens en croquant un tic-tac orange Arriver à l'heure au rendez-vous et les films étranges Les pandas géants, le suicide d'un mormon polygame La Soupline et les barbus qui respectent les femmes Le parfum d'la vérité, vivre l'instant Par nature avoir raison, mais pas tout l'temps Le langage et les richesses que l'on partage Le planning familial, m'envoler sans truquage Le rire des libellules, les radars de recul La légère brise qui caresse les testicules Regarder la télé avec une hache Les pavés, ceux qui se lancent, et les idéaux qui se crachent J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>La Ville en Juin</t>
+          <t>Le Réverbère</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Janvier 1001 Sterna - Paie le Prix - 2201 Booba - Autopsie Vol.2 Mixtape 2901 Ades - Un degré de plus 2901 Artistes Multiples - Compilation Rap R'and'B 2901 Black Marché - Au quart 2 Tour - 2901 Mafia K'1 Fry - Jusqu'à la mort - 2901 Flynt - 1 pour la plume EP Février 0502 Kamelancien - Le Charme en Personne 0502 Vitaa - À fleur de toi 1202 Artistes Multiples - B.O TAXI 4 1202 Faf Larage - Rap Stories 1202 IAM - Official Mixtape - 1702 Soprano - Puisqu'il Faut Vivre - 2602 Hocus Pocus - Du sable sur les paupières Maxi Mars 0503 Compilation Beat de Boul - Dans un autre monde 0503 Seth Gueko - Patate de Forain 1203 Anfalsh - Représailles chapitre 1 1203 Ärsenik - S'il en reste Quelque Chose Best-Of 1203 Artistes Multiples - Compilation Ecoute la rue Marianne 1203 Artistes Multiples - Compilation Get On The Floor - 1203 La Fouine - Aller-Retour - 1903 Youssoupha - À Chaque Frère 2603 Artistes multiples - Compilation Menace sur la planète rap vol.3 2603 L'Algerino - Mentalité Pirate 2603 - Octobre Rouge - Votez pour Nous 2603 Tony Parker - Tony Parker - XX03 Haroun - Sur Scène Maxi Avril - 0204 IAM - Saison 5 0204 Passi - Révolution - 1604 Haroun - Au Front 1604 Rohff - Au-Delà De Mes Limites Classics Réédition 1704 Smoker - La roue tourne 2304 Artistes Multiples - Compilation Chroniques de Mars Vol.2 2304 Enigmatik - Un Nouveau Souffle - 2304 La Rumeur - Du Cur à l'Outrage - 3004 Salif - Boulogne Boy Street Album XX04 Artistes Multiples - Compilation Délepenisons Mai 0205 Artistes multiples - Compilation Opinion sur rue Vol.3 0205 Psykick Lyrikah - Acte 0705 Dabaaz - Moi, Ma Gueule Et Ma Propre Personne 0705 Les Grandes Gueules - On ne peut pas plaire à tout le monde vol.2 1405 Brigade des mineurs - Brigade des mineurs 1405 Expression Direkt - D.Terminé 2105 Artistes Multiples - Compilation Traffic - 2105 Tar-One - À la première personne - 2805 Flynt - J'éclaire ma ville - 2805 Fatal Bazooka - T'as vu ? - 2805 Kamini - Psychostar World 2905 Manu Key - Prolifique Part 2 3105 Smoker - La roue tourne Juin 0406 Artistes Multiples - Compilation Il faut sauver le rap Francais 2 - 0406 Idir - La France des couleurs 1106 ATK - Silence Radio 1106 Mokobe - Mon Afrique 1106 Wouilo - Nouvelle Generation 1806 LIM - Délinquant Maxi - 1806 Mc Solaar - Chapitre 7 1906 MAF - Interdit d'illusion 2506 Artistes Multiples - Compilation Tetes Brulees Vol 4 2506 Demon One - Mon Rap 2506 Samm Coloquinte - Plus rien à foutre Juillet 0207 Rohff - Le cauchemar du rap Francais 1407 Many - Nerfs à vif Août 0208 Ahmad - Le môme qui voulut être roi 2708 James Delleck - Le cri du papillon 2808 Stomy Bugsy - Rimes Passionnelles Septembre 0309 Leeroy - Open Bar 0309 Oxmo Puccino - La réconciliation 1009 Alibi Montana - Inspiration guerrière 1009 El Matador - Parti de rien - 1809 VII - Lettre Morte 2409 Fat Cap - A l'arrache Octobre 0110 Artistes multiples - Marseille connexion Vol. 2 - 0110 TSR Crew - A quoi ça rime ? 0110 Bakar - Rose du béton - 0110 Hocus Pocus - Place 54 0810 Monsieur R - Ché guevara, Une braise qui brule encore 1510 Passi - Evolution 1510 Rockin Squat - Too hot for TV 2110 Smoker - Gangsta Music vol.1 2210 Alpha 5.20 - 3025 avant Rakailles 4 - 2210 Don Choa - Jungle de béton 2210 Jeff Le Nerf - Tout ce que j'ai 2510 Rouda - Musique des lettres 2710 LIM - Délinquant Double album 2910 Dontcha - Maxi Calibre - 2910 Enz - Ma Boutique 2910 Kamelancien - Le Charme En Personne Réedition Novembre 0511 Ol Kainry - Demolition Man 0511 Zakariens - Avenir en suspens 1211 Soprano - Puisqu'il Faut Vivre Réedition 1911 Aketo - Cracheur 2 Venin 1911 Idjal - Tiré d'histoires vraies 1911 Mc Arabica - L'Egalité dans la différence - 1911 Mino - Il était une fois 1911 TLF - Rêves de rue 2611 NTM - Best Of 2611 Rim K - Famille Nombreuse 2711 Sofiane - Première Claque Décembre 0112 Karlito - Ozas - 1012 Sinik - Le toit du monde 1112 Bouchées Doubles - Collector - 3112 T.I.S - La Petite Voiture Dates non connues Artistes Multiples - B.O Scorpion 2Bal - Mapassa Carpe Diem - En Temps Voulu Chodo - Sans règles Eech - Get Eech Stop Crying Kalash L'Afro - Cracheur de flammes La Spirale - Ni Dieu Ni Maître La Swija - Track One Tv L'Hexaler - Démo Mysa - Les poésies du chaos Pit Baccardi - Collector 1997-2007 mixtape Stress - Renaissance Artistes multiples - Compilation Neochrome hall stars X-Men - X-Story Zaho - Zaho La Mixtape2</t>
+          <t>Du haut de la canopée de béton j'suis d'humeur clair-obscur Quand dans ma lueur éclate le sang de vos bavures Mon halo lumineux met en lumière toutes vos hontes Pendant que la sueur sociale s'accumule à ma base A genoux, une mère pleure, un sac de course l'anse rompue Comme si c'était le signe d'un destin déchu De l'aurore à l'aube, j'éclaire sans jamais vaciller Pour mettre en luminescence vos vies sordides Un soir, j'entendis même des S.O.S stressés Les cris d'une fille que l'on salissait près du bloc C Tout le monde s'en moque, c'est devenu si commun Que la crasse de vos âmes peut même masquer votre chagrin Sous mon il de lumière Sous mon il de lumière Au-dessus de vos corps sans vie, j'inhale les vapeurs de souffrance Mais quand j'y pense, j'sais pas si j'en ai encore envie Hier, j'ai éclairé un chien s'faire débiter Après avoir été donné en pâture à trois pitts, et Quand la pluie se mit à tomber, le SDF du Square Pagnol Su que la carcasse accrochée était son ex-compagnon J'étais devenu autel de sacrifice Totem du mal, où se défoulent les fils de putes et leurs vices Planté sur l'épicentre du tourment Je ne sers plus, ne rassure plus, ou rarement Alors plutôt que de voir le sol et ses désastres Parfois j'aimerais tourner la tête pour contempler les astres Sous mon il de lumière Sous mon il de lumière Sous mon il de lumière, j'ai la vision trouble À cause de vos parjures et autres substituts de vie Noyé dans vos brumes, je ne suis qu'un cierge Pendant qu'vous vous débattez comme des carpes sur une berge J'ai même éclairé des cavaliers de l'apocalypse en BMV Faire commerce de mort derrière leurs vitres teintées Éreinté de voir sans pouvoir Miné du haut de ma cime, je m'affaiblis en silence Mais là, en-dessous je revis la jeune mère et ses mioches Décidée à tout plaquer sans un regret en poche Marre d'être rouée de coups elle se voûte sous ma lueur Certains la diront lâche, moi je m'éteins pour lui faire honneur</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>L’École est finie</t>
+          <t>Le sourire</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CHAPITRE I HISTOIRE ABRÉGÉE DE LA MORT DE JEAN CALAS Le meurtre de Calas, commis dans Toulouse avec le glaive de la justice, le 9 mars 1762, est un des plus singuliers événements qui méritent l'attention de notre âge et de la postérité. On oublie bientôt cette foule de morts qui a péri dans des batailles sans nombre, non seulement parce que c'est la fatalité inévitable de la guerre, mais parce que ceux qui meurent par le sort des armes pouvaient aussi donner la mort à leurs ennemis, et n'ont point péri sans se défendre. Là où le danger et l'avantage sont égaux, l'étonnement cesse, et la pitié même s'affaiblit mais si un père de famille innocent est livré aux mains de l'erreur, ou de la passion, ou du fanatisme si l'accusé n'a de défense que sa vertu si les arbitres de sa vie n'ont à risquer en l'égorgeant que de se tromper s'ils peuvent tuer impunément par un arrêt, alors le cri public s'élève, chacun craint pour soi-même, on voit que personne n'est en sûreté de sa vie devant un tribunal érigé pour veiller sur la vie des citoyens, et toutes les voix se réunissent pour demander vengeance. Il s'agissait, dans cette étrange affaire, de religion, de suicide, de parricide il s'agissait de savoir si un père et une mère avaient étranglé leur fils pour plaire à Dieu, si un frère avait étranglé son frère, si un ami avait étranglé son ami, et si les juges avaient à se reprocher d'avoir fait mourir sur la roue un père innocent, ou d'avoir épargné une mère, un frère, un ami coupables. Jean Calas, âgé de soixante-huit ans, exerçait la profession de négociant à Toulouse depuis plus de quarante années, et était reconnu de tous ceux qui ont vécu avec lui pour un bon père. Il était protestant, ainsi que sa femme et tous ses enfants, excepté un, qui avait abjuré l'hérésie, et à qui le père faisait une petite pension. Il paraissait si éloigné de cet absurde fanatisme qui rompt tous les liens de la société qu'il approuva la conversion de son fils Louis Calas, et qu'il avait depuis trente ans chez lui une servante zélée catholique, laquelle avait élevé tous ses enfants. Un des fils de Jean Calas, nommé Marc-Antoine, était un homme de lettres il passait pour un esprit inquiet, sombre, et violent. Ce jeune homme, ne pouvant réussir ni à entrer dans le négoce, auquel il n'était pas propre, ni à être reçu avocat, parce qu'il fallait des certificats de catholicité qu'il ne put obtenir, résolut de finir sa vie, et fit pressentir ce dessein à un de ses amis il se confirma dans sa résolution par la lecture de tout ce qu'on a jamais écrit sur le suicide. Enfin, un jour, ayant perdu son argent au jeu, il choisit ce jour-là même pour exécuter son dessein. Un ami de sa famille et le sien, nommé Lavaisse, jeune homme de dix-neuf ans, connu par la candeur et la douceur de ses moeurs, fils d'un avocat célèbre de Toulouse, était arrivé de Bordeaux la veille Note 1 il soupa par hasard chez les Calas. Le père, la mère, Marc-Antoine leur fils aîné, Pierre leur second fils, mangèrent ensemble. Après le souper on se retira dans un petit salon Marc-Antoine disparut enfin, lorsque le jeune Lavaisse voulut partir, Pierre Calas et lui, étant descendus, trouvèrent en bas, auprès du magasin, Marc-Antoine en chemise, pendu à une porte, et son habit plié sur le comptoir sa chemise n'était pas seulement dérangée ses cheveux étaient bien peignés il n'avait sur son corps aucune plaie, aucune meurtrissure Note 2. On passe ici tous les détails dont les avocats ont rendu compte on ne décrira point la douleur et le désespoir du père et de la mère leurs cris furent entendus des voisins. Lavaisse et Pierre Calas, hors d'eux-mêmes, coururent chercher des chirurgiens et la justice. Pendant qu'ils s'acquittaient de ce devoir, pendant que le père et la mère étaient dans les sanglots et dans les larmes, le peuple de Toulouse s'attroupe autour de la maison. Ce peuple est superstitieux et emporté il regarde comme des monstres ses frères qui ne sont pas de la même religion que lui. C'est à Toulouse qu'on remercia Dieu solennellement de la mort de Henri III, et qu'on fit serment d'égorger le premier qui parlerait de reconnaître le grand, le bon Henri IV. Cette ville solennise encore tous les ans, par une procession et par des feux de joie, le jour où elle massacra quatre mille citoyens hérétiques, il y a deux siècles. En vain six arrêts du conseil ont défendu cette odieuse fête, les Toulousains l'ont toujours célébrée comme les jeux floraux. Quelque fanatique de la populace s'écria que Jean Calas avait pendu son propre fils Marc-Antoine. Ce cri, répété, fut unanime en un moment d'autres ajoutèrent que le mort devait le lendemain faire abjuration que sa famille et le jeune Lavaisse l'avaient étranglé par haine contre la religion catholique le moment d'après on n'en douta plus toute la ville fut persuadée que c'est un point de religion chez les protestants qu'un père et une mère doivent assassiner leur fils dès qu'il veut se convertir. Les esprits une fois émus ne s'arrêtent point. On imagina que les protestants du Languedoc s'étaient assemblés la veille qu'ils avaient choisi, à la pluralité des voix, un bourreau de la secte que le choix était tombé sur le jeune Lavaisse que ce jeune homme, en vingt-quatre heures, avait reçu la nouvelle de son élection, et était arrivé de Bordeaux pour aider Jean Calas, sa femme, et leur fils Pierre, à étrangler un ami, un fils, un frère. Le sieur David, capitoul de Toulouse, excité par ces rumeurs et voulant se faire valoir par une prompte exécution, fit une procédure contre les règles et les ordonnances. La famille Calas, la servante catholique, Lavaisse, furent mis aux fers. On publia un monitoire non moins vicieux que la procédure. On alla plus loin Marc-Antoine Calas était mort calviniste, et s'il avait attenté sur lui-même, il devait être traîné sur la claie on l'inhuma avec la plus grande pompe dans l'église Saint-Etienne, malgré le curé, qui protestait contre cette profanation. Il y a, dans le Languedoc, quatre confréries de pénitents, la blanche, la bleue, la grise, et la noire. Les confrères portent un long capuce, avec un masque de drap percé de deux trous pour laisser la vue libre ils ont voulu engager M. le duc de Fitz-James, commandant de la province, à entrer dans leurs corps, et il les a refusés. Les confrères blancs firent à Marc-Antoine Calas un service solennel, comme à un martyr. Jamais aucune Eglise ne célébra la fête d'un martyr véritable avec plus de pompe mais cette pompe fut terrible. On avait élevé au-dessus d'un magnifique catafalque un squelette qu'on faisait mouvoir, et qui représentait Marc-Antoine Calas, tenant d'une main une palme, et de l'autre la plume dont il devait signer l'abjuration de l'hérésie, et qui écrivait en effet l'arrêt de mort de son père. Alors il ne manqua plus au malheureux qui avait attenté sur soi-même que la canonisation tout le peuple le regardait comme un saint quelques-uns l'invoquaient, d'autres allaient prier sur sa tombe, d'autres lui demandaient des miracles, d'autres racontaient ceux qu'il avait faits. Un moine lui arracha quelques dents pour avoir des reliques durables. Une dévote, un peu sourde, dit qu'elle avait entendu le son des cloches. Un prêtre apoplectique fut guéri après avoir pris de l'émétique. On dressa des verbaux de ces prodiges. Celui qui écrit cette relation possède une attestation qu'un jeune homme de Toulouse est devenu fou pour avoir prié plusieurs nuits sur le tombeau du nouveau saint, et pour n'avoir pu obtenir un miracle qu'il implorait. Quelques magistrats étaient de la confrérie des pénitents blancs. Dès ce moment la mort de Jean Calas parut infaillible. Ce qui surtout prépara son supplice, ce fut l'approche de cette fête singulière que les Toulousains célèbrent tous les ans en mémoire d'un massacre de quatre mille huguenots l'année 1762 était l'année séculaire. On dressait dans la ville l'appareil de cette solennité cela même allumait encore l'imagination échauffée du peuple on disait publiquement que l'échafaud sur lequel on rouerait les Calas serait le plus grand ornement de la fête on disait que la Providence amenait elle-même ces victimes pour être sacrifiées à notre sainte religion. Vingt personnes ont entendu ces discours, et de plus violents encore. Et c'est de nos jours! et c'est dans un temps où la philosophie a fait tant de progrès! et c'est lorsque cent académies écrivent pour inspirer la douceur des moeurs! Il semble que le fanatisme, indigné depuis peu des succès de la raison, se débatte sous elle avec plus de rage. Treize juges s'assemblèrent tous les jours pour terminer le procès. On n'avait, on ne pouvait avoir aucune preuve contre la famille mais la religion trompée tenait lieu de preuve. Six juges persistèrent longtemps à condamner Jean Calas, son fils, et Lavaisse, à la roue, et la femme de Jean Calas au bûcher. Sept autres plus modérés voulaient au moins qu'on examinât. Les débats furent réitérés et longs. Un des juges, convaincu de l'innocence des accusés et de l'impossibilité du crime, parla vivement en leur faveur il opposa le zèle de l'humanité au zèle de la sévérité il devint l'avocat public des Calas dans toutes les maisons de Toulouse, où les cris continuels de la religion abusée demandaient le sang de ces infortunés. Un autre juge, connu par sa violence, parlait dans la ville avec autant d'emportement contre les Calas que le premier montrait d'empressement à les défendre. Enfin l'éclat fut si grand qu'ils furent obligés de se récuser l'un et l'autre ils se retirèrent à la campagne. Mais, par un malheur étrange, le juge favorable aux Calas eut la délicatesse de persister dans sa récusation, et l'autre revint donner sa voix contre ceux qu'il ne devait point juger ce fut cette voix qui forma la condamnation à la roue, car il n'y eut que huit voix contre cinq, un des six juges opposés ayant à la fin, après bien des contestations, passé au parti le plus sévère. Il semble que quand il s'agit d'un parricide et de livrer un père de famille au plus affreux supplice, le jugement devrait être unanime, parce que les preuves d'un crime si inouï Note 3 devraient être d'une évidence sensible à tout le monde le moindre doute dans un cas pareil doit suffire pour faire trembler un juge qui va signer un arrêt de mort. La faiblesse de notre raison et l'insuffisance de nos lois se font sentir tous les jours mais dans quelle occasion en découvre-t-on mieux la misère que quand la prépondérance d'une seule voix fait rouer un citoyen? Il fallait, dans Athènes, cinquante voix au-delà de la moitié pour oser prononcer un jugement de mort. Qu'en résulte-t-il? Ce que nous savons très inutilement, que les Grecs étaient plus sages et plus humains que nous. Il paraissait impossible que Jean Calas, vieillard de soixante-huit ans, qui avait depuis longtemps les jambes enflées et faibles, eût seul étranglé et pendu un fils âgé de vingt-huit ans, qui était d'une force au-dessus de l'ordinaire il fallait absolument qu'il eût été assisté dans cette exécution par sa femme, par son fils Pierre Calas, par Lavaisse, et par la servante. Ils ne s'étaient pas quittés un seul moment le soir de cette fatale aventure. Mais cette supposition était encore aussi absurde que l'autre car comment une servante zélée catholique aurait-elle pu souffrir que des huguenots assassinassent un jeune homme élevé par elle pour le punir d'aimer la religion de cette servante? Comment Lavaisse serait-il venu exprès de Bordeaux pour étrangler son ami dont il ignorait la conversion prétendue? Comment une mère tendre aurait-elle mis les mains sur son fils? Comment tous ensemble auraient-ils pu étrangler un jeune homme aussi robuste qu'eux tous, sans un combat long et violent, sans des cris affreux qui auraient appelé tout le voisinage, sans des coups réitérés, sans des meurtrissures, sans des habits déchirés. Il était évident que, si le parricide avait pu être commis, tous les accusés étaient également coupables, parce qu'ils ne s'étaient pas quittés d'un moment il était évident qu'ils ne l'étaient pas il était évident que le père seul ne pouvait l'être et cependant l'arrêt condamna ce père seul à expirer sur la roue. Le motif de l'arrêt était aussi inconcevable que tout le reste. Les juges qui étaient décidés pour le supplice de Jean Calas persuadèrent aux autres que ce vieillard faible ne pourrait résister aux tourments, et qu'il avouerait sous les coups des bourreaux son crime et celui de ses complices. Ils furent confondus, quand ce vieillard, en mourant sur la roue, prit Dieu à témoin de son innocence, et le conjura de pardonner à ses juges. Ils furent obligés de rendre un second arrêt contradictoire avec le premier, d'élargir la mère, son fils Pierre, le jeune Lavaisse, et la servante mais un des conseillers leur ayant fait sentir que cet arrêt démentait l'autre, qu'ils se condamnaient eux-mêmes, que tous les accusés ayant toujours été ensemble dans le temps qu'on supposait le parricide, l'élargissement de tous les survivants prouvait invinciblement l'innocence du père de famille exécuté, ils prirent alors le parti de bannir Pierre Calas son fils. Ce bannissement semblait aussi inconséquent, aussi absurde que tout le reste car Pierre Calas était coupable ou innocent du parricide s'il était coupable, il fallait le rouer comme son père s'il était innocent, il ne fallait pas le bannir. Mais les juges, effrayés du supplice du père et de la piété attendrissante avec laquelle il était mort, imaginèrent de sauver leur honneur en laissant croire qu'ils faisaient grâce au fils, comme si ce n'eût pas été une prévarication nouvelle de faire grâce et ils crurent que le bannissement de ce jeune homme pauvre et sans appui, étant sans conséquence, n'était pas une grande injustice, après celle qu'ils avaient eu le malheur de commettre. On commença par menacer Pierre Calas, dans son cachot, de le traiter comme son père s'il n'abjurait pas sa religion. C'est ce que ce jeune homme Note 4 atteste par serment. Pierre Calas, en sortant de la ville, rencontra un abbé convertisseur qui le fit rentrer dans Toulouse on l'enferma dans un couvent de dominicains, et là on le contraignit à remplir toutes les fonctions de la catholicité c'était en partie ce qu'on voulait, c'était le prix du sang de son père et la religion, qu'on avait cru venger, semblait satisfaite. On enleva les filles à la mère elles furent enfermées dans un couvent. Cette femme, presque arrosée du sang de son mari, ayant tenu son fils aîné mort entre ses bras, voyant l'autre banni, privée de ses filles, dépouillée de tout son bien, était seule dans le monde, sans pain, sans espérance, et mourante de l'excès de son malheur. Quelques personnes, ayant examiné mûrement toutes les circonstances de cette aventure horrible, en furent si frappées qu'elles firent presser la dame Calas, retirée dans une solitude, d'oser venir demander justice au pied du trône. Elle ne pouvait pas alors se soutenir, elle s'éteignait et d'ailleurs, étant née Anglaise, transplantée dans une province de France dès son jeune âge, le nom seul de la ville de Paris l'effrayait. Elle s'imaginait que la capitale du royaume devait être encore plus barbare que celle du Languedoc. Enfin le devoir de venger la mémoire de son mari l'emporta sur sa faiblesse. Elle arriva à Paris prête d'expirer. Elle fut étonnée d'y trouver de l'accueil, des secours, et des larmes. La raison l'emporte à Paris sur le fanatisme, quelque grand qu'il puisse être, au lieu qu'en province le fanatisme l'emporte presque toujours sur la raison. M. de Beaumont, célèbre avocat du parlement de Paris, prit d'abord sa défense, et dressa une consultation qui fut signée de quinze avocats. M. Loiseau, non moins éloquent, composa un mémoire en faveur de la famille. M. Mariette, avocat au conseil, dressa une requête juridique qui portait la conviction dans tous les esprits. Ces trois généreux défenseurs des lois et de l'innocence abandonnèrent à la veuve le profit des éditions de leurs plaidoyers Note 5. Paris et l'Europe entière s'émurent de pitié, et demandèrent justice avec cette femme infortunée. L'arrêt fut prononcé par tout le public longtemps avant qu'il pût être signé par le conseil. La pitié pénétra jusqu'au ministère, malgré le torrent continuel des affaires, qui souvent exclut la pitié, et malgré l'habitude de voir des malheureux, qui peut endurcir le coeur encore davantage. On rendit les filles à la mère. On les vit toutes les trois, couvertes d'un crêpe et baignées de larmes, en faire répandre à leurs juges. Cependant cette famille eut encore quelques ennemis, car il s'agissait de religion. Plusieurs personnes, qu'on appelle en France dévotes Note 6, dirent hautement qu'il valait mieux laisser rouer un vieux calviniste innocent que d'exposer huit conseillers de Languedoc à convenir qu'ils s'étaient trompés on se servit même de cette expression Il y a plus de magistrats que de Calas et on inférait de là que la famille Calas devait t être immolée à l'honneur de la magistrature. On ne songeait pas que l'honneur des juges consiste, comme celui des autres hommes, à réparer leurs fautes. On ne croit pas en France que le pape, assisté de ses cardinaux, soit infaillible on pourrait croire de même que huit juges de Toulouse ne le sont pas. Tout le reste des gens sensés et désintéressés disaient que l'arrêt de Toulouse sera t cassé dans toute l'Europe, quand même des considérations particulières empêcheraient qu'il fût cassé dans le conseil. Tel était l'état de cette étonnante aventure, lorsqu'elle a fait naître à des personnes impartiales, mais sensibles, le dessein de présenter au public quelques réflexions sur la tolérance, sur l'indulgence, sur la commisération, que l'abbé Houtteville appelle dogme monstrueux, dans sa déclamation ampoulée et erronée sur des faits, et que la raison appelle l'apanage de la nature. Ou les juges de Toulouse, entraînés par le fanatisme de la populace, ont fait rouer un père de famille innocent, ce qui est sans exemple ou ce père de famille et sa femme ont étranglé leur fils aîné, aidés dans ce parricide par un autre fils et par un ami, ce qui n'est pas dans la nature. Dans l'un ou dans l'autre cas, l'abus de la religion la plus sainte a produit un grand crime. Il est donc de l'intérêt du genre humain d'examiner si la religion doit être charitable ou barbare. CHAPITRE II CONSÉQUENCES DU SUPPLICE DE JEAN CALAS Si les pénitents blancs furent la cause du supplice d'un innocent, de la ruine totale d'une famille, de sa dispersion et de l'opprobre qui ne devrait être attaché qu'à l'injustice, mais qui l'est au supplice si cette précipitation des pénitents blancs à célébrer comme un saint celui qu'on aurait dû traîner sur la claie, suivant nos barbares usages, a fait rouer un père de famille vertueux ce malheur doit sans doute les rendre pénitents en effet pour le reste de leur vie eux et les juges doivent pleurer, mais non pas avec un long habit blanc et un masque sur le visage qui cacherait leurs larmes. On respecte toutes les confréries elles sont édifiantes mais quelque grand bien qu'elles puissent faire à l'Etat, égale-t-il ce mal affreux qu'elles ont causé? Elles semblent instituées par le zèle qui anime en Languedoc les catholiques contre ceux que nous nommons huguenots. On dirait qu'on a fait voeu de haïr ses frères, car nous avons assez de religion pour haïr et persécuter, et nous n'en avons pas assez pour aimer et pour secourir. Et que serait-ce si ces confréries étaient gouvernées par des enthousiastes, comme l'ont été autrefois quelques congrégations des artisans et des messieurs, chez lesquels on réduisait en art et en système l'habitude d'avoir des visions, comme le dit un de nos plus éloquents et savants magistrats? Que serait-ce si on établissait dans les confréries ces chambres obscures, appelées chambres de méditation, où l'on faisait peindre des diables armés de cornes et de griffes, des gouffres de flammes, des croix et des poignards, avec le saint nom de Jésus au-dessus du tableau? Quel spectacle dans des yeux déjà fascinés, et pour des imaginations aussi enflammées que soumises à leurs directeurs! Il y a eu des temps, on ne le sait que trop, où des confréries ont été dangereuses. Les frérots, les flagellants, ont causé des troubles. La Ligue commença par de telles associations. Pourquoi se distinguer ainsi des autres citoyens? S'en croyait-on plus parfait? Cela même est une insulte au reste de la nation. Voulait-on que tous les chrétiens entrassent dans la confrérie? Ce serait un beau spectacle que l'Europe en capuchon et en masque, avec deux petits trous ronds au-devant des yeux! Pense-t-on de bonne foi que Dieu préfère cet accoutrement à un justaucorps? Il y a bien plus cet habit est un uniforme de controversistes, qui avertit les adversaires de se mettre sous les armes il peut exciter une espèce de guerre civile dans les esprits, et elle finirait peut-être par de funestes excès si le roi et ses ministres n'étaient aussi sages que les fanatiques sont insensés. On sait assez ce qu'il en a coûté depuis que les chrétiens disputent sur le dogme le sang a coulé, soit sur les échafauds, soit dans les batailles, dès le IV e siècle jusqu'à nos jours. Bornons-nous ici aux guerres et aux horreurs que les querelles de la Réforme ont excitées, et voyons quelle en a été la source en France. Peut-être un tableau raccourci et fidèle de tant de calamités ouvrira les yeux de quelques personnes peu instruites, et touchera des coeurs bien faits. CHAPITRE III IDÉE DE LA RÉFORME DU XVI e SIÈCLE Lorsqu'à la renaissance des lettres les esprits commencèrent à s'éclairer, on se plaignit généralement des abus tout le monde avoue que cette plainte était légitime. Le pape Alexandre VI avait acheté publiquement la tiare, et ses cinq bâtards en partageaient les avantages. Son fils, le cardinal duc de Borgia, fit périr, de concert avec le pape son père, les Vitelli, les Urbino, les Gravina, les Oliveretto, et cent autres seigneurs, pour ravir leurs domaines. Jules II, animé du même esprit, excommunia Louis XII, donna son royaume au premier occupant et lui-même, le casque en tête et la cuirasse sur le dos, mit à feu et à sang une partie de l'Italie. Léon X, pour payer ses plaisirs, trafiqua des indulgences comme on vend des denrées dans un marché public. Ceux qui s'élevèrent contre tant de brigandages n'avaient du moins aucun tort dans la morale. Voyons s'ils en avaient contre nous dans la politique. Ils disaient que Jésus-Christ n'ayant jamais exigé d'annates ni de réserves, ni vendu des dispenses pour ce monde et des indulgences pour l'autre, on pouvait se dispenser de payer à un prince étranger le prix de toutes ces choses. Quand les annates, les procès en cour de Rome, et les dispenses qui subsistent encore aujourd'hui, ne nous coûteraient que cinq cent mille francs par an, il est clair que nous avons payé depuis François Ier, en deux cent cinquante années, cent vingt-cinq millions et en évaluant les différents prix du marc d'argent, cette somme en compose une d'environ deux cent cinquante millions d'aujourd'hui. On peut donc convenir sans blasphème que les hérétiques, en proposant l'abolition de ces impôts singuliers dont la postérité s'étonnera, ne faisaient pas en cela un grand mal au royaume, et qu'ils étaient plutôt bons calculateurs que mauvais sujets. Ajoutons qu'ils étaient les seuls qui sussent la langue grecque, et qui connussent l'Antiquité. Ne dissimulons point que, malgré leurs erreurs, nous leur devons le développement de l'esprit humain, longtemps enseveli dans la plus épaisse barbarie. Mais comme ils niaient le purgatoire, dont on ne doit pas douter, et qui d'ailleurs rapportait beaucoup aux moines comme ils ne révéraient pas des reliques qu'on doit révérer, mais qui rapportaient encore davantage enfin comme ils attaquaient des dogmes très respectés Note 7, on ne leur répondit d'abord qu'en les faisant brûler. Le roi, qui les protégeait et les soudoyait en Allemagne, marcha dans Paris à la tête d'une procession après laquelle on exécuta plusieurs de ces malheureux et voici quelle fut cette exécution. On les suspendait au bout d'une longue poutre qui jouait en bascule sur un arbre debout un grand feu était allumé sous eux, on les y plongeait, et on les relevait alternativement ils éprouvaient les tourments de la mort par degrés, jusqu'à ce qu'ils expirassent par le plus long et le plus affreux supplice que jamais ait inventé la barbarie. Peu de temps avant la mort de François Ier, quelques membres du parlement de Provence, animés par des ecclésiastiques contre les habitants de Mérindol et de Cabrières, demandèrent au roi des troupes pour appuyer l'exécution de dix-neuf personnes de ce pays condamnées par eux ils en firent égorger six mille, sans pardonner ni au sexe, ni à la vieillesse, ni à l'enfance ils réduisirent trente bourgs en cendres. Ces peuples, jusqu'alors inconnus, avaient tort, sans doute, d'être nés Vaudois c'était leur seule iniquité. Ils étaient établis depuis trois cents ans dans des déserts et sur des montagnes qu'ils avaient rendus fertiles par un travail incroyable. Leur vie pastorale et tranquille retraçait l'innocence attribuée aux premiers âges du monde. Les villes voisines n'étaient connues d'eux que par le trafic des fruits qu'ils allaient vendre, ils ignoraient les procès et la guerre ils ne se défendirent pas on les égorgea comme des animaux fugitifs qu'on tue dans une enceinte Note 8. Après la mort de François Ier, prince plus connu cependant par ses galanteries et par ses malheurs que par ses cruautés, le supplice de mille hérétiques, surtout celui du conseiller au parlement Dubourg, et enfin le massacre de Vassy, armèrent les persécutés, dont la secte s'était multipliée à la lueur des bûchers et sous le fer des bourreaux la rage succéda à la patience ils imitèrent les cruautés de leurs ennemis neuf guerres civiles remplirent la France de carnage une paix plus funeste que la guerre produisit la Saint-Barthélémy, dont il n'y avait aucun exemple dans les annales des crimes. La Ligue assassina Henri III et Henri IV, par les mains d'un frère jacobin et d'un monstre qui avait été frère feuillant. Il y a des gens qui prétendent que l'humanité, l'indulgence, et la liberté de conscience, sont des choses horribles mais, en bonne foi, auraient-elles produit des calamités comparables? CHAPITRE IV SI LA TOLÉRANCE EST DANGEREUSE, ET CHEZ QUELS PEUPLES ELLE EST PERMISE Quelques-uns ont dit que si l'on usait d'une indulgence paternelle envers nos frères errants qui prient Dieu en mauvais français, ce serait leur mettre les armes à la main qu'on verrait de nouvelles batailles de Jarnac, de Moncontour, de Coutras, de Dreux, de Saint-Denis, etc. c'est ce que j'ignore, parce que je ne suis pas un prophète mais il me semble que ce n'est pas raisonner conséquemment que de dire Ces hommes se sont soulevés quand je leur ai fait du mal donc ils se soulèveront quand je leur ferai du bien. J'oserais prendre la liberté d'inviter ceux qui sont à la tête du gouvernement, et ceux qui sont destinés aux grandes places, à vouloir bien examiner mûrement si l'on doit craindre en effet que la douceur produise les mêmes révoltes que la cruauté a fait naître si ce qui est arrivé dans certaines circonstances doit arriver dans d'autres si les temps, l'opinion, les moeurs, sont toujours les mêmes. Les huguenots, sans doute, ont été enivrés de fanatisme et souillés de sang comme nous mais la génération présente est-elle aussi barbare que leurs pères? Le temps, la raison qui fait tant de progrès, les bons livres, la douceur de la société, n'ont-ils point pénétré chez ceux qui conduisent l'esprit de ces peuples? et ne nous apercevons-nous pas que presque toute l'Europe a changé de face depuis environ cinquante années? Le gouvernement s'est fortifié partout, tandis que les moeurs se sont adoucies. La police générale, soutenue d'armées nombreuses toujours existantes, ne permet pas d'ailleurs de craindre le retour de ces temps anarchiques, où des paysans calvinistes combattaient des paysans catholiques enrégimentés à la hâte entre les semailles et les moissons. D'autres temps, d'autres soins. Il serait absurde de décimer aujourd'hui la Sorbonne parce qu'elle présenta requête autrefois pour faire brûler la Pucelle d'Orléans parce qu'elle déclara Henri III déchu du droit de régner, qu'elle l'excommunia, qu'elle proscrivit le grand Henri IV. On ne recherchera pas sans doute les autres corps du royaume, qui commirent les mêmes excès dans ces temps de frénésie cela serait non seulement injuste mais il y aurait autant de folie qu'à purger tous les habitants de Marseille parce qu'ils ont eu la peste en 1720. Irons-nous saccager Rome, comme firent les troupes de Charles Quint, parce que Sixte Quint, en 1585, accorda neuf ans d'indulgence à tous les Français qui prendraient les armes contre leur souverain? Et n'est-ce pas assez d'empêcher Rome de se porter jamais à des excès semblables? La fureur qu'inspirent l'esprit dogmatique et l'abus de la religion chrétienne mal entendue a répandu autant de sang, a produit autant de désastres, en Allemagne, en Angleterre, et même en Hollande, qu'en France cependant aujourd'hui la différence des religions ne cause aucun trouble dans ces Etats le juif, le catholique, le grec, le luthérien, le calviniste, l'anabaptiste, le socinien, le mennonite, le morave, et tant d'autres, vivent en frères dans ces contrées, et contribuent également au bien de la société. On ne craint plus en Hollande que les disputes d'un Gomar Note 9 sur la prédestination fassent trancher la tête au grand pensionnaire. On ne craint plus à Londres que les querelles des presbytériens et des épiscopaux, pour une liturgie et pour un surplis, répandent le sang d'un roi sur un échafaud Note 10. L'Irlande peuplée et enrichie ne verra plus ses citoyens catholiques sacrifier à Dieu pendant deux mois ses citoyens protestants, les enterrer vivants, suspendre les mères à des gibets, attacher les filles au cou de leurs mres, et les voir expirer ensemble ouvrir le ventre des femmes enceintes, en tirer les enfants à demi formés, et les donner à manger aux porcs et aux chiens mettre un poignard dans la main de leurs prisonniers garrottés, et conduire leurs bras dans le sein de leurs femmes, de leurs pères, de leurs mères, de leurs filles, s'imaginant en faire mutuellement des parricides, et les damner tous en les exterminant tous. C'est ce que rapporte Rapin-Thoiras, officier en Irlande, presque contemporain c'est ce que rapportent toutes les annales, toutes les histoires d'Angleterre, et ce qui sans doute ne sera jamais imité. La philosophie, la seule philosophie, cette soeur de la religion, a désarmé des mains que la superstition avait si longtemps ensanglantées et l'esprit humain, au réveil de son ivresse, s'est étonné des excès où l'avait emporté le fanatisme. Nous-mêmes, nous avons en France une province opulente où le luthéranisme l'emporte sur le catholicisme. L'université d'Alsace est entre les mains des luthériens ils occupent une partie des charges municipales jamais la moindre querelle religieuse n'a dérangé le repos de cette province depuis qu'elle appartient à nos rois. Pourquoi? C'est qu'on n'y a persécuté personne. Ne cherchez point à gêner les coeurs, et tous les coeurs seront à vous. Je ne dis pas que tous ceux qui ne sont point de la religion du prince doivent partager les places et les honneurs de ceux qui sont de la religion dominante. En Angleterre, les catholiques, regardés comme attachés au parti du prétendant, ne peuvent parvenir aux emplois ils payent même double taxe mais ils jouissent d'ailleurs de tous les droits des citoyens. On a soupçonné quelques évêques français de penser qu'il n'est ni de leur honneur ni de leur intérêt d'avoir dans leur diocèse des calvinistes, et que c'est là le plus grand obstacle à la tolérance je ne le puis croire. Le corps des évêques, en France, est composé de gens de qualité qui pensent et qui agissent avec une noblesse digne de leur naissance ils sont charitables et généreux, c'est une justice qu'on doit leur rendre ils doivent penser que certainement leurs diocésains fugitifs ne se convertiront pas dans les pays étrangers, et que, retournés auprès de leurs pasteurs, ils pourraient être éclairés par leurs instructions et touchés par leurs exemples il y aurait de l'honneur à les convertir, le temporel n'y perdrait pas, et plus il y aurait de citoyens, plus les terres des prélats rapporteraient. Un évêque de Varmie, en Pologne, avait un anabaptiste pour fermier, et un socinien pour receveur on lui proposa de chasser et de poursuivre l'un, parce qu'il ne croyait pas la consubstantialité, et l'autre, parce qu'il ne baptisait son fils qu'à quinze ans il répondit qu'ils seraient éternellement damn</t>
+          <t>Je me sens bien, en paix avec moi-même J'entends les cris des enfants jouant dans la cour Les feuilles frémissent sur ma fenêtre du huitième Pendant qu'une douce chaleur entre et me parcourt Elle vient, je la sens, j'abandonne C'est le moment, personne ne peut rien y faire Les bruits s'amplifient et petit à petit résonnent Je me fonds dans la lumière qui embaume l'air Les miens m'entourent alors de leur tristesse Mais 87 ans déjà que je suis né Si évidentes, toutes les réponses m'apparaissent Dans un moment magique d'une intense légèreté Mon petit-fils me murmure pas maintenant Mais tu comprends que je ne peux rien Profite, sans vouloir trop vite devenir grand Belle est l'insouciance quand on ne pense au lendemain Les derniers grains du sablier se sont écoulés Alors je me sens voler au-dessus de nous Et même si cette longue route m'a fatigué Prenez, mon dernier sourire est pour vous</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Le hip hop c’est mon pote</t>
+          <t>Le Titty Twister</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-Bonjour professeur Chandra, ici Hal. Je suis prêt pour mon premier test... -Bonjour HAL, ici Chandra. Voici ton premier test test de syntaxe numéro 1.0. Utilise les timbres vocaux D et J, je t'écoute... JAMES DELLECK Cest organique, je détecte des dessins dans la terre glaise Pas de panique, la mousse passe son permis sur une fourchette franco-albanaise Le petit Jean sème des euros pour retrouver le chemin de lécole Perdu dans un octave, il croise une clef de sol Laraignée lui demande la cacahuète chante à quel décibel Et pourquoi les avions volent sils ne battent pas des ailes Les bonnes surs danse le jerk dans un bol en peau de buffle Pausé sur une table en chêne rustique entouré de Pom-Pom LE JOUAGE ...Girls and boys, tous ensembles déguisés en pastille de menthe Bigout fraîcheur testicule Lil de Vénus drague le logo exobiologie qui applause au type Qui stape de la bière sans alcool et qui est quand même saoul Au bar d'à côté du Galactica Là où Bobby Ewing joue au scrabble avec des phoques en polystyrène Jplace mes chevilles dans mes dauphins puant la sueur de pied Mais quest-il arrivé des jours heureux où ils sentaient bon le neuf ? JAMES DELLECK Quatre plus sept moins deux égalent neuf Prêtres cherchant leurs chemins Perdu dans une constellation infinie de poils pubiens La tache dencre est symétrique alors le docteur hurle tu piges ? Je vois une fille qui sort dun bureau de vote en forme de coton-tige Jhydrate mes lèvres, il fait mouillé ses jours-ci ça sent lail Le Soleil a rendez-vous avec une plume qui picore des écailles La montagne soulève sa jupe Xuly.Bët Pour voyager autour dune noisette en jumbo-jet parce quelle nest si bête LE JOUAGE Elle peut le faire comme la virgule et en plus cest une blonde A la recherche des mystérieuse contrées du port-salut espiègle Cest comme au cinéma tu sais a quelle heure tu y rentres mais pas quand tu y sors Demain jirai commander dla banane vapeur préparée à la circus Comme dans un fast food, ha ha je vais bien tout va bien Le tout rajouté sur mon ardoise grâce a ma carte fidélité Cest la foire aux strings, strings grillés, string aère En coulisse de vrais folles sur monolithe du Fleury-St-Hubert JAMES DELLECK Par tous les saints, insinuez-vous que je serais sénile ? De leau de javel entre dans les interstices du vinyle Les griffes chatouille le fer a repassé 1 an Prisonnier au sauna public, il fait des frises sur un cahier denfant Cest physique, le rien souffre du vide, le plus attire le moins Et si tu perds ton pari, je te coupe la main Furieux, même Adam en a marre de s'taper Ève Pourquoi le gluon du bouillon Knor fait-il grève ? LE JOUAGE Parce quil a une ablation de lorteil inférieur droit et sniffe du magnésium Et rêve dune pâquerette en boucle de ceinture et voit la vie en opium En plus vous savez que cest un espion ? Et quil milite pour le retour de Sidney hip hop a la télévision Allez! Viendez danser dans un fracas de bulle dhirondelle rance Ça devient vulgaire que de toujours devoir repousser les avances Du ptérodactyle en talons aiguilles qui recherche de laventure Jai lsourire électrique qui est en symbiose avec ma carcasse couleur feuille de lotus JAMES DELLECK Fluorées les dents se percutent en silence Musique, montre, il-de-buf, TF1, pénitence Le grumeau du liquide biliaire nest pas commode Alors place au commandant Stubin parce que lui connaît la mode Cest gratis, je monte dans une belle voiture auto-bronzante Essieux montés sur échasses pour quelle soit moins bruyante Terré dans mon trou le terreau entre dans mon cerveau Les microbes me parlent alors je deviens bio LE JOUAGE Man le rouge de préférence parce que cest le chef de la bande Ma préférée couleur cest le vert pourpre par ce quelle se marie bien avec mon teint, cest excitant Ya aussi le signe chez le jack New-jack en français ça veut dire jack le nouveau ou le nouveau jack Exclusif jai le témoignage dune tuile en sweat-shirt come-8 de retour de vacances Lentrevue se déroule en présence de 7 nains, Blanche-Fesse et les 7 mains Et mon pote Harry Plotteur, un ami qui vous veut du bien JAMES DELLECK Le bien, le mal, lasperge, la catin La bière et la courroie qui ressert un bout de sein façon SM Sème la graine du compact disque poilu Moelleux, pâlis denvie la crise de palu' emmène la crasse de Paris Pas vu pas pris je discute avec une prostate en smoking Qui me vend en contre-bande une place de parking Start end rec. review pause Vas-y mets la dose pense à autre chose même si tes albinos ! LE JOUAGE Et même si tes con on fera un tour par chez Bénédicta Boire en plat de résistance des pattes Benetton et du thon mayonnaise Pour être fraîche cool et bien portant comme lenvol dun piano a queue Parfume toi avec du Wizard parce que tu ne vaux rien Si ce nest un concentré de coït manuel dicté par une bonne aventure ingurgitée a midi Un apport de glucidique avarié au goût de bibine Ces derniers jours seul linterrogation ma préservé du désespoir Professeur je vais bien jai dans la tête comme un goût de miroir</t>
+          <t>Ici les corps et les âmes se déforment et s'enchevêtrent Troublée tu contemples ta douce pudeur disparaître La masse ondule comme un océan sous la surface Tu surpasses tes impasses à chaque flux qui t'enlace Chacun abandonne sa cuirasse du quotidien Tous se brassent, à l'abri du péché des surfaciens La volupté t'enveloppe à l'excès, dans l'extase C'est sur des torses que tes seins s'écrasent Des inconnus t'frôlent dans la foule en liesse Le rythme t'enivre, tu transgresses Sans frein, à chaque mouvement d'bassin Tu t'sens partir toujours plus loin quand arrivent les refrains Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Quand la sueur s'exprime, la raison se tait C'est quand la proie a peur que le prédateur le sait Les gens s'explorent du regard, les mots se susurrent Ton corps humide est poussé jusqu'au point d'rupture Tes postures vont jusqu'à faire saliver les bouches L'ange sans auréole se transforme en sainte qui touche À demi-nue, tu n'peux plus te dominer Damned, tu t'aventures au milieu de c'terrain pas déminé Du lâcher-prise, tu n'en voulais pas tant Tu trembles comme parcourue par un orgasme latent Bercée au plus profond de l'irrésistible danse Seules peuvent savoir celles qui ont déjà connu cette transe! Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Envoûtée, tu courbes ta croupe veloutée Tu n'écoutes plus tes doutes, tes yeux larmoyants sont floutés La musique se déverse et pervertit ta perception Tu vois les murs suinter d'une étrange sécrétion Dans c'chaos, pris par l'ivresse des sons digitaux Tu n'avais pas vu que les pieds de ces gens étaient des sabots Derrière le rideau pourpre se trouve le chef des lieux Bercée dans ce brasier, tu savoures ses caresses de feu! Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Le jardin</t>
+          <t>L’étranger</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Il y flotte toujours un glacial vent d'hiver Où croupit la pisse des bergers sans muselière Quelques crevasses ressortent dans la lumière Ses frontières s'étendent comme l'injustice d'un cancer Il y pousse des tulipes mellifères Et de jolies jolies roses trémières Les ronces sont ornées de couronne dentaire Dans le jardin d'Hitler C'est le royaume des vers de terre Des larmes d'enfants et de leurs mères Une pépinière de pus calcaire Dans le jardin d'Hitler Plutôt paisible je l'confère Arrosé d'une haine urinaire Les étoiles elles sont sous la terre Dans le jardin d'Hitler Du chiendent à l'odeur de chair Ondule dans des orifices oculaires Putréfiés sous une lune aurifère Dans le jardin d'Hitler Même les insectes préfèrent s'épanouir en lisière Evitant les fleurs de l'aride litière Bien derrière le lit de la petite rivière Où sont emprisonnées tant de prières Certes d'un style un peu militaire Les bourgeons y croisent quelques maxillaires Le pollen sent le gaz et l'éther Dans le jardin d'Hitler Des cris remontent comme des lianes de lierre Chuchotés pour passer les millénaires Acides comme du liquide biliaire Dans le jardin d'Hitler Quelle connerie de retourner poussière Le pire c'est que dans l'ombre d'hier Des senteurs me semblent aujourd'hui aujourd'hui si familières Peut-être que l'Aryen n'est pas qu'en arrière Et que le putain d'temps n'a pas tout recouvert</t>
+          <t>L'étranger 3 J'rentre dans la danse, des scalps sous votre apparence En crachant le galbe des mots jusqu'à en perdre connaissance Je n'ai pas l'échine souple et un certain handicap à m'soumettre Peut-être suis-je comme Ferré ni Dieu ni maître Prisonnier de ce bocal, je ne vois même plus l'Océan La plupart des psys consultés m'appellent le déviant Seul comme un chien sur la tombe d'une vie qui s'étiole Je gémis, entendu seulement par les vents de la nécropole Je n'reconnais plus mes congénères à la souche Avachis dans leurs petites vies, un anus à la place de la bouche Le sapiens civilisé m'apparaît flou, je me recroqueville loin de nous Je ne suis pas d'chez vous L'étranger 6 Mes cheveux se dressent à la vue des pantins Je sors des chapeaux de la gueule des lapins Au-dessus de la surface, mon exil est dans chaque syllabe En éternel ostracisme, mes cils transpirent de sel Je ne veux plus vivre dans cette étoffe qui m'oxyde Un jour, vous de n'retrouverez de moi qu'une enveloppe translucide En silence, j'panse mes plaies en me recueillant Inquiet de n'pas avoir de nouvelles de Dieu depuis 30 ans Je n'suis pas l'homme moderne, toutes options en série Fabriqué dans l'usine human global industry Vos vies figées dans les affres de la conformité Me rendent absent d'un monde dans lequel je n'suis pas agréé L'étranger 6 J'inquiète vos certitudes puisque moi J'ai du Ciel dans les yeux et des oiseaux dans la voix Prophète d'une improbable révolte Ecorché, mon insurrection se nourrit de peines incandescentes Je me croise sans me reconnaître dans des rues vidées de sens Dans l'abominable ventre de nos viles existences Suspendu dans l'vide, je m'invente une vie pour rester debout Sans trahir mes tourments et ses tumultes remous Sans racines, je me sens comme un touriste dans vos clapiers Un déporté asphyxié par vos sombres gémissements Je dois m'envoler loin derrière l'écume Si je bats des ailes fort, peut-être qu'un gamin ramassera ma plume</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Le profil psychologique</t>
+          <t>Mais c’est qui?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bonjour, bienvenue dans notre agence de rencontres spécialisée dans les Suédoises. Asseyez-vous. Alors, pour mieux vous connaître, je vais vous donner le formulaire à remplir. C'est juste pour faire votre profil psychologique. Alors vous allez voir, c'est très simple dans la colonne plus vous mettez tout ce que vous aimez. Tout ce qui vous passe par la tête. Prenez votre temps, je reviens vous voir tout à l'heure Merci! Je vous en prie! J'aime monter en scène avec des baskets sans lacets Passer le jour de l'An avec 6 Thaïlandaises pour me masser Manger avec Michael Moore dans un resto indien Le monoski, Belle mais pas Sébastien Les polaroïds jaunâtres et leur cortège de souvenirs Les MacIntosh et les blagues qui font pas rire Partir dans un fou rire sans s'arrêter Admirer Audrey Tautou même si elle est habillée Entendre crapoter le début d'un bon vinyle Observer les videurs s'afficher, pensant qu'ils sont virils Le Tibet, son peuple, la propreté des chats L'augmentation du prix du tabac Les dragons de Komodo et les fleurs factices Qu'une fan me dise que j'ai un air de Guy Pearce La sieste après une bonne digestion Les angines qui empêchent de chanter Céline Dion J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil J'aime voir le ciel pleurer l'été Déguster un poulet au citron en dégrafant un bustier Traîner pendant le mois d'août à Paris Mettre les doigts dans la pâte à gaufre surtout quand c'est pas permis Ecouter les gens en croquant un tic-tac orange Arriver à l'heure au rendez-vous et les films étranges Les pandas géants, le suicide d'un mormon polygame La Soupline et les barbus qui respectent les femmes Le parfum d'la vérité, vivre l'instant Par nature avoir raison, mais pas tout l'temps Le langage et les richesses que l'on partage Le planning familial, m'envoler sans truquage Le rire des libellules, les radars de recul La légère brise qui caresse les testicules Regarder la télé avec une hache Les pavés, ceux qui se lancent, et les idéaux qui se crachent J'aime Les bains chauds, le pain chaud, jouer avec mon chien La peinture à la chaux, la clim' et les beaux seins J'aime Les émissions sur les clacanthes, poissons fossiles La laïcité et me taper sur la bonne joue quand j'ai un cil</t>
+          <t>C'est qui? James Delleck C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck J'ai pas de tenue d'apparat pour paraphraser le perfect J'suis juste d'apparence clean quand j'place mon pugilat de rimes Certain me hait parce que je fous les vumètres dans l'rouge Mais si c'est si nase, pourquoi t'as la tête qui bouge? À coup de flow syncopé, coté, mon attaque en haute technologie J'place ma tessiture sur rythme illogique Parfois provoc', mais jamais vulgaire Comme un Slim Shady qui traite sa reum Ou comme une tass' qui traîne une haleine de rhum J'suis le petit du dessous qui compte comme une rumeur Avec le verbe pour vice, mixé dans les fracas de sampler Je resserre l'étau sur notre air vicié Pour rendre les vues d'l'esprit plus lourds qu'les métaux précieux C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck Face à toutes ces fientes qui veulent que le hip-hop se gaspille Je me dresse, fais remonter la soliste dans un concert gospel J'suis pas à la mode que j'entends sur les FM Et pas ces beaufs, qu'un slogan du FN mixé aux infos d'TF1 Alors jusqu'au bout d'la dignité, je puise la source Pour que l'auditeur ne s'transforme pas en gnou perdu en brousse Sur les fausses loops de faux MC Alors les gens m'jugent rebelle comme le bio face à l'OMC J'suis celui qui pète leurs formats Et franchit franchement jusqu'aux frontières de c'qu'ils ont décrété possible Descendant du bonobo de M, j'balance de l'anti-lobotomie Pour transformer la foule en peuple C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Le Réverbère</t>
+          <t>Messagerie vocale</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Du haut de la canopée de béton j'suis d'humeur clair-obscur Quand dans ma lueur éclate le sang de vos bavures Mon halo lumineux met en lumière toutes vos hontes Pendant que la sueur sociale s'accumule à ma base A genoux, une mère pleure, un sac de course l'anse rompue Comme si c'était le signe d'un destin déchu De l'aurore à l'aube, j'éclaire sans jamais vaciller Pour mettre en luminescence vos vies sordides Un soir, j'entendis même des S.O.S stressés Les cris d'une fille que l'on salissait près du bloc C Tout le monde s'en moque, c'est devenu si commun Que la crasse de vos âmes peut même masquer votre chagrin Sous mon il de lumière Sous mon il de lumière Au-dessus de vos corps sans vie, j'inhale les vapeurs de souffrance Mais quand j'y pense, j'sais pas si j'en ai encore envie Hier, j'ai éclairé un chien s'faire débiter Après avoir été donné en pâture à trois pitts, et Quand la pluie se mit à tomber, le SDF du Square Pagnol Su que la carcasse accrochée était son ex-compagnon J'étais devenu autel de sacrifice Totem du mal, où se défoulent les fils de putes et leurs vices Planté sur l'épicentre du tourment Je ne sers plus, ne rassure plus, ou rarement Alors plutôt que de voir le sol et ses désastres Parfois j'aimerais tourner la tête pour contempler les astres Sous mon il de lumière Sous mon il de lumière Sous mon il de lumière, j'ai la vision trouble À cause de vos parjures et autres substituts de vie Noyé dans vos brumes, je ne suis qu'un cierge Pendant qu'vous vous débattez comme des carpes sur une berge J'ai même éclairé des cavaliers de l'apocalypse en BMV Faire commerce de mort derrière leurs vitres teintées Éreinté de voir sans pouvoir Miné du haut de ma cime, je m'affaiblis en silence Mais là, en-dessous je revis la jeune mère et ses mioches Décidée à tout plaquer sans un regret en poche Marre d'être rouée de coups elle se voûte sous ma lueur Certains la diront lâche, moi je m'éteins pour lui faire honneur</t>
+          <t>Salut je m'intitule celui dont tout le monde veut copier l'attitude La stature, la carrure, l'immature qui assure A ton insu bien-sûr Bref il ne reste plus de place pour un message venant d'un mâle Je préfère les seins durs, gonflés Si t'es une femme bien montée sans hésiter s'il te plait laisses moi un massage Je réponds bien au doux nom de Nikk' Laissez votre requête, en français, sans accent tonique Et hop, le bip ! Salut c'est Slick Nikk' T'aurais pas vu ma plate-name ? J'ai eu votre candidature, vous êtes Arabe , et ça m'gène ! Ouais, c'est Kim, j'suis encore au Vietnam J'filme une équipe de déminaaage ! C'est Edgar Passez donc à mon vernissage Ouais, c'est Saïd, hey, j'suis en panne d'essence sur l'A86 Bonjour, c'est Pierre, en CM1, j'étais ton instit' ! Donc, rien d'intéressant en ce jour de 22 décembre J'suis endeuillé et j'dois pécho 5 keus d'essence ! Je suis très absent pour le moment convalescent en tout sens Je vous rappellerais après avoir repris connaissance Séquencées en mesures, mes pensées copulent c'est insensé Symptôme je n'arrive pas à danser Considéré comme pollution sonore, cela m'honore Perdu dans mon labyrinthe je joue au scrabble avec un minotaure À mi-chemin entre mes chimères et son diocèse Pour un message étoile une insulte appuyé sur dièse ! Allo Ouais? Ça va? Ok, hmm, non Sérieux? ah chanmé C'etait une blague désolé Je suis encore occupé Je ne suis là pour personne J'ai même éteint mon téléphone J'ai du travail à terminer Des conneries à enregistrer Des lesbiennes à sodomiser Donc rappelez plus tard S.V.P. laissez un message clair après le bip sonore Ivre mort je suis absent si c'est pour l'absynthe Appelle ma masseuse taïwanaise au commissariat En laissant ton adresse pour la livraison rapide cinq minutes Chronopost Glisse le mot de passe et si tu comptes acquérir une magnifique Simca Laisse le numéro de ta mastercard et son code Dans une putain d'ambiance hardcore crade En bipant 12 et la touche dièse, à bientôt ! P.S Si tu es bip ne me laisse pas d'message !</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Le sourire</t>
+          <t>Nombreux</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Je me sens bien, en paix avec moi-même J'entends les cris des enfants jouant dans la cour Les feuilles frémissent sur ma fenêtre du huitième Pendant qu'une douce chaleur entre et me parcourt Elle vient, je la sens, j'abandonne C'est le moment, personne ne peut rien y faire Les bruits s'amplifient et petit à petit résonnent Je me fonds dans la lumière qui embaume l'air Les miens m'entourent alors de leur tristesse Mais 87 ans déjà que je suis né Si évidentes, toutes les réponses m'apparaissent Dans un moment magique d'une intense légèreté Mon petit-fils me murmure pas maintenant Mais tu comprends que je ne peux rien Profite, sans vouloir trop vite devenir grand Belle est l'insouciance quand on ne pense au lendemain Les derniers grains du sablier se sont écoulés Alors je me sens voler au-dessus de nous Et même si cette longue route m'a fatigué Prenez, mon dernier sourire est pour vous</t>
+          <t>Échappé du buffet des anciens élèves Mes cris s'élèvent, sincères, sur le bout des lèvres Mon sortilège, je l'subis ou j'en crève Sur le manège d'enfants, j'ai attrapé une grappe de rêves Depuis, j'ai l'allocution épicée J'essaie de vivre pour jamais m'asphyxier Sans mettre des patins pour l'parquet C'est toute une génération qu'j'ai marquée Axé sur l'abstrait onirique Une armée de Shadoks pour public L'il sombre comme le cul d'un lombric Nous tous formerons une éclipse J'éclate sur l'antre de ma folie Va chez Darty c'est pas fini De l'acouphène jusqu'au papillon qui crie Te demande pas c'est qui? Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux Agréable comme un verre de javel, appelle Les secours vu qu'j'crache mes rimes à coups d'pelle Dur et froid comme un gosse au congèl' Je tache les convenances façon fluide menstruel J'abonde sans placebo J'suis l'Othello du caniveau Chaque bout de moi sont comme des briques de Lego Qui grondent comme une armée d'ados Moi l'artilleur prêt à m'éparpiller Crier dans un monde quadrillé Désolé si tu fais la musique d'hier Comme une escadrille je me compte par milliers J'suis comme une ruche qui part au galop Drogué à la menthe à l'eau Clown à la triste mine, au teint pâlot Même ma femme m'appelle le salaud Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux Ouais James, y a un problème technique, on règle ça vite! Qu'une minute Une minute? Non mais je... parce qu'on est sur l'album là, j'vais pas laisser les gens comme ça... bah écoute j'vais faire un slam pour combler un petit peu J'aimerais parler d'une grande dame qu'on appelle Paris Princesse, ô princesse! Princesse de nuit qui n'a d'cesse de briller sous les flashs Tu défiles sur les scènes illusoires des spectres du succès Ta mère pense que tu perces vu ta plastique Mais sous les paillettes t'a la face plein d'liquide spermatique Comme un vulgaire appât tu t'plais autour des hyènes Ornée d'carats tu rutiles, du futile tu es reine Comme une limace, on t'suit à la trace À ton aspect tu laisses derrière toi une file en érection au lieu d'respect Dans les réceptions tu détournes l'attention sur ton bonnet C Car si tu l'ouvres, t'es aussi vide qu'une réplique de Taxi 2 Tes meilleurs amis, c'est Lexomil et le laxatif Ooh! T'es une femme super active, mais aussi lisse Qu'une rime de Ségara passée au Babyliss Tu caches tes cicatrices en thérapie Parce que ton père voulait un fils Tu t'prends pour une panthère toi la chatte miaulante Tout l'temps souriante puisque heureuse et ignorante Ton plan d'carrière, fille à Papa pro Puis starlette amateur pour terminer couverte de parures au bras d'un armateur Piétinée par l'temps t'es plus qu'un soda éventée Tu chiales de perdre tes mensurations jalousées Dire qu't'auras fait tant d'bruit pour être reine des abeilles Une fois fanée tu n'seras plus qu'un murmure dans une abbaye Ouais c'est réglé, on y retourne</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Le Titty Twister</t>
+          <t>Oui mais...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ici les corps et les âmes se déforment et s'enchevêtrent Troublée tu contemples ta douce pudeur disparaître La masse ondule comme un océan sous la surface Tu surpasses tes impasses à chaque flux qui t'enlace Chacun abandonne sa cuirasse du quotidien Tous se brassent, à l'abri du péché des surfaciens La volupté t'enveloppe à l'excès, dans l'extase C'est sur des torses que tes seins s'écrasent Des inconnus t'frôlent dans la foule en liesse Le rythme t'enivre, tu transgresses Sans frein, à chaque mouvement d'bassin Tu t'sens partir toujours plus loin quand arrivent les refrains Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Quand la sueur s'exprime, la raison se tait C'est quand la proie a peur que le prédateur le sait Les gens s'explorent du regard, les mots se susurrent Ton corps humide est poussé jusqu'au point d'rupture Tes postures vont jusqu'à faire saliver les bouches L'ange sans auréole se transforme en sainte qui touche À demi-nue, tu n'peux plus te dominer Damned, tu t'aventures au milieu de c'terrain pas déminé Du lâcher-prise, tu n'en voulais pas tant Tu trembles comme parcourue par un orgasme latent Bercée au plus profond de l'irrésistible danse Seules peuvent savoir celles qui ont déjà connu cette transe! Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale Envoûtée, tu courbes ta croupe veloutée Tu n'écoutes plus tes doutes, tes yeux larmoyants sont floutés La musique se déverse et pervertit ta perception Tu vois les murs suinter d'une étrange sécrétion Dans c'chaos, pris par l'ivresse des sons digitaux Tu n'avais pas vu que les pieds de ces gens étaient des sabots Derrière le rideau pourpre se trouve le chef des lieux Bercée dans ce brasier, tu savoures ses caresses de feu! Au Titty Twister ! Vas-y danse sale, danse salement, vas-y danse sale</t>
+          <t>Tes lèvres me blasphèment De jolis petits poèmes Sur ton faible pour le bondage extrême Oh je crois bien que tu m'aimes Tes belles dents bien alignées Tes analyses sans MST Tout ça me semble parfait Oui mais y a un mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Pourtant Troisième dan de tango argentin Une fatale chute de reins Ton 36 taille mannequin Tu tiens l'pouvoir entre tes mains Un côté sexy-austère Tes jarretelles noir panthère Un vrai fantasme publicitaire Le haut d'gamme des mammifères Le brushing de tes cheveux Le courage de tes aveux Le regard des hommes envieux La transparence de tes yeux bleus De partout bien épilée Ton petit chemisier tout serré Tout ça me semble parfait Oui mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Une frimousse insolente Ta voix qui me complimente Ton regard de biche provocante Tes bisous cerise-menthe Ton nez si bien dessiné T'as une forme parfaite de pieds D'une famille fortunée Ton haleine est bien élevée Ta voiture décapotable Ton ventre plat est confortable Au grain de peau impeccable Tes jambes sont interminables Tes promesses de tour du Monde Ton château près de Londres Tout ça pour que je succombe Oui mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Mariée mais célibataire Tu minaudes comme un revolver Même déguisée en Bunny Ne m'attends pas toute la vie Mais putain t'as pas compris Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Je t'aime pas Je t'aime pas</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>L’étranger</t>
+          <t>Personne</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L'étranger 3 J'rentre dans la danse, des scalps sous votre apparence En crachant le galbe des mots jusqu'à en perdre connaissance Je n'ai pas l'échine souple et un certain handicap à m'soumettre Peut-être suis-je comme Ferré ni Dieu ni maître Prisonnier de ce bocal, je ne vois même plus l'Océan La plupart des psys consultés m'appellent le déviant Seul comme un chien sur la tombe d'une vie qui s'étiole Je gémis, entendu seulement par les vents de la nécropole Je n'reconnais plus mes congénères à la souche Avachis dans leurs petites vies, un anus à la place de la bouche Le sapiens civilisé m'apparaît flou, je me recroqueville loin de nous Je ne suis pas d'chez vous L'étranger 6 Mes cheveux se dressent à la vue des pantins Je sors des chapeaux de la gueule des lapins Au-dessus de la surface, mon exil est dans chaque syllabe En éternel ostracisme, mes cils transpirent de sel Je ne veux plus vivre dans cette étoffe qui m'oxyde Un jour, vous de n'retrouverez de moi qu'une enveloppe translucide En silence, j'panse mes plaies en me recueillant Inquiet de n'pas avoir de nouvelles de Dieu depuis 30 ans Je n'suis pas l'homme moderne, toutes options en série Fabriqué dans l'usine human global industry Vos vies figées dans les affres de la conformité Me rendent absent d'un monde dans lequel je n'suis pas agréé L'étranger 6 J'inquiète vos certitudes puisque moi J'ai du Ciel dans les yeux et des oiseaux dans la voix Prophète d'une improbable révolte Ecorché, mon insurrection se nourrit de peines incandescentes Je me croise sans me reconnaître dans des rues vidées de sens Dans l'abominable ventre de nos viles existences Suspendu dans l'vide, je m'invente une vie pour rester debout Sans trahir mes tourments et ses tumultes remous Sans racines, je me sens comme un touriste dans vos clapiers Un déporté asphyxié par vos sombres gémissements Je dois m'envoler loin derrière l'écume Si je bats des ailes fort, peut-être qu'un gamin ramassera ma plume</t>
+          <t>Un démon me dévore, se glissant dans ma solitude Tel un ange de glace , je suis fixé sur le réseau Paris-Sud Perdu dans un jardin de rose, rassuré par ma sueur Je souffre, écorché par leurs épines mais fasciné par leur couleur Mi-homme, mi-disloqué, encaissant l'inexorable L'esprit fané, mon visage se plisse comme une rose des sables Mes troubles ricochent sur l'étang formant des anneaux grandissants J'entends mes larmes crier dans leur chute devant vos yeux lisses Je me dispute avec toutes les ombres qui rodent autour de moi De derrière ma cornée, je vois des spectres s'échapper de vos sacs Zara À l'écart du réel, je porte ma crasse comme le noir du deuil En marge comme le numéro griffonné sur le coin d'une feuille Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Je suis précaire, réchauffé par la nuit tel un duvet de mohair L'astre lunaire me guette comme un cerbère de lumière Je m'enlise dans toutes ces images de clairvoyance Dans le ravin social ravagé par mes cinq sens J'ai vu des choses que vous ne soupçonnez pas, au verso Tous ces gens avec ces monstres accrochés dans leur dos En vous massant la nuque pensant à une douleur musculaire Alors que des bêtes sucent votre lumière contenue dans la moelle épinière Vous, moi, qui est le mort parmi les vivants Dans les yeux se dessinent l'amour ou les tyrans J'aimerais croire en la vie pour en recommencer une deuxième Tout effacer comme une dispute qui se termine par un je t'aime Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Mon corps de poussière se torture de mélodies passées Que je chante à l'envers sans jamais pouvoir les recto verser Assis sur le quai, j'écris avec mon index à mon fils Joseph Dessinant d'étranges signes sur un bas-relief Des rêves je n'en fais plus même en rêve Je tutoie le néant de l'autre côté de la rive Le chaos m'absorbe dans les faubourgs de mes peurs Quand il prend la forme d'une fillette qui me fixe avec son sourire fleur ! Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mais c’est qui?</t>
+          <t>Petit démon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C'est qui? James Delleck C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck J'ai pas de tenue d'apparat pour paraphraser le perfect J'suis juste d'apparence clean quand j'place mon pugilat de rimes Certain me hait parce que je fous les vumètres dans l'rouge Mais si c'est si nase, pourquoi t'as la tête qui bouge? À coup de flow syncopé, coté, mon attaque en haute technologie J'place ma tessiture sur rythme illogique Parfois provoc', mais jamais vulgaire Comme un Slim Shady qui traite sa reum Ou comme une tass' qui traîne une haleine de rhum J'suis le petit du dessous qui compte comme une rumeur Avec le verbe pour vice, mixé dans les fracas de sampler Je resserre l'étau sur notre air vicié Pour rendre les vues d'l'esprit plus lourds qu'les métaux précieux C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck Face à toutes ces fientes qui veulent que le hip-hop se gaspille Je me dresse, fais remonter la soliste dans un concert gospel J'suis pas à la mode que j'entends sur les FM Et pas ces beaufs, qu'un slogan du FN mixé aux infos d'TF1 Alors jusqu'au bout d'la dignité, je puise la source Pour que l'auditeur ne s'transforme pas en gnou perdu en brousse Sur les fausses loops de faux MC Alors les gens m'jugent rebelle comme le bio face à l'OMC J'suis celui qui pète leurs formats Et franchit franchement jusqu'aux frontières de c'qu'ils ont décrété possible Descendant du bonobo de M, j'balance de l'anti-lobotomie Pour transformer la foule en peuple C'est qui? L'électron libre qui court-circuite les circuits C'est qui? C'est celui qui place des mines sur maxi C'est qui? Je suis l'enfant de Vitry, fou insoumis C'est qui? Delleck c'est qui? C'est qui? C'est le chevelu au brassard de MC C'est qui? J'suis sain de corps et diable d'esprit C'est qui? Noble et incompris tel un poème en sanskrit C'est qui? C'est moi, c'est qui? James Delleck</t>
+          <t>Viens-là! Explique-moi pourquoi T'as fait du ciment avec les cendres de Papy En dansant gaiement avant d'brûler le tapis Craché sur les passants, vendu le chien sur eBay Mis un crampon à la place de ta dent d'lait Triché pour gagner au poker Tapé l'voisin avec une batte de croquet Hep tu fais même peur à ta maîtresse Normal depuis qu'tu lui as brûlé ses tresses Pourquoi t'as égorgé la peluche d'Odile Et simulé une orgie avec ses Playmobil Rayé tous mes disques de Serge Lama Arrête de traiter d'pédé l'Dalaï-Lama Ta mère et moi sommes sceptiques Si tu continues, tu vas finir homme politique Même le pasteur t'appelle Satan Tu trouves normal d'écouter Marilyn Manson à cinq ans Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con Tu vas te taire, arrache-moi ces posters Me regarde pas comme ça, et pose-moi ce cutter C'est pas les WC, c'est le salon ici J't'ai déjà dit mille fois d'pas y faire pipi Enlève-moi cette croix gammée, c'est vulgaire À la télé tu regardes pas Dora mais Dexter Tu sais t'auras rien à Noël Si tu continues à t'mettre des coups de truelle J'compte plus les fois où c'est la panique La liste est aussi grande qu'une queue aux Assedic Ta maman n'supporte plus tes crises de nerfs Quand t'essaies de l'étouffer avec une fougère Mais pourquoi lacérer ma chemise pure soie Ou ébouillanter tes potes à coup d'potage pékinois Ça suffit, tu seras privé de dessert Tant qu'tu nous diras pas où t'as mis le corps de grand-mère Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con Cracher c'est mal Taper c'est mal Désobéir c'est mal Mordre c'est mal Voler c'est mal S'bagarrer c'est mal Tricher c'est mal Mentir c'est mal Séquestrer c'est mal Étouffer c'est mal Amputer c'est mal Lacérer c'est mal Lapider c'est mal Immoler c'est mal Découper c'est mal Énucléer c'est mal Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Messagerie vocale</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Salut je m'intitule celui dont tout le monde veut copier l'attitude La stature, la carrure, l'immature qui assure A ton insu bien-sûr Bref il ne reste plus de place pour un message venant d'un mâle Je préfère les seins durs, gonflés Si t'es une femme bien montée sans hésiter s'il te plait laisses moi un massage Je réponds bien au doux nom de Nikk' Laissez votre requête, en français, sans accent tonique Et hop, le bip ! Salut c'est Slick Nikk' T'aurais pas vu ma plate-name ? J'ai eu votre candidature, vous êtes Arabe , et ça m'gène ! Ouais, c'est Kim, j'suis encore au Vietnam J'filme une équipe de déminaaage ! C'est Edgar Passez donc à mon vernissage Ouais, c'est Saïd, hey, j'suis en panne d'essence sur l'A86 Bonjour, c'est Pierre, en CM1, j'étais ton instit' ! Donc, rien d'intéressant en ce jour de 22 décembre J'suis endeuillé et j'dois pécho 5 keus d'essence ! Je suis très absent pour le moment convalescent en tout sens Je vous rappellerais après avoir repris connaissance Séquencées en mesures, mes pensées copulent c'est insensé Symptôme je n'arrive pas à danser Considéré comme pollution sonore, cela m'honore Perdu dans mon labyrinthe je joue au scrabble avec un minotaure À mi-chemin entre mes chimères et son diocèse Pour un message étoile une insulte appuyé sur dièse ! Allo Ouais? Ça va? Ok, hmm, non Sérieux? ah chanmé C'etait une blague désolé Je suis encore occupé Je ne suis là pour personne J'ai même éteint mon téléphone J'ai du travail à terminer Des conneries à enregistrer Des lesbiennes à sodomiser Donc rappelez plus tard S.V.P. laissez un message clair après le bip sonore Ivre mort je suis absent si c'est pour l'absynthe Appelle ma masseuse taïwanaise au commissariat En laissant ton adresse pour la livraison rapide cinq minutes Chronopost Glisse le mot de passe et si tu comptes acquérir une magnifique Simca Laisse le numéro de ta mastercard et son code Dans une putain d'ambiance hardcore crade En bipant 12 et la touche dièse, à bientôt ! P.S Si tu es bip ne me laisse pas d'message !</t>
+          <t>C'est l'attaque des mal-aimés Les détestés qui même molestés vont infester le gang T'as des airs incontestés Force et honneur à tous mes gris tachetés Voila les révoltés les maltraités au sang-mêlé Vandales prêts à tout péter On fiente sur le prince Rainier jusqu'aux mains de bébé On est la face cachée de vos grandes cités Une race de flibustiers préparée pour se libérer à la vue pigeonnante sur vos décolletés Portés par les vents pollués les holsters sous les yeux ronds par milliers à vous observer Parés, comme des acharnés, ailes déployées Sache que ta couette en plume n'est qu'un charnier Les rôles vont s'inverser on va laver notre honneur dans une flaque d'eau frelatée Fait pas l'étonné qu'on soit des oiseaux fâchés Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme Anarchiste, déféqueur Visant les parts des hipsters Fiantant même sur ton comics collector sans blister À tous nos frères tombés sous les roues des livreurs DHL pour seul crime d'avoir voulu finir un putain de burger béchamel On tapisse le ciel, tapis dans les ruelles L'ombre de nos ailes vous annonce La fin de votre expansion naturelle Postée sur la bordure d'une gouttière une mer de fiente tombera sur tes prières C'est bien vous, qui êtes dans une cage sans litière Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme On slalom entre vos silhouettes parasites On allait pas se contenter de Parassi Gare à ta calvitie ton blond va virer au gris khaleesi C'est la révolte des rats volants descendants-descendants de toutan dans l'boucan Regarde sur ton front, y'a un truc coulant, y'a un truc coulant, y'a un truc coulant On est tous le pigeon de quelqu'un c'est ça le pire On plane, tu transpires J'étale mon empire Conspire, sur les cendres de vos sourires Ramasse donc ma plume si tu veux maigrir</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nombreux</t>
+          <t>Pixel Puppet</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Échappé du buffet des anciens élèves Mes cris s'élèvent, sincères, sur le bout des lèvres Mon sortilège, je l'subis ou j'en crève Sur le manège d'enfants, j'ai attrapé une grappe de rêves Depuis, j'ai l'allocution épicée J'essaie de vivre pour jamais m'asphyxier Sans mettre des patins pour l'parquet C'est toute une génération qu'j'ai marquée Axé sur l'abstrait onirique Une armée de Shadoks pour public L'il sombre comme le cul d'un lombric Nous tous formerons une éclipse J'éclate sur l'antre de ma folie Va chez Darty c'est pas fini De l'acouphène jusqu'au papillon qui crie Te demande pas c'est qui? Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux Agréable comme un verre de javel, appelle Les secours vu qu'j'crache mes rimes à coups d'pelle Dur et froid comme un gosse au congèl' Je tache les convenances façon fluide menstruel J'abonde sans placebo J'suis l'Othello du caniveau Chaque bout de moi sont comme des briques de Lego Qui grondent comme une armée d'ados Moi l'artilleur prêt à m'éparpiller Crier dans un monde quadrillé Désolé si tu fais la musique d'hier Comme une escadrille je me compte par milliers J'suis comme une ruche qui part au galop Drogué à la menthe à l'eau Clown à la triste mine, au teint pâlot Même ma femme m'appelle le salaud Entends-tu gronder mes dissidents sous décibels Je suis nombreux Le Delleck saisissable comme un nuage de sauterelles Je suis nombreux À foison comme les rondelles chez Marc Dorcel Je suis nombreux Terrien quand d'un mot tu m'vois rayer l'ciel C'est qu'je suis nombreux Ouais James, y a un problème technique, on règle ça vite! Qu'une minute Une minute? Non mais je... parce qu'on est sur l'album là, j'vais pas laisser les gens comme ça... bah écoute j'vais faire un slam pour combler un petit peu J'aimerais parler d'une grande dame qu'on appelle Paris Princesse, ô princesse! Princesse de nuit qui n'a d'cesse de briller sous les flashs Tu défiles sur les scènes illusoires des spectres du succès Ta mère pense que tu perces vu ta plastique Mais sous les paillettes t'a la face plein d'liquide spermatique Comme un vulgaire appât tu t'plais autour des hyènes Ornée d'carats tu rutiles, du futile tu es reine Comme une limace, on t'suit à la trace À ton aspect tu laisses derrière toi une file en érection au lieu d'respect Dans les réceptions tu détournes l'attention sur ton bonnet C Car si tu l'ouvres, t'es aussi vide qu'une réplique de Taxi 2 Tes meilleurs amis, c'est Lexomil et le laxatif Ooh! T'es une femme super active, mais aussi lisse Qu'une rime de Ségara passée au Babyliss Tu caches tes cicatrices en thérapie Parce que ton père voulait un fils Tu t'prends pour une panthère toi la chatte miaulante Tout l'temps souriante puisque heureuse et ignorante Ton plan d'carrière, fille à Papa pro Puis starlette amateur pour terminer couverte de parures au bras d'un armateur Piétinée par l'temps t'es plus qu'un soda éventée Tu chiales de perdre tes mensurations jalousées Dire qu't'auras fait tant d'bruit pour être reine des abeilles Une fois fanée tu n'seras plus qu'un murmure dans une abbaye Ouais c'est réglé, on y retourne</t>
+          <t>L'autre matin là, je me suis réveillé anormal mes bras, mes jambes, bah, ils faisaient ce qu'ils voulaient ! J'étais...J'étais comme prisonnier de mon corps, et c'est là que Jouage, il m'dit Quoi ? Toi aussi t'as la Pixel Puppet ? J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet Il n'est plus question de ne pas y croire Moi qui les croyait tous saouls Cherchant l'erreur parmi les dires et les écrits Se dandinaient la fantaisie plus que la folie Mon erreur a été de me croire en sécurité Protégé par une immunité futile Je me perds dans cette douce folie Commune car je le sais maintenant nul n'est à l'abri Je vis, je suis régi par l'inexpliqué qui me dépasse Qui engendre des multiples angoisses Ai-je besoin de thérapie ? Merde mon corps joue le danseur contemporain J'ai bien l'impression de ne plus avoir ma vie entre les mains Mes aisselles sentent la vulve de Vulcain J'sors plus par peur de m'pousser tout seul sous l'train Chaque matin ma brosse à dent devient un gourdin Voilà pourquoi ma langue a une haleine d'oursin Ma propre main veut métouffer sous un coussin P'tain j'dance comme un rockeur qui fête sa grève du rein J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'crois qu'on a chopé ça sur l'net Mais c'est quoi ce virus dextra terrien Il y a comme des liens qui me mettent la tête dans le purin Dis rien, ne me rappelle pas quand j'ai fais le chien Et que mon bassin a fait des spasmes malsains Mes pieds écrasent des bouses et des poussins Mes doigts tapent sur mes dents, comme un clavecin Chez moi c'est propre vu que j'bouffe les acariens Tellement j'bug c'est d'un exorcisme dont j'ai besoin Faut se rendre à l'évidence, nous sommes tous fous Donc crier à l'aide ne sert strictement à rien Jessaie de m'adapter à ce phénomène mais j'angoisse Je ne sais plus si l'effet est tactique ou si je suis victime de simples spasmes Lassé, je conspue cet état de bassesse Parfois mon esprit tordu s'en sert comme un prétexte Pour assouvir mon instinct de faiblesse Je cherche l'erreur dans ce mystère qui est devenu notre enfer J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Non Monsieur</t>
+          <t>P &amp; LOVE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Janvier 1001 Sterna - Paie le Prix - 2201 Booba - Autopsie Vol.2 Mixtape 2901 Ades - Un degré de plus 2901 Artistes Multiples - Compilation Rap R'and'B 2901 Black Marché - Au quart 2 Tour - 2901 Mafia K'1 Fry - Jusqu'à la mort - 2901 Flynt - 1 pour la plume EP Février 0502 Kamelancien - Le Charme en Personne 0502 Vitaa - À fleur de toi 1202 Artistes Multiples - B.O TAXI 4 1202 Faf Larage - Rap Stories 1202 IAM - Official Mixtape - 1702 Soprano - Puisqu'il Faut Vivre - 2602 Hocus Pocus - Du sable sur les paupières Maxi Mars 0503 Compilation Beat de Boul - Dans un autre monde 0503 Seth Gueko - Patate de Forain 1203 Anfalsh - Représailles chapitre 1 1203 Ärsenik - S'il en reste Quelque Chose Best-Of 1203 Artistes Multiples - Compilation Ecoute la rue Marianne 1203 Artistes Multiples - Compilation Get On The Floor - 1203 La Fouine - Aller-Retour - 1903 Youssoupha - À Chaque Frère 2603 Artistes multiples - Compilation Menace sur la planète rap vol.3 2603 L'Algerino - Mentalité Pirate 2603 - Octobre Rouge - Votez pour Nous 2603 Tony Parker - Tony Parker - XX03 Haroun - Sur Scène Maxi Avril - 0204 IAM - Saison 5 0204 Passi - Révolution - 1604 Haroun - Au Front 1604 Rohff - Au-Delà De Mes Limites Classics Réédition 1704 Smoker - La roue tourne 2304 Artistes Multiples - Compilation Chroniques de Mars Vol.2 2304 Enigmatik - Un Nouveau Souffle - 2304 La Rumeur - Du Cur à l'Outrage - 3004 Salif - Boulogne Boy Street Album XX04 Artistes Multiples - Compilation Délepenisons Mai 0205 Artistes multiples - Compilation Opinion sur rue Vol.3 0205 Psykick Lyrikah - Acte 0705 Dabaaz - Moi, Ma Gueule Et Ma Propre Personne 0705 Les Grandes Gueules - On ne peut pas plaire à tout le monde vol.2 1405 Brigade des mineurs - Brigade des mineurs 1405 Expression Direkt - D.Terminé 2105 Artistes Multiples - Compilation Traffic - 2105 Tar-One - À la première personne - 2805 Flynt - J'éclaire ma ville - 2805 Fatal Bazooka - T'as vu ? - 2805 Kamini - Psychostar World 2905 Manu Key - Prolifique Part 2 3105 Smoker - La roue tourne Juin 0406 Artistes Multiples - Compilation Il faut sauver le rap Francais 2 - 0406 Idir - La France des couleurs 1106 ATK - Silence Radio 1106 Mokobe - Mon Afrique 1106 Wouilo - Nouvelle Generation 1806 LIM - Délinquant Maxi - 1806 Mc Solaar - Chapitre 7 1906 MAF - Interdit d'illusion 2506 Artistes Multiples - Compilation Tetes Brulees Vol 4 2506 Demon One - Mon Rap 2506 Samm Coloquinte - Plus rien à foutre Juillet 0207 Rohff - Le cauchemar du rap Francais 1407 Many - Nerfs à vif Août 0208 Ahmad - Le môme qui voulut être roi 2708 James Delleck - Le cri du papillon 2808 Stomy Bugsy - Rimes Passionnelles Septembre 0309 Leeroy - Open Bar 0309 Oxmo Puccino - La réconciliation 1009 Alibi Montana - Inspiration guerrière 1009 El Matador - Parti de rien - 1809 VII - Lettre Morte 2409 Fat Cap - A l'arrache Octobre 0110 Artistes multiples - Marseille connexion Vol. 2 - 0110 TSR Crew - A quoi ça rime ? 0110 Bakar - Rose du béton - 0110 Hocus Pocus - Place 54 0810 Monsieur R - Ché guevara, Une braise qui brule encore 1510 Passi - Evolution 1510 Rockin Squat - Too hot for TV 2110 Smoker - Gangsta Music vol.1 2210 Alpha 5.20 - 3025 avant Rakailles 4 - 2210 Don Choa - Jungle de béton 2210 Jeff Le Nerf - Tout ce que j'ai 2510 Rouda - Musique des lettres 2710 LIM - Délinquant Double album 2910 Dontcha - Maxi Calibre - 2910 Enz - Ma Boutique 2910 Kamelancien - Le Charme En Personne Réedition Novembre 0511 Ol Kainry - Demolition Man 0511 Zakariens - Avenir en suspens 1211 Soprano - Puisqu'il Faut Vivre Réedition 1911 Aketo - Cracheur 2 Venin 1911 Idjal - Tiré d'histoires vraies 1911 Mc Arabica - L'Egalité dans la différence - 1911 Mino - Il était une fois 1911 TLF - Rêves de rue 2611 NTM - Best Of 2611 Rim K - Famille Nombreuse 2711 Sofiane - Première Claque Décembre 0112 Karlito - Ozas - 1012 Sinik - Le toit du monde 1112 Bouchées Doubles - Collector - 3112 T.I.S - La Petite Voiture Dates non connues Artistes Multiples - B.O Scorpion 2Bal - Mapassa Carpe Diem - En Temps Voulu Chodo - Sans règles Eech - Get Eech Stop Crying Kalash L'Afro - Cracheur de flammes La Spirale - Ni Dieu Ni Maître La Swija - Track One Tv L'Hexaler - Démo Mysa - Les poésies du chaos Pit Baccardi - Collector 1997-2007 mixtape Stress - Renaissance Artistes multiples - Compilation Neochrome hall stars X-Men - X-Story Zaho - Zaho La Mixtape2</t>
+          <t>Vous êtes célibataire et vous en avez marre de dormir seul ? Aujourd'hui à la MJC de Soisson cest soirée speed-dating ! Vous avez trois minutes pour trouver l'amour ! Et TOP pour l'amour ! Bah vas-y parle moi de toi ? Moi ? Jaime dessiner des p'tits coeurs, sur le miroir des urinoirs .. Si tu cherchais un loveur, bébé, on est fait pour se revoir ... Comme, un fluide en apesanteur, l'amour je sais l'faire pleuvoir J'fabrique moi même ma liqueur, tu sais ? Il faut le boire pour le croire .. Une belle rose comme toi ça s'arrose à la carotide J'suis qu'un poète qui fabrique un soleil liquide Ya autant damour possible, que de façon d'faire la guerre Jserais tenté qu'elle alors sois mon réverbère Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout sessuie J'peace and love, j'peace and love J'peace-and-love. x2 Un couple, ça peut soulager Au propre, comme au figuré Même les racines de tes cheveux .. Eh', j'peux les décolorer Pars avec moi voyager, dans des contrées, pas très reculées J'ai de l'amour à déverser, viens naviguer, sur ma belle rivière dorée .. Allez ! On ira s'lover sur une colline isolée Là où tu pourras t'mettre à genoux .. pour me dézipper Alors j'montrais mon jet, dans cette golden hour Ça fera un arc-en-ciel classe, pour ton golden shower Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2 En tout cas, moi .. tu me plais beaucoup et .. alors, viens Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Oui mais...</t>
+          <t>Radio libre</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tes lèvres me blasphèment De jolis petits poèmes Sur ton faible pour le bondage extrême Oh je crois bien que tu m'aimes Tes belles dents bien alignées Tes analyses sans MST Tout ça me semble parfait Oui mais y a un mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Pourtant Troisième dan de tango argentin Une fatale chute de reins Ton 36 taille mannequin Tu tiens l'pouvoir entre tes mains Un côté sexy-austère Tes jarretelles noir panthère Un vrai fantasme publicitaire Le haut d'gamme des mammifères Le brushing de tes cheveux Le courage de tes aveux Le regard des hommes envieux La transparence de tes yeux bleus De partout bien épilée Ton petit chemisier tout serré Tout ça me semble parfait Oui mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Une frimousse insolente Ta voix qui me complimente Ton regard de biche provocante Tes bisous cerise-menthe Ton nez si bien dessiné T'as une forme parfaite de pieds D'une famille fortunée Ton haleine est bien élevée Ta voiture décapotable Ton ventre plat est confortable Au grain de peau impeccable Tes jambes sont interminables Tes promesses de tour du Monde Ton château près de Londres Tout ça pour que je succombe Oui mais... Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Mariée mais célibataire Tu minaudes comme un revolver Même déguisée en Bunny Ne m'attends pas toute la vie Mais putain t'as pas compris Je t'aime pas T'as cru quoi C'était juste un coup comme ça Je t'aime pas N'insiste pas Ta vie d'couple se fera sans moi Je t'aime pas T'es sympa Mais même saoul je t'aime pas Je t'aime pas Je t'aime pas</t>
+          <t>C'est Delleck, le leader d'ceux qu'en ont marre Mon armée c'est vous et tous ceux qui veulent encore y croire En pirate des ondes, je place mes bombes vocales Pendant qu'les snipers m'cherchent dans leurs focales Bancal à souhait, sur rythme anti-clean J'resterai MC, gourou fou comme Aphex Twin Si vous m'coupez, j'fais tout péter J'ai une ceinture de D.A.T. explosive, de quoi faire sauter les fêtards Y a trop de merde sur mégahertz, putain l'rap est mourant Alors j'fous des mégas d'ram pour mes beats contre-courant Je veux toujours qu'ça booste dans les boomers Bosse pour faire péter le son et le léguer à nos gosses J'ai du flow dans l'accent, l'expression en dit long sur mon compte Sais éveiller l'intérêt qui me botte, comme de mêler l'utile et l'agréable J'suis là pour bénir l'oracle d'une prophétie prescrite par les anciens Lancelot du mic braquant sous musical circus Quel fantastique spécimen rap XXX à puce Moi c'est le Jouage, écrit comme ça se prononce J'ai l'don d'voir tout donc profitons-en, XXX notre jargon Ce n'est pas très complexe de comprendre mon sens Sur le net j'en ai fait un jeu-réponses pour gagner des millions C'est une combinaison attractive donc tout bénéf Duo de MC deux fois le Jouage et Delleck En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat J'aurais voulu être l'artiste qui met fin à sa détresse Le Jouage optimiste dit que XXX partout dans mes scripts Dans mes brouillons calligraphes la source de mes nectars Fleurissent les ébauches de mes pensées Des grailleurs de pages blanches J'suis une agence matrimoniale qui marie textes et instrus Le dire c'est énoncer l'critère de ma bataille L'idéal c'est quand le cohérent sonne doux à mon oreille Comme le chant d'une charnelle jouissant d'un fort potentiel C'est comme de rouler en Lexus Que mes ex me sucent Luxure en bonus, sur fond de paresse en plus C'est qu'on va nous prendre pour des fous ma parole T'façon on est venus envahir le show à coup de micro Comme pour le champ magnétique j'ai d'la résonance Même en stéréo c'qui donne de l'écho à mon rap idéaux Quand j'surfe sur mon tuner radio J'y entends qu'des sons aussi niais que Faudel en promo C'est dingue, même en mixtape, les mecs tapent plus sur des mix style Alors que sur FM c'est naze Skyrock Maintenant infiltrés, on fout le feu tous les ouais fils Des MC dormeurs juste bons à fumer des spliffs et Contre la World Company, j'ai ma horde de compagnons Pour mener campagne même si c'est pas gagné Libre comme Mel Gibson en guerrier écossais Je signe Delleck à coup d'instrus bien bossées En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Personne</t>
+          <t>Sans fin</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Un démon me dévore, se glissant dans ma solitude Tel un ange de glace , je suis fixé sur le réseau Paris-Sud Perdu dans un jardin de rose, rassuré par ma sueur Je souffre, écorché par leurs épines mais fasciné par leur couleur Mi-homme, mi-disloqué, encaissant l'inexorable L'esprit fané, mon visage se plisse comme une rose des sables Mes troubles ricochent sur l'étang formant des anneaux grandissants J'entends mes larmes crier dans leur chute devant vos yeux lisses Je me dispute avec toutes les ombres qui rodent autour de moi De derrière ma cornée, je vois des spectres s'échapper de vos sacs Zara À l'écart du réel, je porte ma crasse comme le noir du deuil En marge comme le numéro griffonné sur le coin d'une feuille Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Je suis précaire, réchauffé par la nuit tel un duvet de mohair L'astre lunaire me guette comme un cerbère de lumière Je m'enlise dans toutes ces images de clairvoyance Dans le ravin social ravagé par mes cinq sens J'ai vu des choses que vous ne soupçonnez pas, au verso Tous ces gens avec ces monstres accrochés dans leur dos En vous massant la nuque pensant à une douleur musculaire Alors que des bêtes sucent votre lumière contenue dans la moelle épinière Vous, moi, qui est le mort parmi les vivants Dans les yeux se dessinent l'amour ou les tyrans J'aimerais croire en la vie pour en recommencer une deuxième Tout effacer comme une dispute qui se termine par un je t'aime Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit Mon corps de poussière se torture de mélodies passées Que je chante à l'envers sans jamais pouvoir les recto verser Assis sur le quai, j'écris avec mon index à mon fils Joseph Dessinant d'étranges signes sur un bas-relief Des rêves je n'en fais plus même en rêve Je tutoie le néant de l'autre côté de la rive Le chaos m'absorbe dans les faubourgs de mes peurs Quand il prend la forme d'une fillette qui me fixe avec son sourire fleur ! Le temps est immobile, je sais que personne ne me croit Pourtant indélébile, je sens que personne ne me voit</t>
+          <t>JAMES DELLECK Jai enfin franchi les portes du ciel, au-delà du voile nocturne Je me dilue sans fin dans les anneaux de Saturne Chevauchant une hydre a deux têtes non muselées Mes rimes fuselées hissent les mots jusqu'à Cassiopée Né dans un chant de briques, je mévade au plus haut Ravivant le chaos qui bouillonne sous ma peau Dans le creux du vide astral, le verbe est manié De ma tanière, je rugis comme un tigre de papier Quelquefois lassé, je mentrelace détoiles filantes Les lueurs se reflètent sur ma rétine luisante Enchaîné hier Libre demain Insensible a lesbroufe des révolutionnaires mondains Ma déviance se déplace au travers des trous de ver Troubadours de la science nous ne sommes que particules de poussières Asséchés par le vent solaire les soucis se consument Alors doucement je massoupit sur un lit de lunes ! Refrain x4 Infini LE JOUAGE Mon texte a prit naissance dans un monospace sur une boucle de Moebius Pour finir sur le toit dun starminus Il était une fois le noir total ayant lenvie de conquérir la lumière Un rêve qui prit forme malgré toutes ces années évanouies Le Jouage provoque la tache indélébile mon corps astral Nage dans le vide il se libère de sa prison mentale Sillonnant les voies lactées en thématique Je discute avec Rodolph Ertel de son uvre cosmique Une effluve de souffrance sharmonise dans un souffle de vie Jattends une réponse alors que les mots troublent le sommeil et glissent sur mon écorce Dans un langage corporel la symphonie sconjugue Dans une suite de respirations et d'inspirations Alors que lombre laisse place aux premières lueurs du jour Un parfum de victoire écume de ma silhouette a son tour Noyé dans livresse je renais à nouveau Comme lhistoire sans fin du cycle infini dune goutte deau Refrain x6</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Petit démon</t>
+          <t>S’enterrer vivant</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Viens-là! Explique-moi pourquoi T'as fait du ciment avec les cendres de Papy En dansant gaiement avant d'brûler le tapis Craché sur les passants, vendu le chien sur eBay Mis un crampon à la place de ta dent d'lait Triché pour gagner au poker Tapé l'voisin avec une batte de croquet Hep tu fais même peur à ta maîtresse Normal depuis qu'tu lui as brûlé ses tresses Pourquoi t'as égorgé la peluche d'Odile Et simulé une orgie avec ses Playmobil Rayé tous mes disques de Serge Lama Arrête de traiter d'pédé l'Dalaï-Lama Ta mère et moi sommes sceptiques Si tu continues, tu vas finir homme politique Même le pasteur t'appelle Satan Tu trouves normal d'écouter Marilyn Manson à cinq ans Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con Tu vas te taire, arrache-moi ces posters Me regarde pas comme ça, et pose-moi ce cutter C'est pas les WC, c'est le salon ici J't'ai déjà dit mille fois d'pas y faire pipi Enlève-moi cette croix gammée, c'est vulgaire À la télé tu regardes pas Dora mais Dexter Tu sais t'auras rien à Noël Si tu continues à t'mettre des coups de truelle J'compte plus les fois où c'est la panique La liste est aussi grande qu'une queue aux Assedic Ta maman n'supporte plus tes crises de nerfs Quand t'essaies de l'étouffer avec une fougère Mais pourquoi lacérer ma chemise pure soie Ou ébouillanter tes potes à coup d'potage pékinois Ça suffit, tu seras privé de dessert Tant qu'tu nous diras pas où t'as mis le corps de grand-mère Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con Cracher c'est mal Taper c'est mal Désobéir c'est mal Mordre c'est mal Voler c'est mal S'bagarrer c'est mal Tricher c'est mal Mentir c'est mal Séquestrer c'est mal Étouffer c'est mal Amputer c'est mal Lacérer c'est mal Lapider c'est mal Immoler c'est mal Découper c'est mal Énucléer c'est mal Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Intuber le chat avec un tuba Espèce de petit con Dis-moi Dis-moi pourquoi tu fais ça Sale petit démon Ensevelir ton frangin sous les gravats Espèce de petit con</t>
+          <t>Dis oncle James euh c'est quoi l'amour ? L'amour, l'amour, tu m'emmerdes... Alors, amorçage, amoché, amortisseur... Amour Nom masculin, attraction passionnée Attirance affective et sexuelle d'un être humain pour un autre être humain Émotion pouvant déclencher des effets secondaires comme Moiteur des mains et sécheresse buccale Ton lobe frontal en discernement minimal Pris dans la spirale, du feu hormonal Des sautes d'humeur passent du sombre au boréal Quand tes sentiments ne sont pas séminales Il arrive que ton il devienne floral Alors tu t'fous du lendemain, le pouls en rafale Fixant bêtement ton bol de céréales Tu fais des poèmes avec ses initiales Rêve de la dévorer façon rorqual Ça s'emballe, tu réduis ta focale Toutes les autres te sont égales Même les incassables sont friables La pluie le vent te deviennent agréables Vulnérable et animal Dans ses interstices tu tintercales S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant Des ailes te poussent sur les cils Toutes tes cicatrices deviennent fossiles Ta flamme te consume de lintérieur Suffoquant, tu t'habitues à la douleur Tes crocs deviennent dociles Son nombril est ta presquîle Du pire tu tires le meilleur Pour une fois que tes peurs prennent des couleurs Dressé comme une fleur réhydratée Elle est ton arche, tu es son Noé Comme décapité de la réalité Irradié par un halo d'barbelés Fragile tel un bouton d'rosée Puissant comme un shoot bien dosé Inconscient face aux dégâts causés En amour il faut juste oser S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>Sonate pour une gouttelette</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C'est l'attaque des mal-aimés Les détestés qui même molestés vont infester le gang T'as des airs incontestés Force et honneur à tous mes gris tachetés Voila les révoltés les maltraités au sang-mêlé Vandales prêts à tout péter On fiente sur le prince Rainier jusqu'aux mains de bébé On est la face cachée de vos grandes cités Une race de flibustiers préparée pour se libérer à la vue pigeonnante sur vos décolletés Portés par les vents pollués les holsters sous les yeux ronds par milliers à vous observer Parés, comme des acharnés, ailes déployées Sache que ta couette en plume n'est qu'un charnier Les rôles vont s'inverser on va laver notre honneur dans une flaque d'eau frelatée Fait pas l'étonné qu'on soit des oiseaux fâchés Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme Anarchiste, déféqueur Visant les parts des hipsters Fiantant même sur ton comics collector sans blister À tous nos frères tombés sous les roues des livreurs DHL pour seul crime d'avoir voulu finir un putain de burger béchamel On tapisse le ciel, tapis dans les ruelles L'ombre de nos ailes vous annonce La fin de votre expansion naturelle Postée sur la bordure d'une gouttière une mer de fiente tombera sur tes prières C'est bien vous, qui êtes dans une cage sans litière Volatiles cailleras, ceinture noire de strabisme Manger un kebab, c'est du cannibalisme On slalom entre vos silhouettes parasites On allait pas se contenter de Parassi Gare à ta calvitie ton blond va virer au gris khaleesi C'est la révolte des rats volants descendants-descendants de toutan dans l'boucan Regarde sur ton front, y'a un truc coulant, y'a un truc coulant, y'a un truc coulant On est tous le pigeon de quelqu'un c'est ça le pire On plane, tu transpires J'étale mon empire Conspire, sur les cendres de vos sourires Ramasse donc ma plume si tu veux maigrir</t>
+          <t>J'ai grandi lentement sur le bord d'une bouche de métal Pendant qu'd'autres ont la chance d'être la rosée sur un pétale Personne ne prend conscience de mon réel J'ai dans le corps toutes les couleurs de l'arc-en-ciel Je sens qu'il va falloir que je m'élance Je laisse derrière tous mes souvenirs d'enfance Plus je grandis, plus j'ai le vertige de la vie Plus je grossis et plus le vide m'attire vers lui Adieu je me décroche de la plate-forme Je tombe, caressée par le vent qui me déforme Je vole et virevolte malgré l'implacable trajectoire Éole, fais-moi danser ou fais-moi le croire Trop vite, la vasque approche dangereusement Pourtant j'ai prié, espérant arrêter le temps Mais... a y est, il fait tout noir Je m'suis éparpillée comme les éclats d'un vieux miroir Je n'étais qu'une petite gouttelette au sourire muet À travers moi, la lumière se sublimait Juste une petite gouttelette inutile et délicate Qui une fois morte avait bien droit à sa sonate</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pixel Puppet</t>
+          <t>Soudaine Montée D’Adrénaline Dans L’Eloge</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>L'autre matin là, je me suis réveillé anormal mes bras, mes jambes, bah, ils faisaient ce qu'ils voulaient ! J'étais...J'étais comme prisonnier de mon corps, et c'est là que Jouage, il m'dit Quoi ? Toi aussi t'as la Pixel Puppet ? J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet Il n'est plus question de ne pas y croire Moi qui les croyait tous saouls Cherchant l'erreur parmi les dires et les écrits Se dandinaient la fantaisie plus que la folie Mon erreur a été de me croire en sécurité Protégé par une immunité futile Je me perds dans cette douce folie Commune car je le sais maintenant nul n'est à l'abri Je vis, je suis régi par l'inexpliqué qui me dépasse Qui engendre des multiples angoisses Ai-je besoin de thérapie ? Merde mon corps joue le danseur contemporain J'ai bien l'impression de ne plus avoir ma vie entre les mains Mes aisselles sentent la vulve de Vulcain J'sors plus par peur de m'pousser tout seul sous l'train Chaque matin ma brosse à dent devient un gourdin Voilà pourquoi ma langue a une haleine d'oursin Ma propre main veut métouffer sous un coussin P'tain j'dance comme un rockeur qui fête sa grève du rein J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'crois qu'on a chopé ça sur l'net Mais c'est quoi ce virus dextra terrien Il y a comme des liens qui me mettent la tête dans le purin Dis rien, ne me rappelle pas quand j'ai fais le chien Et que mon bassin a fait des spasmes malsains Mes pieds écrasent des bouses et des poussins Mes doigts tapent sur mes dents, comme un clavecin Chez moi c'est propre vu que j'bouffe les acariens Tellement j'bug c'est d'un exorcisme dont j'ai besoin Faut se rendre à l'évidence, nous sommes tous fous Donc crier à l'aide ne sert strictement à rien Jessaie de m'adapter à ce phénomène mais j'angoisse Je ne sais plus si l'effet est tactique ou si je suis victime de simples spasmes Lassé, je conspue cet état de bassesse Parfois mon esprit tordu s'en sert comme un prétexte Pour assouvir mon instinct de faiblesse Je cherche l'erreur dans ce mystère qui est devenu notre enfer J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet Au quotidien, j'dance comme un muppet Pi-Pi-Pi-Pi-Pi-Pixel puppet J'contrôle plus rien j'ai la pixel puppet Comme un pantin, j'ai la pixel puppet J'te touche le sein, c'est ma pixel puppet Pi-Pi-Pi-Pi-Pi-Pixel puppet</t>
+          <t>Mon backstage au bout d'un lacet Ressens jusqu'au moindre et indicible coup d'stress Que laisse trahir mon buste essoufflé Le plexus solaire rayonne pendant qu'l'hypophyse frémit Donc j'm'essuie les mains aux excès d'sébum sur l'baggy d'Teki Le visage livide, j'répète mes textes hybrides Avec la hantise de faire un bide devant une salle devenue vide Je m'sens seul comme un moineau sous l'orage Alors j'bouffe des céréales aux ailerons d'requin pour m'donner du courage Sur les nerfs, j'espère foutre la foule en transe Et j'ai foi vu qu'en scène notre hip-hop fait acte de résistance OK, mais t'es pas anxieux d'te faire siffler? Non J'ai comme gri-gri un collier fait avec les dents d'lait d'Alizée À J moins dix secondes, on m'file le HF ma grenade Excité, c'soir j'vais exister en faisant gronder les façades Ma chevelure apparaît dans la lumière, les MD des fans sont en rec Alors j'enchaîne avec C'est qui James Delleck Putain d'merde, les gars, j'ai des montées Quelque chose fait vibrer mon corps, je suis stressé Mais mes émotions sont dressées depuis un certain temps Aucun sentiment n'est véhiculé, est-ce un tort? Cependant en ce moment-même, j'suis en train d'tuer la scène J'ai des penchants pour l'obscène Donc on ramène cette chakra d'plastique Statique, c'est une nympho gonflable Le public acclame puis les lumières s'éteignent C'est une montée d'adrénaline D'un trait j'aligne mon mouvement des ruelles Le monument est ma proie, ce morceau de ciment est à moi Certains passants interloqués font la loi Le surplus coule, le mur mouille, je lui fais l'amour Me grouille tel un éjaculateur précoce Féroce, le sperme se fixe, derrière moi la police Retentissent les sirènes, une réelle Montée d'adrénaline qui ma personne contamine J'en suis la victime, choisis d'être la cible, té-je des bombes et m'casse Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline Sa salive déglutir Dans les sables mouvants d'ses peurs S'engloutir et ne plus s'investir L'adrénaline sur un starting-block Des fonctions analysatrices se mettent en marche Comme XXX je fais le vide Ton esprit ventile, évacue tout facteur de stress Le micro combustible, j'ai de l'essence dans le corps J'suis pas un MC comestible qui avance pour un sucre d'orge J'aime les bains d'foule La transpiration des corps en contact des autres Quand j'délivre des algorithmes XXX ma façon bulldozer a traversé l'espace du XXX On s'remet en question, qu'on puisse nous dire c'est net Écoute comme j'me contrôle À l'épiderme aucune chair de poule, faut pas qu'j'extrapole Afin qu'les subtilités soient respectées dans le protocole de ma montée en puissance Impeccable et de manière orchestrale Faire en sorte que l'énorme effort fourni par mes ennemis S'anéantisse, et de lui-même J'escalade la scène même si j'ai le vertige J'assume, cette fois-ci j'assure, j'inspire J'expire et chasse toute distraction de mon esprit À peine le temps d'réagir et je suis déjà parti Mes muscles me lâchent sans m'avertir Comme au moment d'm'endormir, je sens que je tombe dans le vide J'entends ma voix dans les enceintes et mon cur palpiter À travers chacune de mes extrémités C'est la panique, toutes mes facultés sont décuplées Mais ma gorge est paralysée, c'est pathétique Quand je crie c'n'est qu'un soupir qui dans la salle s'éparpille J'me sens si bien, j'ai la chair de poule, j'ai l'âme saoule Lorsque j'ouvre les yeux, des larmes coulent Une peur énorme forme dans ma gorge une large boule Pourtant je me sens confiant en regardant le public s'approcher J'aimerais que l'atmosphère soit tangible afin de m'y accrocher Tellement je perds mes repères et le sens de l'équilibre Ivre, heureux de vivre C'est la salle toute entière qui vibre dans le creux de ma main qui tremble Il me semble que fine est la ligne qui sépare le stress de la motivation L'adrénaline Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P &amp; LOVE</t>
+          <t>Ta gueule</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vous êtes célibataire et vous en avez marre de dormir seul ? Aujourd'hui à la MJC de Soisson cest soirée speed-dating ! Vous avez trois minutes pour trouver l'amour ! Et TOP pour l'amour ! Bah vas-y parle moi de toi ? Moi ? Jaime dessiner des p'tits coeurs, sur le miroir des urinoirs .. Si tu cherchais un loveur, bébé, on est fait pour se revoir ... Comme, un fluide en apesanteur, l'amour je sais l'faire pleuvoir J'fabrique moi même ma liqueur, tu sais ? Il faut le boire pour le croire .. Une belle rose comme toi ça s'arrose à la carotide J'suis qu'un poète qui fabrique un soleil liquide Ya autant damour possible, que de façon d'faire la guerre Jserais tenté qu'elle alors sois mon réverbère Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout sessuie J'peace and love, j'peace and love J'peace-and-love. x2 Un couple, ça peut soulager Au propre, comme au figuré Même les racines de tes cheveux .. Eh', j'peux les décolorer Pars avec moi voyager, dans des contrées, pas très reculées J'ai de l'amour à déverser, viens naviguer, sur ma belle rivière dorée .. Allez ! On ira s'lover sur une colline isolée Là où tu pourras t'mettre à genoux .. pour me dézipper Alors j'montrais mon jet, dans cette golden hour Ça fera un arc-en-ciel classe, pour ton golden shower Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2 En tout cas, moi .. tu me plais beaucoup et .. alors, viens Dans l'amour et l'harmonie, tu sais tu sais ... dans la vie tout s'essuie J'peace and love, j'peace and love J'peace-and-love. x2</t>
+          <t>J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Dimanche pendant la messe j'ai crié ferme ta gueule! Comme un déclic maintenant libéré J'crache des ferme ta gueule! Hein? c'est pour ça qu'vous m'avez radié? Non mais ferme ta gueule! Malgré la grève, tu contrôles mes billets? Tu sais quoi ferme ta gueule! Monsieur du téléachat faudrait quand même qu'tu fermes ta gueule! Ah ouais? Patron fais-nous plaisir et ferme ta gueule! Ton putain de chien qui aboie toute la nuit L'ordi qui bugge, mais hors garantie Ton air qui sait tout, ton haleine d'épagneul Me rendent pas content alors fermez vos gueules! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Quoi, quoi? C'est ça mes agios? Mais ferme ta gueule! A ton coach de vie n'hésite pas balance-lui ferme ta gueule! Ramène-le moi ton ado rebelle qu'j'lui dise ferme ta gueule! Hier t'as croisé Michael Jackson? Pff... mais ferme ta gueule! Taxi t'as priorité à gauche, ah bon? Mais ferme ta gueule! Viens pas chialer tu l'as élu alors ferme ta gueule! Aussi poli qu'un Gérard à jeun Étonnant comme des dents dans un vagin Poétique comme un clodo qui dégueule Devant nos vies en disant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Tu penses que j'en fais trop avec mes ferme ta gueule! Désolé, syndrome Gilles de la Tourette alors ferme ta gueule! Hein? Moi, tu m'trouves impoli? Allez ferme ta gueule! Please, Christophe Maé, ça serait vraiment bien qu'tu fermes ta gueule! Petit con avec ton T-shirt du Che, mais ferme ta gueule! Mère, vous serait-il possible que tu fermes ta gueule! Conditionné, préparé, fabriqué pour qu'tu fermes ta gueule! Là c'est le moment d'bouger comme des rageux En criant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule!1</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pouilleux Massacreur</t>
+          <t>T’as pas d’papa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>La lune était en son plein, le ciel était découvert, et neuf heures du soir étaient sonnées lorsque nous revenions dune maison proche de Paris, quatre de mes amis et moi. Les diverses pensées que nous donna la vue de cette boule de safran nous défrayèrent sur le chemin. Les yeux noyés dans ce grand astre, tantôt lun le prenait pour une lucarne du ciel par où lon entrevoyait la gloire des bienheureux tantôt lautre protestait que cétait la platine où Diane dresse les rabats dApollon tantôt un autre sécriait que ce pourrait bien être le soleil lui-même, qui sétant au soir dépouillé de ses rayons regardait par un trou ce quon faisait au monde quand il ny était plus. Et moi, dis-je, qui souhaite mêler mes enthousiasmes aux vôtres, je crois sans mamuser aux imaginations pointues dont vous chatouillez le temps pour le faire marcher plus vite, que la lune est un monde comme celui-ci, à qui le nôtre sert de lune. La compagnie me régala dun grand éclat de rire. Ainsi peut-être, leur dis-je, se moque-t-on maintenant dans la lune, de quelque autre, qui soutient que ce globe-ci est un monde. Mais jeus beau leur alléguer que Pythagore, Epicure, Démocrite et, de notre âge, Copernic et Kepler, avaient été de cette opinion, je ne les obligeai quà ségosiller de plus belle. Cette pensée, dont la hardiesse biaisait en mon humeur, affermie par la contradiction, se plongea si profondément chez moi que, pendant tout le reste du chemin, je demeurai gros de mille définitions de lune, dont je ne pouvais accoucher et à force dappuyer cette créance burlesque par des raisonnements sérieux, je me le persuadai quasi, mais, écoute, lecteur, le miracle ou laccident dont la Providence ou la fortune se servirent pour me le confirmer. Jétais de retour à mon logis et, pour me délasser de la promenade, jétais à peine entré dans ma chambre quand sur ma table je trouvai un livre ouvert que je ny avais point mis. Cétait les oeuvres de Cardan et quoique je neusse pas dessein dy lire, je tombai de la vue, comme par force, justement dans une histoire que raconte ce philosophe il écrit quétudiant un soir à la chandelle, il aperçut entrer, à travers les portes fermées de sa chambre, deux grands vieillards, lesquels, après beaucoup dinterrogations quil leur fit, répondirent quils étaient habitants de la lune, et cela dit, ils disparurent. Je demeurai si surpris, tant de voir un livre qui sétait apporté là tout seul, que du temps et de la feuille où il sétait rencontré ouvert, que je pris toute cette enchaînure dincidents pour une inspiration de Dieu qui me poussait à faire connaître aux hommes que la lune est un monde. Quoi ! disais-je en moi-même, après avoir tout aujourdhui parlé dune chose, un livre qui peut-être est le seul au monde où cette matière se traite voler de ma bibliothèque sur ma table, devenir capable de raison, pour souvrir justement à lendroit dune aventure si merveilleuse et fournir ensuite à ma fantaisie les réflexions et à ma volonté les desseins que je fais !... Sans doute, continuais-je, les deux vieillards qui apparurent à ce grand homme sont ceux-là mêmes qui ont dérangé mon livre, et qui lont ouvert sur cette page, pour sépargner la peine de me faire cette harangue quils ont faite à Cardan. Mais, ajoutais-je, je ne saurais méclaircir de ce doute, si je ne monte jusque-là ? Et pourquoi non ? me répondais-je aussitôt. Prométhée fut bien autrefois au ciel dérober du feu. À ces boutades de fièvres chaudes, succéda lespérance de faire réussir un si beau voyage. Je menfermai, pour en venir à bout, dans une maison de campagne assez écartée, où après avoir flatté mes rêveries de quelques moyens capables de my porter, voici comme je me donnai au ciel. Je métais attaché autour de moi quantité de fioles pleines de rosée, et la chaleur du soleil qui les attirait méleva si haut, quà la fin je me trouvai au-dessus des plus hautes nuées. Mais comme cette attraction me faisait monter avec trop de rapidité, et quau lieu de mapprocher de la lune, comme je prétendais, elle me paraissait plus éloignée quà mon partement, je cassai plusieurs de mes fioles, jusquà ce que je sentis que ma pesanteur surmontait lattraction et que je descendais vers la terre. Mon opinion ne fut point fausse, car jy retombai quelque temps après, et à compter lheure que jen étais parti, il devait être minuit. Cependant je reconnus que le soleil était alors au plus haut de lhorizon, et quil était midi. Je vous laisse à penser combien je fus étonné certes je le fus de si bonne sorte que, ne sachant à quoi attribuer ce miracle, jeus linsolence de mimaginer quen faveur de ma hardiesse, Dieu avait encore une fois recloué le soleil aux cieux, afin déclairer une si généreuse entreprise. Ce qui accrut mon ébahissement, ce fut de ne point connaître le pays où jétais, vu quil me semblait quétant monté droit, je devais être descendu au même lieu doù jétais parti. Equipé comme jétais, je macheminai vers une chaumière, où japerçus de la fumée et jen étais à peine à une portée de pistolet, que je me vis entouré dun grand nombre de sauvages. Ils parurent fort surpris de ma rencontre car jétais le premier, à ce que je pense, quils eussent jamais vu habillé de bouteilles. Et pour renverser encore toutes les interprétations quils auraient pu donner à cet équipage, ils voyaient quen marchant je ne touchais presque point à la terre aussi ne savaient-ils pas quau premier branle que je donnais à mon corps, lardeur des rayons de midi me soulevait avec ma rosée, et sans que mes fioles nétaient plus en assez grand nombre, jeusse été, possible, à leur vue enlevé dans les airs. Je les voulus aborder mais comme si la frayeur les eût changés en oiseaux, un moment les vit perdre dans la forêt prochaine. Jen attrapai toutefois un, dont les jambes sans doute avaient trahi le coeur. Je lui demandai avec bien de la peine car jétais essoufflé, combien on comptait de là à Paris, depuis quand en France le monde allait tout nu, et pourquoi ils me fuyaient avec tant dépouvante. Cet homme à qui je parlais était un vieillard olivâtre, qui dabord se jeta à mes genoux et joignant les mains en haut derrière la tête, ouvrit la bouche et ferma les yeux. Il marmotta longtemps, mais je ne discernai point quil articulât rien de façon que je pris son langage pour le gazouillement enroué dun muet. À quelque temps de là, je vis arriver une compagnie de soldats tambour battant, et jen remarquai deux se séparer du gros pour me reconnaître. Quand ils furent assez proche pour être entendu, je leur demandai où jétais. Vous êtes en France, me répondirent-ils mais qui diable vous a mis dans cet état ? et doù vient que nous ne vous connaissons point ? Est-ce que les vaisseaux sont arrivés ? En allez-vous donner avis à M. le Gouverneur ? Et pourquoi avez-vous divisé votre eau-de-vie en tant de bouteilles ? À tout cela, je leur repartis que le diable ne mavait point mis en cet état quils ne me connaissaient pas, à cause quils ne pouvaient pas connaître tous les hommes que je ne savais point que la Seine portât des navires que je navais point davis à donner à M. de Montbazon et que je nétais point chargé deau-de-vie. Ho, ho, me dirent-ils, me prenant par le bras, vous faites le gaillard ? M. le Gouverneur vous connaîtra bien, lui ! Ils me menèrent vers leur gros, me disant ces paroles, et jappris deux que jétais en France et nétais point en Europe, car jétais en la Nouvelle France. Je fus présenté à M. de Montmagny, qui en est le vice-roi. Il me demanda mon pays, mon nom et ma qualité et après que je leus satisfait, en lui racontant lagréable succès de mon voyage, soit quil le crût, soit quil feignît de le croire, il eut la bonté de me faire donner une chambre dans son appartement. Mon bonheur fut grand de rencontrer un homme capable de hautes opinions, et qui ne sétonna point quand je lui dis quil fallait que la terre eût tourné pendant mon élévation puisque ayant commencé de monter à deux lieues de Paris, jétais tombé par une ligne quasi perpendiculaire en Canada. Le soir, comme je mallais coucher, je le vis entrer dans ma chambre Je ne serais pas venu, me dit-il, interrompre votre repos, si je navais cru quune personne qui a pu faire neuf cents lieues en demi-journée les a pu faire sans se lasser. Mais vous ne savez pas, ajouta-t-il, la plaisante querelle que je viens davoir pour vous avec nos Pères jésuites ? Ils veulent absolument que vous soyez magicien et la plus grande grâce que vous puissiez obtenir deux, cest de ne passer que pour imposteur. Et en vérité, ce mouvement que vous attribuez à la terre nest-ce point un beau paradoxe ce qui fait que je ne suis pas bien fort de votre opinion, cest quencore quhier vous fussiez parti de Paris, vous pouvez être arrivé aujourdhui en cette contrée, sans que la terre ait tourné car le soleil vous ayant enlevé par le moyen de vos bouteilles, ne doit-il pas vous avoir amené ici, puisque, selon Ptolémée, Tyco-Brahé, et les philosophes modernes, il chemine du biais que vous faites marcher la terre ? Et puis quelles grandes vraisemblances avez-vous pour vous figurer que le soleil soit immobile, quand nous le voyons marcher ? et que la terre tourne autour de son centre avec tant de rapidité, quand nous la sentons ferme dessous nous ? Monsieur, lui répliquai-je, voici les raisons qui nous obligent à le préjuger. Premièrement, il est du sens commun de croire que le soleil a pris place au centre de lunivers, puisque tous les corps qui sont dans la nature ont besoin de ce feu radical qui habite au coeur du royaume pour être en état de satisfaire promptement à leurs nécessités et que la cause des générations soit placée également entre les corps, où elle agit, de même que la sage nature a placé les parties génitales dans lhomme, les pépins dans le centre des pommes, les noyaux au milieu de leur fruit et de même que loignon conserve à labri de cent écorces qui lenvironnent le précieux germe où dix millions dautres ont à puiser leur essence. Car cette pomme est un petit univers à soi-même, dont le pépin plus chaud que les autres parties est le soleil, qui répand autour de soi la chaleur, conservatrice de son globe et ce germe, dans cet oignon, est le petit soleil de ce petit monde, qui réchauffe et nourrit le sel végétatif de cette masse. Cela donc supposé, je dis que la terre ayant besoin de la lumière, de la chaleur, et de linfluence de ce grand feu, elle se tourne autour de lui pour recevoir également en toutes ses parties cette vertu qui la conserve. Car il serait aussi ridicule de croire que ce grand corps lumineux tournât autour dun point dont il na que faire, que de simaginer quand nous voyons une alouette rôtie, quon a, pour la cuire, tourné la cheminée à lentour. Autrement si cétait au soleil à faire cette corvée, il semblerait que la médecine eût besoin du malade que le fort dût plier sous le faible, le grand servir au petit et quau lieu quun vaisseau cingle le long des côtes dune province, on dût faire promener la province autour du vaisseau. Que si vous avez de la peine à comprendre comme une masse si lourde se peut mouvoir, dites-moi, je vous prie, les astres et les cieux que vous faites si solides, sont-ils plus légers ? Encore nous, qui sommes assurés de la rondeur de la terre, il nous est aisé de conclure son mouvement par sa figure. Mais pourquoi supposer le ciel rond, puisque vous ne le sauriez savoir, et que de toutes les figures, sil na pas celle-ci, il est certain quil ne se peut pas mouvoir ? Je ne vous reproche point vos excentriques, vos concentriques ni vos épicycles tous lesquels vous ne sauriez expliquer que très confusément, et dont je sauve mon système. Parlons seulement des causes naturelles de ce mouvement. Vous êtes contraints vous autres de recourir aux intelligences qui remuent et gouvernent vos globes. Mais moi, sans interrompre le repos du Souverain Etre, qui sans doute a créé la nature toute parfaite, et de la sagesse duquel il est de lavoir achevée, de telle sorte que, layant accomplie pour une chose, il ne lait pas rendue défectueuse pour une autre moi, dis-je, je trouve dans la terre les vertus qui la font mouvoir. Je dis donc que les rayons du soleil, avec ses influences, venant à frapper dessus par leur circulation, la font tourner comme nous faisons tourner un globe en le frappant de la main ou que les fumées qui sévaporent continuellement de son sein du côté que le soleil la regarde, répercutées par le froid de la moyenne région, rejaillissent dessus, et de nécessité ne la pouvant frapper que de biais, la font ainsi pirouetter. Lexplication des deux autres mouvements est encore moins embrouillée, considérez, je vous prie... À ces mots, M. de Montmagny minterrompit et Jaime mieux, dit-il, vous dispenser de cette peine aussi bien ai-je lu sur ce sujet quelques livres de Gassendi, à la charge que vous écouterez ce que me répondit un jour lun de nos Pères qui soutenait votre opinion En effet, disait-il, je mimagine que la terre tourne, non point pour les raisons quallègue Coprins, mais pour ce que le feu denfer, ainsi que nous apprend la Sainte Ecriture, étant enclos au centre de la terre, les damnés qui veulent fuir lardeur de la flamme, gravissent pour sen éloigner contre la voûte, et font ainsi tourner la terre, comme un chien fait tourner une roue, lorsquil court enfermé dedans. Nous louâmes quelque temps le zèle du bon Père et son panégyrique étant achevé, M. de Montmagny me dit quil sétonnait fort, vu que le système de Ptolémée était si peu probable, quil eût été si généralement reçu. Monsieur, lui répondis-je, la plupart des hommes, qui ne jugent que par les sens, se sont laissé persuader à leurs yeux et de même que celui dont le vaisseau navigue terre à terre croit demeurer immobile, et que le rivage chemine, ainsi les hommes tournant avec la terre autour du ciel, ont cru que cétait le ciel lui-même qui tournait autour deux. Ajoutez à cela lorgueil insupportable des humains, qui leur persuade que la nature na été faite que pour eux comme sil était vraisemblable que le soleil, un grand corps, quatre cent trente-quatre fois plus vaste que la terre, neût été allumé que pour mûrir ses nèfles, et pommer ses choux. Quant à moi, bien loin de consentir à linsolence de ces brutaux, je crois que les planètes sont des mondes autour du soleil, et que les étoiles fixes sont aussi des soleils qui ont des planètes autour deux, cest-à-dire des mondes que nous ne voyons pas dici à cause de leur petitesse, et parce que leur lumière empruntée ne saurait venir jusquà nous. Car comment, en bonne foi, simaginer que ces globes si spacieux ne soient que de grandes campagnes désertes, et que le nôtre, à cause que nous y rampons, une douzaine de glorieux coquins, ait été bâti pour commander à tous ? Quoi ! parce que le soleil compasse nos jours et nos années, est-ce à dire pour cela quil nait été construit quafin que nous ne cognions pas de la tête contre les murs ? Non, non, si ce Dieu visible éclaire lhomme, cest par accident, comme le flambeau du roi éclaire par accident au crocheteur qui passe par la rue. Mais, me dit-il, si comme vous assurez, les étoiles fixes sont autant de soleils, on pourrait conclure de là que le monde serait infini, puisquil est vraisemblable que les peuples de ces mondes qui sont autour dune étoile fixe que vous prenez pour un soleil découvrent encore au-dessus deux dautres étoiles fixes que nous ne saurions apercevoir dici, et quil en va éternellement de cette sorte. Nen doutez point, lui répliquai-je comme Dieu a pu faire lâme immortelle, il a pu faire le monde infini, sil est vrai que léternité nest rien autre chose quune durée sans bornes, et linfini une étendue sans limites. Et puis Dieu serait fini lui-même, supposé que le monde ne fût pas infini, puisquil ne pourrait pas être où il ny aurait rien, et quil ne pourrait accroître la grandeur du monde, quil najoutât quelque chose à sa propre étendue, commençant dêtre où il nétait pas auparavant. Il faut donc croire que comme nous voyons dici Saturne et Jupiter, si nous étions dans lun ou dans lautre, nous découvririons beaucoup de mondes que nous napercevons pas dici, et que lunivers est éternellement construit de cette sorte. Ma foi ! me répliqua-t-il, vous avez beau dire, je ne saurais du tout comprendre cet infini. Hé ! dites-moi, lui dis-je, comprenez-vous mieux le rien qui est au delà ? Point du tout. Quand vous songez à ce néant, vous vous limaginez tout au moins comme du vent, comme de lair, et cela est quelque chose mais linfini, si vous ne le comprenez en général, vous le concevez au moins par parties, car il nest pas difficile de se figurer de la terre, du feu, de leau, de lair, des astres, des cieux. Or, linfini nest rien quune tissure sans bornes de tout cela. Que si vous me demandez de quelle façon ces mondes ont été faits, vu que la Sainte Ecriture parle seulement dun que Dieu créa, je réponds quelle ne parle que du nôtre à cause quil est le seul que Dieu ait voulu prendre la peine de faire de sa propre main, mais tous les autres quon voit ou quon ne voit pas, suspendus parmi lazur de lunivers, ne sont rien que lécume des soleils qui se purgent. Car comment ces grands feux pourraient-ils subsister, sils nétaient attachés à quelque matière qui les nourrit ? Or comme le feu pousse loin de chez soi la cendre dont il est étouffé de même que lor dans le creuset, se détache en saffinant du marcassite qui affaiblit son carat, et de même que notre coeur se dégage par le vomissement des humeurs indigestes qui lattaquent ainsi le soleil dégorge tous les jours et se purge des restes de la matière qui nourrit son feu. Mais lorsquil aura tout à fait consommé cette matière qui lentretient, vous ne devez point douter quil ne se répande de tous côtés pour chercher une autre pâture, et quil ne sattache à tous les mondes quil aura construits autrefois, à ceux particulièrement quil rencontrera les plus proches alors ce grand feu, rebrouillant tous les corps, les rechassera pêle-mêle de toutes parts comme auparavant, et sétant peu à peu purifié, il commencera de servir de soleil à ces petits mondes quil engendrera en les poussant hors de sa sphère. Cest ce qui a fait sans doute prédire aux pythagoriciens lembrasement universel. Ceci nest pas une imagination ridicule la Nouvelle-France, ou nous sommes, en produit un exemple bien convaincant. Ce vaste continent de lAmérique est une moitié de la terre, laquelle en dépit de nos prédécesseurs qui avaient mille fois cinglé lOcéan, navait point encore été découverte aussi ny était-elle pas encore non plus que beaucoup dîles, de péninsules, et de montagnes, qui se sont soulevées sur notre globe, quand les rouillures du soleil qui se nettoie ont été poussées assez loin, et condensées en pelotons assez pesants pour être attirées par le centre de notre monde, possible peu à peu en particules menues, peut-être aussi tout à coup en une masse. Cela nest pas si déraisonnable, que saint Augustin ny eût applaudi, si la découverte de ce pays eût été faite de son âge, puisque ce grand personnage, dont le génie était éclairé du Saint-Esprit, assure que de son temps la terre était plate comme un four, et quelle nageait sur leau comme la moitié dune orange coupée. Mais si jai jamais lhonneur de vous voir en France, je vous ferai observer par le moyen dune lunette fort excellente que jai que certaines obscurités qui dici paraissent des taches sont des mondes qui se construisent. Mes yeux qui se fermaient en achevant ce discours obligèrent M. de Montmagny à me souhaiter le bonsoir. Nous eûmes, le lendemain et les jours suivants, des entretiens de pareille nature. Mais comme quelque temps après lembarras des affaires de la province accrocha notre philosophie, je retombai de plus belle au dessein de monter à la lune. Je men allais dés quelle était levée, parmi les bois, à la conduite et au réussit de mon entreprise. Enfin, un jour, la veille de Saint-Jean, quon tenait conseil dans le fort pour déterminer si on donnerait secours aux sauvages du pays contre les Iroquois, je men fus tout seul derrière notre habitation au coupeau dune petite montagne, où voici ce que jexécutai Avec une machine que je construisis et que je mimaginais être capable de mélever autant que je voudrais, je me précipitai en lair du faîte dune roche. Mais parce que je navais pas bien pris mes mesures, je culbutai rudement dans la vallée. Tout froissé que jétais, je men retournai dans ma chambre sans pourtant me décourager. Je pris de la moelle de boeuf, dont je moignis tout le corps, car il était meurtri depuis la tête jusquaux pieds et après mêtre fortifié le coeur dune bouteille dessence cordiale, je men retournai chercher ma machine. Mais je ne la retrouvai point, car certains soldats, quon avait envoyés dans la forêt couper du bois pour faire léchafaudage du feu de la Saint-Jean quon devait allumer le soir, layant rencontrée par hasard, lavaient apportée au fort. Après plusieurs explications de ce que ce pouvait être, quand on eut découvert linvention du ressort, quelques-uns avaient dit quil fallait attacher autour quantité de fusées volantes, pour ce que, leur rapidité layant enlevée bien haut, et le ressort agitant ses grandes ailes, i1 ny aurait personne qui ne prît cette machine pour un dragon de feu. Je la cherchai longtemps, mais enfin je la trouvai au milieu de la place de Québec, comme on y mettait le feu. La douleur de rencontrer louvrage de mes mains en un si grand péril me transporta tellement que je courus saisir le bras du soldat qui allumait le feu. Je lui arrachai sa mèche, et me jetai tout furieux dans ma machine pour briser lartifice dont elle était environnée mais jarrivai trop tard, car à peine y eus-je les deux pieds que me voilà enlevé dans la nue. Lépouvantable horreur dont je fus consterné ne renversa point tellement les facultés de mon âme, que je ne me sois souvenu depuis de tout ce qui marriva dans cet instant. Vous saurez donc que la flamme ayant dévoré un rang de fusées car on les avait disposées six à six, par le moyen dune amorce qui bordait chaque demi-douzaine un autre étage sembrasait, puis un autre, en sorte que le salpêtre embrasé éloignait le péril en le croissant. La matière toutefois étant usée fit que lartifice manqua et lorsque je ne songeais plus quà laisser ma tête sur celle de quelque montagne, je sentis sans que je remuasse aucunement mon élévation continuer, et ma machine prenant congé de moi, je la vis retomber vers la terre. Cette aventure extraordinaire me gonfla dune joie si peu commune que, ravi de me voir délivré dun danger assuré, jeus limpudence de philosopher dessus. Comme donc je cherchais des yeux et de la pensée ce qui pouvait être la cause de ce miracle, japerçus ma chair boursouflée, et grasse encore de la moelle dont je métais enduit pour les meurtrissures de mon trébuchement je connus quétant alors en décours, et la lune pendant ce quartier ayant accoutumé de sucer la moelle des animaux, elle buvait celle dont je métais enduit avec dautant plus de force que son globe était plus proche de moi, et que linterposition des nuées nen affaiblissait point la vigueur. Quand jeus percé, selon le calcul que jai fait depuis, beaucoup plus des trois quarts du chemin qui sépare la terre davec la lune, je me vis tout dun coup choir les pieds en haut, sans avoir culbuté en aucune façon. Encore ne men fus-je pas aperçu, si je neusse senti ma tête chargée du poids de mon corps. Je connus bien à la vérité que je ne retombais pas vers notre monde car encore que je me trouvasse entre deux lunes, et que je remarquasse fort bien que je méloignais de lune à mesure que je mapprochais de lautre, jétais très assuré que la plus grande était notre terre pour ce quau bout dun jour ou deux de voyage, les réfractions éloignées du soleil venant à confondre la diversité des corps et des climats, il ne mavait plus paru que comme une grande plaque dor ainsi que lautre cela me fit imaginer que jabaissais vers la lune, et je me confirmai dans cette opinion, quand je vins à me souvenir que je navais commencé de choir quaprès les trois quarts du chemin. Car, disais-je en moi-même, cette masse étant moindre que la nôtre, il faut que la sphère de son activité soit aussi moins étendue, et que, par conséquent, jaie senti plus tard la force de son centre. Après avoir été fort longtemps à tomber, à ce que je préjuge car la violence du précipice doit mavoir empêché de le remarquer, le plus loin dont je me souviens est que je me trouvai sous un arbre embarrassé avec trois ou quatre branches assez grosses que javais éclatées par ma chute, et le visage mouillé dune pomme qui sétait écachée contre. Par bonheur, ce lieu-là était, comme vous le saurez bientôt, le Paradis terrestre, et larbre sur lequel je tombai se trouva justement lArbre de Vie. Ainsi vous pouvez bien juger que sans ce miraculeux hasard, jétais mille fois mort. Jai souvent depuis fait réflexion sur ce que le vulgaire assure quen se précipitant dun lieu fort haut, on est étouffé auparavant de toucher la terre et jai conclu de mon aventure quil en avait menti, ou bien quil fallait que le jus énergique de ce fruit qui mavait coulé dans la bouche eût rappelé mon âme qui nétait pas loin dans mon cadavre encore tout tiède et encore disposé aux fonctions de la vie. En effet, sitôt que je fus à terre ma douleur sen alla auparavant même de se peindre en ma mémoire et la faim, dont pendant mon voyage javais été beaucoup travaillé, ne me fit trouver en sa place quun léger souvenir de lavoir perdue. À peine, quand je fus relevé, eus-je remarqué les bords de la plus large de quatre grandes rivières qui forment un lac en la bouchant, que lesprit ou lâme invisible des simples qui sexhalent sur cette contrée me vint réjouir lodorat les petits cailloux nétaient raboteux ni durs quà la vue ils avaient soin de samollir quand on marchait dessus. Je rencontrai dabord une étoile de cinq avenues, dont les chênes qui la composent semblaient par leur excessive hauteur porter au ciel un parterre de haute futaie. En promenant mes yeux de la racine jusquau sommet, puis les précipitant du faîte jusquau pied, je doutais si la terre les portait, ou si eux-mêmes ne portaient point la terre pendue à leur racine, on dirait que leur front superbement élevé pliait comme par force sous la pesanteur des globes célestes dont ils ne soutiennent la charge quen gémissant leurs bras étendus vers le ciel semblent en lembrassant demander aux astres la bénignité toute pure de leurs influences, et la recevoir, auparavant quelles aient rien perdu de leur innocence, au lit des éléments. Là, de tous côtés, les fleurs, sans avoir eu dautres jardiniers que la nature, respirent une haleine sauvage, qui réveille et satisfait lodorat là lincarnat dune rose sur léglantier, et lazur éclatant dune violette sous des ronces, ne laissant point de liberté pour le choix, vous font juger quelles sont toutes deux plus belles lune que lautre là le printemps compose toutes les saisons là ne germe point de plante vénéneuse que sa naissance ne trahisse sa conservation là les ruisseaux racontent leurs voyages aux cailloux là mille petites voix emplumées font retentir la forêt au bruit de leurs chansons et la trémoussante assemblée de ces gosiers mélodieux est si générale quil semble que chaque feuille dans le bois ait pris la langue et la figure dun rossignol écho prend tant de plaisir à leurs airs quon dirait à les lui entendre répéter quelle ait envie de les apprendre. À côté de ce bois se voient deux prairies, dont le vert gai continu fait une émeraude à perte de vue. Le mélange confus des peintures que le printemps attache à cent petites fleurs égare les nuances lune dans lautre et ces fleurs agitées semblent courir après elles-mêmes pour échapper aux caresses du vent. On prendrait cette prairie pour un océan, mais parce que cest une mer qui noffre point de rivage, mon oeil, épouvanté davoir couru si loin sans découvrir le bord, y envoyait vitement ma pensée et ma pensée doutant que ce fût la fin du monde, se voulait persuader que des lieux si charmants avaient peut-être forcé le ciel de se joindre à la terre. Au milieu dun tapis si vaste et si parfait, court à bouillons dargent une fontaine rustique qui couronne ses bords dun gazon émaillé de pâquerettes, de bassinets, de violettes, et ces fleurs qui se pressent tout à lentour font croire quelles se pressent à qui se mirera la première elle est encore au berceau, car elle ne fait que de naître, et sa face jeune et polie ne montre pas seulement une ride. Les grands cercles quelle promène, en revenant mille fois sur soi-même, montrent que cest bien à regret quelle sort de son pays natal et comme si elle eût été honteuse de se voir caressée auprès de sa mère, elle repoussa toujours en murmurant ma main folâtre qui la voulait toucher. Les animaux qui sy venaient désaltérer, plus raisonnables que ceux de notre monde, témoignaient être surpris de voir quil faisait grand jour sur lhorizon, pendant quils regardaient le soleil aux antipodes, et nosaient quasi se pencher sur le bord, de crainte quils avaient de tomber au firmament. Il faut que je vous avoue quà la vue de tant de belles choses je me sentis chatouillé de ces agréables douleurs, où on dit que lembryon se trouve à linfusion de son âme. Le vieux poil me tomba pour faire place à dautres cheveux plus épais et plus déliés. Je sentis ma jeunesse se rallumer, mon visage devenir vermeil, ma chaleur naturelle se remêler doucement à mon humide radical enfin je reculai sur mon âge environ quatorze ans. Javais cheminé demi-lieue à travers une forêt de jasmins et de myrtes, quand japerçus couché à lombre je ne sais quoi qui remuait cétait un jeune adolescent, dont la majestueuse beauté me força presque à ladoration. Il se leva pour men empêcher Et ce nest pas à moi, sécria-t-il fortement, cest à Dieu que tu dois ces humilités ! Vous voyez une personne, lui répondis-je, consternée de tant de miracles, que je ne sais par lequel débuter mes admirations car, en premier lieu, venant dun monde que vous prenez sans doute ici pour une lune, je pensais être abordé dans un autre que ceux de mon pays appellent la lune aussi et voilà que je me trouve en paradis, aux pieds dun dieu qui ne veut pas être adoré, et dun étranger qui parle ma langue. Hormis la qualité de dieu, me répliqua-t-il, ce que vous dites est véritable cette terre-ci est la lune que vous voyez de votre globe et ce lieu-ci où vous marchez est le paradis, mais cest le paradis terrestre où nont jamais entré que six personnes Adam, Eve, Enoch, moi qui suis le vieil Elie, saint Jean lEvangéliste, et vous. Vous savez bien comment les deux premiers en furent bannis, mais vous ne savez pas comme ils arrivèrent en votre monde. Sachez donc quaprès avoir tâté tous deux de la pomme défendue, Adam, qui craignait que Dieu, irrité par sa présence, ne rengrégeât sa punition, considéra la lune, votre terre, comme le seul refuge où il se pouvait mettre à labri des poursuites de son Créateur. Or, en ce temps-là, limagination chez lhomme était si forte, pour navoir point encore été corrompue, ni par les débauches, ni par la crudité des aliments, ni par laltération des maladies, quétant alors excité du violent désir daborder cet asile, et que toute sa masse étant devenue légère par le feu de cet enthousiasme, il y fut enlevé de la même sorte quil sest vu des philosophes, leur imagination fortement tendue à quelque chose, être emportés en lair par des ravissements que vous appelez extatiques. Eve, que linfirmité de son sexe rendait plus faible et moins chaude, naurait pas eu sans doute limaginative assez vigoureuse pour vaincre par la contention de sa volonté le poids de la matière, mais parce quil y avait très peu quelle avait été tirée du corps de son mari, la sympathie dont cette moitié était encore liée à son tout, la porta vers lui à mesure quil montait, comme lambre se fait suivre de la paille, comme laimant se tourne au septentrion doù il a été arraché, et Adam attira louvrage de sa côte comme la mer attire les fleuves qui sont sortis delle. Arrivés quils furent en votre terre, ils shabituèrent entre la Mésopotamie et lArabie les Hébreux lont connu sous le nom dAdam, et les idolâtres sous le nom de Prométhée, que leurs poètes feignirent avoir dérobé le feu du ciel, à cause de ses descendants quil engendra pourvus dune âme aussi parfaite que celle dont Dieu lavait rempli. Ainsi pour habiter votre monde, le premier homme laissa celui-ci désert mais le Tout-Sage ne voulut pas quune demeure si heureuse restât sans habitants il permit peu de siècles après quEnoch, ennuyé de la compagnie des hommes, dont linnocence se corrompait, eût envie de les abandonner. Mais ce saint personnage ne jugea point de retraite assurée contre lambition de ses parents qui ségorgeaient déjà pour le partage d</t>
+          <t>Maintenant t'es grand, aujourd'hui t'as sept ans Solitaire à l'arrêt d'bus, le bonheur tu l'attends Le feu, t'as compris seul qu'il fallait pas y toucher Devant la rivière, tu sais même pas faire d'ricochet À la piscine tu nages comme une pierre Personne t'as fait goûter ta première bière Même Bart Simpson, lui il en a Tu sauras jamais jouer au foot et ça Parce que T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Triste, ton petit cur est tout cassé T'en as assez d'pas savoir faire tes lacets T'as des croûtes aux genoux à force de tomber d'vélo Tu sais pas non plus serrer ton kimono Tu t'demandes à quoi peuvent bien servir tous ces poils Et si ton poisson rouge est parti dans les étoiles Les gosses te jettent des cailloux c'est injuste C'est pas qu't'es moche mais c'est juste Que T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà T'as une maman alors fais pas ton caprice par terre D'ailleurs elle t'as acheté une nouvelle paire de rollers Avec lesquels tu dévales les pentes de la vie Mon petit, la famille est juste à demi Tu t'imagines que ton jardin est une savane Mais dans l'arbre, personne te construira d'cabane À moitié orphelin, c'est mieux que rien Alors putain de quoi tu t'plains T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Il t'aurait amené à la découverte de tant de choses Te caressant la joue quand ton blues est morose Ensemble rire en chur devant l'dernier Pixar Ou rire plus fort encore devant Mamie et ses escarres Faire de longues balades en forêt Mettre la table à deux, manger comme des gorets Alors tu pries l'Seigneur en lui criant pourquoi? Sûrement qu'Dieu nous aime... Sauf toi T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Radio libre</t>
+          <t>Totem et tabou</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C'est Delleck, le leader d'ceux qu'en ont marre Mon armée c'est vous et tous ceux qui veulent encore y croire En pirate des ondes, je place mes bombes vocales Pendant qu'les snipers m'cherchent dans leurs focales Bancal à souhait, sur rythme anti-clean J'resterai MC, gourou fou comme Aphex Twin Si vous m'coupez, j'fais tout péter J'ai une ceinture de D.A.T. explosive, de quoi faire sauter les fêtards Y a trop de merde sur mégahertz, putain l'rap est mourant Alors j'fous des mégas d'ram pour mes beats contre-courant Je veux toujours qu'ça booste dans les boomers Bosse pour faire péter le son et le léguer à nos gosses J'ai du flow dans l'accent, l'expression en dit long sur mon compte Sais éveiller l'intérêt qui me botte, comme de mêler l'utile et l'agréable J'suis là pour bénir l'oracle d'une prophétie prescrite par les anciens Lancelot du mic braquant sous musical circus Quel fantastique spécimen rap XXX à puce Moi c'est le Jouage, écrit comme ça se prononce J'ai l'don d'voir tout donc profitons-en, XXX notre jargon Ce n'est pas très complexe de comprendre mon sens Sur le net j'en ai fait un jeu-réponses pour gagner des millions C'est une combinaison attractive donc tout bénéf Duo de MC deux fois le Jouage et Delleck En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat J'aurais voulu être l'artiste qui met fin à sa détresse Le Jouage optimiste dit que XXX partout dans mes scripts Dans mes brouillons calligraphes la source de mes nectars Fleurissent les ébauches de mes pensées Des grailleurs de pages blanches J'suis une agence matrimoniale qui marie textes et instrus Le dire c'est énoncer l'critère de ma bataille L'idéal c'est quand le cohérent sonne doux à mon oreille Comme le chant d'une charnelle jouissant d'un fort potentiel C'est comme de rouler en Lexus Que mes ex me sucent Luxure en bonus, sur fond de paresse en plus C'est qu'on va nous prendre pour des fous ma parole T'façon on est venus envahir le show à coup de micro Comme pour le champ magnétique j'ai d'la résonance Même en stéréo c'qui donne de l'écho à mon rap idéaux Quand j'surfe sur mon tuner radio J'y entends qu'des sons aussi niais que Faudel en promo C'est dingue, même en mixtape, les mecs tapent plus sur des mix style Alors que sur FM c'est naze Skyrock Maintenant infiltrés, on fout le feu tous les ouais fils Des MC dormeurs juste bons à fumer des spliffs et Contre la World Company, j'ai ma horde de compagnons Pour mener campagne même si c'est pas gagné Libre comme Mel Gibson en guerrier écossais Je signe Delleck à coup d'instrus bien bossées En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat C'est James Delleck et Hustla En radio libre, comme sur Nova d'antan Entends l'écho d'l'attentat</t>
+          <t>Quand tu t'hérisses, je gonfle mes harmoniques Mon iris glisse sur le sentier des poussières syllabiques Dans une onde à la force tellurique, je déforme mon Spencer En te fixant, mes sourcils gonflés par la sueur Sans rictus, le chant des cactus nous épie Deux divins Spartacus sans cursus ni répit Il n'y a plus de mécanique céleste, plus de marée, plus de courant Plus de nuit, plus de naissance, plus de mourant Totem et tabou Totem et tabou Juste moi contre le maître de Solaris Je jette un dernier regard sur ma fleur de lys Et je gronde d'un pouvoir qui vous échappe Ma lumière emplit l'espace, déjà ton pied dérape C'est le dernier combat, la dernière pierre d'une guerre liquide Entre Jéhovah et son fils dans un duel fratricide Sens-tu l'air comme déjà il semble moins amer C'est sans colère que je te dis c'est fini père Totem et tabou Totem et tabou Le désert se ride, les dunes deviennent pâles L'océan se fige, les salives se ravalent Palpable chez les sapiens la tension se ressent Sans cri ni son ton vide s'étire en m'aveuglant Les mâchoires crispées dans un arrière-plan bleuet Tes prêtres n'auront plus de bouche puisque les livres saints seront muets Tes mots ne résonnent plus, les parois n'ont plus d'écho Il en a fallu des bévues pour que tu n'aies plus ton halo Totem et tabou Totem et tabou Je te terrasse en un éclair là où tu poses genou à terre Les hommes en feront un sanctuaire pour des millénaires Pour chaque âme il faudra vous reconstruire Sous chaque arbre vous devrez vous réunir C'est chaque étoile qu'il faudra renommer Chaque souvenir qu'il faudra pardonner Ta dépouille se disperse enfin dans toute l'humanité Ainsi tes petites créatures pourront peut-être évoluer Totem et tabou Totem et tabou1</t>
         </is>
       </c>
     </row>
@@ -1308,129 +1308,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sans fin</t>
+          <t>UFO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>JAMES DELLECK Jai enfin franchi les portes du ciel, au-delà du voile nocturne Je me dilue sans fin dans les anneaux de Saturne Chevauchant une hydre a deux têtes non muselées Mes rimes fuselées hissent les mots jusqu'à Cassiopée Né dans un chant de briques, je mévade au plus haut Ravivant le chaos qui bouillonne sous ma peau Dans le creux du vide astral, le verbe est manié De ma tanière, je rugis comme un tigre de papier Quelquefois lassé, je mentrelace détoiles filantes Les lueurs se reflètent sur ma rétine luisante Enchaîné hier Libre demain Insensible a lesbroufe des révolutionnaires mondains Ma déviance se déplace au travers des trous de ver Troubadours de la science nous ne sommes que particules de poussières Asséchés par le vent solaire les soucis se consument Alors doucement je massoupit sur un lit de lunes ! Refrain x4 Infini LE JOUAGE Mon texte a prit naissance dans un monospace sur une boucle de Moebius Pour finir sur le toit dun starminus Il était une fois le noir total ayant lenvie de conquérir la lumière Un rêve qui prit forme malgré toutes ces années évanouies Le Jouage provoque la tache indélébile mon corps astral Nage dans le vide il se libère de sa prison mentale Sillonnant les voies lactées en thématique Je discute avec Rodolph Ertel de son uvre cosmique Une effluve de souffrance sharmonise dans un souffle de vie Jattends une réponse alors que les mots troublent le sommeil et glissent sur mon écorce Dans un langage corporel la symphonie sconjugue Dans une suite de respirations et d'inspirations Alors que lombre laisse place aux premières lueurs du jour Un parfum de victoire écume de ma silhouette a son tour Noyé dans livresse je renais à nouveau Comme lhistoire sans fin du cycle infini dune goutte deau Refrain x6</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>James Delleck</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>S’enterrer vivant</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Dis oncle James euh c'est quoi l'amour ? L'amour, l'amour, tu m'emmerdes... Alors, amorçage, amoché, amortisseur... Amour Nom masculin, attraction passionnée Attirance affective et sexuelle d'un être humain pour un autre être humain Émotion pouvant déclencher des effets secondaires comme Moiteur des mains et sécheresse buccale Ton lobe frontal en discernement minimal Pris dans la spirale, du feu hormonal Des sautes d'humeur passent du sombre au boréal Quand tes sentiments ne sont pas séminales Il arrive que ton il devienne floral Alors tu t'fous du lendemain, le pouls en rafale Fixant bêtement ton bol de céréales Tu fais des poèmes avec ses initiales Rêve de la dévorer façon rorqual Ça s'emballe, tu réduis ta focale Toutes les autres te sont égales Même les incassables sont friables La pluie le vent te deviennent agréables Vulnérable et animal Dans ses interstices tu tintercales S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant Des ailes te poussent sur les cils Toutes tes cicatrices deviennent fossiles Ta flamme te consume de lintérieur Suffoquant, tu t'habitues à la douleur Tes crocs deviennent dociles Son nombril est ta presquîle Du pire tu tires le meilleur Pour une fois que tes peurs prennent des couleurs Dressé comme une fleur réhydratée Elle est ton arche, tu es son Noé Comme décapité de la réalité Irradié par un halo d'barbelés Fragile tel un bouton d'rosée Puissant comme un shoot bien dosé Inconscient face aux dégâts causés En amour il faut juste oser S'enterrer vivant Devant son regard béant Et laisser l'temps en suspens jusqu'à faire bouillir ton sang S'enterrer vivant Succomber à ton touchant Pour s'enterrer vivant dans son décolleté plongeant</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>James Delleck</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Sonate pour une gouttelette</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>J'ai grandi lentement sur le bord d'une bouche de métal Pendant qu'd'autres ont la chance d'être la rosée sur un pétale Personne ne prend conscience de mon réel J'ai dans le corps toutes les couleurs de l'arc-en-ciel Je sens qu'il va falloir que je m'élance Je laisse derrière tous mes souvenirs d'enfance Plus je grandis, plus j'ai le vertige de la vie Plus je grossis et plus le vide m'attire vers lui Adieu je me décroche de la plate-forme Je tombe, caressée par le vent qui me déforme Je vole et virevolte malgré l'implacable trajectoire Éole, fais-moi danser ou fais-moi le croire Trop vite, la vasque approche dangereusement Pourtant j'ai prié, espérant arrêter le temps Mais... a y est, il fait tout noir Je m'suis éparpillée comme les éclats d'un vieux miroir Je n'étais qu'une petite gouttelette au sourire muet À travers moi, la lumière se sublimait Juste une petite gouttelette inutile et délicate Qui une fois morte avait bien droit à sa sonate</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>James Delleck</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Soudaine Montée D’Adrénaline Dans L’Eloge</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Mon backstage au bout d'un lacet Ressens jusqu'au moindre et indicible coup d'stress Que laisse trahir mon buste essoufflé Le plexus solaire rayonne pendant qu'l'hypophyse frémit Donc j'm'essuie les mains aux excès d'sébum sur l'baggy d'Teki Le visage livide, j'répète mes textes hybrides Avec la hantise de faire un bide devant une salle devenue vide Je m'sens seul comme un moineau sous l'orage Alors j'bouffe des céréales aux ailerons d'requin pour m'donner du courage Sur les nerfs, j'espère foutre la foule en transe Et j'ai foi vu qu'en scène notre hip-hop fait acte de résistance OK, mais t'es pas anxieux d'te faire siffler? Non J'ai comme gri-gri un collier fait avec les dents d'lait d'Alizée À J moins dix secondes, on m'file le HF ma grenade Excité, c'soir j'vais exister en faisant gronder les façades Ma chevelure apparaît dans la lumière, les MD des fans sont en rec Alors j'enchaîne avec C'est qui James Delleck Putain d'merde, les gars, j'ai des montées Quelque chose fait vibrer mon corps, je suis stressé Mais mes émotions sont dressées depuis un certain temps Aucun sentiment n'est véhiculé, est-ce un tort? Cependant en ce moment-même, j'suis en train d'tuer la scène J'ai des penchants pour l'obscène Donc on ramène cette chakra d'plastique Statique, c'est une nympho gonflable Le public acclame puis les lumières s'éteignent C'est une montée d'adrénaline D'un trait j'aligne mon mouvement des ruelles Le monument est ma proie, ce morceau de ciment est à moi Certains passants interloqués font la loi Le surplus coule, le mur mouille, je lui fais l'amour Me grouille tel un éjaculateur précoce Féroce, le sperme se fixe, derrière moi la police Retentissent les sirènes, une réelle Montée d'adrénaline qui ma personne contamine J'en suis la victime, choisis d'être la cible, té-je des bombes et m'casse Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline Sa salive déglutir Dans les sables mouvants d'ses peurs S'engloutir et ne plus s'investir L'adrénaline sur un starting-block Des fonctions analysatrices se mettent en marche Comme XXX je fais le vide Ton esprit ventile, évacue tout facteur de stress Le micro combustible, j'ai de l'essence dans le corps J'suis pas un MC comestible qui avance pour un sucre d'orge J'aime les bains d'foule La transpiration des corps en contact des autres Quand j'délivre des algorithmes XXX ma façon bulldozer a traversé l'espace du XXX On s'remet en question, qu'on puisse nous dire c'est net Écoute comme j'me contrôle À l'épiderme aucune chair de poule, faut pas qu'j'extrapole Afin qu'les subtilités soient respectées dans le protocole de ma montée en puissance Impeccable et de manière orchestrale Faire en sorte que l'énorme effort fourni par mes ennemis S'anéantisse, et de lui-même J'escalade la scène même si j'ai le vertige J'assume, cette fois-ci j'assure, j'inspire J'expire et chasse toute distraction de mon esprit À peine le temps d'réagir et je suis déjà parti Mes muscles me lâchent sans m'avertir Comme au moment d'm'endormir, je sens que je tombe dans le vide J'entends ma voix dans les enceintes et mon cur palpiter À travers chacune de mes extrémités C'est la panique, toutes mes facultés sont décuplées Mais ma gorge est paralysée, c'est pathétique Quand je crie c'n'est qu'un soupir qui dans la salle s'éparpille J'me sens si bien, j'ai la chair de poule, j'ai l'âme saoule Lorsque j'ouvre les yeux, des larmes coulent Une peur énorme forme dans ma gorge une large boule Pourtant je me sens confiant en regardant le public s'approcher J'aimerais que l'atmosphère soit tangible afin de m'y accrocher Tellement je perds mes repères et le sens de l'équilibre Ivre, heureux de vivre C'est la salle toute entière qui vibre dans le creux de ma main qui tremble Il me semble que fine est la ligne qui sépare le stress de la motivation L'adrénaline Le stress s'accumule, la foule m'examine TTC superstar on illumine les abymes Lorsque les balances sont faites, la salle se tient prête L'angoisse me monte à la tête, c'est une poussée d'adrénaline</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>James Delleck</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Ta gueule</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Dimanche pendant la messe j'ai crié ferme ta gueule! Comme un déclic maintenant libéré J'crache des ferme ta gueule! Hein? c'est pour ça qu'vous m'avez radié? Non mais ferme ta gueule! Malgré la grève, tu contrôles mes billets? Tu sais quoi ferme ta gueule! Monsieur du téléachat faudrait quand même qu'tu fermes ta gueule! Ah ouais? Patron fais-nous plaisir et ferme ta gueule! Ton putain de chien qui aboie toute la nuit L'ordi qui bugge, mais hors garantie Ton air qui sait tout, ton haleine d'épagneul Me rendent pas content alors fermez vos gueules! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Quoi, quoi? C'est ça mes agios? Mais ferme ta gueule! A ton coach de vie n'hésite pas balance-lui ferme ta gueule! Ramène-le moi ton ado rebelle qu'j'lui dise ferme ta gueule! Hier t'as croisé Michael Jackson? Pff... mais ferme ta gueule! Taxi t'as priorité à gauche, ah bon? Mais ferme ta gueule! Viens pas chialer tu l'as élu alors ferme ta gueule! Aussi poli qu'un Gérard à jeun Étonnant comme des dents dans un vagin Poétique comme un clodo qui dégueule Devant nos vies en disant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule! Tu penses que j'en fais trop avec mes ferme ta gueule! Désolé, syndrome Gilles de la Tourette alors ferme ta gueule! Hein? Moi, tu m'trouves impoli? Allez ferme ta gueule! Please, Christophe Maé, ça serait vraiment bien qu'tu fermes ta gueule! Petit con avec ton T-shirt du Che, mais ferme ta gueule! Mère, vous serait-il possible que tu fermes ta gueule! Conditionné, préparé, fabriqué pour qu'tu fermes ta gueule! Là c'est le moment d'bouger comme des rageux En criant ferme ta gueule! J'aimerais s'il te plaît Et j'suis pas l'seul Dans la mesure du possible Que tu fermes ta gueule!1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>James Delleck</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>T’as pas d’papa</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Maintenant t'es grand, aujourd'hui t'as sept ans Solitaire à l'arrêt d'bus, le bonheur tu l'attends Le feu, t'as compris seul qu'il fallait pas y toucher Devant la rivière, tu sais même pas faire d'ricochet À la piscine tu nages comme une pierre Personne t'as fait goûter ta première bière Même Bart Simpson, lui il en a Tu sauras jamais jouer au foot et ça Parce que T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Triste, ton petit cur est tout cassé T'en as assez d'pas savoir faire tes lacets T'as des croûtes aux genoux à force de tomber d'vélo Tu sais pas non plus serrer ton kimono Tu t'demandes à quoi peuvent bien servir tous ces poils Et si ton poisson rouge est parti dans les étoiles Les gosses te jettent des cailloux c'est injuste C'est pas qu't'es moche mais c'est juste Que T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà T'as une maman alors fais pas ton caprice par terre D'ailleurs elle t'as acheté une nouvelle paire de rollers Avec lesquels tu dévales les pentes de la vie Mon petit, la famille est juste à demi Tu t'imagines que ton jardin est une savane Mais dans l'arbre, personne te construira d'cabane À moitié orphelin, c'est mieux que rien Alors putain de quoi tu t'plains T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà Il t'aurait amené à la découverte de tant de choses Te caressant la joue quand ton blues est morose Ensemble rire en chur devant l'dernier Pixar Ou rire plus fort encore devant Mamie et ses escarres Faire de longues balades en forêt Mettre la table à deux, manger comme des gorets Alors tu pries l'Seigneur en lui criant pourquoi? Sûrement qu'Dieu nous aime... Sauf toi T'as pas d'papa T'as pas d'papa T'as pas d'papa T'as pas d'papa Voilà</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>James Delleck</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Totem et tabou</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Quand tu t'hérisses, je gonfle mes harmoniques Mon iris glisse sur le sentier des poussières syllabiques Dans une onde à la force tellurique, je déforme mon Spencer En te fixant, mes sourcils gonflés par la sueur Sans rictus, le chant des cactus nous épie Deux divins Spartacus sans cursus ni répit Il n'y a plus de mécanique céleste, plus de marée, plus de courant Plus de nuit, plus de naissance, plus de mourant Totem et tabou Totem et tabou Juste moi contre le maître de Solaris Je jette un dernier regard sur ma fleur de lys Et je gronde d'un pouvoir qui vous échappe Ma lumière emplit l'espace, déjà ton pied dérape C'est le dernier combat, la dernière pierre d'une guerre liquide Entre Jéhovah et son fils dans un duel fratricide Sens-tu l'air comme déjà il semble moins amer C'est sans colère que je te dis c'est fini père Totem et tabou Totem et tabou Le désert se ride, les dunes deviennent pâles L'océan se fige, les salives se ravalent Palpable chez les sapiens la tension se ressent Sans cri ni son ton vide s'étire en m'aveuglant Les mâchoires crispées dans un arrière-plan bleuet Tes prêtres n'auront plus de bouche puisque les livres saints seront muets Tes mots ne résonnent plus, les parois n'ont plus d'écho Il en a fallu des bévues pour que tu n'aies plus ton halo Totem et tabou Totem et tabou Je te terrasse en un éclair là où tu poses genou à terre Les hommes en feront un sanctuaire pour des millénaires Pour chaque âme il faudra vous reconstruire Sous chaque arbre vous devrez vous réunir C'est chaque étoile qu'il faudra renommer Chaque souvenir qu'il faudra pardonner Ta dépouille se disperse enfin dans toute l'humanité Ainsi tes petites créatures pourront peut-être évoluer Totem et tabou Totem et tabou1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>James Delleck</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>UFO</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>Je suis ? du rap donc tous veulent me disséquer le Cortex au scalpel et me faire des tests kinésiques Même vu par David Vincent je reste antique Vu que ni l'unique Fox n'est apte à me choper La air force effacée d'un coup de puissance de feu Foutaises comme quoi on croupirait confiné en zone 51 enfantin Je crois que votre infanterie bye bye foutrait en l'air nos fast styles UFO flow fait vroom vroom sorti des caissons de basses Pour buter les wacks de base Alors je fous le trouble pire que lil d'un myope Et brille fort comme le 6ème soleil de Cassiopée X2 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer Moi Le Jouage vouloir téléphone maison quand vu dans télévision mon étrange Moi prendre téléphone mobile commandé dans téléachat yabon Moi dire eux m'auront pas de ces comptines avec l'accent t'as pas l'air con C'est comme dirait mon pote je te fais savoir comme Chewbacca je suis un dans Star Wars En fait on est mal vu on est toujours à perdre dans leur projecteur d'image à Ça rime avec schmit clique, non? non C'est comme dans cette émission mystère du coup? est mon Faut faire gaffe mec c'est que j'ai pas envie de finir comme ces pauvres gars des affaires non classées Moi le X2 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer Venu de la galaxie pour malaxer suicide et cervelle Pour se relaxer faut maxi, taxer tout ici ça mémerveille Je rentre dans la surface plein de terre de la planète terre Ils vont me dire oh t'es pas net merde En voyant ma pure face neuve, débarquement j'atterris dans ton département Venu d'ailleurs, d'ailleurs mange pas mon tailleur oh mais garnements Tu dans les parcs et appartement je passe un message casse, jacasse, fracasse Car appartenant à la race inconnue genre prédateur dans le Predator Je mets à mort, élabore pour ce faire tout est prêt à bord sonnent faux? Pour ton info j'aimerai miner le globe j'en gobe 2-3 avant de tous les exterminer X4 UFO aliens aliéné de son Fuir il faut, efface toute trace de notre jargon Infiltrer la planète dans un style discret Observer la race humaine pour envahir et tout sinistrer UFO</t>
         </is>
